--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -979,43 +979,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,13 +1003,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1063,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,22 +1087,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2969,7 +2969,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="BM6" sqref="BM6"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="AD20" sqref="AD20"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3012,109 +3012,109 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="63" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="63" t="s">
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="63" t="s">
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
       <c r="BG1" s="51"/>
       <c r="BH1" s="44"/>
       <c r="BI1" s="44"/>
       <c r="BJ1" s="29"/>
-      <c r="BK1" s="80" t="s">
+      <c r="BK1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="BL1" s="81"/>
-      <c r="BM1" s="66" t="s">
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="64" t="s">
+      <c r="BN1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" s="64" t="s">
+      <c r="BO1" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="BP1" s="64" t="s">
+      <c r="BP1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="BQ1" s="64" t="s">
+      <c r="BQ1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BR1" s="64" t="s">
+      <c r="BR1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="64" t="s">
+      <c r="BS1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BT1" s="64" t="s">
+      <c r="BT1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="80" t="s">
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="74"/>
+      <c r="BX1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="81"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="82"/>
     </row>
     <row r="2" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3124,143 +3124,143 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
       <c r="W2" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
       <c r="AE2" s="59"/>
       <c r="AF2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
       <c r="AM2" s="59"/>
       <c r="AN2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AO2" s="60" t="s">
+      <c r="AO2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="60" t="s">
+      <c r="AP2" s="63" t="s">
         <v>5</v>
       </c>
       <c r="AQ2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="60" t="s">
+      <c r="AR2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="73" t="s">
+      <c r="AS2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="60" t="s">
+      <c r="AT2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AU2" s="60" t="s">
+      <c r="AU2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="60" t="s">
+      <c r="AV2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AW2" s="60" t="s">
+      <c r="AW2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="60" t="s">
+      <c r="AX2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AY2" s="60" t="s">
+      <c r="AY2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AZ2" s="60" t="s">
+      <c r="AZ2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="73" t="s">
+      <c r="BA2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="BB2" s="60" t="s">
+      <c r="BB2" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="BC2" s="60" t="s">
+      <c r="BC2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BD2" s="60" t="s">
+      <c r="BD2" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="60" t="s">
+      <c r="BE2" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="60" t="s">
+      <c r="BF2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="60" t="s">
+      <c r="BG2" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="60" t="s">
+      <c r="BH2" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="77"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="78"/>
       <c r="BM2" s="59"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60" t="s">
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="67" t="s">
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="BX2" s="71"/>
-      <c r="BY2" s="55"/>
-      <c r="BZ2" s="55"/>
-      <c r="CA2" s="72"/>
-      <c r="CB2" s="84"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="57"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="88"/>
     </row>
     <row r="3" spans="1:80" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3288,125 +3288,125 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/57</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="67"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="60" t="s">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="60" t="s">
+      <c r="X3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="60" t="s">
+      <c r="Y3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AB3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="68" t="s">
+      <c r="AC3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="60" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="60" t="s">
+      <c r="AG3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="60" t="s">
+      <c r="AH3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="56" t="s">
+      <c r="AI3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="68" t="s">
+      <c r="AJ3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="70"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="62"/>
       <c r="AN3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="78"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="79"/>
       <c r="BM3" s="59"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60" t="s">
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="63"/>
+      <c r="BS3" s="63"/>
+      <c r="BT3" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="BU3" s="56" t="s">
+      <c r="BU3" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="BV3" s="60"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="73" t="s">
+      <c r="BV3" s="63"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="85"/>
+      <c r="BY3" s="63"/>
+      <c r="BZ3" s="63"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="89"/>
     </row>
     <row r="4" spans="1:80" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3416,18 +3416,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="67"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
       <c r="T4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3437,12 +3437,12 @@
       <c r="V4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
       <c r="AC4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3452,10 +3452,10 @@
       <c r="AE4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="57"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="85"/>
       <c r="AJ4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3471,46 +3471,46 @@
       <c r="AN4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="79"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="80"/>
       <c r="BM4" s="59"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="57"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="73"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="86"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="63"/>
+      <c r="BS4" s="63"/>
+      <c r="BT4" s="63"/>
+      <c r="BU4" s="85"/>
+      <c r="BV4" s="63"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="63"/>
+      <c r="BZ4" s="63"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="90"/>
     </row>
     <row r="5" spans="1:80" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3982,58 +3982,58 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="90">
+      <c r="H7" s="71">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="55">
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="57">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55">
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
       <c r="W7" s="58">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
       <c r="AA7" s="32"/>
       <c r="AB7" s="32"/>
-      <c r="AC7" s="55">
+      <c r="AC7" s="57">
         <f>SUM(AC5:AE5)</f>
         <v>3</v>
       </c>
-      <c r="AD7" s="55"/>
+      <c r="AD7" s="57"/>
       <c r="AE7" s="59"/>
       <c r="AF7" s="58">
         <f>SUM(AF5:AI5)</f>
         <v>4</v>
       </c>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55">
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57">
         <f>SUM(AJ5:AM5)</f>
         <v>4</v>
       </c>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
       <c r="AM7" s="59"/>
       <c r="AN7" s="46"/>
       <c r="AO7" s="21">
@@ -4044,67 +4044,67 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ7" s="73">
+      <c r="AQ7" s="64">
         <f>SUM(AQ5:AR5)</f>
         <v>1</v>
       </c>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="71">
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="55">
         <f>SUM(AS5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="73">
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="64">
         <f>SUM(BA5:BF5)</f>
         <v>5</v>
       </c>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
       <c r="BG7" s="49"/>
       <c r="BH7" s="42"/>
       <c r="BI7" s="42"/>
       <c r="BJ7" s="27"/>
-      <c r="BK7" s="71">
+      <c r="BK7" s="55">
         <f>SUM(BK5:BL5)</f>
         <v>0</v>
       </c>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="71">
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="55">
         <f>SUM(BM5:BR5)</f>
         <v>5</v>
       </c>
-      <c r="BN7" s="55"/>
-      <c r="BO7" s="55"/>
-      <c r="BP7" s="55"/>
-      <c r="BQ7" s="55"/>
-      <c r="BR7" s="55"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
+      <c r="BQ7" s="57"/>
+      <c r="BR7" s="57"/>
       <c r="BS7" s="19">
         <f t="shared" ref="BS7:BS8" si="1">BS5</f>
         <v>1</v>
       </c>
-      <c r="BT7" s="55">
+      <c r="BT7" s="57">
         <f>SUM(BT5:BW5)</f>
         <v>4</v>
       </c>
-      <c r="BU7" s="55"/>
-      <c r="BV7" s="55"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="71">
+      <c r="BU7" s="57"/>
+      <c r="BV7" s="57"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="55">
         <f>SUM(BX5:CA5)</f>
         <v>2.5</v>
       </c>
-      <c r="BY7" s="55"/>
-      <c r="BZ7" s="55"/>
-      <c r="CA7" s="72"/>
+      <c r="BY7" s="57"/>
+      <c r="BZ7" s="57"/>
+      <c r="CA7" s="56"/>
       <c r="CB7" s="25">
         <f>CB5</f>
         <v>0.5</v>
@@ -4118,58 +4118,58 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="87">
+      <c r="H8" s="67">
         <f>SUM(H6:M6)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="55">
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="57">
         <f>SUM(N6:S6)</f>
         <v>11</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55">
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
       <c r="W8" s="58">
         <f>SUM(W6:AB6)</f>
         <v>15</v>
       </c>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55">
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57">
         <f>SUM(AC6:AE6)</f>
         <v>14</v>
       </c>
-      <c r="AD8" s="55"/>
+      <c r="AD8" s="57"/>
       <c r="AE8" s="59"/>
       <c r="AF8" s="58">
         <f>SUM(AF6:AI6)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55">
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57">
         <f>SUM(AJ6:AM6)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
       <c r="AM8" s="59"/>
       <c r="AN8" s="46"/>
       <c r="AO8" s="21">
@@ -4180,67 +4180,67 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ8" s="73">
+      <c r="AQ8" s="64">
         <f>SUM(AQ6:AR6)</f>
         <v>1</v>
       </c>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="71">
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="55">
         <f>SUM(AS6:AZ6)</f>
         <v>14</v>
       </c>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
-      <c r="AV8" s="55"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
-      <c r="AY8" s="55"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="73">
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="64">
         <f>SUM(BA6:BF6)</f>
         <v>28</v>
       </c>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
       <c r="BG8" s="49"/>
       <c r="BH8" s="42"/>
       <c r="BI8" s="42"/>
       <c r="BJ8" s="27"/>
-      <c r="BK8" s="71">
+      <c r="BK8" s="55">
         <f>SUM(BK6:BL6)</f>
         <v>0</v>
       </c>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="71">
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="55">
         <f>SUM(BM6:BR6)</f>
         <v>15</v>
       </c>
-      <c r="BN8" s="55"/>
-      <c r="BO8" s="55"/>
-      <c r="BP8" s="55"/>
-      <c r="BQ8" s="55"/>
-      <c r="BR8" s="55"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
+      <c r="BP8" s="57"/>
+      <c r="BQ8" s="57"/>
+      <c r="BR8" s="57"/>
       <c r="BS8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BT8" s="55">
+      <c r="BT8" s="57">
         <f>SUM(BT6:BW6)</f>
         <v>15</v>
       </c>
-      <c r="BU8" s="55"/>
-      <c r="BV8" s="55"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="71">
+      <c r="BU8" s="57"/>
+      <c r="BV8" s="57"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="55">
         <f>SUM(BX6:CA6)</f>
         <v>2</v>
       </c>
-      <c r="BY8" s="55"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="72"/>
+      <c r="BY8" s="57"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="56"/>
       <c r="CB8" s="25">
         <f>CB6</f>
         <v>0</v>
@@ -29706,28 +29706,66 @@
   </sheetData>
   <autoFilter ref="AU2:AW4"/>
   <mergeCells count="106">
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BT8:BW8"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AJ7:AM7"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BM7:BR7"/>
-    <mergeCell ref="BT7:BW7"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="BO1:BO4"/>
-    <mergeCell ref="BP1:BP4"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BQ1:BQ4"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:AP1"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="BX7:CA7"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BT1:BW1"/>
+    <mergeCell ref="BR1:BR4"/>
+    <mergeCell ref="BS1:BS4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BM4"/>
+    <mergeCell ref="BN1:BN4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AQ8:AR8"/>
     <mergeCell ref="AS8:AZ8"/>
@@ -29752,66 +29790,28 @@
     <mergeCell ref="AS7:AZ7"/>
     <mergeCell ref="BA7:BF7"/>
     <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BX7:CA7"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="BT3:BT4"/>
-    <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="BR1:BR4"/>
-    <mergeCell ref="BS1:BS4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BM4"/>
-    <mergeCell ref="BN1:BN4"/>
-    <mergeCell ref="BU3:BU4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:AP1"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BT8:BW8"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BM7:BR7"/>
+    <mergeCell ref="BT7:BW7"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="BO1:BO4"/>
+    <mergeCell ref="BP1:BP4"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BQ1:BQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
     <cfRule type="cellIs" dxfId="223" priority="258" operator="between">

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -982,43 +982,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,13 +1006,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1066,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,22 +1090,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3056,7 +3056,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="T6" sqref="T6"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3099,109 +3099,109 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="64" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="64" t="s">
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
       <c r="BG1" s="51"/>
       <c r="BH1" s="44"/>
       <c r="BI1" s="44"/>
       <c r="BJ1" s="29"/>
-      <c r="BK1" s="81" t="s">
+      <c r="BK1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="67" t="s">
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="65" t="s">
+      <c r="BN1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" s="65" t="s">
+      <c r="BO1" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="BP1" s="65" t="s">
+      <c r="BP1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="BQ1" s="65" t="s">
+      <c r="BQ1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="BR1" s="65" t="s">
+      <c r="BR1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="65" t="s">
+      <c r="BS1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="BT1" s="65" t="s">
+      <c r="BT1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="81" t="s">
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="75"/>
+      <c r="BX1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="84"/>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="82"/>
+      <c r="BY1" s="88"/>
+      <c r="BZ1" s="88"/>
+      <c r="CA1" s="88"/>
+      <c r="CB1" s="83"/>
     </row>
     <row r="2" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3211,143 +3211,143 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
       <c r="W2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
       <c r="AE2" s="60"/>
       <c r="AF2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
       <c r="AM2" s="60"/>
       <c r="AN2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AO2" s="61" t="s">
+      <c r="AO2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="61" t="s">
+      <c r="AP2" s="64" t="s">
         <v>5</v>
       </c>
       <c r="AQ2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="61" t="s">
+      <c r="AR2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="74" t="s">
+      <c r="AS2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="61" t="s">
+      <c r="AT2" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="AU2" s="61" t="s">
+      <c r="AU2" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AV2" s="61" t="s">
+      <c r="AV2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AW2" s="61" t="s">
+      <c r="AW2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AX2" s="61" t="s">
+      <c r="AX2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AY2" s="61" t="s">
+      <c r="AY2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AZ2" s="61" t="s">
+      <c r="AZ2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="74" t="s">
+      <c r="BA2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="BB2" s="61" t="s">
+      <c r="BB2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="BC2" s="61" t="s">
+      <c r="BC2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="BD2" s="61" t="s">
+      <c r="BD2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="61" t="s">
+      <c r="BE2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="61" t="s">
+      <c r="BF2" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="61" t="s">
+      <c r="BG2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="61" t="s">
+      <c r="BH2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="78"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="79"/>
       <c r="BM2" s="60"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="61" t="s">
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="68" t="s">
+      <c r="BU2" s="64"/>
+      <c r="BV2" s="64"/>
+      <c r="BW2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="BX2" s="72"/>
-      <c r="BY2" s="56"/>
-      <c r="BZ2" s="56"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="85"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="57"/>
+      <c r="CB2" s="89"/>
     </row>
     <row r="3" spans="1:80" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3375,125 +3375,125 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/57</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="68"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="R3" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="61" t="s">
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="61" t="s">
+      <c r="X3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="61" t="s">
+      <c r="Y3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="57" t="s">
+      <c r="Z3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="57" t="s">
+      <c r="AA3" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="57" t="s">
+      <c r="AB3" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="69" t="s">
+      <c r="AC3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="61" t="s">
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="61" t="s">
+      <c r="AG3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AH3" s="61" t="s">
+      <c r="AH3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="57" t="s">
+      <c r="AI3" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="69" t="s">
+      <c r="AJ3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="71"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="63"/>
       <c r="AN3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="79"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="80"/>
       <c r="BM3" s="60"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61" t="s">
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="BU3" s="57" t="s">
+      <c r="BU3" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="74" t="s">
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="68"/>
-      <c r="CB3" s="86"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="90"/>
     </row>
     <row r="4" spans="1:80" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3503,18 +3503,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
       <c r="T4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3524,12 +3524,12 @@
       <c r="V4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
       <c r="AC4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3539,10 +3539,10 @@
       <c r="AE4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="58"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="86"/>
       <c r="AJ4" s="38" t="s">
         <v>36</v>
       </c>
@@ -3558,46 +3558,46 @@
       <c r="AN4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="80"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="81"/>
       <c r="BM4" s="60"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="74"/>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="87"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="64"/>
+      <c r="BT4" s="64"/>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="71"/>
+      <c r="BX4" s="65"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="64"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="91"/>
     </row>
     <row r="5" spans="1:80" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4069,58 +4069,58 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="91">
+      <c r="H7" s="72">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="56">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="58">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56">
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="59">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
       <c r="AA7" s="32"/>
       <c r="AB7" s="32"/>
-      <c r="AC7" s="56">
+      <c r="AC7" s="58">
         <f>SUM(AC5:AE5)</f>
         <v>3</v>
       </c>
-      <c r="AD7" s="56"/>
+      <c r="AD7" s="58"/>
       <c r="AE7" s="60"/>
       <c r="AF7" s="59">
         <f>SUM(AF5:AI5)</f>
         <v>4</v>
       </c>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56">
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58">
         <f>SUM(AJ5:AM5)</f>
         <v>4</v>
       </c>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
       <c r="AM7" s="60"/>
       <c r="AN7" s="46"/>
       <c r="AO7" s="21">
@@ -4131,67 +4131,67 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ7" s="74">
+      <c r="AQ7" s="65">
         <f>SUM(AQ5:AR5)</f>
         <v>1</v>
       </c>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="72">
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="56">
         <f>SUM(AS5:AZ5)</f>
         <v>4</v>
       </c>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="74">
+      <c r="AT7" s="58"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="58"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="65">
         <f>SUM(BA5:BF5)</f>
         <v>5</v>
       </c>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
       <c r="BG7" s="49"/>
       <c r="BH7" s="42"/>
       <c r="BI7" s="42"/>
       <c r="BJ7" s="27"/>
-      <c r="BK7" s="72">
+      <c r="BK7" s="56">
         <f>SUM(BK5:BL5)</f>
         <v>0</v>
       </c>
-      <c r="BL7" s="73"/>
-      <c r="BM7" s="72">
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="56">
         <f>SUM(BM5:BR5)</f>
         <v>5</v>
       </c>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
-      <c r="BQ7" s="56"/>
-      <c r="BR7" s="56"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="58"/>
+      <c r="BP7" s="58"/>
+      <c r="BQ7" s="58"/>
+      <c r="BR7" s="58"/>
       <c r="BS7" s="19">
         <f t="shared" ref="BS7:BS8" si="1">BS5</f>
         <v>1</v>
       </c>
-      <c r="BT7" s="56">
+      <c r="BT7" s="58">
         <f>SUM(BT5:BW5)</f>
         <v>4</v>
       </c>
-      <c r="BU7" s="56"/>
-      <c r="BV7" s="56"/>
-      <c r="BW7" s="73"/>
-      <c r="BX7" s="72">
+      <c r="BU7" s="58"/>
+      <c r="BV7" s="58"/>
+      <c r="BW7" s="57"/>
+      <c r="BX7" s="56">
         <f>SUM(BX5:CA5)</f>
         <v>2.5</v>
       </c>
-      <c r="BY7" s="56"/>
-      <c r="BZ7" s="56"/>
-      <c r="CA7" s="73"/>
+      <c r="BY7" s="58"/>
+      <c r="BZ7" s="58"/>
+      <c r="CA7" s="57"/>
       <c r="CB7" s="25">
         <f>CB5</f>
         <v>0.5</v>
@@ -4205,58 +4205,58 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="88">
+      <c r="H8" s="68">
         <f>SUM(H6:M6)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="56">
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="58">
         <f>SUM(N6:S6)</f>
         <v>9</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56">
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="59">
         <f>SUM(W6:AB6)</f>
         <v>15</v>
       </c>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56">
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58">
         <f>SUM(AC6:AE6)</f>
         <v>14</v>
       </c>
-      <c r="AD8" s="56"/>
+      <c r="AD8" s="58"/>
       <c r="AE8" s="60"/>
       <c r="AF8" s="59">
         <f>SUM(AF6:AI6)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56">
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58">
         <f>SUM(AJ6:AM6)</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
       <c r="AM8" s="60"/>
       <c r="AN8" s="46"/>
       <c r="AO8" s="21">
@@ -4267,67 +4267,67 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AQ8" s="74">
+      <c r="AQ8" s="65">
         <f>SUM(AQ6:AR6)</f>
         <v>1</v>
       </c>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="72">
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="56">
         <f>SUM(AS6:AZ6)</f>
         <v>14</v>
       </c>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="74">
+      <c r="AT8" s="58"/>
+      <c r="AU8" s="58"/>
+      <c r="AV8" s="58"/>
+      <c r="AW8" s="58"/>
+      <c r="AX8" s="58"/>
+      <c r="AY8" s="58"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="65">
         <f>SUM(BA6:BF6)</f>
         <v>28</v>
       </c>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
       <c r="BG8" s="49"/>
       <c r="BH8" s="42"/>
       <c r="BI8" s="42"/>
       <c r="BJ8" s="27"/>
-      <c r="BK8" s="72">
+      <c r="BK8" s="56">
         <f>SUM(BK6:BL6)</f>
         <v>0</v>
       </c>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="72">
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="56">
         <f>SUM(BM6:BR6)</f>
         <v>15</v>
       </c>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
-      <c r="BP8" s="56"/>
-      <c r="BQ8" s="56"/>
-      <c r="BR8" s="56"/>
+      <c r="BN8" s="58"/>
+      <c r="BO8" s="58"/>
+      <c r="BP8" s="58"/>
+      <c r="BQ8" s="58"/>
+      <c r="BR8" s="58"/>
       <c r="BS8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BT8" s="56">
+      <c r="BT8" s="58">
         <f>SUM(BT6:BW6)</f>
         <v>15</v>
       </c>
-      <c r="BU8" s="56"/>
-      <c r="BV8" s="56"/>
-      <c r="BW8" s="73"/>
-      <c r="BX8" s="72">
+      <c r="BU8" s="58"/>
+      <c r="BV8" s="58"/>
+      <c r="BW8" s="57"/>
+      <c r="BX8" s="56">
         <f>SUM(BX6:CA6)</f>
         <v>2</v>
       </c>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="56"/>
-      <c r="CA8" s="73"/>
+      <c r="BY8" s="58"/>
+      <c r="BZ8" s="58"/>
+      <c r="CA8" s="57"/>
       <c r="CB8" s="25">
         <f>CB6</f>
         <v>0</v>
@@ -4341,19 +4341,19 @@
       <c r="C9" s="53"/>
       <c r="D9" s="9">
         <f>G9/$G$5*20+SUM(BX41:CB41)</f>
-        <v>71.807017543859658</v>
+        <v>71.84210526315789</v>
       </c>
       <c r="E9" s="9">
         <f>F9/$G$6*20+SUM(BX75:CB75)</f>
-        <v>2.4306569343065694</v>
+        <v>2.445255474452555</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>16.649999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>204.65</v>
+        <v>204.75</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
@@ -4364,7 +4364,7 @@
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
       <c r="N9" s="52">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O9" s="52">
         <v>1</v>
@@ -5841,19 +5841,19 @@
       <c r="C20" s="53"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>70.087719298245617</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25547445255474455</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>199.75</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -5863,15 +5863,33 @@
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
+      <c r="N20" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="52">
+        <v>1</v>
+      </c>
+      <c r="P20" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="52">
+        <v>0</v>
+      </c>
+      <c r="R20" s="52">
+        <v>0</v>
+      </c>
+      <c r="S20" s="52">
+        <v>0</v>
+      </c>
+      <c r="T20" s="52">
+        <v>0</v>
+      </c>
+      <c r="U20" s="52">
+        <v>0</v>
+      </c>
+      <c r="V20" s="52">
+        <v>0</v>
+      </c>
       <c r="W20" s="52"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
@@ -5961,19 +5979,19 @@
       <c r="C21" s="53"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.929824561403507</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4233576642335768</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
@@ -5983,15 +6001,33 @@
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
+      <c r="N21" s="52">
+        <v>1</v>
+      </c>
+      <c r="O21" s="52">
+        <v>1</v>
+      </c>
+      <c r="P21" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="52">
+        <v>1</v>
+      </c>
+      <c r="R21" s="52">
+        <v>1</v>
+      </c>
+      <c r="S21" s="52">
+        <v>0</v>
+      </c>
+      <c r="T21" s="52">
+        <v>1</v>
+      </c>
+      <c r="U21" s="52">
+        <v>1</v>
+      </c>
+      <c r="V21" s="52">
+        <v>0.9</v>
+      </c>
       <c r="W21" s="52"/>
       <c r="X21" s="52"/>
       <c r="Y21" s="52"/>
@@ -6081,19 +6117,19 @@
       <c r="C22" s="53"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>72.280701754385973</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.773722627737226</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
@@ -6103,15 +6139,33 @@
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
+      <c r="N22" s="52">
+        <v>1</v>
+      </c>
+      <c r="O22" s="52">
+        <v>1</v>
+      </c>
+      <c r="P22" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="52">
+        <v>1</v>
+      </c>
+      <c r="R22" s="52">
+        <v>1</v>
+      </c>
+      <c r="S22" s="52">
+        <v>1</v>
+      </c>
+      <c r="T22" s="52">
+        <v>1</v>
+      </c>
+      <c r="U22" s="52">
+        <v>1</v>
+      </c>
+      <c r="V22" s="52">
+        <v>1</v>
+      </c>
       <c r="W22" s="52"/>
       <c r="X22" s="52"/>
       <c r="Y22" s="52"/>
@@ -6201,19 +6255,19 @@
       <c r="C23" s="53"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.140350877192986</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.8759124087591239</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>202.75</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
@@ -6223,15 +6277,33 @@
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
+      <c r="N23" s="52">
+        <v>1</v>
+      </c>
+      <c r="O23" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="P23" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="52">
+        <v>1</v>
+      </c>
+      <c r="R23" s="52">
+        <v>0</v>
+      </c>
+      <c r="S23" s="52">
+        <v>0</v>
+      </c>
+      <c r="T23" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="52">
+        <v>1</v>
+      </c>
+      <c r="V23" s="52">
+        <v>0.9</v>
+      </c>
       <c r="W23" s="52"/>
       <c r="X23" s="52"/>
       <c r="Y23" s="52"/>
@@ -6321,19 +6393,19 @@
       <c r="C24" s="53"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7518248175182483</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>202.5</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
@@ -6343,15 +6415,33 @@
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
+      <c r="N24" s="52">
+        <v>0</v>
+      </c>
+      <c r="O24" s="52">
+        <v>1</v>
+      </c>
+      <c r="P24" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="52">
+        <v>0</v>
+      </c>
+      <c r="R24" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="S24" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="T24" s="52">
+        <v>1</v>
+      </c>
+      <c r="U24" s="52">
+        <v>1</v>
+      </c>
+      <c r="V24" s="52">
+        <v>0.75</v>
+      </c>
       <c r="W24" s="52"/>
       <c r="X24" s="52"/>
       <c r="Y24" s="52"/>
@@ -6441,19 +6531,19 @@
       <c r="C25" s="53"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.403508771929836</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5328467153284673</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>203.5</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
@@ -6463,15 +6553,33 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
+      <c r="N25" s="52">
+        <v>1</v>
+      </c>
+      <c r="O25" s="52">
+        <v>1</v>
+      </c>
+      <c r="P25" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q25" s="52">
+        <v>1</v>
+      </c>
+      <c r="R25" s="52">
+        <v>0</v>
+      </c>
+      <c r="S25" s="52">
+        <v>0</v>
+      </c>
+      <c r="T25" s="52">
+        <v>1</v>
+      </c>
+      <c r="U25" s="52">
+        <v>1</v>
+      </c>
+      <c r="V25" s="52">
+        <v>0</v>
+      </c>
       <c r="W25" s="52"/>
       <c r="X25" s="52"/>
       <c r="Y25" s="52"/>
@@ -6561,19 +6669,19 @@
       <c r="C26" s="53"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.929824561403507</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4817518248175183</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
@@ -6583,15 +6691,33 @@
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
+      <c r="N26" s="52">
+        <v>1</v>
+      </c>
+      <c r="O26" s="52">
+        <v>1</v>
+      </c>
+      <c r="P26" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>1</v>
+      </c>
+      <c r="R26" s="52">
+        <v>1</v>
+      </c>
+      <c r="S26" s="52">
+        <v>0</v>
+      </c>
+      <c r="T26" s="52">
+        <v>1</v>
+      </c>
+      <c r="U26" s="52">
+        <v>1</v>
+      </c>
+      <c r="V26" s="52">
+        <v>1</v>
+      </c>
       <c r="W26" s="52"/>
       <c r="X26" s="52"/>
       <c r="Y26" s="52"/>
@@ -6681,19 +6807,19 @@
       <c r="C27" s="53"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.333333333333343</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4890510948905109</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>203.3</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
@@ -6703,15 +6829,33 @@
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
+      <c r="N27" s="52">
+        <v>1</v>
+      </c>
+      <c r="O27" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="P27" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="R27" s="52">
+        <v>0</v>
+      </c>
+      <c r="S27" s="52">
+        <v>0</v>
+      </c>
+      <c r="T27" s="52">
+        <v>1</v>
+      </c>
+      <c r="U27" s="52">
+        <v>1</v>
+      </c>
+      <c r="V27" s="52">
+        <v>0</v>
+      </c>
       <c r="W27" s="52"/>
       <c r="X27" s="52"/>
       <c r="Y27" s="52"/>
@@ -6801,19 +6945,19 @@
       <c r="C28" s="53"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>69.473684210526315</v>
+        <v>71.84210526315789</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.445255474452555</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>198</v>
+        <v>204.75</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
@@ -6823,15 +6967,33 @@
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
       <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
+      <c r="N28" s="52">
+        <v>1</v>
+      </c>
+      <c r="O28" s="52">
+        <v>1</v>
+      </c>
+      <c r="P28" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>1</v>
+      </c>
+      <c r="R28" s="52">
+        <v>1</v>
+      </c>
+      <c r="S28" s="52">
+        <v>0</v>
+      </c>
+      <c r="T28" s="52">
+        <v>1</v>
+      </c>
+      <c r="U28" s="52">
+        <v>1</v>
+      </c>
+      <c r="V28" s="52">
+        <v>1</v>
+      </c>
       <c r="W28" s="52"/>
       <c r="X28" s="52"/>
       <c r="Y28" s="52"/>
@@ -8243,39 +8405,39 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>0.89</v>
+        <v>0.85526315789473684</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>0.97499999999999998</v>
+        <v>0.96842105263157885</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="6"/>
-        <v>0.92500000000000004</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.73157894736842111</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="6"/>
-        <v>0.85</v>
+        <v>0.67105263157894735</v>
       </c>
       <c r="S39" s="1">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>0.43421052631578949</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" si="6"/>
-        <v>0.88749999999999996</v>
+        <v>0.86184210526315785</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="6"/>
-        <v>0.92500000000000004</v>
+        <v>0.90789473684210531</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.7131578947368421</v>
       </c>
       <c r="W39" s="1" t="e">
         <f t="shared" si="6"/>
@@ -8513,7 +8675,7 @@
     <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f>SUM(H41:BW41)</f>
-        <v>204.65</v>
+        <v>204.75</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -8541,7 +8703,7 @@
       </c>
       <c r="N41" s="1">
         <f t="shared" si="8"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O41" s="1">
         <f t="shared" si="8"/>
@@ -11807,7 +11969,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>199.75</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BS52" si="31">H20*H$5</f>
@@ -11835,15 +11997,15 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="31"/>
@@ -12107,7 +12269,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BS53" si="33">H21*H$5</f>
@@ -12135,23 +12297,23 @@
       </c>
       <c r="N53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="1">
         <f t="shared" si="33"/>
@@ -12159,11 +12321,11 @@
       </c>
       <c r="T53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="33"/>
@@ -12407,7 +12569,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BS54" si="35">H22*H$5</f>
@@ -12435,35 +12597,35 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="35"/>
@@ -12707,7 +12869,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>202.75</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BS55" si="37">H23*H$5</f>
@@ -12735,19 +12897,19 @@
       </c>
       <c r="N55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="37"/>
@@ -12759,11 +12921,11 @@
       </c>
       <c r="T55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="37"/>
@@ -13007,7 +13169,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>202.5</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BS56" si="39">H24*H$5</f>
@@ -13039,11 +13201,11 @@
       </c>
       <c r="O56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="39"/>
@@ -13051,19 +13213,19 @@
       </c>
       <c r="R56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" si="39"/>
@@ -13307,7 +13469,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>203.5</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BS57" si="41">H25*H$5</f>
@@ -13335,19 +13497,19 @@
       </c>
       <c r="N57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="41"/>
@@ -13359,11 +13521,11 @@
       </c>
       <c r="T57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="41"/>
@@ -13607,7 +13769,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BS58" si="43">H26*H$5</f>
@@ -13635,23 +13797,23 @@
       </c>
       <c r="N58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="1">
         <f t="shared" si="43"/>
@@ -13659,11 +13821,11 @@
       </c>
       <c r="T58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" si="43"/>
@@ -13905,7 +14067,7 @@
     <row r="59" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>203.3</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BS59" si="45">H27*H$5</f>
@@ -13933,19 +14095,19 @@
       </c>
       <c r="N59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" si="45"/>
@@ -13957,11 +14119,11 @@
       </c>
       <c r="T59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" si="45"/>
@@ -14203,7 +14365,7 @@
     <row r="60" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>204.75</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BS60" si="47">H28*H$5</f>
@@ -14231,23 +14393,23 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
         <f t="shared" si="47"/>
@@ -14255,11 +14417,11 @@
       </c>
       <c r="T60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" si="47"/>
@@ -17511,7 +17673,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f>SUM(H75:BW75)</f>
-        <v>16.649999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -17539,7 +17701,7 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" si="69"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" si="69"/>
@@ -20803,7 +20965,7 @@
     <row r="86" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" ref="H86:BS86" si="92">H20*H$6</f>
@@ -20831,15 +20993,15 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O86" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q86" s="1">
         <f t="shared" si="92"/>
@@ -21101,7 +21263,7 @@
     <row r="87" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BS87" si="94">H21*H$6</f>
@@ -21129,23 +21291,23 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S87" s="1">
         <f t="shared" si="94"/>
@@ -21153,15 +21315,15 @@
       </c>
       <c r="T87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="94"/>
@@ -21399,7 +21561,7 @@
     <row r="88" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BS88" si="96">H22*H$6</f>
@@ -21427,39 +21589,39 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="96"/>
@@ -21697,7 +21859,7 @@
     <row r="89" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BS89" si="98">H23*H$6</f>
@@ -21725,19 +21887,19 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R89" s="1">
         <f t="shared" si="98"/>
@@ -21749,15 +21911,15 @@
       </c>
       <c r="T89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" si="98"/>
@@ -21995,7 +22157,7 @@
     <row r="90" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BS90" si="100">H24*H$6</f>
@@ -22027,11 +22189,11 @@
       </c>
       <c r="O90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" si="100"/>
@@ -22039,23 +22201,23 @@
       </c>
       <c r="R90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="100"/>
@@ -22293,7 +22455,7 @@
     <row r="91" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BS91" si="102">H25*H$6</f>
@@ -22321,19 +22483,19 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R91" s="1">
         <f t="shared" si="102"/>
@@ -22345,11 +22507,11 @@
       </c>
       <c r="T91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" si="102"/>
@@ -22591,7 +22753,7 @@
     <row r="92" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BS92" si="104">H26*H$6</f>
@@ -22619,23 +22781,23 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S92" s="1">
         <f t="shared" si="104"/>
@@ -22643,15 +22805,15 @@
       </c>
       <c r="T92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="104"/>
@@ -22889,7 +23051,7 @@
     <row r="93" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BS93" si="106">H27*H$6</f>
@@ -22917,19 +23079,19 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R93" s="1">
         <f t="shared" si="106"/>
@@ -22941,11 +23103,11 @@
       </c>
       <c r="T93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" si="106"/>
@@ -23187,7 +23349,7 @@
     <row r="94" spans="4:80" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BS94" si="108">H28*H$6</f>
@@ -23215,23 +23377,23 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S94" s="1">
         <f t="shared" si="108"/>
@@ -23239,15 +23401,15 @@
       </c>
       <c r="T94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="108"/>
@@ -26465,28 +26627,66 @@
   </sheetData>
   <autoFilter ref="AU2:AW4"/>
   <mergeCells count="106">
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BT8:BW8"/>
-    <mergeCell ref="AF2:AM2"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AJ7:AM7"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BM7:BR7"/>
-    <mergeCell ref="BT7:BW7"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="BO1:BO4"/>
-    <mergeCell ref="BP1:BP4"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BQ1:BQ4"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="W2:AE2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:AP1"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="BX7:CA7"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BT1:BW1"/>
+    <mergeCell ref="BR1:BR4"/>
+    <mergeCell ref="BS1:BS4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="BT2:BV2"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BM1:BM4"/>
+    <mergeCell ref="BN1:BN4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AQ8:AR8"/>
     <mergeCell ref="AS8:AZ8"/>
@@ -26511,66 +26711,28 @@
     <mergeCell ref="AS7:AZ7"/>
     <mergeCell ref="BA7:BF7"/>
     <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BX7:CA7"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="BT3:BT4"/>
-    <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="BR1:BR4"/>
-    <mergeCell ref="BS1:BS4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="BT2:BV2"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BM1:BM4"/>
-    <mergeCell ref="BN1:BN4"/>
-    <mergeCell ref="BU3:BU4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="W2:AE2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:AP1"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BT8:BW8"/>
+    <mergeCell ref="AF2:AM2"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BM7:BR7"/>
+    <mergeCell ref="BT7:BW7"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="BO1:BO4"/>
+    <mergeCell ref="BP1:BP4"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BQ1:BQ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
     <cfRule type="cellIs" dxfId="235" priority="270" operator="between">

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3053,7 +3053,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AB6" sqref="AB6"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Nom</t>
   </si>
@@ -151,15 +151,6 @@
     <t>FacadeVirement</t>
   </si>
   <si>
-    <t>FacadeClientImpl</t>
-  </si>
-  <si>
-    <t>FacadeCompteImpl</t>
-  </si>
-  <si>
-    <t>FacadeVirementImpl</t>
-  </si>
-  <si>
     <t>AUDURIER</t>
   </si>
   <si>
@@ -267,6 +258,12 @@
   <si>
     <t>VoirFilmographie.fxml</t>
   </si>
+  <si>
+    <t>FacadeFilmImpl</t>
+  </si>
+  <si>
+    <t>FacadeRealisateurImpl</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -802,11 +799,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,6 +966,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,11 +1083,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="227">
+  <dxfs count="236">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2965,11 +3042,11 @@
   <dimension ref="A1:BU104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="AF8" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="Y9" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="topRight" activeCell="AI5" sqref="AI1:AL1048576"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="BM28" sqref="BM28"/>
+      <selection pane="bottomRight" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2985,24 +3062,24 @@
     <col min="12" max="12" width="5.28515625" style="1" customWidth="1"/>
     <col min="13" max="31" width="4.140625" style="1" customWidth="1"/>
     <col min="32" max="32" width="5.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.28515625" style="1" customWidth="1"/>
-    <col min="35" max="48" width="4.140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="3.85546875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="4.140625" style="1" customWidth="1"/>
-    <col min="51" max="52" width="5.28515625" style="1" customWidth="1"/>
-    <col min="53" max="56" width="5" style="1" customWidth="1"/>
-    <col min="57" max="57" width="4.5703125" style="1" customWidth="1"/>
-    <col min="58" max="60" width="5" style="1" customWidth="1"/>
-    <col min="61" max="63" width="4.85546875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="4.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="5.42578125" style="1" customWidth="1"/>
-    <col min="66" max="69" width="4.42578125" style="1" customWidth="1"/>
-    <col min="70" max="70" width="4.85546875" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="1"/>
+    <col min="33" max="33" width="4.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="47" width="4.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="3.85546875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="4.140625" style="1" customWidth="1"/>
+    <col min="50" max="51" width="5.28515625" style="1" customWidth="1"/>
+    <col min="52" max="55" width="5" style="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5703125" style="1" customWidth="1"/>
+    <col min="57" max="59" width="5" style="1" customWidth="1"/>
+    <col min="60" max="62" width="4.85546875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="4.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="5.42578125" style="1" customWidth="1"/>
+    <col min="65" max="68" width="4.42578125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="4.85546875" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -3012,101 +3089,100 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="59" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="59" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="59" t="s">
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="46"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="42"/>
       <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="76" t="s">
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="62" t="s">
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD1" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE1" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG1" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="BD1" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE1" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF1" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG1" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH1" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI1" s="60" t="s">
+      <c r="BH1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="BJ1" s="60" t="s">
+      <c r="BI1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="76" t="s">
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="77"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="78"/>
     </row>
-    <row r="2" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3114,131 +3190,128 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="56" t="s">
+      <c r="N2" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="57" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="56" t="s">
+      <c r="AH2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="69" t="s">
+      <c r="AI2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AK2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AL2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO2" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="56" t="s">
+      <c r="AM2" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AQ2" s="69" t="s">
+      <c r="AP2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="56" t="s">
+      <c r="AQ2" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT2" s="56" t="s">
+      <c r="AV2" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="56" t="s">
+      <c r="AW2" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW2" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX2" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56" t="s">
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="57"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="63" t="s">
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57"/>
+      <c r="BL2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="80"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="81"/>
     </row>
-    <row r="3" spans="1:70" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3250,117 +3323,116 @@
       </c>
       <c r="D3" s="6" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G5,")")</f>
-        <v>Note/20 ( sur 47)</v>
+        <v>Note/20 ( sur 46)</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 134)</v>
+        <v>Note/20 ( sur 129)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/134</v>
+        <v>Note/129</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
-        <v>Note/47</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="55" t="s">
+        <v>Note/46</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="64" t="s">
+      <c r="R3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="56" t="s">
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="Y3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="52" t="s">
+      <c r="Z3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="52" t="s">
+      <c r="AA3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="57"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ3" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK3" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="81"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="82"/>
     </row>
-    <row r="4" spans="1:70" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3368,18 +3440,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3389,11 +3461,11 @@
       <c r="V4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
       <c r="AB4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3403,48 +3475,47 @@
       <c r="AD4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="82"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="83"/>
     </row>
-    <row r="5" spans="1:70" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3452,8 +3523,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <f>SUM(H5:BM5)</f>
-        <v>47</v>
+        <f>SUM(H5:BL5)</f>
+        <v>46</v>
       </c>
       <c r="H5" s="33">
         <v>1</v>
@@ -3554,17 +3625,17 @@
       <c r="AN5" s="39">
         <v>1</v>
       </c>
-      <c r="AO5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="23">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="22">
-        <v>1</v>
+      <c r="AO5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="19">
+        <v>0</v>
       </c>
       <c r="AR5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="19">
         <v>1</v>
@@ -3575,29 +3646,29 @@
       <c r="AU5" s="19">
         <v>1</v>
       </c>
-      <c r="AV5" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="45">
+      <c r="AV5" s="45">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="41">
         <v>1</v>
       </c>
       <c r="AX5" s="41">
         <v>1</v>
       </c>
-      <c r="AY5" s="41">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="23">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="26">
-        <v>0</v>
+      <c r="AY5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="23">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="26">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="16">
+        <v>1</v>
       </c>
       <c r="BD5" s="16">
         <v>1</v>
@@ -3623,29 +3694,26 @@
       <c r="BK5" s="16">
         <v>1</v>
       </c>
-      <c r="BL5" s="16">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="23">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="22">
+      <c r="BL5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="22">
         <v>0.5</v>
       </c>
+      <c r="BN5" s="19">
+        <v>0.5</v>
+      </c>
       <c r="BO5" s="19">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="23">
         <v>0.5</v>
       </c>
-      <c r="BP5" s="19">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="23">
+      <c r="BQ5" s="11">
         <v>0.5</v>
       </c>
-      <c r="BR5" s="11">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="6" spans="1:70" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3653,8 +3721,8 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4">
-        <f>SUM(H6:BM6)</f>
-        <v>134</v>
+        <f>SUM(H6:BL6)</f>
+        <v>129</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3735,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="13">
         <v>0</v>
@@ -3755,98 +3823,95 @@
       <c r="AN6" s="10">
         <v>4</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="13">
         <v>4</v>
       </c>
-      <c r="AP6" s="14">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="13">
+      <c r="AQ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="12">
         <v>4</v>
       </c>
-      <c r="AR6" s="12">
-        <v>0</v>
-      </c>
       <c r="AS6" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT6" s="12">
         <v>6</v>
       </c>
       <c r="AU6" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV6" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW6" s="12">
         <v>2</v>
       </c>
       <c r="AX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="12">
         <v>2</v>
       </c>
-      <c r="AY6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="12">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="18">
-        <v>0</v>
-      </c>
       <c r="BD6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE6" s="12">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="12">
         <v>3</v>
-      </c>
-      <c r="BF6" s="12">
-        <v>4</v>
       </c>
       <c r="BG6" s="12">
         <v>3</v>
       </c>
       <c r="BH6" s="12">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="12">
+        <v>8</v>
+      </c>
+      <c r="BJ6" s="12">
         <v>3</v>
       </c>
-      <c r="BI6" s="12">
+      <c r="BK6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="14">
         <v>4</v>
       </c>
-      <c r="BJ6" s="12">
-        <v>8</v>
-      </c>
-      <c r="BK6" s="12">
-        <v>3</v>
-      </c>
-      <c r="BL6" s="12">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="14">
-        <v>4</v>
-      </c>
-      <c r="BN6" s="13">
+      <c r="BM6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BN6" s="12">
         <v>0.5</v>
       </c>
       <c r="BO6" s="12">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="12">
+      <c r="BP6" s="14">
         <v>0.5</v>
       </c>
       <c r="BQ6" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="BR6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:70" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3854,44 +3919,44 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="86">
+      <c r="H7" s="87">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="51">
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="52">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51">
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="54">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="55">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="51">
+      <c r="AB7" s="52">
         <f>SUM(AB5:AD5)</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="55"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="56"/>
       <c r="AE7" s="21">
         <f t="shared" ref="AE7:AF8" si="0">SUM(AE5)</f>
         <v>1</v>
@@ -3900,73 +3965,72 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="69">
+      <c r="AG7" s="70">
         <f>SUM(AG5:AH5)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="67">
-        <f>SUM(AI5:AP5)</f>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="68">
+        <f>SUM(AI5:AO5)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="70">
+        <f>SUM(AP5:AU5)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="68">
+        <f>SUM(AZ5:BA5)</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="68">
+        <f>SUM(BB5:BG5)</f>
+        <v>5</v>
+      </c>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="19">
+        <f t="shared" ref="BH7:BH8" si="1">BH5</f>
+        <v>1</v>
+      </c>
+      <c r="BI7" s="52">
+        <f>SUM(BI5:BL5)</f>
         <v>4</v>
       </c>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="69">
-        <f>SUM(AQ5:AV5)</f>
-        <v>5</v>
-      </c>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="67">
-        <f>SUM(BA5:BB5)</f>
-        <v>0</v>
-      </c>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="67">
-        <f>SUM(BC5:BH5)</f>
-        <v>5</v>
-      </c>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="51"/>
-      <c r="BG7" s="51"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="19">
-        <f t="shared" ref="BI7:BI8" si="1">BI5</f>
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="51">
-        <f>SUM(BJ5:BM5)</f>
-        <v>4</v>
-      </c>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="67">
-        <f>SUM(BN5:BQ5)</f>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="68">
+        <f>SUM(BM5:BP5)</f>
         <v>2.5</v>
       </c>
-      <c r="BO7" s="51"/>
-      <c r="BP7" s="51"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="25">
-        <f>BR5</f>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="69"/>
+      <c r="BQ7" s="25">
+        <f>BQ5</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:70" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3974,44 +4038,44 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="83">
+      <c r="H8" s="84">
         <f>SUM(H6:M6)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="51">
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="52">
         <f>SUM(N6:S6)</f>
         <v>9</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51">
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="54">
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="55">
         <f>SUM(W6:AA6)</f>
         <v>12</v>
       </c>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51">
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52">
         <f>SUM(AB6:AD6)</f>
         <v>14</v>
       </c>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="55"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="56"/>
       <c r="AE8" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4020,93 +4084,92 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="69">
+      <c r="AG8" s="70">
         <f>SUM(AG6:AH6)</f>
-        <v>1</v>
-      </c>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="67">
-        <f>SUM(AI6:AP6)</f>
-        <v>14</v>
-      </c>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="69">
-        <f>SUM(AQ6:AV6)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="68">
+        <f>SUM(AI6:AO6)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="70">
+        <f>SUM(AP6:AU6)</f>
         <v>28</v>
       </c>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="44"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="67">
-        <f>SUM(BA6:BB6)</f>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="67">
-        <f>SUM(BC6:BH6)</f>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="68">
+        <f>SUM(AZ6:BA6)</f>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="68">
+        <f>SUM(BB6:BG6)</f>
         <v>15</v>
       </c>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="19">
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BJ8" s="51">
-        <f>SUM(BJ6:BM6)</f>
+      <c r="BI8" s="52">
+        <f>SUM(BI6:BL6)</f>
         <v>15</v>
       </c>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="68"/>
-      <c r="BN8" s="67">
-        <f>SUM(BN6:BQ6)</f>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="69"/>
+      <c r="BM8" s="68">
+        <f>SUM(BM6:BP6)</f>
         <v>2</v>
       </c>
-      <c r="BO8" s="51"/>
-      <c r="BP8" s="51"/>
-      <c r="BQ8" s="68"/>
-      <c r="BR8" s="25">
-        <f>BR6</f>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="52"/>
+      <c r="BP8" s="69"/>
+      <c r="BQ8" s="25">
+        <f>BQ6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="9">
-        <f>G9/$G$5*20+SUM(BN41:BR41)</f>
-        <v>90.957446808510639</v>
+        <f>G9/$G$5*20+SUM(BM41:BQ41)</f>
+        <v>137.39130434782609</v>
       </c>
       <c r="E9" s="9">
-        <f>F9/$G$6*20+SUM(BN75:BR75)</f>
-        <v>6.6791044776119399</v>
+        <f>F9/$G$6*20+SUM(BM75:BQ75)</f>
+        <v>8.5658914728682163</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>44.75</v>
+        <v>55.25</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>213.75</v>
+        <v>316</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4176,7 +4239,9 @@
       <c r="AG9" s="47">
         <v>99</v>
       </c>
-      <c r="AH9" s="47"/>
+      <c r="AH9" s="51">
+        <v>99</v>
+      </c>
       <c r="AI9" s="47">
         <v>99</v>
       </c>
@@ -4189,20 +4254,28 @@
       <c r="AL9" s="47">
         <v>99</v>
       </c>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
+      <c r="AM9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="47">
+        <v>1.25</v>
+      </c>
       <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ9" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR9" s="47"/>
       <c r="AS9" s="47"/>
       <c r="AT9" s="47"/>
       <c r="AU9" s="47"/>
       <c r="AV9" s="47"/>
       <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
+      <c r="AX9" s="47">
+        <v>99</v>
+      </c>
       <c r="AY9" s="47">
         <v>99</v>
       </c>
@@ -4215,9 +4288,7 @@
       <c r="BB9" s="47">
         <v>99</v>
       </c>
-      <c r="BC9" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC9" s="47"/>
       <c r="BD9" s="47"/>
       <c r="BE9" s="47"/>
       <c r="BF9" s="47"/>
@@ -4226,37 +4297,36 @@
       <c r="BI9" s="47"/>
       <c r="BJ9" s="47"/>
       <c r="BK9" s="47"/>
-      <c r="BL9" s="47"/>
-      <c r="BM9" s="47">
-        <v>0</v>
-      </c>
+      <c r="BL9" s="47">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="47"/>
       <c r="BN9" s="47"/>
       <c r="BO9" s="47"/>
       <c r="BP9" s="47"/>
       <c r="BQ9" s="47"/>
-      <c r="BR9" s="47"/>
     </row>
-    <row r="10" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="9">
-        <f>G10/$G$5*20+SUM(BN42:BR42)</f>
-        <v>91.542553191489361</v>
+        <f>G10/$G$5*20+SUM(BM42:BQ42)</f>
+        <v>137.39130434782609</v>
       </c>
       <c r="E10" s="9">
-        <f>F10/$G$6*20+SUM(BN76:BR76)</f>
-        <v>6.1343283582089558</v>
+        <f>F10/$G$6*20+SUM(BM76:BQ76)</f>
+        <v>7.5348837209302335</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="2">G76</f>
-        <v>41.1</v>
+        <v>48.6</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="3">G42</f>
-        <v>215.125</v>
+        <v>316</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4326,7 +4396,9 @@
       <c r="AG10" s="47">
         <v>99</v>
       </c>
-      <c r="AH10" s="47"/>
+      <c r="AH10" s="51">
+        <v>99</v>
+      </c>
       <c r="AI10" s="47">
         <v>99</v>
       </c>
@@ -4339,20 +4411,28 @@
       <c r="AL10" s="47">
         <v>99</v>
       </c>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
+      <c r="AM10" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AN10" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="47">
+        <v>0</v>
+      </c>
       <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ10" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR10" s="47"/>
       <c r="AS10" s="47"/>
       <c r="AT10" s="47"/>
       <c r="AU10" s="47"/>
       <c r="AV10" s="47"/>
       <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
+      <c r="AX10" s="47">
+        <v>99</v>
+      </c>
       <c r="AY10" s="47">
         <v>99</v>
       </c>
@@ -4365,9 +4445,7 @@
       <c r="BB10" s="47">
         <v>99</v>
       </c>
-      <c r="BC10" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC10" s="47"/>
       <c r="BD10" s="47"/>
       <c r="BE10" s="47"/>
       <c r="BF10" s="47"/>
@@ -4376,37 +4454,36 @@
       <c r="BI10" s="47"/>
       <c r="BJ10" s="47"/>
       <c r="BK10" s="47"/>
-      <c r="BL10" s="47"/>
-      <c r="BM10" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL10" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
       <c r="BO10" s="47"/>
       <c r="BP10" s="47"/>
       <c r="BQ10" s="47"/>
-      <c r="BR10" s="47"/>
     </row>
-    <row r="11" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="9">
-        <f>G11/$G$5*20+SUM(BN43:BR43)</f>
-        <v>91.808510638297861</v>
+        <f>G11/$G$5*20+SUM(BM43:BQ43)</f>
+        <v>138.15217391304347</v>
       </c>
       <c r="E11" s="9">
-        <f>F11/$G$6*20+SUM(BN77:BR77)</f>
-        <v>6.3805970149253728</v>
+        <f>F11/$G$6*20+SUM(BM77:BQ77)</f>
+        <v>8.1782945736434112</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>42.75</v>
+        <v>52.75</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>215.75</v>
+        <v>317.75</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4476,7 +4553,9 @@
       <c r="AG11" s="47">
         <v>99</v>
       </c>
-      <c r="AH11" s="47"/>
+      <c r="AH11" s="51">
+        <v>99</v>
+      </c>
       <c r="AI11" s="47">
         <v>99</v>
       </c>
@@ -4489,20 +4568,28 @@
       <c r="AL11" s="47">
         <v>99</v>
       </c>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
+      <c r="AM11" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="47">
+        <v>1</v>
+      </c>
       <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ11" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR11" s="47"/>
       <c r="AS11" s="47"/>
       <c r="AT11" s="47"/>
       <c r="AU11" s="47"/>
       <c r="AV11" s="47"/>
       <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
+      <c r="AX11" s="47">
+        <v>99</v>
+      </c>
       <c r="AY11" s="47">
         <v>99</v>
       </c>
@@ -4515,9 +4602,7 @@
       <c r="BB11" s="47">
         <v>99</v>
       </c>
-      <c r="BC11" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC11" s="47"/>
       <c r="BD11" s="47"/>
       <c r="BE11" s="47"/>
       <c r="BF11" s="47"/>
@@ -4526,37 +4611,36 @@
       <c r="BI11" s="47"/>
       <c r="BJ11" s="47"/>
       <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL11" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
       <c r="BO11" s="47"/>
       <c r="BP11" s="47"/>
       <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
     </row>
-    <row r="12" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="9">
-        <f>G12/$G$5*20+SUM(BN44:BR44)</f>
-        <v>91.446808510638306</v>
+        <f>G12/$G$5*20+SUM(BM44:BQ44)</f>
+        <v>137.89130434782609</v>
       </c>
       <c r="E12" s="9">
-        <f>F12/$G$6*20+SUM(BN78:BR78)</f>
-        <v>6.1492537313432836</v>
+        <f>F12/$G$6*20+SUM(BM78:BQ78)</f>
+        <v>8.0155038759689923</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>41.2</v>
+        <v>51.7</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>214.9</v>
+        <v>317.14999999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4626,7 +4710,9 @@
       <c r="AG12" s="47">
         <v>99</v>
       </c>
-      <c r="AH12" s="47"/>
+      <c r="AH12" s="51">
+        <v>99</v>
+      </c>
       <c r="AI12" s="47">
         <v>99</v>
       </c>
@@ -4639,20 +4725,28 @@
       <c r="AL12" s="47">
         <v>99</v>
       </c>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
+      <c r="AM12" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="47">
+        <v>1.25</v>
+      </c>
       <c r="AP12" s="47"/>
-      <c r="AQ12" s="47"/>
-      <c r="AR12" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ12" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR12" s="47"/>
       <c r="AS12" s="47"/>
       <c r="AT12" s="47"/>
       <c r="AU12" s="47"/>
       <c r="AV12" s="47"/>
       <c r="AW12" s="47"/>
-      <c r="AX12" s="47"/>
+      <c r="AX12" s="47">
+        <v>99</v>
+      </c>
       <c r="AY12" s="47">
         <v>99</v>
       </c>
@@ -4665,9 +4759,7 @@
       <c r="BB12" s="47">
         <v>99</v>
       </c>
-      <c r="BC12" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC12" s="47"/>
       <c r="BD12" s="47"/>
       <c r="BE12" s="47"/>
       <c r="BF12" s="47"/>
@@ -4676,37 +4768,36 @@
       <c r="BI12" s="47"/>
       <c r="BJ12" s="47"/>
       <c r="BK12" s="47"/>
-      <c r="BL12" s="47"/>
-      <c r="BM12" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL12" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="47"/>
       <c r="BN12" s="47"/>
       <c r="BO12" s="47"/>
       <c r="BP12" s="47"/>
       <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
     </row>
-    <row r="13" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="9">
-        <f>G13/$G$5*20+SUM(BN45:BR45)</f>
-        <v>91.914893617021278</v>
+        <f>G13/$G$5*20+SUM(BM45:BQ45)</f>
+        <v>138.36956521739131</v>
       </c>
       <c r="E13" s="9">
-        <f>F13/$G$6*20+SUM(BN79:BR79)</f>
-        <v>6.4179104477611935</v>
+        <f>F13/$G$6*20+SUM(BM79:BQ79)</f>
+        <v>8.2945736434108532</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>53.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>318.25</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -4776,7 +4867,9 @@
       <c r="AG13" s="47">
         <v>99</v>
       </c>
-      <c r="AH13" s="47"/>
+      <c r="AH13" s="51">
+        <v>99</v>
+      </c>
       <c r="AI13" s="47">
         <v>99</v>
       </c>
@@ -4789,20 +4882,28 @@
       <c r="AL13" s="47">
         <v>99</v>
       </c>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
+      <c r="AM13" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="47">
+        <v>1.25</v>
+      </c>
       <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ13" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR13" s="47"/>
       <c r="AS13" s="47"/>
       <c r="AT13" s="47"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="47"/>
       <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
+      <c r="AX13" s="47">
+        <v>99</v>
+      </c>
       <c r="AY13" s="47">
         <v>99</v>
       </c>
@@ -4815,9 +4916,7 @@
       <c r="BB13" s="47">
         <v>99</v>
       </c>
-      <c r="BC13" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC13" s="47"/>
       <c r="BD13" s="47"/>
       <c r="BE13" s="47"/>
       <c r="BF13" s="47"/>
@@ -4826,37 +4925,36 @@
       <c r="BI13" s="47"/>
       <c r="BJ13" s="47"/>
       <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="47"/>
       <c r="BN13" s="47"/>
       <c r="BO13" s="47"/>
       <c r="BP13" s="47"/>
       <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
     </row>
-    <row r="14" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="9">
-        <f>G14/$G$5*20+SUM(BN46:BR46)</f>
-        <v>86.595744680851055</v>
+        <f>G14/$G$5*20+SUM(BM46:BQ46)</f>
+        <v>131.95652173913044</v>
       </c>
       <c r="E14" s="9">
-        <f>F14/$G$6*20+SUM(BN80:BR80)</f>
-        <v>1.4925373134328357</v>
+        <f>F14/$G$6*20+SUM(BM80:BQ80)</f>
+        <v>1.8604651162790697</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>203.5</v>
+        <v>303.5</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -4926,7 +5024,9 @@
       <c r="AG14" s="47">
         <v>99</v>
       </c>
-      <c r="AH14" s="47"/>
+      <c r="AH14" s="51">
+        <v>99</v>
+      </c>
       <c r="AI14" s="47">
         <v>99</v>
       </c>
@@ -4939,20 +5039,28 @@
       <c r="AL14" s="47">
         <v>99</v>
       </c>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
+      <c r="AM14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="47">
+        <v>1</v>
+      </c>
       <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ14" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR14" s="47"/>
       <c r="AS14" s="47"/>
       <c r="AT14" s="47"/>
       <c r="AU14" s="47"/>
       <c r="AV14" s="47"/>
       <c r="AW14" s="47"/>
-      <c r="AX14" s="47"/>
+      <c r="AX14" s="47">
+        <v>99</v>
+      </c>
       <c r="AY14" s="47">
         <v>99</v>
       </c>
@@ -4965,9 +5073,7 @@
       <c r="BB14" s="47">
         <v>99</v>
       </c>
-      <c r="BC14" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC14" s="47"/>
       <c r="BD14" s="47"/>
       <c r="BE14" s="47"/>
       <c r="BF14" s="47"/>
@@ -4976,37 +5082,36 @@
       <c r="BI14" s="47"/>
       <c r="BJ14" s="47"/>
       <c r="BK14" s="47"/>
-      <c r="BL14" s="47"/>
-      <c r="BM14" s="47">
-        <v>0</v>
-      </c>
+      <c r="BL14" s="47">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
       <c r="BO14" s="47"/>
       <c r="BP14" s="47"/>
       <c r="BQ14" s="47"/>
-      <c r="BR14" s="47"/>
     </row>
-    <row r="15" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="9">
-        <f>G15/$G$5*20+SUM(BN47:BR47)</f>
-        <v>91.702127659574458</v>
+        <f>G15/$G$5*20+SUM(BM47:BQ47)</f>
+        <v>137.93478260869566</v>
       </c>
       <c r="E15" s="9">
-        <f>F15/$G$6*20+SUM(BN81:BR81)</f>
-        <v>7.3134328358208958</v>
+        <f>F15/$G$6*20+SUM(BM81:BQ81)</f>
+        <v>8.9922480620155039</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>215.5</v>
+        <v>317.25</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5076,7 +5181,9 @@
       <c r="AG15" s="47">
         <v>99</v>
       </c>
-      <c r="AH15" s="47"/>
+      <c r="AH15" s="51">
+        <v>99</v>
+      </c>
       <c r="AI15" s="47">
         <v>99</v>
       </c>
@@ -5089,20 +5196,28 @@
       <c r="AL15" s="47">
         <v>99</v>
       </c>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
+      <c r="AM15" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AN15" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AO15" s="47">
+        <v>1</v>
+      </c>
       <c r="AP15" s="47"/>
-      <c r="AQ15" s="47"/>
-      <c r="AR15" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ15" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR15" s="47"/>
       <c r="AS15" s="47"/>
       <c r="AT15" s="47"/>
       <c r="AU15" s="47"/>
       <c r="AV15" s="47"/>
       <c r="AW15" s="47"/>
-      <c r="AX15" s="47"/>
+      <c r="AX15" s="47">
+        <v>99</v>
+      </c>
       <c r="AY15" s="47">
         <v>99</v>
       </c>
@@ -5115,9 +5230,7 @@
       <c r="BB15" s="47">
         <v>99</v>
       </c>
-      <c r="BC15" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC15" s="47"/>
       <c r="BD15" s="47"/>
       <c r="BE15" s="47"/>
       <c r="BF15" s="47"/>
@@ -5126,37 +5239,36 @@
       <c r="BI15" s="47"/>
       <c r="BJ15" s="47"/>
       <c r="BK15" s="47"/>
-      <c r="BL15" s="47"/>
-      <c r="BM15" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="47"/>
       <c r="BN15" s="47"/>
       <c r="BO15" s="47"/>
       <c r="BP15" s="47"/>
       <c r="BQ15" s="47"/>
-      <c r="BR15" s="47"/>
     </row>
-    <row r="16" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="9">
-        <f>G16/$G$5*20+SUM(BN48:BR48)</f>
-        <v>91.872340425531917</v>
+        <f>G16/$G$5*20+SUM(BM48:BQ48)</f>
+        <v>138.21739130434781</v>
       </c>
       <c r="E16" s="9">
-        <f>F16/$G$6*20+SUM(BN82:BR82)</f>
-        <v>6.4477611940298507</v>
+        <f>F16/$G$6*20+SUM(BM82:BQ82)</f>
+        <v>8.2480620155038764</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>43.2</v>
+        <v>53.2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>215.9</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5226,7 +5338,9 @@
       <c r="AG16" s="47">
         <v>99</v>
       </c>
-      <c r="AH16" s="47"/>
+      <c r="AH16" s="51">
+        <v>99</v>
+      </c>
       <c r="AI16" s="47">
         <v>99</v>
       </c>
@@ -5239,20 +5353,28 @@
       <c r="AL16" s="47">
         <v>99</v>
       </c>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
+      <c r="AM16" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="47">
+        <v>1</v>
+      </c>
       <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ16" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR16" s="47"/>
       <c r="AS16" s="47"/>
       <c r="AT16" s="47"/>
       <c r="AU16" s="47"/>
       <c r="AV16" s="47"/>
       <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
+      <c r="AX16" s="47">
+        <v>99</v>
+      </c>
       <c r="AY16" s="47">
         <v>99</v>
       </c>
@@ -5265,9 +5387,7 @@
       <c r="BB16" s="47">
         <v>99</v>
       </c>
-      <c r="BC16" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC16" s="47"/>
       <c r="BD16" s="47"/>
       <c r="BE16" s="47"/>
       <c r="BF16" s="47"/>
@@ -5276,28 +5396,27 @@
       <c r="BI16" s="47"/>
       <c r="BJ16" s="47"/>
       <c r="BK16" s="47"/>
-      <c r="BL16" s="47"/>
-      <c r="BM16" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL16" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
       <c r="BO16" s="47"/>
       <c r="BP16" s="47"/>
       <c r="BQ16" s="47"/>
-      <c r="BR16" s="47"/>
     </row>
-    <row r="17" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="9">
-        <f>G17/$G$5*20+SUM(BN49:BR49)</f>
-        <v>84.255319148936167</v>
+        <f>G17/$G$5*20+SUM(BM49:BQ49)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E17" s="9">
-        <f>F17/$G$6*20+SUM(BN83:BR83)</f>
+        <f>F17/$G$6*20+SUM(BM83:BQ83)</f>
         <v>0</v>
       </c>
       <c r="F17" s="5">
@@ -5306,7 +5425,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -5338,7 +5457,9 @@
       <c r="AG17" s="47">
         <v>99</v>
       </c>
-      <c r="AH17" s="47"/>
+      <c r="AH17" s="51">
+        <v>99</v>
+      </c>
       <c r="AI17" s="47">
         <v>99</v>
       </c>
@@ -5355,16 +5476,18 @@
       <c r="AN17" s="47"/>
       <c r="AO17" s="47"/>
       <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ17" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR17" s="47"/>
       <c r="AS17" s="47"/>
       <c r="AT17" s="47"/>
       <c r="AU17" s="47"/>
       <c r="AV17" s="47"/>
       <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
+      <c r="AX17" s="47">
+        <v>99</v>
+      </c>
       <c r="AY17" s="47">
         <v>99</v>
       </c>
@@ -5377,9 +5500,7 @@
       <c r="BB17" s="47">
         <v>99</v>
       </c>
-      <c r="BC17" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC17" s="47"/>
       <c r="BD17" s="47"/>
       <c r="BE17" s="47"/>
       <c r="BF17" s="47"/>
@@ -5394,29 +5515,28 @@
       <c r="BO17" s="47"/>
       <c r="BP17" s="47"/>
       <c r="BQ17" s="47"/>
-      <c r="BR17" s="47"/>
     </row>
-    <row r="18" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="9">
-        <f>G18/$G$5*20+SUM(BN50:BR50)</f>
-        <v>90.914893617021278</v>
+        <f>G18/$G$5*20+SUM(BM50:BQ50)</f>
+        <v>137.2391304347826</v>
       </c>
       <c r="E18" s="9">
-        <f>F18/$G$6*20+SUM(BN84:BR84)</f>
-        <v>5.5149253731343286</v>
+        <f>F18/$G$6*20+SUM(BM84:BQ84)</f>
+        <v>7.279069767441861</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>36.950000000000003</v>
+        <v>46.95</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>213.65</v>
+        <v>315.64999999999998</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5486,7 +5606,9 @@
       <c r="AG18" s="47">
         <v>99</v>
       </c>
-      <c r="AH18" s="47"/>
+      <c r="AH18" s="51">
+        <v>99</v>
+      </c>
       <c r="AI18" s="47">
         <v>99</v>
       </c>
@@ -5499,20 +5621,28 @@
       <c r="AL18" s="47">
         <v>99</v>
       </c>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
+      <c r="AM18" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="47">
+        <v>1</v>
+      </c>
       <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ18" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR18" s="47"/>
       <c r="AS18" s="47"/>
       <c r="AT18" s="47"/>
       <c r="AU18" s="47"/>
       <c r="AV18" s="47"/>
       <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
+      <c r="AX18" s="47">
+        <v>99</v>
+      </c>
       <c r="AY18" s="47">
         <v>99</v>
       </c>
@@ -5525,9 +5655,7 @@
       <c r="BB18" s="47">
         <v>99</v>
       </c>
-      <c r="BC18" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC18" s="47"/>
       <c r="BD18" s="47"/>
       <c r="BE18" s="47"/>
       <c r="BF18" s="47"/>
@@ -5536,37 +5664,36 @@
       <c r="BI18" s="47"/>
       <c r="BJ18" s="47"/>
       <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47">
-        <v>0</v>
-      </c>
+      <c r="BL18" s="47">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="47"/>
       <c r="BN18" s="47"/>
       <c r="BO18" s="47"/>
       <c r="BP18" s="47"/>
       <c r="BQ18" s="47"/>
-      <c r="BR18" s="47"/>
     </row>
-    <row r="19" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="9">
-        <f>G19/$G$5*20+SUM(BN51:BR51)</f>
-        <v>91.702127659574458</v>
+        <f>G19/$G$5*20+SUM(BM51:BQ51)</f>
+        <v>137.89130434782609</v>
       </c>
       <c r="E19" s="9">
-        <f>F19/$G$6*20+SUM(BN85:BR85)</f>
-        <v>6.2089552238805972</v>
+        <f>F19/$G$6*20+SUM(BM85:BQ85)</f>
+        <v>7.8604651162790704</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>41.6</v>
+        <v>50.7</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="3"/>
-        <v>215.5</v>
+        <v>317.14999999999998</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -5636,7 +5763,9 @@
       <c r="AG19" s="47">
         <v>99</v>
       </c>
-      <c r="AH19" s="47"/>
+      <c r="AH19" s="51">
+        <v>99</v>
+      </c>
       <c r="AI19" s="47">
         <v>99</v>
       </c>
@@ -5649,20 +5778,28 @@
       <c r="AL19" s="47">
         <v>99</v>
       </c>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
+      <c r="AM19" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AN19" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="47">
+        <v>0.75</v>
+      </c>
       <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ19" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR19" s="47"/>
       <c r="AS19" s="47"/>
       <c r="AT19" s="47"/>
       <c r="AU19" s="47"/>
       <c r="AV19" s="47"/>
       <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
+      <c r="AX19" s="47">
+        <v>99</v>
+      </c>
       <c r="AY19" s="47">
         <v>99</v>
       </c>
@@ -5675,9 +5812,7 @@
       <c r="BB19" s="47">
         <v>99</v>
       </c>
-      <c r="BC19" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC19" s="47"/>
       <c r="BD19" s="47"/>
       <c r="BE19" s="47"/>
       <c r="BF19" s="47"/>
@@ -5686,29 +5821,28 @@
       <c r="BI19" s="47"/>
       <c r="BJ19" s="47"/>
       <c r="BK19" s="47"/>
-      <c r="BL19" s="47"/>
-      <c r="BM19" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL19" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="47"/>
       <c r="BN19" s="47"/>
       <c r="BO19" s="47"/>
       <c r="BP19" s="47"/>
       <c r="BQ19" s="47"/>
-      <c r="BR19" s="47"/>
     </row>
-    <row r="20" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="9">
-        <f>G20/$G$5*20+SUM(BN52:BR52)</f>
-        <v>87.872340425531917</v>
+        <f>G20/$G$5*20+SUM(BM52:BQ52)</f>
+        <v>132.82608695652175</v>
       </c>
       <c r="E20" s="9">
-        <f>F20/$G$6*20+SUM(BN86:BR86)</f>
-        <v>2.5373134328358211</v>
+        <f>F20/$G$6*20+SUM(BM86:BQ86)</f>
+        <v>2.6356589147286824</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="2"/>
@@ -5716,7 +5850,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>206.5</v>
+        <v>305.5</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -5786,7 +5920,9 @@
       <c r="AG20" s="47">
         <v>99</v>
       </c>
-      <c r="AH20" s="47"/>
+      <c r="AH20" s="51">
+        <v>99</v>
+      </c>
       <c r="AI20" s="47">
         <v>99</v>
       </c>
@@ -5799,20 +5935,28 @@
       <c r="AL20" s="47">
         <v>99</v>
       </c>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
+      <c r="AM20" s="47">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="47">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="47">
+        <v>0</v>
+      </c>
       <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ20" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR20" s="47"/>
       <c r="AS20" s="47"/>
       <c r="AT20" s="47"/>
       <c r="AU20" s="47"/>
       <c r="AV20" s="47"/>
       <c r="AW20" s="47"/>
-      <c r="AX20" s="47"/>
+      <c r="AX20" s="47">
+        <v>99</v>
+      </c>
       <c r="AY20" s="47">
         <v>99</v>
       </c>
@@ -5825,9 +5969,7 @@
       <c r="BB20" s="47">
         <v>99</v>
       </c>
-      <c r="BC20" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC20" s="47"/>
       <c r="BD20" s="47"/>
       <c r="BE20" s="47"/>
       <c r="BF20" s="47"/>
@@ -5836,37 +5978,36 @@
       <c r="BI20" s="47"/>
       <c r="BJ20" s="47"/>
       <c r="BK20" s="47"/>
-      <c r="BL20" s="47"/>
-      <c r="BM20" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL20" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM20" s="47"/>
       <c r="BN20" s="47"/>
       <c r="BO20" s="47"/>
       <c r="BP20" s="47"/>
       <c r="BQ20" s="47"/>
-      <c r="BR20" s="47"/>
     </row>
-    <row r="21" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="9">
-        <f>G21/$G$5*20+SUM(BN53:BR53)</f>
-        <v>91.170212765957444</v>
+        <f>G21/$G$5*20+SUM(BM53:BQ53)</f>
+        <v>137.28260869565216</v>
       </c>
       <c r="E21" s="9">
-        <f>F21/$G$6*20+SUM(BN87:BR87)</f>
-        <v>5.8731343283582094</v>
+        <f>F21/$G$6*20+SUM(BM87:BQ87)</f>
+        <v>7.4961240310077528</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="2"/>
-        <v>39.35</v>
+        <v>48.35</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="3"/>
-        <v>214.25</v>
+        <v>315.75</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -5936,7 +6077,9 @@
       <c r="AG21" s="47">
         <v>99</v>
       </c>
-      <c r="AH21" s="47"/>
+      <c r="AH21" s="51">
+        <v>99</v>
+      </c>
       <c r="AI21" s="47">
         <v>99</v>
       </c>
@@ -5949,20 +6092,28 @@
       <c r="AL21" s="47">
         <v>99</v>
       </c>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
+      <c r="AM21" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ21" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR21" s="47"/>
       <c r="AS21" s="47"/>
       <c r="AT21" s="47"/>
       <c r="AU21" s="47"/>
       <c r="AV21" s="47"/>
       <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
+      <c r="AX21" s="47">
+        <v>99</v>
+      </c>
       <c r="AY21" s="47">
         <v>99</v>
       </c>
@@ -5975,9 +6126,7 @@
       <c r="BB21" s="47">
         <v>99</v>
       </c>
-      <c r="BC21" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC21" s="47"/>
       <c r="BD21" s="47"/>
       <c r="BE21" s="47"/>
       <c r="BF21" s="47"/>
@@ -5986,37 +6135,36 @@
       <c r="BI21" s="47"/>
       <c r="BJ21" s="47"/>
       <c r="BK21" s="47"/>
-      <c r="BL21" s="47"/>
-      <c r="BM21" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL21" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM21" s="47"/>
       <c r="BN21" s="47"/>
       <c r="BO21" s="47"/>
       <c r="BP21" s="47"/>
       <c r="BQ21" s="47"/>
-      <c r="BR21" s="47"/>
     </row>
-    <row r="22" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="9">
-        <f>G22/$G$5*20+SUM(BN54:BR54)</f>
-        <v>91.914893617021278</v>
+        <f>G22/$G$5*20+SUM(BM54:BQ54)</f>
+        <v>138.26086956521738</v>
       </c>
       <c r="E22" s="9">
-        <f>F22/$G$6*20+SUM(BN88:BR88)</f>
-        <v>6.5671641791044779</v>
+        <f>F22/$G$6*20+SUM(BM88:BQ88)</f>
+        <v>8.3720930232558146</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6086,7 +6234,9 @@
       <c r="AG22" s="47">
         <v>99</v>
       </c>
-      <c r="AH22" s="47"/>
+      <c r="AH22" s="51">
+        <v>99</v>
+      </c>
       <c r="AI22" s="47">
         <v>99</v>
       </c>
@@ -6099,20 +6249,28 @@
       <c r="AL22" s="47">
         <v>99</v>
       </c>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
+      <c r="AM22" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="47">
+        <v>1</v>
+      </c>
       <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ22" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR22" s="47"/>
       <c r="AS22" s="47"/>
       <c r="AT22" s="47"/>
       <c r="AU22" s="47"/>
       <c r="AV22" s="47"/>
       <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
+      <c r="AX22" s="47">
+        <v>99</v>
+      </c>
       <c r="AY22" s="47">
         <v>99</v>
       </c>
@@ -6125,9 +6283,7 @@
       <c r="BB22" s="47">
         <v>99</v>
       </c>
-      <c r="BC22" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC22" s="47"/>
       <c r="BD22" s="47"/>
       <c r="BE22" s="47"/>
       <c r="BF22" s="47"/>
@@ -6136,37 +6292,36 @@
       <c r="BI22" s="47"/>
       <c r="BJ22" s="47"/>
       <c r="BK22" s="47"/>
-      <c r="BL22" s="47"/>
-      <c r="BM22" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL22" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="47"/>
       <c r="BN22" s="47"/>
       <c r="BO22" s="47"/>
       <c r="BP22" s="47"/>
       <c r="BQ22" s="47"/>
-      <c r="BR22" s="47"/>
     </row>
-    <row r="23" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="9">
-        <f>G23/$G$5*20+SUM(BN55:BR55)</f>
-        <v>89.680851063829792</v>
+        <f>G23/$G$5*20+SUM(BM55:BQ55)</f>
+        <v>135.89130434782609</v>
       </c>
       <c r="E23" s="9">
-        <f>F23/$G$6*20+SUM(BN89:BR89)</f>
-        <v>4.5298507462686572</v>
+        <f>F23/$G$6*20+SUM(BM89:BQ89)</f>
+        <v>6.1317829457364343</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="2"/>
-        <v>30.35</v>
+        <v>39.550000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="3"/>
-        <v>210.75</v>
+        <v>312.55</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6236,7 +6391,9 @@
       <c r="AG23" s="47">
         <v>99</v>
       </c>
-      <c r="AH23" s="47"/>
+      <c r="AH23" s="51">
+        <v>99</v>
+      </c>
       <c r="AI23" s="47">
         <v>99</v>
       </c>
@@ -6249,20 +6406,28 @@
       <c r="AL23" s="47">
         <v>99</v>
       </c>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
+      <c r="AM23" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AN23" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AO23" s="47">
+        <v>1</v>
+      </c>
       <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ23" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR23" s="47"/>
       <c r="AS23" s="47"/>
       <c r="AT23" s="47"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="47"/>
       <c r="AW23" s="47"/>
-      <c r="AX23" s="47"/>
+      <c r="AX23" s="47">
+        <v>99</v>
+      </c>
       <c r="AY23" s="47">
         <v>99</v>
       </c>
@@ -6275,9 +6440,7 @@
       <c r="BB23" s="47">
         <v>99</v>
       </c>
-      <c r="BC23" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC23" s="47"/>
       <c r="BD23" s="47"/>
       <c r="BE23" s="47"/>
       <c r="BF23" s="47"/>
@@ -6286,37 +6449,36 @@
       <c r="BI23" s="47"/>
       <c r="BJ23" s="47"/>
       <c r="BK23" s="47"/>
-      <c r="BL23" s="47"/>
-      <c r="BM23" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL23" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
       <c r="BO23" s="47"/>
       <c r="BP23" s="47"/>
       <c r="BQ23" s="47"/>
-      <c r="BR23" s="47"/>
     </row>
-    <row r="24" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="9">
-        <f>G24/$G$5*20+SUM(BN56:BR56)</f>
-        <v>89.531914893617014</v>
+        <f>G24/$G$5*20+SUM(BM56:BQ56)</f>
+        <v>135.73913043478262</v>
       </c>
       <c r="E24" s="9">
-        <f>F24/$G$6*20+SUM(BN90:BR90)</f>
-        <v>5.1641791044776122</v>
+        <f>F24/$G$6*20+SUM(BM90:BQ90)</f>
+        <v>6.7906976744186052</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>34.6</v>
+        <v>43.800000000000004</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v>210.4</v>
+        <v>312.20000000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6386,7 +6548,9 @@
       <c r="AG24" s="47">
         <v>99</v>
       </c>
-      <c r="AH24" s="47"/>
+      <c r="AH24" s="51">
+        <v>99</v>
+      </c>
       <c r="AI24" s="47">
         <v>99</v>
       </c>
@@ -6399,20 +6563,28 @@
       <c r="AL24" s="47">
         <v>99</v>
       </c>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
+      <c r="AM24" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AN24" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AO24" s="47">
+        <v>1</v>
+      </c>
       <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ24" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR24" s="47"/>
       <c r="AS24" s="47"/>
       <c r="AT24" s="47"/>
       <c r="AU24" s="47"/>
       <c r="AV24" s="47"/>
       <c r="AW24" s="47"/>
-      <c r="AX24" s="47"/>
+      <c r="AX24" s="47">
+        <v>99</v>
+      </c>
       <c r="AY24" s="47">
         <v>99</v>
       </c>
@@ -6425,9 +6597,7 @@
       <c r="BB24" s="47">
         <v>99</v>
       </c>
-      <c r="BC24" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC24" s="47"/>
       <c r="BD24" s="47"/>
       <c r="BE24" s="47"/>
       <c r="BF24" s="47"/>
@@ -6436,37 +6606,36 @@
       <c r="BI24" s="47"/>
       <c r="BJ24" s="47"/>
       <c r="BK24" s="47"/>
-      <c r="BL24" s="47"/>
-      <c r="BM24" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL24" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
       <c r="BO24" s="47"/>
       <c r="BP24" s="47"/>
       <c r="BQ24" s="47"/>
-      <c r="BR24" s="47"/>
     </row>
-    <row r="25" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="9">
-        <f>G25/$G$5*20+SUM(BN57:BR57)</f>
-        <v>90.851063829787236</v>
+        <f>G25/$G$5*20+SUM(BM57:BQ57)</f>
+        <v>137.08695652173913</v>
       </c>
       <c r="E25" s="9">
-        <f>F25/$G$6*20+SUM(BN91:BR91)</f>
-        <v>5.2985074626865671</v>
+        <f>F25/$G$6*20+SUM(BM91:BQ91)</f>
+        <v>6.9302325581395348</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>35.5</v>
+        <v>44.7</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>213.5</v>
+        <v>315.3</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -6536,7 +6705,9 @@
       <c r="AG25" s="47">
         <v>99</v>
       </c>
-      <c r="AH25" s="47"/>
+      <c r="AH25" s="51">
+        <v>99</v>
+      </c>
       <c r="AI25" s="47">
         <v>99</v>
       </c>
@@ -6549,20 +6720,28 @@
       <c r="AL25" s="47">
         <v>99</v>
       </c>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
+      <c r="AM25" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AN25" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="AO25" s="47">
+        <v>1</v>
+      </c>
       <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ25" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR25" s="47"/>
       <c r="AS25" s="47"/>
       <c r="AT25" s="47"/>
       <c r="AU25" s="47"/>
       <c r="AV25" s="47"/>
       <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
+      <c r="AX25" s="47">
+        <v>99</v>
+      </c>
       <c r="AY25" s="47">
         <v>99</v>
       </c>
@@ -6575,9 +6754,7 @@
       <c r="BB25" s="47">
         <v>99</v>
       </c>
-      <c r="BC25" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC25" s="47"/>
       <c r="BD25" s="47"/>
       <c r="BE25" s="47"/>
       <c r="BF25" s="47"/>
@@ -6586,37 +6763,36 @@
       <c r="BI25" s="47"/>
       <c r="BJ25" s="47"/>
       <c r="BK25" s="47"/>
-      <c r="BL25" s="47"/>
-      <c r="BM25" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL25" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="47"/>
       <c r="BN25" s="47"/>
       <c r="BO25" s="47"/>
       <c r="BP25" s="47"/>
       <c r="BQ25" s="47"/>
-      <c r="BR25" s="47"/>
     </row>
-    <row r="26" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="9">
-        <f>G26/$G$5*20+SUM(BN58:BR58)</f>
-        <v>90.531914893617014</v>
+        <f>G26/$G$5*20+SUM(BM58:BQ58)</f>
+        <v>136.08695652173913</v>
       </c>
       <c r="E26" s="9">
-        <f>F26/$G$6*20+SUM(BN92:BR92)</f>
-        <v>5.4850746268656714</v>
+        <f>F26/$G$6*20+SUM(BM92:BQ92)</f>
+        <v>6.4728682170542644</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>36.75</v>
+        <v>41.75</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="3"/>
-        <v>212.75</v>
+        <v>313</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -6686,7 +6862,9 @@
       <c r="AG26" s="47">
         <v>99</v>
       </c>
-      <c r="AH26" s="47"/>
+      <c r="AH26" s="51">
+        <v>99</v>
+      </c>
       <c r="AI26" s="47">
         <v>99</v>
       </c>
@@ -6699,20 +6877,28 @@
       <c r="AL26" s="47">
         <v>99</v>
       </c>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
+      <c r="AM26" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="AN26" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="AO26" s="47">
+        <v>0</v>
+      </c>
       <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ26" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR26" s="47"/>
       <c r="AS26" s="47"/>
       <c r="AT26" s="47"/>
       <c r="AU26" s="47"/>
       <c r="AV26" s="47"/>
       <c r="AW26" s="47"/>
-      <c r="AX26" s="47"/>
+      <c r="AX26" s="47">
+        <v>99</v>
+      </c>
       <c r="AY26" s="47">
         <v>99</v>
       </c>
@@ -6725,9 +6911,7 @@
       <c r="BB26" s="47">
         <v>99</v>
       </c>
-      <c r="BC26" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC26" s="47"/>
       <c r="BD26" s="47"/>
       <c r="BE26" s="47"/>
       <c r="BF26" s="47"/>
@@ -6736,37 +6920,36 @@
       <c r="BI26" s="47"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="47"/>
-      <c r="BL26" s="47"/>
-      <c r="BM26" s="47">
-        <v>0</v>
-      </c>
+      <c r="BL26" s="47">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="47"/>
       <c r="BN26" s="47"/>
       <c r="BO26" s="47"/>
       <c r="BP26" s="47"/>
       <c r="BQ26" s="47"/>
-      <c r="BR26" s="47"/>
     </row>
-    <row r="27" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="9">
-        <f>G27/$G$5*20+SUM(BN59:BR59)</f>
-        <v>90.340425531914903</v>
+        <f>G27/$G$5*20+SUM(BM59:BQ59)</f>
+        <v>136.10869565217394</v>
       </c>
       <c r="E27" s="9">
-        <f>F27/$G$6*20+SUM(BN93:BR93)</f>
-        <v>5.1044776119402986</v>
+        <f>F27/$G$6*20+SUM(BM93:BQ93)</f>
+        <v>6.0775193798449614</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="3"/>
-        <v>212.3</v>
+        <v>313.05</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -6836,7 +7019,9 @@
       <c r="AG27" s="47">
         <v>99</v>
       </c>
-      <c r="AH27" s="47"/>
+      <c r="AH27" s="51">
+        <v>99</v>
+      </c>
       <c r="AI27" s="47">
         <v>99</v>
       </c>
@@ -6849,20 +7034,28 @@
       <c r="AL27" s="47">
         <v>99</v>
       </c>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="47"/>
+      <c r="AM27" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="AN27" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="AO27" s="47">
+        <v>1</v>
+      </c>
       <c r="AP27" s="47"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ27" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR27" s="47"/>
       <c r="AS27" s="47"/>
       <c r="AT27" s="47"/>
       <c r="AU27" s="47"/>
       <c r="AV27" s="47"/>
       <c r="AW27" s="47"/>
-      <c r="AX27" s="47"/>
+      <c r="AX27" s="47">
+        <v>99</v>
+      </c>
       <c r="AY27" s="47">
         <v>99</v>
       </c>
@@ -6875,9 +7068,7 @@
       <c r="BB27" s="47">
         <v>99</v>
       </c>
-      <c r="BC27" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC27" s="47"/>
       <c r="BD27" s="47"/>
       <c r="BE27" s="47"/>
       <c r="BF27" s="47"/>
@@ -6886,37 +7077,36 @@
       <c r="BI27" s="47"/>
       <c r="BJ27" s="47"/>
       <c r="BK27" s="47"/>
-      <c r="BL27" s="47"/>
-      <c r="BM27" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL27" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM27" s="47"/>
       <c r="BN27" s="47"/>
       <c r="BO27" s="47"/>
       <c r="BP27" s="47"/>
       <c r="BQ27" s="47"/>
-      <c r="BR27" s="47"/>
     </row>
-    <row r="28" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="9">
-        <f>G28/$G$5*20+SUM(BN60:BR60)</f>
-        <v>91.340425531914903</v>
+        <f>G28/$G$5*20+SUM(BM60:BQ60)</f>
+        <v>137.67391304347825</v>
       </c>
       <c r="E28" s="9">
-        <f>F28/$G$6*20+SUM(BN94:BR94)</f>
-        <v>6.1716417910447765</v>
+        <f>F28/$G$6*20+SUM(BM94:BQ94)</f>
+        <v>7.9612403100775193</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>41.35</v>
+        <v>51.35</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="3"/>
-        <v>214.65</v>
+        <v>316.64999999999998</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -6986,7 +7176,9 @@
       <c r="AG28" s="47">
         <v>99</v>
       </c>
-      <c r="AH28" s="47"/>
+      <c r="AH28" s="51">
+        <v>99</v>
+      </c>
       <c r="AI28" s="47">
         <v>99</v>
       </c>
@@ -6999,20 +7191,28 @@
       <c r="AL28" s="47">
         <v>99</v>
       </c>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
+      <c r="AM28" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="47">
+        <v>1</v>
+      </c>
       <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ28" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR28" s="47"/>
       <c r="AS28" s="47"/>
       <c r="AT28" s="47"/>
       <c r="AU28" s="47"/>
       <c r="AV28" s="47"/>
       <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
+      <c r="AX28" s="47">
+        <v>99</v>
+      </c>
       <c r="AY28" s="47">
         <v>99</v>
       </c>
@@ -7025,9 +7225,7 @@
       <c r="BB28" s="47">
         <v>99</v>
       </c>
-      <c r="BC28" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC28" s="47"/>
       <c r="BD28" s="47"/>
       <c r="BE28" s="47"/>
       <c r="BF28" s="47"/>
@@ -7036,26 +7234,25 @@
       <c r="BI28" s="47"/>
       <c r="BJ28" s="47"/>
       <c r="BK28" s="47"/>
-      <c r="BL28" s="47"/>
-      <c r="BM28" s="47">
-        <v>1</v>
-      </c>
+      <c r="BL28" s="47">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="47"/>
       <c r="BN28" s="47"/>
       <c r="BO28" s="47"/>
       <c r="BP28" s="47"/>
       <c r="BQ28" s="47"/>
-      <c r="BR28" s="47"/>
     </row>
-    <row r="29" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="9">
-        <f>G29/$G$5*20+SUM(BN61:BR61)</f>
-        <v>84.255319148936167</v>
+        <f>G29/$G$5*20+SUM(BM61:BQ61)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E29" s="9">
-        <f>F29/$G$6*20+SUM(BN95:BR95)</f>
+        <f>F29/$G$6*20+SUM(BM95:BQ95)</f>
         <v>0</v>
       </c>
       <c r="F29" s="5">
@@ -7064,7 +7261,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
@@ -7096,7 +7293,9 @@
       <c r="AG29" s="47">
         <v>99</v>
       </c>
-      <c r="AH29" s="47"/>
+      <c r="AH29" s="51">
+        <v>99</v>
+      </c>
       <c r="AI29" s="47">
         <v>99</v>
       </c>
@@ -7113,16 +7312,18 @@
       <c r="AN29" s="47"/>
       <c r="AO29" s="47"/>
       <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ29" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR29" s="47"/>
       <c r="AS29" s="47"/>
       <c r="AT29" s="47"/>
       <c r="AU29" s="47"/>
       <c r="AV29" s="47"/>
       <c r="AW29" s="47"/>
-      <c r="AX29" s="47"/>
+      <c r="AX29" s="47">
+        <v>99</v>
+      </c>
       <c r="AY29" s="47">
         <v>99</v>
       </c>
@@ -7135,9 +7336,7 @@
       <c r="BB29" s="47">
         <v>99</v>
       </c>
-      <c r="BC29" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC29" s="47"/>
       <c r="BD29" s="47"/>
       <c r="BE29" s="47"/>
       <c r="BF29" s="47"/>
@@ -7152,18 +7351,17 @@
       <c r="BO29" s="47"/>
       <c r="BP29" s="47"/>
       <c r="BQ29" s="47"/>
-      <c r="BR29" s="47"/>
     </row>
-    <row r="30" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="9">
-        <f>G30/$G$5*20+SUM(BN62:BR62)</f>
-        <v>84.255319148936167</v>
+        <f>G30/$G$5*20+SUM(BM62:BQ62)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E30" s="9">
-        <f>F30/$G$6*20+SUM(BN96:BR96)</f>
+        <f>F30/$G$6*20+SUM(BM96:BQ96)</f>
         <v>0</v>
       </c>
       <c r="F30" s="5">
@@ -7172,7 +7370,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
@@ -7204,7 +7402,9 @@
       <c r="AG30" s="47">
         <v>99</v>
       </c>
-      <c r="AH30" s="47"/>
+      <c r="AH30" s="51">
+        <v>99</v>
+      </c>
       <c r="AI30" s="47">
         <v>99</v>
       </c>
@@ -7221,16 +7421,18 @@
       <c r="AN30" s="47"/>
       <c r="AO30" s="47"/>
       <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ30" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR30" s="47"/>
       <c r="AS30" s="47"/>
       <c r="AT30" s="47"/>
       <c r="AU30" s="47"/>
       <c r="AV30" s="47"/>
       <c r="AW30" s="47"/>
-      <c r="AX30" s="47"/>
+      <c r="AX30" s="47">
+        <v>99</v>
+      </c>
       <c r="AY30" s="47">
         <v>99</v>
       </c>
@@ -7243,9 +7445,7 @@
       <c r="BB30" s="47">
         <v>99</v>
       </c>
-      <c r="BC30" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC30" s="47"/>
       <c r="BD30" s="47"/>
       <c r="BE30" s="47"/>
       <c r="BF30" s="47"/>
@@ -7260,18 +7460,17 @@
       <c r="BO30" s="47"/>
       <c r="BP30" s="47"/>
       <c r="BQ30" s="47"/>
-      <c r="BR30" s="47"/>
     </row>
-    <row r="31" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
       <c r="D31" s="9">
-        <f>G31/$G$5*20+SUM(BN63:BR63)</f>
-        <v>84.255319148936167</v>
+        <f>G31/$G$5*20+SUM(BM63:BQ63)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E31" s="9">
-        <f>F31/$G$6*20+SUM(BN97:BR97)</f>
+        <f>F31/$G$6*20+SUM(BM97:BQ97)</f>
         <v>0</v>
       </c>
       <c r="F31" s="5">
@@ -7280,7 +7479,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
@@ -7312,7 +7511,9 @@
       <c r="AG31" s="47">
         <v>99</v>
       </c>
-      <c r="AH31" s="47"/>
+      <c r="AH31" s="51">
+        <v>99</v>
+      </c>
       <c r="AI31" s="47">
         <v>99</v>
       </c>
@@ -7329,16 +7530,18 @@
       <c r="AN31" s="47"/>
       <c r="AO31" s="47"/>
       <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ31" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR31" s="47"/>
       <c r="AS31" s="47"/>
       <c r="AT31" s="47"/>
       <c r="AU31" s="47"/>
       <c r="AV31" s="47"/>
       <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
+      <c r="AX31" s="47">
+        <v>99</v>
+      </c>
       <c r="AY31" s="47">
         <v>99</v>
       </c>
@@ -7351,9 +7554,7 @@
       <c r="BB31" s="47">
         <v>99</v>
       </c>
-      <c r="BC31" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC31" s="47"/>
       <c r="BD31" s="47"/>
       <c r="BE31" s="47"/>
       <c r="BF31" s="47"/>
@@ -7368,18 +7569,17 @@
       <c r="BO31" s="47"/>
       <c r="BP31" s="47"/>
       <c r="BQ31" s="47"/>
-      <c r="BR31" s="47"/>
     </row>
-    <row r="32" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="9">
-        <f>G32/$G$5*20+SUM(BN64:BR64)</f>
-        <v>84.255319148936167</v>
+        <f>G32/$G$5*20+SUM(BM64:BQ64)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E32" s="9">
-        <f>F32/$G$6*20+SUM(BN98:BR98)</f>
+        <f>F32/$G$6*20+SUM(BM98:BQ98)</f>
         <v>0</v>
       </c>
       <c r="F32" s="5">
@@ -7388,7 +7588,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
@@ -7420,7 +7620,9 @@
       <c r="AG32" s="47">
         <v>99</v>
       </c>
-      <c r="AH32" s="47"/>
+      <c r="AH32" s="51">
+        <v>99</v>
+      </c>
       <c r="AI32" s="47">
         <v>99</v>
       </c>
@@ -7437,16 +7639,18 @@
       <c r="AN32" s="47"/>
       <c r="AO32" s="47"/>
       <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ32" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR32" s="47"/>
       <c r="AS32" s="47"/>
       <c r="AT32" s="47"/>
       <c r="AU32" s="47"/>
       <c r="AV32" s="47"/>
       <c r="AW32" s="47"/>
-      <c r="AX32" s="47"/>
+      <c r="AX32" s="47">
+        <v>99</v>
+      </c>
       <c r="AY32" s="47">
         <v>99</v>
       </c>
@@ -7459,9 +7663,7 @@
       <c r="BB32" s="47">
         <v>99</v>
       </c>
-      <c r="BC32" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC32" s="47"/>
       <c r="BD32" s="47"/>
       <c r="BE32" s="47"/>
       <c r="BF32" s="47"/>
@@ -7476,18 +7678,17 @@
       <c r="BO32" s="47"/>
       <c r="BP32" s="47"/>
       <c r="BQ32" s="47"/>
-      <c r="BR32" s="47"/>
     </row>
-    <row r="33" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="9">
-        <f>G33/$G$5*20+SUM(BN65:BR65)</f>
-        <v>84.255319148936167</v>
+        <f>G33/$G$5*20+SUM(BM65:BQ65)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E33" s="9">
-        <f>F33/$G$6*20+SUM(BN99:BR99)</f>
+        <f>F33/$G$6*20+SUM(BM99:BQ99)</f>
         <v>0</v>
       </c>
       <c r="F33" s="5">
@@ -7496,7 +7697,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
@@ -7528,7 +7729,9 @@
       <c r="AG33" s="47">
         <v>99</v>
       </c>
-      <c r="AH33" s="47"/>
+      <c r="AH33" s="51">
+        <v>99</v>
+      </c>
       <c r="AI33" s="47">
         <v>99</v>
       </c>
@@ -7545,16 +7748,18 @@
       <c r="AN33" s="47"/>
       <c r="AO33" s="47"/>
       <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ33" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="47"/>
       <c r="AS33" s="47"/>
       <c r="AT33" s="47"/>
       <c r="AU33" s="47"/>
       <c r="AV33" s="47"/>
       <c r="AW33" s="47"/>
-      <c r="AX33" s="47"/>
+      <c r="AX33" s="47">
+        <v>99</v>
+      </c>
       <c r="AY33" s="47">
         <v>99</v>
       </c>
@@ -7567,9 +7772,7 @@
       <c r="BB33" s="47">
         <v>99</v>
       </c>
-      <c r="BC33" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC33" s="47"/>
       <c r="BD33" s="47"/>
       <c r="BE33" s="47"/>
       <c r="BF33" s="47"/>
@@ -7584,18 +7787,17 @@
       <c r="BO33" s="47"/>
       <c r="BP33" s="47"/>
       <c r="BQ33" s="47"/>
-      <c r="BR33" s="47"/>
     </row>
-    <row r="34" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="9">
-        <f>G34/$G$5*20+SUM(BN66:BR66)</f>
-        <v>84.255319148936167</v>
+        <f>G34/$G$5*20+SUM(BM66:BQ66)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E34" s="9">
-        <f>F34/$G$6*20+SUM(BN100:BR100)</f>
+        <f>F34/$G$6*20+SUM(BM100:BQ100)</f>
         <v>0</v>
       </c>
       <c r="F34" s="5">
@@ -7604,7 +7806,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
@@ -7636,7 +7838,9 @@
       <c r="AG34" s="47">
         <v>99</v>
       </c>
-      <c r="AH34" s="47"/>
+      <c r="AH34" s="51">
+        <v>99</v>
+      </c>
       <c r="AI34" s="47">
         <v>99</v>
       </c>
@@ -7653,16 +7857,18 @@
       <c r="AN34" s="47"/>
       <c r="AO34" s="47"/>
       <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ34" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR34" s="47"/>
       <c r="AS34" s="47"/>
       <c r="AT34" s="47"/>
       <c r="AU34" s="47"/>
       <c r="AV34" s="47"/>
       <c r="AW34" s="47"/>
-      <c r="AX34" s="47"/>
+      <c r="AX34" s="47">
+        <v>99</v>
+      </c>
       <c r="AY34" s="47">
         <v>99</v>
       </c>
@@ -7675,9 +7881,7 @@
       <c r="BB34" s="47">
         <v>99</v>
       </c>
-      <c r="BC34" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC34" s="47"/>
       <c r="BD34" s="47"/>
       <c r="BE34" s="47"/>
       <c r="BF34" s="47"/>
@@ -7692,18 +7896,17 @@
       <c r="BO34" s="47"/>
       <c r="BP34" s="47"/>
       <c r="BQ34" s="47"/>
-      <c r="BR34" s="47"/>
     </row>
-    <row r="35" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="9">
-        <f>G35/$G$5*20+SUM(BN67:BR67)</f>
-        <v>84.255319148936167</v>
+        <f>G35/$G$5*20+SUM(BM67:BQ67)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E35" s="9">
-        <f>F35/$G$6*20+SUM(BN101:BR101)</f>
+        <f>F35/$G$6*20+SUM(BM101:BQ101)</f>
         <v>0</v>
       </c>
       <c r="F35" s="5">
@@ -7712,7 +7915,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
@@ -7744,7 +7947,9 @@
       <c r="AG35" s="47">
         <v>99</v>
       </c>
-      <c r="AH35" s="47"/>
+      <c r="AH35" s="51">
+        <v>99</v>
+      </c>
       <c r="AI35" s="47">
         <v>99</v>
       </c>
@@ -7761,16 +7966,18 @@
       <c r="AN35" s="47"/>
       <c r="AO35" s="47"/>
       <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ35" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR35" s="47"/>
       <c r="AS35" s="47"/>
       <c r="AT35" s="47"/>
       <c r="AU35" s="47"/>
       <c r="AV35" s="47"/>
       <c r="AW35" s="47"/>
-      <c r="AX35" s="47"/>
+      <c r="AX35" s="47">
+        <v>99</v>
+      </c>
       <c r="AY35" s="47">
         <v>99</v>
       </c>
@@ -7783,9 +7990,7 @@
       <c r="BB35" s="47">
         <v>99</v>
       </c>
-      <c r="BC35" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC35" s="47"/>
       <c r="BD35" s="47"/>
       <c r="BE35" s="47"/>
       <c r="BF35" s="47"/>
@@ -7800,18 +8005,17 @@
       <c r="BO35" s="47"/>
       <c r="BP35" s="47"/>
       <c r="BQ35" s="47"/>
-      <c r="BR35" s="47"/>
     </row>
-    <row r="36" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="9">
-        <f>G36/$G$5*20+SUM(BN68:BR68)</f>
-        <v>84.255319148936167</v>
+        <f>G36/$G$5*20+SUM(BM68:BQ68)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E36" s="9">
-        <f>F36/$G$6*20+SUM(BN102:BR102)</f>
+        <f>F36/$G$6*20+SUM(BM102:BQ102)</f>
         <v>0</v>
       </c>
       <c r="F36" s="5">
@@ -7820,7 +8024,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
@@ -7852,7 +8056,9 @@
       <c r="AG36" s="47">
         <v>99</v>
       </c>
-      <c r="AH36" s="47"/>
+      <c r="AH36" s="51">
+        <v>99</v>
+      </c>
       <c r="AI36" s="47">
         <v>99</v>
       </c>
@@ -7869,16 +8075,18 @@
       <c r="AN36" s="47"/>
       <c r="AO36" s="47"/>
       <c r="AP36" s="47"/>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ36" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR36" s="47"/>
       <c r="AS36" s="47"/>
       <c r="AT36" s="47"/>
       <c r="AU36" s="47"/>
       <c r="AV36" s="47"/>
       <c r="AW36" s="47"/>
-      <c r="AX36" s="47"/>
+      <c r="AX36" s="47">
+        <v>99</v>
+      </c>
       <c r="AY36" s="47">
         <v>99</v>
       </c>
@@ -7891,9 +8099,7 @@
       <c r="BB36" s="47">
         <v>99</v>
       </c>
-      <c r="BC36" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC36" s="47"/>
       <c r="BD36" s="47"/>
       <c r="BE36" s="47"/>
       <c r="BF36" s="47"/>
@@ -7908,18 +8114,17 @@
       <c r="BO36" s="47"/>
       <c r="BP36" s="47"/>
       <c r="BQ36" s="47"/>
-      <c r="BR36" s="47"/>
     </row>
-    <row r="37" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="9">
-        <f>G37/$G$5*20+SUM(BN69:BR69)</f>
-        <v>84.255319148936167</v>
+        <f>G37/$G$5*20+SUM(BM69:BQ69)</f>
+        <v>129.13043478260869</v>
       </c>
       <c r="E37" s="9">
-        <f>F37/$G$6*20+SUM(BN103:BR103)</f>
+        <f>F37/$G$6*20+SUM(BM103:BQ103)</f>
         <v>0</v>
       </c>
       <c r="F37" s="5">
@@ -7928,7 +8133,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -7960,7 +8165,9 @@
       <c r="AG37" s="47">
         <v>99</v>
       </c>
-      <c r="AH37" s="47"/>
+      <c r="AH37" s="51">
+        <v>99</v>
+      </c>
       <c r="AI37" s="47">
         <v>99</v>
       </c>
@@ -7977,16 +8184,18 @@
       <c r="AN37" s="47"/>
       <c r="AO37" s="47"/>
       <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47">
-        <v>99</v>
-      </c>
+      <c r="AQ37" s="47">
+        <v>99</v>
+      </c>
+      <c r="AR37" s="47"/>
       <c r="AS37" s="47"/>
       <c r="AT37" s="47"/>
       <c r="AU37" s="47"/>
       <c r="AV37" s="47"/>
       <c r="AW37" s="47"/>
-      <c r="AX37" s="47"/>
+      <c r="AX37" s="47">
+        <v>99</v>
+      </c>
       <c r="AY37" s="47">
         <v>99</v>
       </c>
@@ -7999,9 +8208,7 @@
       <c r="BB37" s="47">
         <v>99</v>
       </c>
-      <c r="BC37" s="47">
-        <v>99</v>
-      </c>
+      <c r="BC37" s="47"/>
       <c r="BD37" s="47"/>
       <c r="BE37" s="47"/>
       <c r="BF37" s="47"/>
@@ -8016,27 +8223,26 @@
       <c r="BO37" s="47"/>
       <c r="BP37" s="47"/>
       <c r="BQ37" s="47"/>
-      <c r="BR37" s="47"/>
     </row>
-    <row r="38" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="9">
-        <f>G38/$G$5*20+SUM(BN70:BR70)</f>
+        <f>G38/$G$5*20+SUM(BM70:BQ70)</f>
         <v>23</v>
       </c>
       <c r="E38" s="9">
-        <f>F38/$G$6*20+SUM(BN104:BR104)</f>
+        <f>F38/$G$6*20+SUM(BM104:BQ104)</f>
         <v>22</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="47">
         <v>1</v>
@@ -8224,18 +8430,15 @@
       <c r="BQ38" s="47">
         <v>1</v>
       </c>
-      <c r="BR38" s="47">
-        <v>1</v>
-      </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="H39" s="1" t="e">
         <f>AVERAGE(H9:H35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="1" t="e">
-        <f t="shared" ref="I39:BJ39" si="4">AVERAGE(I9:I35)</f>
+        <f t="shared" ref="I39:BI39" si="4">AVERAGE(I9:I35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J39" s="1">
@@ -8334,9 +8537,9 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="AH39" s="1" t="e">
+      <c r="AH39" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="4"/>
@@ -8354,29 +8557,29 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="AM39" s="1" t="e">
+      <c r="AM39" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN39" s="1" t="e">
+        <v>0.81447368421052635</v>
+      </c>
+      <c r="AN39" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO39" s="1" t="e">
+        <v>0.81315789473684219</v>
+      </c>
+      <c r="AO39" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="AP39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ39" s="1" t="e">
+      <c r="AQ39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AR39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AR39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
       </c>
       <c r="AS39" s="1" t="e">
         <f t="shared" si="4"/>
@@ -8398,29 +8601,29 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX39" s="1" t="e">
+      <c r="AX39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AY39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AZ39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="BA39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="BB39" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="BC39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AY39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="AZ39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="BA39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="BB39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="BC39" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
       </c>
       <c r="BD39" s="1" t="e">
         <f t="shared" si="4"/>
@@ -8447,20 +8650,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BJ39" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="BJ39:BQ39" si="5">AVERAGE(BJ9:BJ35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK39" s="1" t="e">
-        <f t="shared" ref="BK39:BR39" si="5">AVERAGE(BK9:BK35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL39" s="1" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BM39" s="1">
+      <c r="BL39" s="1">
         <f t="shared" si="5"/>
         <v>0.78947368421052633</v>
+      </c>
+      <c r="BM39" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="BN39" s="1" t="e">
         <f t="shared" si="5"/>
@@ -8478,22 +8681,18 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BR39" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
-        <f>SUM(H41:BM41)</f>
-        <v>213.75</v>
+        <f>SUM(H41:BL41)</f>
+        <v>316</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41:BJ41" si="6">I9*I$5</f>
+        <f t="shared" ref="I41:BI41" si="6">I9*I$5</f>
         <v>0</v>
       </c>
       <c r="J41" s="1">
@@ -8594,7 +8793,7 @@
       </c>
       <c r="AH41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="6"/>
@@ -8614,15 +8813,15 @@
       </c>
       <c r="AM41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP41" s="1">
         <f t="shared" si="6"/>
@@ -8658,7 +8857,7 @@
       </c>
       <c r="AX41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY41" s="1">
         <f t="shared" si="6"/>
@@ -8666,7 +8865,7 @@
       </c>
       <c r="AZ41" s="1">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="1">
         <f t="shared" si="6"/>
@@ -8705,11 +8904,11 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="BJ41:BQ41" si="7">BJ9*BJ$5</f>
         <v>0</v>
       </c>
       <c r="BK41" s="1">
-        <f t="shared" ref="BK41:BR41" si="7">BK9*BK$5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BL41" s="1">
@@ -8736,18 +8935,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BR41" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
-        <f>SUM(H42:BM42)</f>
-        <v>215.125</v>
+        <f>SUM(H42:BL42)</f>
+        <v>316</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" ref="H42:BI42" si="8">H10*H$5</f>
+        <f t="shared" ref="H42:BH42" si="8">H10*H$5</f>
         <v>0</v>
       </c>
       <c r="I42" s="1">
@@ -8852,7 +9047,7 @@
       </c>
       <c r="AH42" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI42" s="1">
         <f t="shared" si="8"/>
@@ -8872,11 +9067,11 @@
       </c>
       <c r="AM42" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AN42" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="8"/>
@@ -8916,7 +9111,7 @@
       </c>
       <c r="AX42" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY42" s="1">
         <f t="shared" si="8"/>
@@ -8924,7 +9119,7 @@
       </c>
       <c r="AZ42" s="1">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="1">
         <f t="shared" si="8"/>
@@ -8959,11 +9154,11 @@
         <v>0</v>
       </c>
       <c r="BI42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="BI42:BQ42" si="9">BI10*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ42" s="1">
-        <f t="shared" ref="BJ42:BR42" si="9">BJ10*BJ$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BK42" s="1">
@@ -8972,11 +9167,11 @@
       </c>
       <c r="BL42" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM42" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42" s="1">
         <f t="shared" si="9"/>
@@ -8994,18 +9189,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BR42" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
-        <f>SUM(H43:BM43)</f>
-        <v>215.75</v>
+        <f>SUM(H43:BL43)</f>
+        <v>317.75</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ref="H43:BI43" si="10">H11*H$5</f>
+        <f t="shared" ref="H43:BH43" si="10">H11*H$5</f>
         <v>0</v>
       </c>
       <c r="I43" s="1">
@@ -9110,7 +9301,7 @@
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI43" s="1">
         <f t="shared" si="10"/>
@@ -9130,15 +9321,15 @@
       </c>
       <c r="AM43" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" si="10"/>
@@ -9174,7 +9365,7 @@
       </c>
       <c r="AX43" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY43" s="1">
         <f t="shared" si="10"/>
@@ -9182,7 +9373,7 @@
       </c>
       <c r="AZ43" s="1">
         <f t="shared" si="10"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="1">
         <f t="shared" si="10"/>
@@ -9217,11 +9408,11 @@
         <v>0</v>
       </c>
       <c r="BI43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="BI43:BQ43" si="11">BI11*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ43" s="1">
-        <f t="shared" ref="BJ43:BR43" si="11">BJ11*BJ$5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BK43" s="1">
@@ -9230,11 +9421,11 @@
       </c>
       <c r="BL43" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM43" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="1">
         <f t="shared" si="11"/>
@@ -9252,18 +9443,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BR43" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
-        <f>SUM(H44:BM44)</f>
-        <v>214.9</v>
+        <f>SUM(H44:BL44)</f>
+        <v>317.14999999999998</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ref="H44:BI44" si="12">H12*H$5</f>
+        <f t="shared" ref="H44:BH44" si="12">H12*H$5</f>
         <v>0</v>
       </c>
       <c r="I44" s="1">
@@ -9368,7 +9555,7 @@
       </c>
       <c r="AH44" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI44" s="1">
         <f t="shared" si="12"/>
@@ -9388,15 +9575,15 @@
       </c>
       <c r="AM44" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP44" s="1">
         <f t="shared" si="12"/>
@@ -9432,7 +9619,7 @@
       </c>
       <c r="AX44" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY44" s="1">
         <f t="shared" si="12"/>
@@ -9440,7 +9627,7 @@
       </c>
       <c r="AZ44" s="1">
         <f t="shared" si="12"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="1">
         <f t="shared" si="12"/>
@@ -9475,11 +9662,11 @@
         <v>0</v>
       </c>
       <c r="BI44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="BI44:BQ44" si="13">BI12*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ44" s="1">
-        <f t="shared" ref="BJ44:BR44" si="13">BJ12*BJ$5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BK44" s="1">
@@ -9488,11 +9675,11 @@
       </c>
       <c r="BL44" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM44" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44" s="1">
         <f t="shared" si="13"/>
@@ -9510,20 +9697,16 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BR44" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="G45" s="1">
-        <f>SUM(H45:BM45)</f>
-        <v>216</v>
+        <f>SUM(H45:BL45)</f>
+        <v>318.25</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:BI45" si="14">H13*H$5</f>
+        <f t="shared" ref="H45:BH45" si="14">H13*H$5</f>
         <v>0</v>
       </c>
       <c r="I45" s="1">
@@ -9628,7 +9811,7 @@
       </c>
       <c r="AH45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI45" s="1">
         <f t="shared" si="14"/>
@@ -9648,15 +9831,15 @@
       </c>
       <c r="AM45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP45" s="1">
         <f t="shared" si="14"/>
@@ -9692,7 +9875,7 @@
       </c>
       <c r="AX45" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY45" s="1">
         <f t="shared" si="14"/>
@@ -9700,7 +9883,7 @@
       </c>
       <c r="AZ45" s="1">
         <f t="shared" si="14"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="1">
         <f t="shared" si="14"/>
@@ -9735,11 +9918,11 @@
         <v>0</v>
       </c>
       <c r="BI45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="BI45:BQ45" si="15">BI13*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ45" s="1">
-        <f t="shared" ref="BJ45:BR45" si="15">BJ13*BJ$5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BK45" s="1">
@@ -9748,11 +9931,11 @@
       </c>
       <c r="BL45" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM45" s="1">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="1">
         <f t="shared" si="15"/>
@@ -9770,20 +9953,16 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BR45" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="G46" s="1">
-        <f>SUM(H46:BM46)</f>
-        <v>203.5</v>
+        <f>SUM(H46:BL46)</f>
+        <v>303.5</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ref="H46:BI46" si="16">H14*H$5</f>
+        <f t="shared" ref="H46:BH46" si="16">H14*H$5</f>
         <v>0</v>
       </c>
       <c r="I46" s="1">
@@ -9888,7 +10067,7 @@
       </c>
       <c r="AH46" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="16"/>
@@ -9916,7 +10095,7 @@
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" s="1">
         <f t="shared" si="16"/>
@@ -9952,7 +10131,7 @@
       </c>
       <c r="AX46" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY46" s="1">
         <f t="shared" si="16"/>
@@ -9960,7 +10139,7 @@
       </c>
       <c r="AZ46" s="1">
         <f t="shared" si="16"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="1">
         <f t="shared" si="16"/>
@@ -9995,11 +10174,11 @@
         <v>0</v>
       </c>
       <c r="BI46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="BI46:BQ46" si="17">BI14*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ46" s="1">
-        <f t="shared" ref="BJ46:BR46" si="17">BJ14*BJ$5</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BK46" s="1">
@@ -10030,20 +10209,16 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BR46" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="G47" s="1">
-        <f>SUM(H47:BM47)</f>
-        <v>215.5</v>
+        <f>SUM(H47:BL47)</f>
+        <v>317.25</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:BI47" si="18">H15*H$5</f>
+        <f t="shared" ref="H47:BH47" si="18">H15*H$5</f>
         <v>0</v>
       </c>
       <c r="I47" s="1">
@@ -10148,7 +10323,7 @@
       </c>
       <c r="AH47" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI47" s="1">
         <f t="shared" si="18"/>
@@ -10168,15 +10343,15 @@
       </c>
       <c r="AM47" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AN47" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47" s="1">
         <f t="shared" si="18"/>
@@ -10212,7 +10387,7 @@
       </c>
       <c r="AX47" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY47" s="1">
         <f t="shared" si="18"/>
@@ -10220,7 +10395,7 @@
       </c>
       <c r="AZ47" s="1">
         <f t="shared" si="18"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="1">
         <f t="shared" si="18"/>
@@ -10255,11 +10430,11 @@
         <v>0</v>
       </c>
       <c r="BI47" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="BI47:BQ47" si="19">BI15*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ47" s="1">
-        <f t="shared" ref="BJ47:BR47" si="19">BJ15*BJ$5</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BK47" s="1">
@@ -10268,11 +10443,11 @@
       </c>
       <c r="BL47" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM47" s="1">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="1">
         <f t="shared" si="19"/>
@@ -10290,20 +10465,16 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BR47" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="G48" s="1">
-        <f>SUM(H48:BM48)</f>
-        <v>215.9</v>
+        <f>SUM(H48:BL48)</f>
+        <v>317.89999999999998</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ref="H48:BI48" si="20">H16*H$5</f>
+        <f t="shared" ref="H48:BH48" si="20">H16*H$5</f>
         <v>0</v>
       </c>
       <c r="I48" s="1">
@@ -10408,7 +10579,7 @@
       </c>
       <c r="AH48" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="20"/>
@@ -10428,15 +10599,15 @@
       </c>
       <c r="AM48" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP48" s="1">
         <f t="shared" si="20"/>
@@ -10472,7 +10643,7 @@
       </c>
       <c r="AX48" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY48" s="1">
         <f t="shared" si="20"/>
@@ -10480,7 +10651,7 @@
       </c>
       <c r="AZ48" s="1">
         <f t="shared" si="20"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="1">
         <f t="shared" si="20"/>
@@ -10515,11 +10686,11 @@
         <v>0</v>
       </c>
       <c r="BI48" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BI48:BQ48" si="21">BI16*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ48" s="1">
-        <f t="shared" ref="BJ48:BR48" si="21">BJ16*BJ$5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BK48" s="1">
@@ -10528,11 +10699,11 @@
       </c>
       <c r="BL48" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM48" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN48" s="1">
         <f t="shared" si="21"/>
@@ -10550,20 +10721,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BR48" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="G49" s="1">
-        <f>SUM(H49:BM49)</f>
-        <v>198</v>
+        <f>SUM(H49:BL49)</f>
+        <v>297</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:BI49" si="22">H17*H$5</f>
+        <f t="shared" ref="H49:BH49" si="22">H17*H$5</f>
         <v>0</v>
       </c>
       <c r="I49" s="1">
@@ -10668,7 +10835,7 @@
       </c>
       <c r="AH49" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI49" s="1">
         <f t="shared" si="22"/>
@@ -10732,7 +10899,7 @@
       </c>
       <c r="AX49" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY49" s="1">
         <f t="shared" si="22"/>
@@ -10740,7 +10907,7 @@
       </c>
       <c r="AZ49" s="1">
         <f t="shared" si="22"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="1">
         <f t="shared" si="22"/>
@@ -10775,11 +10942,11 @@
         <v>0</v>
       </c>
       <c r="BI49" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="BI49:BQ49" si="23">BI17*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ49" s="1">
-        <f t="shared" ref="BJ49:BR49" si="23">BJ17*BJ$5</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BK49" s="1">
@@ -10810,20 +10977,16 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BR49" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="G50" s="1">
-        <f>SUM(H50:BM50)</f>
-        <v>213.65</v>
+        <f>SUM(H50:BL50)</f>
+        <v>315.64999999999998</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" ref="H50:BI50" si="24">H18*H$5</f>
+        <f t="shared" ref="H50:BH50" si="24">H18*H$5</f>
         <v>0</v>
       </c>
       <c r="I50" s="1">
@@ -10928,7 +11091,7 @@
       </c>
       <c r="AH50" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="24"/>
@@ -10948,15 +11111,15 @@
       </c>
       <c r="AM50" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50" s="1">
         <f t="shared" si="24"/>
@@ -10992,7 +11155,7 @@
       </c>
       <c r="AX50" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY50" s="1">
         <f t="shared" si="24"/>
@@ -11000,7 +11163,7 @@
       </c>
       <c r="AZ50" s="1">
         <f t="shared" si="24"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="1">
         <f t="shared" si="24"/>
@@ -11035,11 +11198,11 @@
         <v>0</v>
       </c>
       <c r="BI50" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BI50:BQ50" si="25">BI18*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ50" s="1">
-        <f t="shared" ref="BJ50:BR50" si="25">BJ18*BJ$5</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BK50" s="1">
@@ -11070,20 +11233,16 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BR50" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="G51" s="1">
-        <f>SUM(H51:BM51)</f>
-        <v>215.5</v>
+        <f>SUM(H51:BL51)</f>
+        <v>317.14999999999998</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" ref="H51:BI51" si="26">H19*H$5</f>
+        <f t="shared" ref="H51:BH51" si="26">H19*H$5</f>
         <v>0</v>
       </c>
       <c r="I51" s="1">
@@ -11188,7 +11347,7 @@
       </c>
       <c r="AH51" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI51" s="1">
         <f t="shared" si="26"/>
@@ -11208,15 +11367,15 @@
       </c>
       <c r="AM51" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN51" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP51" s="1">
         <f t="shared" si="26"/>
@@ -11252,7 +11411,7 @@
       </c>
       <c r="AX51" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY51" s="1">
         <f t="shared" si="26"/>
@@ -11260,7 +11419,7 @@
       </c>
       <c r="AZ51" s="1">
         <f t="shared" si="26"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="1">
         <f t="shared" si="26"/>
@@ -11295,11 +11454,11 @@
         <v>0</v>
       </c>
       <c r="BI51" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="BI51:BQ51" si="27">BI19*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ51" s="1">
-        <f t="shared" ref="BJ51:BR51" si="27">BJ19*BJ$5</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BK51" s="1">
@@ -11308,11 +11467,11 @@
       </c>
       <c r="BL51" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM51" s="1">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="1">
         <f t="shared" si="27"/>
@@ -11330,20 +11489,16 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BR51" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="G52" s="1">
-        <f>SUM(H52:BM52)</f>
-        <v>206.5</v>
+        <f>SUM(H52:BL52)</f>
+        <v>305.5</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" ref="H52:BI52" si="28">H20*H$5</f>
+        <f t="shared" ref="H52:BH52" si="28">H20*H$5</f>
         <v>0</v>
       </c>
       <c r="I52" s="1">
@@ -11448,7 +11603,7 @@
       </c>
       <c r="AH52" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI52" s="1">
         <f t="shared" si="28"/>
@@ -11512,7 +11667,7 @@
       </c>
       <c r="AX52" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY52" s="1">
         <f t="shared" si="28"/>
@@ -11520,7 +11675,7 @@
       </c>
       <c r="AZ52" s="1">
         <f t="shared" si="28"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="1">
         <f t="shared" si="28"/>
@@ -11555,11 +11710,11 @@
         <v>0</v>
       </c>
       <c r="BI52" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="BI52:BQ52" si="29">BI20*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="1">
-        <f t="shared" ref="BJ52:BR52" si="29">BJ20*BJ$5</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BK52" s="1">
@@ -11568,11 +11723,11 @@
       </c>
       <c r="BL52" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM52" s="1">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52" s="1">
         <f t="shared" si="29"/>
@@ -11590,20 +11745,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BR52" s="1">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="G53" s="1">
-        <f>SUM(H53:BM53)</f>
-        <v>214.25</v>
+        <f>SUM(H53:BL53)</f>
+        <v>315.75</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" ref="H53:BI53" si="30">H21*H$5</f>
+        <f t="shared" ref="H53:BH53" si="30">H21*H$5</f>
         <v>0</v>
       </c>
       <c r="I53" s="1">
@@ -11708,7 +11859,7 @@
       </c>
       <c r="AH53" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI53" s="1">
         <f t="shared" si="30"/>
@@ -11728,15 +11879,15 @@
       </c>
       <c r="AM53" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP53" s="1">
         <f t="shared" si="30"/>
@@ -11772,7 +11923,7 @@
       </c>
       <c r="AX53" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY53" s="1">
         <f t="shared" si="30"/>
@@ -11780,7 +11931,7 @@
       </c>
       <c r="AZ53" s="1">
         <f t="shared" si="30"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="1">
         <f t="shared" si="30"/>
@@ -11815,11 +11966,11 @@
         <v>0</v>
       </c>
       <c r="BI53" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="BI53:BQ53" si="31">BI21*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ53" s="1">
-        <f t="shared" ref="BJ53:BR53" si="31">BJ21*BJ$5</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BK53" s="1">
@@ -11828,11 +11979,11 @@
       </c>
       <c r="BL53" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM53" s="1">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN53" s="1">
         <f t="shared" si="31"/>
@@ -11850,20 +12001,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="BR53" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="G54" s="1">
-        <f>SUM(H54:BM54)</f>
-        <v>216</v>
+        <f>SUM(H54:BL54)</f>
+        <v>318</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" ref="H54:BI54" si="32">H22*H$5</f>
+        <f t="shared" ref="H54:BH54" si="32">H22*H$5</f>
         <v>0</v>
       </c>
       <c r="I54" s="1">
@@ -11968,7 +12115,7 @@
       </c>
       <c r="AH54" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI54" s="1">
         <f t="shared" si="32"/>
@@ -11988,15 +12135,15 @@
       </c>
       <c r="AM54" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO54" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP54" s="1">
         <f t="shared" si="32"/>
@@ -12032,7 +12179,7 @@
       </c>
       <c r="AX54" s="1">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY54" s="1">
         <f t="shared" si="32"/>
@@ -12040,7 +12187,7 @@
       </c>
       <c r="AZ54" s="1">
         <f t="shared" si="32"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="1">
         <f t="shared" si="32"/>
@@ -12075,11 +12222,11 @@
         <v>0</v>
       </c>
       <c r="BI54" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="BI54:BQ54" si="33">BI22*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ54" s="1">
-        <f t="shared" ref="BJ54:BR54" si="33">BJ22*BJ$5</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BK54" s="1">
@@ -12088,11 +12235,11 @@
       </c>
       <c r="BL54" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM54" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="1">
         <f t="shared" si="33"/>
@@ -12110,20 +12257,16 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BR54" s="1">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="G55" s="1">
-        <f>SUM(H55:BM55)</f>
-        <v>210.75</v>
+        <f>SUM(H55:BL55)</f>
+        <v>312.55</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55:BI55" si="34">H23*H$5</f>
+        <f t="shared" ref="H55:BH55" si="34">H23*H$5</f>
         <v>0</v>
       </c>
       <c r="I55" s="1">
@@ -12228,7 +12371,7 @@
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI55" s="1">
         <f t="shared" si="34"/>
@@ -12248,15 +12391,15 @@
       </c>
       <c r="AM55" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN55" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO55" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55" s="1">
         <f t="shared" si="34"/>
@@ -12292,7 +12435,7 @@
       </c>
       <c r="AX55" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY55" s="1">
         <f t="shared" si="34"/>
@@ -12300,7 +12443,7 @@
       </c>
       <c r="AZ55" s="1">
         <f t="shared" si="34"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="1">
         <f t="shared" si="34"/>
@@ -12335,11 +12478,11 @@
         <v>0</v>
       </c>
       <c r="BI55" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="BI55:BQ55" si="35">BI23*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ55" s="1">
-        <f t="shared" ref="BJ55:BR55" si="35">BJ23*BJ$5</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BK55" s="1">
@@ -12348,11 +12491,11 @@
       </c>
       <c r="BL55" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM55" s="1">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55" s="1">
         <f t="shared" si="35"/>
@@ -12370,20 +12513,16 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="BR55" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="G56" s="1">
-        <f>SUM(H56:BM56)</f>
-        <v>210.4</v>
+        <f>SUM(H56:BL56)</f>
+        <v>312.20000000000005</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" ref="H56:BI56" si="36">H24*H$5</f>
+        <f t="shared" ref="H56:BH56" si="36">H24*H$5</f>
         <v>0</v>
       </c>
       <c r="I56" s="1">
@@ -12488,7 +12627,7 @@
       </c>
       <c r="AH56" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI56" s="1">
         <f t="shared" si="36"/>
@@ -12508,15 +12647,15 @@
       </c>
       <c r="AM56" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN56" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO56" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP56" s="1">
         <f t="shared" si="36"/>
@@ -12552,7 +12691,7 @@
       </c>
       <c r="AX56" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY56" s="1">
         <f t="shared" si="36"/>
@@ -12560,7 +12699,7 @@
       </c>
       <c r="AZ56" s="1">
         <f t="shared" si="36"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="1">
         <f t="shared" si="36"/>
@@ -12595,11 +12734,11 @@
         <v>0</v>
       </c>
       <c r="BI56" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="BI56:BQ56" si="37">BI24*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="1">
-        <f t="shared" ref="BJ56:BR56" si="37">BJ24*BJ$5</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK56" s="1">
@@ -12608,11 +12747,11 @@
       </c>
       <c r="BL56" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM56" s="1">
         <f t="shared" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" s="1">
         <f t="shared" si="37"/>
@@ -12630,20 +12769,16 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BR56" s="1">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="G57" s="1">
-        <f>SUM(H57:BM57)</f>
-        <v>213.5</v>
+        <f>SUM(H57:BL57)</f>
+        <v>315.3</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" ref="H57:BI57" si="38">H25*H$5</f>
+        <f t="shared" ref="H57:BH57" si="38">H25*H$5</f>
         <v>0</v>
       </c>
       <c r="I57" s="1">
@@ -12748,7 +12883,7 @@
       </c>
       <c r="AH57" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI57" s="1">
         <f t="shared" si="38"/>
@@ -12768,15 +12903,15 @@
       </c>
       <c r="AM57" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AN57" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO57" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP57" s="1">
         <f t="shared" si="38"/>
@@ -12812,7 +12947,7 @@
       </c>
       <c r="AX57" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY57" s="1">
         <f t="shared" si="38"/>
@@ -12820,7 +12955,7 @@
       </c>
       <c r="AZ57" s="1">
         <f t="shared" si="38"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="1">
         <f t="shared" si="38"/>
@@ -12855,11 +12990,11 @@
         <v>0</v>
       </c>
       <c r="BI57" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="BI57:BQ57" si="39">BI25*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ57" s="1">
-        <f t="shared" ref="BJ57:BR57" si="39">BJ25*BJ$5</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BK57" s="1">
@@ -12868,11 +13003,11 @@
       </c>
       <c r="BL57" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM57" s="1">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="1">
         <f t="shared" si="39"/>
@@ -12890,20 +13025,16 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BR57" s="1">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="G58" s="1">
-        <f>SUM(H58:BM58)</f>
-        <v>212.75</v>
+        <f>SUM(H58:BL58)</f>
+        <v>313</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" ref="H58:BI58" si="40">H26*H$5</f>
+        <f t="shared" ref="H58:BH58" si="40">H26*H$5</f>
         <v>0</v>
       </c>
       <c r="I58" s="1">
@@ -13008,7 +13139,7 @@
       </c>
       <c r="AH58" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="40"/>
@@ -13028,11 +13159,11 @@
       </c>
       <c r="AM58" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AN58" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AO58" s="1">
         <f t="shared" si="40"/>
@@ -13072,7 +13203,7 @@
       </c>
       <c r="AX58" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY58" s="1">
         <f t="shared" si="40"/>
@@ -13080,7 +13211,7 @@
       </c>
       <c r="AZ58" s="1">
         <f t="shared" si="40"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="1">
         <f t="shared" si="40"/>
@@ -13115,11 +13246,11 @@
         <v>0</v>
       </c>
       <c r="BI58" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="BI58:BQ58" si="41">BI26*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ58" s="1">
-        <f t="shared" ref="BJ58:BR58" si="41">BJ26*BJ$5</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="BK58" s="1">
@@ -13150,18 +13281,14 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="BR58" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
-        <f>SUM(H59:BM59)</f>
-        <v>212.3</v>
+        <f>SUM(H59:BL59)</f>
+        <v>313.05</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" ref="H59:BI59" si="42">H27*H$5</f>
+        <f t="shared" ref="H59:BH59" si="42">H27*H$5</f>
         <v>0</v>
       </c>
       <c r="I59" s="1">
@@ -13266,7 +13393,7 @@
       </c>
       <c r="AH59" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI59" s="1">
         <f t="shared" si="42"/>
@@ -13286,15 +13413,15 @@
       </c>
       <c r="AM59" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN59" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO59" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP59" s="1">
         <f t="shared" si="42"/>
@@ -13330,7 +13457,7 @@
       </c>
       <c r="AX59" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY59" s="1">
         <f t="shared" si="42"/>
@@ -13338,7 +13465,7 @@
       </c>
       <c r="AZ59" s="1">
         <f t="shared" si="42"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="1">
         <f t="shared" si="42"/>
@@ -13373,11 +13500,11 @@
         <v>0</v>
       </c>
       <c r="BI59" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="BI59:BQ59" si="43">BI27*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ59" s="1">
-        <f t="shared" ref="BJ59:BR59" si="43">BJ27*BJ$5</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK59" s="1">
@@ -13386,11 +13513,11 @@
       </c>
       <c r="BL59" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM59" s="1">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59" s="1">
         <f t="shared" si="43"/>
@@ -13408,18 +13535,14 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="BR59" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
-        <f>SUM(H60:BM60)</f>
-        <v>214.65</v>
+        <f>SUM(H60:BL60)</f>
+        <v>316.64999999999998</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" ref="H60:BI60" si="44">H28*H$5</f>
+        <f t="shared" ref="H60:BH60" si="44">H28*H$5</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
@@ -13524,7 +13647,7 @@
       </c>
       <c r="AH60" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI60" s="1">
         <f t="shared" si="44"/>
@@ -13544,15 +13667,15 @@
       </c>
       <c r="AM60" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN60" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO60" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" s="1">
         <f t="shared" si="44"/>
@@ -13588,7 +13711,7 @@
       </c>
       <c r="AX60" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY60" s="1">
         <f t="shared" si="44"/>
@@ -13596,7 +13719,7 @@
       </c>
       <c r="AZ60" s="1">
         <f t="shared" si="44"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="1">
         <f t="shared" si="44"/>
@@ -13631,11 +13754,11 @@
         <v>0</v>
       </c>
       <c r="BI60" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="BI60:BQ60" si="45">BI28*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ60" s="1">
-        <f t="shared" ref="BJ60:BR60" si="45">BJ28*BJ$5</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BK60" s="1">
@@ -13644,11 +13767,11 @@
       </c>
       <c r="BL60" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM60" s="1">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN60" s="1">
         <f t="shared" si="45"/>
@@ -13666,18 +13789,14 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="BR60" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G61" s="1">
-        <f>SUM(H61:BM61)</f>
-        <v>198</v>
+        <f>SUM(H61:BL61)</f>
+        <v>297</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" ref="H61:BI61" si="46">H29*H$5</f>
+        <f t="shared" ref="H61:BH61" si="46">H29*H$5</f>
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -13782,7 +13901,7 @@
       </c>
       <c r="AH61" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI61" s="1">
         <f t="shared" si="46"/>
@@ -13846,7 +13965,7 @@
       </c>
       <c r="AX61" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY61" s="1">
         <f t="shared" si="46"/>
@@ -13854,7 +13973,7 @@
       </c>
       <c r="AZ61" s="1">
         <f t="shared" si="46"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="1">
         <f t="shared" si="46"/>
@@ -13889,11 +14008,11 @@
         <v>0</v>
       </c>
       <c r="BI61" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="BI61:BQ61" si="47">BI29*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ61" s="1">
-        <f t="shared" ref="BJ61:BR61" si="47">BJ29*BJ$5</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BK61" s="1">
@@ -13924,18 +14043,14 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="BR61" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="62" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G62" s="1">
-        <f>SUM(H62:BM62)</f>
-        <v>198</v>
+        <f>SUM(H62:BL62)</f>
+        <v>297</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" ref="H62:BI62" si="48">H30*H$5</f>
+        <f t="shared" ref="H62:BH62" si="48">H30*H$5</f>
         <v>0</v>
       </c>
       <c r="I62" s="1">
@@ -14040,7 +14155,7 @@
       </c>
       <c r="AH62" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI62" s="1">
         <f t="shared" si="48"/>
@@ -14104,7 +14219,7 @@
       </c>
       <c r="AX62" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY62" s="1">
         <f t="shared" si="48"/>
@@ -14112,7 +14227,7 @@
       </c>
       <c r="AZ62" s="1">
         <f t="shared" si="48"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="1">
         <f t="shared" si="48"/>
@@ -14147,11 +14262,11 @@
         <v>0</v>
       </c>
       <c r="BI62" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="BI62:BQ62" si="49">BI30*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ62" s="1">
-        <f t="shared" ref="BJ62:BR62" si="49">BJ30*BJ$5</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BK62" s="1">
@@ -14182,18 +14297,14 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="BR62" s="1">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
-        <f>SUM(H63:BM63)</f>
-        <v>198</v>
+        <f>SUM(H63:BL63)</f>
+        <v>297</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" ref="H63:BI63" si="50">H31*H$5</f>
+        <f t="shared" ref="H63:BH63" si="50">H31*H$5</f>
         <v>0</v>
       </c>
       <c r="I63" s="1">
@@ -14298,7 +14409,7 @@
       </c>
       <c r="AH63" s="1">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI63" s="1">
         <f t="shared" si="50"/>
@@ -14362,7 +14473,7 @@
       </c>
       <c r="AX63" s="1">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY63" s="1">
         <f t="shared" si="50"/>
@@ -14370,7 +14481,7 @@
       </c>
       <c r="AZ63" s="1">
         <f t="shared" si="50"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="1">
         <f t="shared" si="50"/>
@@ -14405,11 +14516,11 @@
         <v>0</v>
       </c>
       <c r="BI63" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="BI63:BQ63" si="51">BI31*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ63" s="1">
-        <f t="shared" ref="BJ63:BR63" si="51">BJ31*BJ$5</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BK63" s="1">
@@ -14440,18 +14551,14 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="BR63" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G64" s="1">
-        <f>SUM(H64:BM64)</f>
-        <v>198</v>
+        <f>SUM(H64:BL64)</f>
+        <v>297</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" ref="H64:BI64" si="52">H32*H$5</f>
+        <f t="shared" ref="H64:BH64" si="52">H32*H$5</f>
         <v>0</v>
       </c>
       <c r="I64" s="1">
@@ -14556,7 +14663,7 @@
       </c>
       <c r="AH64" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" si="52"/>
@@ -14620,7 +14727,7 @@
       </c>
       <c r="AX64" s="1">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY64" s="1">
         <f t="shared" si="52"/>
@@ -14628,7 +14735,7 @@
       </c>
       <c r="AZ64" s="1">
         <f t="shared" si="52"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="1">
         <f t="shared" si="52"/>
@@ -14663,11 +14770,11 @@
         <v>0</v>
       </c>
       <c r="BI64" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="BI64:BQ64" si="53">BI32*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ64" s="1">
-        <f t="shared" ref="BJ64:BR64" si="53">BJ32*BJ$5</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BK64" s="1">
@@ -14698,20 +14805,16 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="BR64" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="G65" s="1">
-        <f>SUM(H65:BM65)</f>
-        <v>198</v>
+        <f>SUM(H65:BL65)</f>
+        <v>297</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ref="H65:BI65" si="54">H33*H$5</f>
+        <f t="shared" ref="H65:BH65" si="54">H33*H$5</f>
         <v>0</v>
       </c>
       <c r="I65" s="1">
@@ -14816,7 +14919,7 @@
       </c>
       <c r="AH65" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI65" s="1">
         <f t="shared" si="54"/>
@@ -14880,7 +14983,7 @@
       </c>
       <c r="AX65" s="1">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY65" s="1">
         <f t="shared" si="54"/>
@@ -14888,7 +14991,7 @@
       </c>
       <c r="AZ65" s="1">
         <f t="shared" si="54"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="1">
         <f t="shared" si="54"/>
@@ -14923,11 +15026,11 @@
         <v>0</v>
       </c>
       <c r="BI65" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="BI65:BQ65" si="55">BI33*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ65" s="1">
-        <f t="shared" ref="BJ65:BR65" si="55">BJ33*BJ$5</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BK65" s="1">
@@ -14958,20 +15061,16 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="BR65" s="1">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="G66" s="1">
-        <f>SUM(H66:BM66)</f>
-        <v>198</v>
+        <f>SUM(H66:BL66)</f>
+        <v>297</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:BI66" si="56">H34*H$5</f>
+        <f t="shared" ref="H66:BH66" si="56">H34*H$5</f>
         <v>0</v>
       </c>
       <c r="I66" s="1">
@@ -15076,7 +15175,7 @@
       </c>
       <c r="AH66" s="1">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI66" s="1">
         <f t="shared" si="56"/>
@@ -15140,7 +15239,7 @@
       </c>
       <c r="AX66" s="1">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY66" s="1">
         <f t="shared" si="56"/>
@@ -15148,7 +15247,7 @@
       </c>
       <c r="AZ66" s="1">
         <f t="shared" si="56"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="1">
         <f t="shared" si="56"/>
@@ -15183,11 +15282,11 @@
         <v>0</v>
       </c>
       <c r="BI66" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="BI66:BQ66" si="57">BI34*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ66" s="1">
-        <f t="shared" ref="BJ66:BR66" si="57">BJ34*BJ$5</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BK66" s="1">
@@ -15218,20 +15317,16 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="BR66" s="1">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="G67" s="1">
-        <f>SUM(H67:BM67)</f>
-        <v>198</v>
+        <f>SUM(H67:BL67)</f>
+        <v>297</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:BI67" si="58">H35*H$5</f>
+        <f t="shared" ref="H67:BH67" si="58">H35*H$5</f>
         <v>0</v>
       </c>
       <c r="I67" s="1">
@@ -15336,7 +15431,7 @@
       </c>
       <c r="AH67" s="1">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI67" s="1">
         <f t="shared" si="58"/>
@@ -15400,7 +15495,7 @@
       </c>
       <c r="AX67" s="1">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY67" s="1">
         <f t="shared" si="58"/>
@@ -15408,7 +15503,7 @@
       </c>
       <c r="AZ67" s="1">
         <f t="shared" si="58"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="1">
         <f t="shared" si="58"/>
@@ -15443,11 +15538,11 @@
         <v>0</v>
       </c>
       <c r="BI67" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="BI67:BQ67" si="59">BI35*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ67" s="1">
-        <f t="shared" ref="BJ67:BR67" si="59">BJ35*BJ$5</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BK67" s="1">
@@ -15478,20 +15573,16 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="BR67" s="1">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="G68" s="1">
-        <f>SUM(H68:BM68)</f>
-        <v>198</v>
+        <f>SUM(H68:BL68)</f>
+        <v>297</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68:BI68" si="60">H36*H$5</f>
+        <f t="shared" ref="H68:BH68" si="60">H36*H$5</f>
         <v>0</v>
       </c>
       <c r="I68" s="1">
@@ -15596,7 +15687,7 @@
       </c>
       <c r="AH68" s="1">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="60"/>
@@ -15660,7 +15751,7 @@
       </c>
       <c r="AX68" s="1">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY68" s="1">
         <f t="shared" si="60"/>
@@ -15668,7 +15759,7 @@
       </c>
       <c r="AZ68" s="1">
         <f t="shared" si="60"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="1">
         <f t="shared" si="60"/>
@@ -15703,11 +15794,11 @@
         <v>0</v>
       </c>
       <c r="BI68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="BI68:BQ68" si="61">BI36*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ68" s="1">
-        <f t="shared" ref="BJ68:BR68" si="61">BJ36*BJ$5</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BK68" s="1">
@@ -15738,20 +15829,16 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BR68" s="1">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="G69" s="1">
-        <f>SUM(H69:BM69)</f>
-        <v>198</v>
+        <f>SUM(H69:BL69)</f>
+        <v>297</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ref="H69:BI69" si="62">H37*H$5</f>
+        <f t="shared" ref="H69:BH69" si="62">H37*H$5</f>
         <v>0</v>
       </c>
       <c r="I69" s="1">
@@ -15856,7 +15943,7 @@
       </c>
       <c r="AH69" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI69" s="1">
         <f t="shared" si="62"/>
@@ -15920,7 +16007,7 @@
       </c>
       <c r="AX69" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY69" s="1">
         <f t="shared" si="62"/>
@@ -15928,7 +16015,7 @@
       </c>
       <c r="AZ69" s="1">
         <f t="shared" si="62"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="1">
         <f t="shared" si="62"/>
@@ -15963,11 +16050,11 @@
         <v>0</v>
       </c>
       <c r="BI69" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="BI69:BQ69" si="63">BI37*BI$5</f>
         <v>0</v>
       </c>
       <c r="BJ69" s="1">
-        <f t="shared" ref="BJ69:BR69" si="63">BJ37*BJ$5</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="BK69" s="1">
@@ -15998,20 +16085,16 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="BR69" s="1">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="G70" s="1">
-        <f>SUM(H70:BM70)</f>
-        <v>47</v>
+        <f>SUM(H70:BL70)</f>
+        <v>46</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ref="H70:BI70" si="64">H38*H$5</f>
+        <f t="shared" ref="H70:BH70" si="64">H38*H$5</f>
         <v>1</v>
       </c>
       <c r="I70" s="1">
@@ -16152,11 +16235,11 @@
       </c>
       <c r="AQ70" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS70" s="1">
         <f t="shared" si="64"/>
@@ -16188,7 +16271,7 @@
       </c>
       <c r="AZ70" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="1">
         <f t="shared" si="64"/>
@@ -16200,7 +16283,7 @@
       </c>
       <c r="BC70" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD70" s="1">
         <f t="shared" si="64"/>
@@ -16223,11 +16306,11 @@
         <v>1</v>
       </c>
       <c r="BI70" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="BI70:BQ70" si="65">BI38*BI$5</f>
         <v>1</v>
       </c>
       <c r="BJ70" s="1">
-        <f t="shared" ref="BJ70:BR70" si="65">BJ38*BJ$5</f>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="BK70" s="1">
@@ -16240,7 +16323,7 @@
       </c>
       <c r="BM70" s="1">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BN70" s="1">
         <f t="shared" si="65"/>
@@ -16248,50 +16331,46 @@
       </c>
       <c r="BO70" s="1">
         <f t="shared" si="65"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BP70" s="1">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BQ70" s="1">
         <f t="shared" si="65"/>
         <v>0.5</v>
       </c>
-      <c r="BR70" s="1">
-        <f t="shared" si="65"/>
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="71" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="G75" s="1">
-        <f>SUM(H75:BM75)</f>
-        <v>44.75</v>
+        <f>SUM(H75:BL75)</f>
+        <v>55.25</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ref="I75:BJ75" si="66">I9*I$6</f>
+        <f t="shared" ref="I75:BI75" si="66">I9*I$6</f>
         <v>0</v>
       </c>
       <c r="J75" s="1">
@@ -16412,15 +16491,15 @@
       </c>
       <c r="AM75" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN75" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO75" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP75" s="1">
         <f t="shared" si="66"/>
@@ -16503,11 +16582,11 @@
         <v>0</v>
       </c>
       <c r="BJ75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="BJ75:BQ75" si="67">BJ9*BJ$6</f>
         <v>0</v>
       </c>
       <c r="BK75" s="1">
-        <f t="shared" ref="BK75:BR75" si="67">BK9*BK$6</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="BL75" s="1">
@@ -16534,20 +16613,16 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="BR75" s="1">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="G76" s="1">
-        <f>SUM(H76:BM76)</f>
-        <v>41.1</v>
+        <f>SUM(H76:BL76)</f>
+        <v>48.6</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" ref="H76:BI76" si="68">H10*H$6</f>
+        <f t="shared" ref="H76:BH76" si="68">H10*H$6</f>
         <v>0</v>
       </c>
       <c r="I76" s="1">
@@ -16672,11 +16747,11 @@
       </c>
       <c r="AM76" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AN76" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO76" s="1">
         <f t="shared" si="68"/>
@@ -16759,11 +16834,11 @@
         <v>0</v>
       </c>
       <c r="BI76" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="BI76:BQ76" si="69">BI10*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ76" s="1">
-        <f t="shared" ref="BJ76:BR76" si="69">BJ10*BJ$6</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="BK76" s="1">
@@ -16772,11 +16847,11 @@
       </c>
       <c r="BL76" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM76" s="1">
         <f t="shared" si="69"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN76" s="1">
         <f t="shared" si="69"/>
@@ -16794,20 +16869,16 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="BR76" s="1">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="G77" s="1">
-        <f>SUM(H77:BM77)</f>
-        <v>42.75</v>
+        <f>SUM(H77:BL77)</f>
+        <v>52.75</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" ref="H77:BI77" si="70">H11*H$6</f>
+        <f t="shared" ref="H77:BH77" si="70">H11*H$6</f>
         <v>0</v>
       </c>
       <c r="I77" s="1">
@@ -16932,15 +17003,15 @@
       </c>
       <c r="AM77" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN77" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO77" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP77" s="1">
         <f t="shared" si="70"/>
@@ -17019,11 +17090,11 @@
         <v>0</v>
       </c>
       <c r="BI77" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="BI77:BQ77" si="71">BI11*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ77" s="1">
-        <f t="shared" ref="BJ77:BR77" si="71">BJ11*BJ$6</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BK77" s="1">
@@ -17032,11 +17103,11 @@
       </c>
       <c r="BL77" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM77" s="1">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN77" s="1">
         <f t="shared" si="71"/>
@@ -17054,20 +17125,16 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="BR77" s="1">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="G78" s="1">
-        <f>SUM(H78:BM78)</f>
-        <v>41.2</v>
+        <f>SUM(H78:BL78)</f>
+        <v>51.7</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78:BI78" si="72">H12*H$6</f>
+        <f t="shared" ref="H78:BH78" si="72">H12*H$6</f>
         <v>0</v>
       </c>
       <c r="I78" s="1">
@@ -17192,15 +17259,15 @@
       </c>
       <c r="AM78" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN78" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO78" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP78" s="1">
         <f t="shared" si="72"/>
@@ -17279,11 +17346,11 @@
         <v>0</v>
       </c>
       <c r="BI78" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="BI78:BQ78" si="73">BI12*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ78" s="1">
-        <f t="shared" ref="BJ78:BR78" si="73">BJ12*BJ$6</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="BK78" s="1">
@@ -17292,11 +17359,11 @@
       </c>
       <c r="BL78" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM78" s="1">
         <f t="shared" si="73"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN78" s="1">
         <f t="shared" si="73"/>
@@ -17314,20 +17381,16 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="BR78" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="G79" s="1">
-        <f>SUM(H79:BM79)</f>
-        <v>43</v>
+        <f>SUM(H79:BL79)</f>
+        <v>53.5</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" ref="H79:BI79" si="74">H13*H$6</f>
+        <f t="shared" ref="H79:BH79" si="74">H13*H$6</f>
         <v>0</v>
       </c>
       <c r="I79" s="1">
@@ -17452,15 +17515,15 @@
       </c>
       <c r="AM79" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN79" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO79" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP79" s="1">
         <f t="shared" si="74"/>
@@ -17539,11 +17602,11 @@
         <v>0</v>
       </c>
       <c r="BI79" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="BI79:BQ79" si="75">BI13*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ79" s="1">
-        <f t="shared" ref="BJ79:BR79" si="75">BJ13*BJ$6</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="BK79" s="1">
@@ -17552,11 +17615,11 @@
       </c>
       <c r="BL79" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM79" s="1">
         <f t="shared" si="75"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN79" s="1">
         <f t="shared" si="75"/>
@@ -17574,20 +17637,16 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="BR79" s="1">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="G80" s="1">
-        <f>SUM(H80:BM80)</f>
-        <v>10</v>
+        <f>SUM(H80:BL80)</f>
+        <v>12</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ref="H80:BI80" si="76">H14*H$6</f>
+        <f t="shared" ref="H80:BH80" si="76">H14*H$6</f>
         <v>0</v>
       </c>
       <c r="I80" s="1">
@@ -17720,7 +17779,7 @@
       </c>
       <c r="AO80" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP80" s="1">
         <f t="shared" si="76"/>
@@ -17799,11 +17858,11 @@
         <v>0</v>
       </c>
       <c r="BI80" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="BI80:BQ80" si="77">BI14*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ80" s="1">
-        <f t="shared" ref="BJ80:BR80" si="77">BJ14*BJ$6</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="BK80" s="1">
@@ -17834,20 +17893,16 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="BR80" s="1">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="81" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="G81" s="1">
-        <f>SUM(H81:BM81)</f>
-        <v>49</v>
+        <f>SUM(H81:BL81)</f>
+        <v>58</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81:BI81" si="78">H15*H$6</f>
+        <f t="shared" ref="H81:BH81" si="78">H15*H$6</f>
         <v>0</v>
       </c>
       <c r="I81" s="1">
@@ -17972,15 +18027,15 @@
       </c>
       <c r="AM81" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AN81" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO81" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP81" s="1">
         <f t="shared" si="78"/>
@@ -18059,11 +18114,11 @@
         <v>0</v>
       </c>
       <c r="BI81" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="BI81:BQ81" si="79">BI15*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ81" s="1">
-        <f t="shared" ref="BJ81:BR81" si="79">BJ15*BJ$6</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="BK81" s="1">
@@ -18072,11 +18127,11 @@
       </c>
       <c r="BL81" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM81" s="1">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN81" s="1">
         <f t="shared" si="79"/>
@@ -18094,20 +18149,16 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="BR81" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:69" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="G82" s="1">
-        <f>SUM(H82:BM82)</f>
-        <v>43.2</v>
+        <f>SUM(H82:BL82)</f>
+        <v>53.2</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ref="H82:BI82" si="80">H16*H$6</f>
+        <f t="shared" ref="H82:BH82" si="80">H16*H$6</f>
         <v>0</v>
       </c>
       <c r="I82" s="1">
@@ -18232,15 +18283,15 @@
       </c>
       <c r="AM82" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN82" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO82" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP82" s="1">
         <f t="shared" si="80"/>
@@ -18319,11 +18370,11 @@
         <v>0</v>
       </c>
       <c r="BI82" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="BI82:BQ82" si="81">BI16*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ82" s="1">
-        <f t="shared" ref="BJ82:BR82" si="81">BJ16*BJ$6</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="BK82" s="1">
@@ -18332,11 +18383,11 @@
       </c>
       <c r="BL82" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM82" s="1">
         <f t="shared" si="81"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN82" s="1">
         <f t="shared" si="81"/>
@@ -18354,18 +18405,14 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="BR82" s="1">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G83" s="1">
-        <f>SUM(H83:BM83)</f>
+        <f>SUM(H83:BL83)</f>
         <v>0</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" ref="H83:BI83" si="82">H17*H$6</f>
+        <f t="shared" ref="H83:BH83" si="82">H17*H$6</f>
         <v>0</v>
       </c>
       <c r="I83" s="1">
@@ -18577,11 +18624,11 @@
         <v>0</v>
       </c>
       <c r="BI83" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="BI83:BQ83" si="83">BI17*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ83" s="1">
-        <f t="shared" ref="BJ83:BR83" si="83">BJ17*BJ$6</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="BK83" s="1">
@@ -18612,18 +18659,14 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="BR83" s="1">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
-        <f>SUM(H84:BM84)</f>
-        <v>36.950000000000003</v>
+        <f>SUM(H84:BL84)</f>
+        <v>46.95</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84:BI84" si="84">H18*H$6</f>
+        <f t="shared" ref="H84:BH84" si="84">H18*H$6</f>
         <v>0</v>
       </c>
       <c r="I84" s="1">
@@ -18748,15 +18791,15 @@
       </c>
       <c r="AM84" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN84" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO84" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP84" s="1">
         <f t="shared" si="84"/>
@@ -18835,11 +18878,11 @@
         <v>0</v>
       </c>
       <c r="BI84" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="BI84:BQ84" si="85">BI18*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ84" s="1">
-        <f t="shared" ref="BJ84:BR84" si="85">BJ18*BJ$6</f>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="BK84" s="1">
@@ -18870,18 +18913,14 @@
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="BR84" s="1">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
-        <f>SUM(H85:BM85)</f>
-        <v>41.6</v>
+        <f>SUM(H85:BL85)</f>
+        <v>50.7</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ref="H85:BI85" si="86">H19*H$6</f>
+        <f t="shared" ref="H85:BH85" si="86">H19*H$6</f>
         <v>0</v>
       </c>
       <c r="I85" s="1">
@@ -19006,15 +19045,15 @@
       </c>
       <c r="AM85" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AN85" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO85" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP85" s="1">
         <f t="shared" si="86"/>
@@ -19093,11 +19132,11 @@
         <v>0</v>
       </c>
       <c r="BI85" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="BI85:BQ85" si="87">BI19*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ85" s="1">
-        <f t="shared" ref="BJ85:BR85" si="87">BJ19*BJ$6</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BK85" s="1">
@@ -19106,11 +19145,11 @@
       </c>
       <c r="BL85" s="1">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM85" s="1">
         <f t="shared" si="87"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN85" s="1">
         <f t="shared" si="87"/>
@@ -19128,18 +19167,14 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="BR85" s="1">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="86" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
-        <f>SUM(H86:BM86)</f>
+        <f>SUM(H86:BL86)</f>
         <v>17</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86:BI86" si="88">H20*H$6</f>
+        <f t="shared" ref="H86:BH86" si="88">H20*H$6</f>
         <v>0</v>
       </c>
       <c r="I86" s="1">
@@ -19351,11 +19386,11 @@
         <v>0</v>
       </c>
       <c r="BI86" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="BI86:BQ86" si="89">BI20*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ86" s="1">
-        <f t="shared" ref="BJ86:BR86" si="89">BJ20*BJ$6</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BK86" s="1">
@@ -19364,11 +19399,11 @@
       </c>
       <c r="BL86" s="1">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM86" s="1">
         <f t="shared" si="89"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN86" s="1">
         <f t="shared" si="89"/>
@@ -19386,18 +19421,14 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="BR86" s="1">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="87" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
-        <f>SUM(H87:BM87)</f>
-        <v>39.35</v>
+        <f>SUM(H87:BL87)</f>
+        <v>48.35</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:BI87" si="90">H21*H$6</f>
+        <f t="shared" ref="H87:BH87" si="90">H21*H$6</f>
         <v>0</v>
       </c>
       <c r="I87" s="1">
@@ -19522,15 +19553,15 @@
       </c>
       <c r="AM87" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN87" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO87" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP87" s="1">
         <f t="shared" si="90"/>
@@ -19609,11 +19640,11 @@
         <v>0</v>
       </c>
       <c r="BI87" s="1">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="BI87:BQ87" si="91">BI21*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ87" s="1">
-        <f t="shared" ref="BJ87:BR87" si="91">BJ21*BJ$6</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BK87" s="1">
@@ -19622,11 +19653,11 @@
       </c>
       <c r="BL87" s="1">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM87" s="1">
         <f t="shared" si="91"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN87" s="1">
         <f t="shared" si="91"/>
@@ -19644,18 +19675,14 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="BR87" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
-        <f>SUM(H88:BM88)</f>
-        <v>44</v>
+        <f>SUM(H88:BL88)</f>
+        <v>54</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" ref="H88:BI88" si="92">H22*H$6</f>
+        <f t="shared" ref="H88:BH88" si="92">H22*H$6</f>
         <v>0</v>
       </c>
       <c r="I88" s="1">
@@ -19780,15 +19807,15 @@
       </c>
       <c r="AM88" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN88" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO88" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP88" s="1">
         <f t="shared" si="92"/>
@@ -19867,11 +19894,11 @@
         <v>0</v>
       </c>
       <c r="BI88" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="BI88:BQ88" si="93">BI22*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ88" s="1">
-        <f t="shared" ref="BJ88:BR88" si="93">BJ22*BJ$6</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="BK88" s="1">
@@ -19880,11 +19907,11 @@
       </c>
       <c r="BL88" s="1">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM88" s="1">
         <f t="shared" si="93"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN88" s="1">
         <f t="shared" si="93"/>
@@ -19902,18 +19929,14 @@
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="BR88" s="1">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
-        <f>SUM(H89:BM89)</f>
-        <v>30.35</v>
+        <f>SUM(H89:BL89)</f>
+        <v>39.550000000000004</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" ref="H89:BI89" si="94">H23*H$6</f>
+        <f t="shared" ref="H89:BH89" si="94">H23*H$6</f>
         <v>0</v>
       </c>
       <c r="I89" s="1">
@@ -20038,15 +20061,15 @@
       </c>
       <c r="AM89" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AN89" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO89" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP89" s="1">
         <f t="shared" si="94"/>
@@ -20125,11 +20148,11 @@
         <v>0</v>
       </c>
       <c r="BI89" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="BI89:BQ89" si="95">BI23*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ89" s="1">
-        <f t="shared" ref="BJ89:BR89" si="95">BJ23*BJ$6</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="BK89" s="1">
@@ -20138,11 +20161,11 @@
       </c>
       <c r="BL89" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM89" s="1">
         <f t="shared" si="95"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN89" s="1">
         <f t="shared" si="95"/>
@@ -20160,18 +20183,14 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="BR89" s="1">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
-        <f>SUM(H90:BM90)</f>
-        <v>34.6</v>
+        <f>SUM(H90:BL90)</f>
+        <v>43.800000000000004</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" ref="H90:BI90" si="96">H24*H$6</f>
+        <f t="shared" ref="H90:BH90" si="96">H24*H$6</f>
         <v>0</v>
       </c>
       <c r="I90" s="1">
@@ -20296,15 +20315,15 @@
       </c>
       <c r="AM90" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AN90" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO90" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP90" s="1">
         <f t="shared" si="96"/>
@@ -20383,11 +20402,11 @@
         <v>0</v>
       </c>
       <c r="BI90" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="BI90:BQ90" si="97">BI24*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ90" s="1">
-        <f t="shared" ref="BJ90:BR90" si="97">BJ24*BJ$6</f>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BK90" s="1">
@@ -20396,11 +20415,11 @@
       </c>
       <c r="BL90" s="1">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM90" s="1">
         <f t="shared" si="97"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN90" s="1">
         <f t="shared" si="97"/>
@@ -20418,18 +20437,14 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BR90" s="1">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
-        <f>SUM(H91:BM91)</f>
-        <v>35.5</v>
+        <f>SUM(H91:BL91)</f>
+        <v>44.7</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" ref="H91:BI91" si="98">H25*H$6</f>
+        <f t="shared" ref="H91:BH91" si="98">H25*H$6</f>
         <v>0</v>
       </c>
       <c r="I91" s="1">
@@ -20554,15 +20569,15 @@
       </c>
       <c r="AM91" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AN91" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO91" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP91" s="1">
         <f t="shared" si="98"/>
@@ -20641,11 +20656,11 @@
         <v>0</v>
       </c>
       <c r="BI91" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="BI91:BQ91" si="99">BI25*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ91" s="1">
-        <f t="shared" ref="BJ91:BR91" si="99">BJ25*BJ$6</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="BK91" s="1">
@@ -20654,11 +20669,11 @@
       </c>
       <c r="BL91" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM91" s="1">
         <f t="shared" si="99"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN91" s="1">
         <f t="shared" si="99"/>
@@ -20676,18 +20691,14 @@
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="BR91" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
-        <f>SUM(H92:BM92)</f>
-        <v>36.75</v>
+        <f>SUM(H92:BL92)</f>
+        <v>41.75</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" ref="H92:BI92" si="100">H26*H$6</f>
+        <f t="shared" ref="H92:BH92" si="100">H26*H$6</f>
         <v>0</v>
       </c>
       <c r="I92" s="1">
@@ -20812,11 +20823,11 @@
       </c>
       <c r="AM92" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN92" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO92" s="1">
         <f t="shared" si="100"/>
@@ -20899,11 +20910,11 @@
         <v>0</v>
       </c>
       <c r="BI92" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="BI92:BQ92" si="101">BI26*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ92" s="1">
-        <f t="shared" ref="BJ92:BR92" si="101">BJ26*BJ$6</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="BK92" s="1">
@@ -20934,18 +20945,14 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="BR92" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
-        <f>SUM(H93:BM93)</f>
-        <v>34.200000000000003</v>
+        <f>SUM(H93:BL93)</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" ref="H93:BI93" si="102">H27*H$6</f>
+        <f t="shared" ref="H93:BH93" si="102">H27*H$6</f>
         <v>0</v>
       </c>
       <c r="I93" s="1">
@@ -21070,15 +21077,15 @@
       </c>
       <c r="AM93" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN93" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO93" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP93" s="1">
         <f t="shared" si="102"/>
@@ -21157,11 +21164,11 @@
         <v>0</v>
       </c>
       <c r="BI93" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="BI93:BQ93" si="103">BI27*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ93" s="1">
-        <f t="shared" ref="BJ93:BR93" si="103">BJ27*BJ$6</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="BK93" s="1">
@@ -21170,11 +21177,11 @@
       </c>
       <c r="BL93" s="1">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM93" s="1">
         <f t="shared" si="103"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN93" s="1">
         <f t="shared" si="103"/>
@@ -21192,18 +21199,14 @@
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="BR93" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
-        <f>SUM(H94:BM94)</f>
-        <v>41.35</v>
+        <f>SUM(H94:BL94)</f>
+        <v>51.35</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" ref="H94:BI94" si="104">H28*H$6</f>
+        <f t="shared" ref="H94:BH94" si="104">H28*H$6</f>
         <v>0</v>
       </c>
       <c r="I94" s="1">
@@ -21328,15 +21331,15 @@
       </c>
       <c r="AM94" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN94" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO94" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP94" s="1">
         <f t="shared" si="104"/>
@@ -21415,11 +21418,11 @@
         <v>0</v>
       </c>
       <c r="BI94" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="BI94:BQ94" si="105">BI28*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ94" s="1">
-        <f t="shared" ref="BJ94:BR94" si="105">BJ28*BJ$6</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="BK94" s="1">
@@ -21428,11 +21431,11 @@
       </c>
       <c r="BL94" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM94" s="1">
         <f t="shared" si="105"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN94" s="1">
         <f t="shared" si="105"/>
@@ -21450,18 +21453,14 @@
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="BR94" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="95" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G95" s="1">
-        <f>SUM(H95:BM95)</f>
+        <f>SUM(H95:BL95)</f>
         <v>0</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" ref="H95:BI95" si="106">H29*H$6</f>
+        <f t="shared" ref="H95:BH95" si="106">H29*H$6</f>
         <v>0</v>
       </c>
       <c r="I95" s="1">
@@ -21673,11 +21672,11 @@
         <v>0</v>
       </c>
       <c r="BI95" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="BI95:BQ95" si="107">BI29*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ95" s="1">
-        <f t="shared" ref="BJ95:BR95" si="107">BJ29*BJ$6</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="BK95" s="1">
@@ -21708,18 +21707,14 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="BR95" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="96" spans="4:70" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G96" s="1">
-        <f>SUM(H96:BM96)</f>
+        <f>SUM(H96:BL96)</f>
         <v>0</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" ref="H96:BI96" si="108">H30*H$6</f>
+        <f t="shared" ref="H96:BH96" si="108">H30*H$6</f>
         <v>0</v>
       </c>
       <c r="I96" s="1">
@@ -21931,11 +21926,11 @@
         <v>0</v>
       </c>
       <c r="BI96" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="BI96:BQ96" si="109">BI30*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ96" s="1">
-        <f t="shared" ref="BJ96:BR96" si="109">BJ30*BJ$6</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="BK96" s="1">
@@ -21966,18 +21961,14 @@
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="BR96" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="97" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G97" s="1">
-        <f>SUM(H97:BM97)</f>
+        <f>SUM(H97:BL97)</f>
         <v>0</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" ref="H97:BI97" si="110">H31*H$6</f>
+        <f t="shared" ref="H97:BH97" si="110">H31*H$6</f>
         <v>0</v>
       </c>
       <c r="I97" s="1">
@@ -22189,11 +22180,11 @@
         <v>0</v>
       </c>
       <c r="BI97" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="BI97:BQ97" si="111">BI31*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ97" s="1">
-        <f t="shared" ref="BJ97:BR97" si="111">BJ31*BJ$6</f>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="BK97" s="1">
@@ -22224,18 +22215,14 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="BR97" s="1">
-        <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G98" s="1">
-        <f>SUM(H98:BM98)</f>
+        <f>SUM(H98:BL98)</f>
         <v>0</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ref="H98:BI98" si="112">H32*H$6</f>
+        <f t="shared" ref="H98:BH98" si="112">H32*H$6</f>
         <v>0</v>
       </c>
       <c r="I98" s="1">
@@ -22447,11 +22434,11 @@
         <v>0</v>
       </c>
       <c r="BI98" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" ref="BI98:BQ98" si="113">BI32*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ98" s="1">
-        <f t="shared" ref="BJ98:BR98" si="113">BJ32*BJ$6</f>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="BK98" s="1">
@@ -22482,18 +22469,14 @@
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="BR98" s="1">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="99" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G99" s="1">
-        <f>SUM(H99:BM99)</f>
+        <f>SUM(H99:BL99)</f>
         <v>0</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" ref="H99:BI99" si="114">H33*H$6</f>
+        <f t="shared" ref="H99:BH99" si="114">H33*H$6</f>
         <v>0</v>
       </c>
       <c r="I99" s="1">
@@ -22705,11 +22688,11 @@
         <v>0</v>
       </c>
       <c r="BI99" s="1">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="BI99:BQ99" si="115">BI33*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ99" s="1">
-        <f t="shared" ref="BJ99:BR99" si="115">BJ33*BJ$6</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="BK99" s="1">
@@ -22740,18 +22723,14 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BR99" s="1">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G100" s="1">
-        <f>SUM(H100:BM100)</f>
+        <f>SUM(H100:BL100)</f>
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" ref="H100:BI100" si="116">H34*H$6</f>
+        <f t="shared" ref="H100:BH100" si="116">H34*H$6</f>
         <v>0</v>
       </c>
       <c r="I100" s="1">
@@ -22963,11 +22942,11 @@
         <v>0</v>
       </c>
       <c r="BI100" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="BI100:BQ100" si="117">BI34*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ100" s="1">
-        <f t="shared" ref="BJ100:BR100" si="117">BJ34*BJ$6</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="BK100" s="1">
@@ -22998,18 +22977,14 @@
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="BR100" s="1">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G101" s="1">
-        <f>SUM(H101:BM101)</f>
+        <f>SUM(H101:BL101)</f>
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" ref="H101:BI101" si="118">H35*H$6</f>
+        <f t="shared" ref="H101:BH101" si="118">H35*H$6</f>
         <v>0</v>
       </c>
       <c r="I101" s="1">
@@ -23221,11 +23196,11 @@
         <v>0</v>
       </c>
       <c r="BI101" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="BI101:BQ101" si="119">BI35*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ101" s="1">
-        <f t="shared" ref="BJ101:BR101" si="119">BJ35*BJ$6</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="BK101" s="1">
@@ -23256,18 +23231,14 @@
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="BR101" s="1">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="102" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G102" s="1">
-        <f>SUM(H102:BM102)</f>
+        <f>SUM(H102:BL102)</f>
         <v>0</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" ref="H102:BI102" si="120">H36*H$6</f>
+        <f t="shared" ref="H102:BH102" si="120">H36*H$6</f>
         <v>0</v>
       </c>
       <c r="I102" s="1">
@@ -23479,11 +23450,11 @@
         <v>0</v>
       </c>
       <c r="BI102" s="1">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="BI102:BQ102" si="121">BI36*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ102" s="1">
-        <f t="shared" ref="BJ102:BR102" si="121">BJ36*BJ$6</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="BK102" s="1">
@@ -23514,18 +23485,14 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="BR102" s="1">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="103" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G103" s="1">
-        <f>SUM(H103:BM103)</f>
+        <f>SUM(H103:BL103)</f>
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" ref="H103:BI103" si="122">H37*H$6</f>
+        <f t="shared" ref="H103:BH103" si="122">H37*H$6</f>
         <v>0</v>
       </c>
       <c r="I103" s="1">
@@ -23737,11 +23704,11 @@
         <v>0</v>
       </c>
       <c r="BI103" s="1">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="BI103:BQ103" si="123">BI37*BI$6</f>
         <v>0</v>
       </c>
       <c r="BJ103" s="1">
-        <f t="shared" ref="BJ103:BR103" si="123">BJ37*BJ$6</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BK103" s="1">
@@ -23772,18 +23739,14 @@
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="BR103" s="1">
-        <f t="shared" si="123"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="7:70" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
-        <f>SUM(H104:BM104)</f>
-        <v>134</v>
+        <f>SUM(H104:BL104)</f>
+        <v>129</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" ref="H104:BI104" si="124">H38*H$6</f>
+        <f t="shared" ref="H104:BH104" si="124">H38*H$6</f>
         <v>1</v>
       </c>
       <c r="I104" s="1">
@@ -23888,7 +23851,7 @@
       </c>
       <c r="AH104" s="1">
         <f t="shared" si="124"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI104" s="1">
         <f t="shared" si="124"/>
@@ -23916,23 +23879,23 @@
       </c>
       <c r="AO104" s="1">
         <f t="shared" si="124"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP104" s="1">
         <f t="shared" si="124"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ104" s="1">
         <f t="shared" si="124"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR104" s="1">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS104" s="1">
         <f t="shared" si="124"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT104" s="1">
         <f t="shared" si="124"/>
@@ -23940,11 +23903,11 @@
       </c>
       <c r="AU104" s="1">
         <f t="shared" si="124"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV104" s="1">
         <f t="shared" si="124"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW104" s="1">
         <f t="shared" si="124"/>
@@ -23952,7 +23915,7 @@
       </c>
       <c r="AX104" s="1">
         <f t="shared" si="124"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY104" s="1">
         <f t="shared" si="124"/>
@@ -23972,19 +23935,19 @@
       </c>
       <c r="BC104" s="1">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD104" s="1">
         <f t="shared" si="124"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE104" s="1">
         <f t="shared" si="124"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF104" s="1">
         <f t="shared" si="124"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG104" s="1">
         <f t="shared" si="124"/>
@@ -23992,27 +23955,27 @@
       </c>
       <c r="BH104" s="1">
         <f t="shared" si="124"/>
+        <v>4</v>
+      </c>
+      <c r="BI104" s="1">
+        <f t="shared" ref="BI104:BQ104" si="125">BI38*BI$6</f>
+        <v>8</v>
+      </c>
+      <c r="BJ104" s="1">
+        <f t="shared" si="125"/>
         <v>3</v>
-      </c>
-      <c r="BI104" s="1">
-        <f t="shared" si="124"/>
-        <v>4</v>
-      </c>
-      <c r="BJ104" s="1">
-        <f t="shared" ref="BJ104:BR104" si="125">BJ38*BJ$6</f>
-        <v>8</v>
       </c>
       <c r="BK104" s="1">
         <f t="shared" si="125"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL104" s="1">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM104" s="1">
         <f t="shared" si="125"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="BN104" s="1">
         <f t="shared" si="125"/>
@@ -24028,78 +23991,73 @@
       </c>
       <c r="BQ104" s="1">
         <f t="shared" si="125"/>
-        <v>0.5</v>
-      </c>
-      <c r="BR104" s="1">
-        <f t="shared" si="125"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="AK2:AM4"/>
-  <mergeCells count="95">
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BC8:BH8"/>
-    <mergeCell ref="BJ8:BM8"/>
+  <mergeCells count="94">
     <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="BI8:BL8"/>
     <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AW2:AW4"/>
     <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="BC7:BH7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="BB7:BG7"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BD1:BD4"/>
     <mergeCell ref="BE1:BE4"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AV2:AV4"/>
     <mergeCell ref="BF1:BF4"/>
-    <mergeCell ref="AQ1:AV1"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="BG1:BG4"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BL3:BL4"/>
+    <mergeCell ref="AI8:AO8"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BK3:BK4"/>
     <mergeCell ref="AL2:AL4"/>
     <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AO2:AO4"/>
     <mergeCell ref="AP2:AP4"/>
     <mergeCell ref="AQ2:AQ4"/>
     <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="BN8:BQ8"/>
-    <mergeCell ref="AQ8:AV8"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="BN3:BN4"/>
     <mergeCell ref="BO3:BO4"/>
     <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="BQ3:BQ4"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AP7"/>
-    <mergeCell ref="AQ7:AV7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="BN7:BQ7"/>
-    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AP7:AU7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BM7:BP7"/>
     <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BG1:BG4"/>
     <mergeCell ref="BH1:BH4"/>
-    <mergeCell ref="BI1:BI4"/>
+    <mergeCell ref="AY2:AY4"/>
     <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BB4"/>
     <mergeCell ref="BC1:BC4"/>
-    <mergeCell ref="BD1:BD4"/>
-    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="BJ3:BJ4"/>
     <mergeCell ref="AF2:AF4"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AP1"/>
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="BN1:BR1"/>
-    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="BM2:BP2"/>
+    <mergeCell ref="BM1:BQ1"/>
+    <mergeCell ref="BQ2:BQ4"/>
     <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
@@ -24135,67 +24093,106 @@
     <mergeCell ref="W8:AA8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
-    <cfRule type="cellIs" dxfId="226" priority="270" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="279" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="271" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="280" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9 BN9:BR9 BA9:BD9 S9:AX17 S38:BF38 S19:AX37 W18:AX18">
-    <cfRule type="cellIs" dxfId="224" priority="267" operator="equal">
+  <conditionalFormatting sqref="H9:P9 BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37">
+    <cfRule type="cellIs" dxfId="233" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="268" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="277" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="269" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="278" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="221" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="256" operator="between">
+    <cfRule type="cellIs" dxfId="229" priority="265" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="257" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="266" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="218" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="250" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="259" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="260" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9">
-    <cfRule type="cellIs" dxfId="215" priority="237" operator="equal">
+  <conditionalFormatting sqref="AW9">
+    <cfRule type="cellIs" dxfId="224" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="238" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="247" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="239" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="248" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:P12 H23:P38 BN23:BR23 BN10:BR12 BH38:BR38 BA10:BD12 BA23:BD23 BA24:BF37 BH24:BK37 BM24:BR37">
+  <conditionalFormatting sqref="H10:P12 H23:P38 BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37">
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="235" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="236" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="218" priority="231" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="232" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="233" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="215" priority="228" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="229" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="230" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
     <cfRule type="cellIs" dxfId="212" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24208,7 +24205,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
+  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
     <cfRule type="cellIs" dxfId="209" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24221,7 +24218,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
+  <conditionalFormatting sqref="AX38">
     <cfRule type="cellIs" dxfId="206" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24234,7 +24231,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+  <conditionalFormatting sqref="V10:V12 V23:V37">
     <cfRule type="cellIs" dxfId="203" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24247,7 +24244,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AX12 AX23:AX38">
+  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
     <cfRule type="cellIs" dxfId="200" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24260,7 +24257,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY38">
+  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
     <cfRule type="cellIs" dxfId="197" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24273,46 +24270,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12 V23:V37">
-    <cfRule type="cellIs" dxfId="194" priority="207" operator="equal">
+  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+    <cfRule type="cellIs" dxfId="194" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="208" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="202" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="209" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="203" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
-    <cfRule type="cellIs" dxfId="191" priority="204" operator="equal">
+  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+    <cfRule type="cellIs" dxfId="191" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="205" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="199" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="200" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BB12 BA23:BB32">
-    <cfRule type="cellIs" dxfId="188" priority="201" operator="equal">
+  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+    <cfRule type="cellIs" dxfId="188" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="202" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="196" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="203" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="197" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
     <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24325,7 +24322,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+  <conditionalFormatting sqref="AZ33:BA37">
     <cfRule type="cellIs" dxfId="182" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24338,7 +24335,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR10:AR12 AR23:AR37">
+  <conditionalFormatting sqref="AV9">
     <cfRule type="cellIs" dxfId="179" priority="186" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24351,7 +24348,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC10:BC12 BC23:BC37">
+  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
     <cfRule type="cellIs" dxfId="176" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24364,7 +24361,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA33:BB37">
+  <conditionalFormatting sqref="BC9">
     <cfRule type="cellIs" dxfId="173" priority="180" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24377,7 +24374,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW9">
+  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
     <cfRule type="cellIs" dxfId="170" priority="177" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24390,7 +24387,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24403,7 +24400,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9">
+  <conditionalFormatting sqref="K10:K12 K23:K32">
     <cfRule type="cellIs" dxfId="164" priority="171" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24416,7 +24413,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BD12 BD23:BD27">
+  <conditionalFormatting sqref="J10:J12 J23:J37">
     <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24429,124 +24426,124 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="158" priority="165" operator="equal">
+  <conditionalFormatting sqref="H13:P17 BM13:BQ22 AZ13:BC22 H19:P22 H18:M18">
+    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="166" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="167" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12 K23:K32">
-    <cfRule type="cellIs" dxfId="155" priority="162" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="163" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="164" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12 J23:J37">
-    <cfRule type="cellIs" dxfId="152" priority="159" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="160" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="161" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:P17 BN13:BR22 BA13:BD22 H19:P22 H18:M18">
-    <cfRule type="cellIs" dxfId="149" priority="154" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="155" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN13:AN22">
-    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="162" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AX22">
-    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
+  <conditionalFormatting sqref="AW13:AW22">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17 V19:V22">
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG22">
-    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA13:BB22">
-    <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
+  <conditionalFormatting sqref="AZ13:BA22">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI22">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="141" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AL22">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13:AQ22">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB13:BB22">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24559,7 +24556,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AL22">
+  <conditionalFormatting sqref="AV13:AV22">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24572,7 +24569,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR13:AR22">
+  <conditionalFormatting sqref="BC13:BC17">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24585,7 +24582,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13:BC22">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24598,7 +24595,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW13:AW22">
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24611,7 +24608,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BD17">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24624,7 +24621,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
+  <conditionalFormatting sqref="I10:I12 I23:I38">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24637,7 +24634,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
+  <conditionalFormatting sqref="I13:I22">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24650,7 +24647,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24663,7 +24660,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I23:I38">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24676,7 +24673,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24689,7 +24686,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE9:BF9 BH9:BK9 BM9">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24702,7 +24699,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE10:BF12 BE23:BF23 BH23:BK23 BH10:BK12 BM10:BM12 BM23">
+  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24715,7 +24712,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE9:BF9 BH9:BK9 BM9">
+  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24728,7 +24725,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE10:BF12 BE23:BF23 BH23:BK23 BH10:BK12 BM10:BM12 BM23">
+  <conditionalFormatting sqref="Q9">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24741,7 +24738,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE13:BF22 BH13:BK22 BM13:BM22">
+  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24754,7 +24751,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE13:BF17 BH13:BK17 BM13:BM17">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24767,7 +24764,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="R9">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24780,7 +24777,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
+  <conditionalFormatting sqref="R23:R38 R10:R12">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24793,7 +24790,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
+  <conditionalFormatting sqref="R13:R17 R19:R22">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24806,7 +24803,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
+  <conditionalFormatting sqref="BF24:BF38">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24819,7 +24816,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R38 R10:R12">
+  <conditionalFormatting sqref="BF9">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24832,7 +24829,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R17 R19:R22">
+  <conditionalFormatting sqref="BF23 BF10:BF12">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24845,7 +24842,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG24:BG38">
+  <conditionalFormatting sqref="BF9">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24858,7 +24855,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG9">
+  <conditionalFormatting sqref="BF23 BF10:BF12">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24871,7 +24868,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG23 BG10:BG12">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24884,7 +24881,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG9">
+  <conditionalFormatting sqref="BF13:BF17">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24897,7 +24894,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG23 BG10:BG12">
+  <conditionalFormatting sqref="BK9">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24910,7 +24907,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG13:BG22">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24923,7 +24920,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG13:BG17">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24936,7 +24933,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL9">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24949,7 +24946,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL10:BL12 BL23:BL37">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24962,7 +24959,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL10:BL12 BL23:BL37">
+  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24975,7 +24972,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL13:BL22">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24988,7 +24985,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL13:BL22">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25001,7 +24998,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AZ9 AY30:AZ30">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25014,7 +25011,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY10:AZ12 AY23:AZ29 AY31:AZ33">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25027,7 +25024,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY10:AZ12 AY23:AZ29 AY31:AZ33">
+  <conditionalFormatting sqref="N18:P18 S18:V18">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25040,7 +25037,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY13:AZ22 AY34:AZ37">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25053,7 +25050,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY13:AZ22 AY34:AZ37">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25066,7 +25063,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:P18 S18:V18">
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25079,7 +25076,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="AH9:AH37">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25092,7 +25089,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25105,7 +25102,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+  <conditionalFormatting sqref="AH13:AH22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3042,9 +3042,9 @@
   <dimension ref="A1:BU104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="Y9" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="Z9" activePane="topRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AI5" sqref="AI1:AL1048576"/>
+      <selection pane="topRight" activeCell="AS2" sqref="AS2:AS4"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
       <selection pane="bottomRight" activeCell="AO9" sqref="AO9"/>
     </sheetView>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3046,7 +3046,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AO2" sqref="AO2:AO4"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4156,19 +4156,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>137.82608695652175</v>
+        <v>138.26086956521738</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>9.1860465116279073</v>
+        <v>9.8062015503875966</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>59.25</v>
+        <v>63.25</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4268,7 +4268,9 @@
       <c r="AQ9" s="47">
         <v>99</v>
       </c>
-      <c r="AR9" s="47"/>
+      <c r="AR9" s="47">
+        <v>1</v>
+      </c>
       <c r="AS9" s="47"/>
       <c r="AT9" s="47"/>
       <c r="AU9" s="47"/>
@@ -4315,19 +4317,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>137.82608695652175</v>
+        <v>138.26086956521738</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>8.1550387596899228</v>
+        <v>8.7751937984496138</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>52.6</v>
+        <v>56.6</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4427,7 +4429,9 @@
       <c r="AQ10" s="47">
         <v>99</v>
       </c>
-      <c r="AR10" s="47"/>
+      <c r="AR10" s="47">
+        <v>1</v>
+      </c>
       <c r="AS10" s="47"/>
       <c r="AT10" s="47"/>
       <c r="AU10" s="47"/>
@@ -4474,19 +4478,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>138.58695652173913</v>
+        <v>139.02173913043478</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>8.7984496124031004</v>
+        <v>9.4186046511627914</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>56.75</v>
+        <v>60.75</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>318.75</v>
+        <v>319.75</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4586,7 +4590,9 @@
       <c r="AQ11" s="47">
         <v>99</v>
       </c>
-      <c r="AR11" s="47"/>
+      <c r="AR11" s="47">
+        <v>1</v>
+      </c>
       <c r="AS11" s="47"/>
       <c r="AT11" s="47"/>
       <c r="AU11" s="47"/>
@@ -4633,19 +4639,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>138.32608695652172</v>
+        <v>138.76086956521738</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>8.6356589147286815</v>
+        <v>9.2558139534883725</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>55.7</v>
+        <v>59.7</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>318.14999999999998</v>
+        <v>319.14999999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4745,7 +4751,9 @@
       <c r="AQ12" s="47">
         <v>99</v>
       </c>
-      <c r="AR12" s="47"/>
+      <c r="AR12" s="47">
+        <v>1</v>
+      </c>
       <c r="AS12" s="47"/>
       <c r="AT12" s="47"/>
       <c r="AU12" s="47"/>
@@ -4792,19 +4800,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>138.80434782608694</v>
+        <v>139.23913043478262</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>8.9147286821705425</v>
+        <v>9.5348837209302335</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>57.5</v>
+        <v>61.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>319.25</v>
+        <v>320.25</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -4904,7 +4912,9 @@
       <c r="AQ13" s="47">
         <v>99</v>
       </c>
-      <c r="AR13" s="47"/>
+      <c r="AR13" s="47">
+        <v>1</v>
+      </c>
       <c r="AS13" s="47"/>
       <c r="AT13" s="47"/>
       <c r="AU13" s="47"/>
@@ -4951,19 +4961,19 @@
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>132.01086956521738</v>
+        <v>132.22826086956522</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>1.9379844961240311</v>
+        <v>2.248062015503876</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>303.625</v>
+        <v>304.125</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -5063,7 +5073,9 @@
       <c r="AQ14" s="47">
         <v>99</v>
       </c>
-      <c r="AR14" s="47"/>
+      <c r="AR14" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS14" s="47"/>
       <c r="AT14" s="47"/>
       <c r="AU14" s="47"/>
@@ -5110,19 +5122,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>138.36956521739131</v>
+        <v>138.80434782608694</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>9.6124031007751949</v>
+        <v>10.232558139534884</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>318.25</v>
+        <v>319.25</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5222,7 +5234,9 @@
       <c r="AQ15" s="47">
         <v>99</v>
       </c>
-      <c r="AR15" s="47"/>
+      <c r="AR15" s="47">
+        <v>1</v>
+      </c>
       <c r="AS15" s="47"/>
       <c r="AT15" s="47"/>
       <c r="AU15" s="47"/>
@@ -5269,19 +5283,19 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>138.43478260869563</v>
+        <v>138.65217391304347</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>8.5581395348837219</v>
+        <v>8.8682170542635657</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>55.2</v>
+        <v>57.2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>318.39999999999998</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5381,7 +5395,9 @@
       <c r="AQ16" s="47">
         <v>99</v>
       </c>
-      <c r="AR16" s="47"/>
+      <c r="AR16" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS16" s="47"/>
       <c r="AT16" s="47"/>
       <c r="AU16" s="47"/>
@@ -5539,19 +5555,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>137.67391304347825</v>
+        <v>138.10869565217391</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>7.8992248062015511</v>
+        <v>8.5193798449612412</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>50.95</v>
+        <v>54.95</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>316.64999999999998</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5651,7 +5667,9 @@
       <c r="AQ18" s="47">
         <v>99</v>
       </c>
-      <c r="AR18" s="47"/>
+      <c r="AR18" s="47">
+        <v>1</v>
+      </c>
       <c r="AS18" s="47"/>
       <c r="AT18" s="47"/>
       <c r="AU18" s="47"/>
@@ -5810,7 +5828,9 @@
       <c r="AQ19" s="47">
         <v>99</v>
       </c>
-      <c r="AR19" s="47"/>
+      <c r="AR19" s="47">
+        <v>0</v>
+      </c>
       <c r="AS19" s="47"/>
       <c r="AT19" s="47"/>
       <c r="AU19" s="47"/>
@@ -6036,19 +6056,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>137.71739130434784</v>
+        <v>137.93478260869566</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>8.1162790697674421</v>
+        <v>8.4263565891472876</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>52.35</v>
+        <v>54.35</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>316.75</v>
+        <v>317.25</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6148,7 +6168,9 @@
       <c r="AQ21" s="47">
         <v>99</v>
       </c>
-      <c r="AR21" s="47"/>
+      <c r="AR21" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS21" s="47"/>
       <c r="AT21" s="47"/>
       <c r="AU21" s="47"/>
@@ -6195,19 +6217,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>138.69565217391306</v>
+        <v>139.13043478260869</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>8.9922480620155039</v>
+        <v>9.6124031007751949</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6307,7 +6329,9 @@
       <c r="AQ22" s="47">
         <v>99</v>
       </c>
-      <c r="AR22" s="47"/>
+      <c r="AR22" s="47">
+        <v>1</v>
+      </c>
       <c r="AS22" s="47"/>
       <c r="AT22" s="47"/>
       <c r="AU22" s="47"/>
@@ -6354,19 +6378,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>136.10869565217394</v>
+        <v>136.32608695652175</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>6.441860465116279</v>
+        <v>6.7519379844961245</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>41.550000000000004</v>
+        <v>43.550000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>313.05</v>
+        <v>313.55</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6466,7 +6490,9 @@
       <c r="AQ23" s="47">
         <v>99</v>
       </c>
-      <c r="AR23" s="47"/>
+      <c r="AR23" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS23" s="47"/>
       <c r="AT23" s="47"/>
       <c r="AU23" s="47"/>
@@ -6513,19 +6539,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>136.17391304347828</v>
+        <v>136.39130434782612</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>7.4108527131782953</v>
+        <v>7.7209302325581399</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>47.800000000000004</v>
+        <v>49.800000000000004</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>313.20000000000005</v>
+        <v>313.70000000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6625,7 +6651,9 @@
       <c r="AQ24" s="47">
         <v>99</v>
       </c>
-      <c r="AR24" s="47"/>
+      <c r="AR24" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS24" s="47"/>
       <c r="AT24" s="47"/>
       <c r="AU24" s="47"/>
@@ -6672,19 +6700,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>137.52173913043478</v>
+        <v>137.73913043478262</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>7.5503875968992249</v>
+        <v>7.8604651162790704</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>48.7</v>
+        <v>50.7</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>316.3</v>
+        <v>316.8</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -6784,7 +6812,9 @@
       <c r="AQ25" s="47">
         <v>99</v>
       </c>
-      <c r="AR25" s="47"/>
+      <c r="AR25" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS25" s="47"/>
       <c r="AT25" s="47"/>
       <c r="AU25" s="47"/>
@@ -6831,19 +6861,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>136.52173913043478</v>
+        <v>136.73913043478262</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>7.0930232558139537</v>
+        <v>7.4031007751937983</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>45.75</v>
+        <v>47.75</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>314</v>
+        <v>314.5</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -6943,7 +6973,9 @@
       <c r="AQ26" s="47">
         <v>99</v>
       </c>
-      <c r="AR26" s="47"/>
+      <c r="AR26" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS26" s="47"/>
       <c r="AT26" s="47"/>
       <c r="AU26" s="47"/>
@@ -6990,19 +7022,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>136.54347826086956</v>
+        <v>136.7608695652174</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>6.6976744186046506</v>
+        <v>7.0077519379844961</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>43.2</v>
+        <v>45.2</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>314.05</v>
+        <v>314.55</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7102,7 +7134,9 @@
       <c r="AQ27" s="47">
         <v>99</v>
       </c>
-      <c r="AR27" s="47"/>
+      <c r="AR27" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS27" s="47"/>
       <c r="AT27" s="47"/>
       <c r="AU27" s="47"/>
@@ -7149,19 +7183,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>137.89130434782609</v>
+        <v>138.10869565217391</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.2713178294573648</v>
+        <v>8.5813953488372103</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>53.35</v>
+        <v>55.35</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>317.14999999999998</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7261,7 +7295,9 @@
       <c r="AQ28" s="47">
         <v>99</v>
       </c>
-      <c r="AR28" s="47"/>
+      <c r="AR28" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AS28" s="47"/>
       <c r="AT28" s="47"/>
       <c r="AU28" s="47"/>
@@ -8636,7 +8672,7 @@
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="AS39" s="1">
         <f t="shared" si="6"/>
@@ -8742,7 +8778,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -8890,7 +8926,7 @@
       </c>
       <c r="AR41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="1">
         <f t="shared" si="9"/>
@@ -8996,7 +9032,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9144,7 +9180,7 @@
       </c>
       <c r="AR42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="1">
         <f t="shared" si="11"/>
@@ -9250,7 +9286,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>318.75</v>
+        <v>319.75</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9398,7 +9434,7 @@
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43" s="1">
         <f t="shared" si="13"/>
@@ -9504,7 +9540,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>318.14999999999998</v>
+        <v>319.14999999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -9652,7 +9688,7 @@
       </c>
       <c r="AR44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44" s="1">
         <f t="shared" si="15"/>
@@ -9760,7 +9796,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>319.25</v>
+        <v>320.25</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -9908,7 +9944,7 @@
       </c>
       <c r="AR45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" s="1">
         <f t="shared" si="17"/>
@@ -10016,7 +10052,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>303.625</v>
+        <v>304.125</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
@@ -10164,7 +10200,7 @@
       </c>
       <c r="AR46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS46" s="1">
         <f t="shared" si="19"/>
@@ -10272,7 +10308,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>318.25</v>
+        <v>319.25</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10420,7 +10456,7 @@
       </c>
       <c r="AR47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47" s="1">
         <f t="shared" si="21"/>
@@ -10528,7 +10564,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>318.39999999999998</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -10676,7 +10712,7 @@
       </c>
       <c r="AR48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS48" s="1">
         <f t="shared" si="23"/>
@@ -11040,7 +11076,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>316.64999999999998</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11188,7 +11224,7 @@
       </c>
       <c r="AR50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS50" s="1">
         <f t="shared" si="27"/>
@@ -11808,7 +11844,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>316.75</v>
+        <v>317.25</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -11956,7 +11992,7 @@
       </c>
       <c r="AR53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS53" s="1">
         <f t="shared" si="33"/>
@@ -12064,7 +12100,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12212,7 +12248,7 @@
       </c>
       <c r="AR54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS54" s="1">
         <f t="shared" si="35"/>
@@ -12320,7 +12356,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>313.05</v>
+        <v>313.55</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12468,7 +12504,7 @@
       </c>
       <c r="AR55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS55" s="1">
         <f t="shared" si="37"/>
@@ -12576,7 +12612,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>313.20000000000005</v>
+        <v>313.70000000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -12724,7 +12760,7 @@
       </c>
       <c r="AR56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS56" s="1">
         <f t="shared" si="39"/>
@@ -12832,7 +12868,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>316.3</v>
+        <v>316.8</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -12980,7 +13016,7 @@
       </c>
       <c r="AR57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS57" s="1">
         <f t="shared" si="41"/>
@@ -13088,7 +13124,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>314</v>
+        <v>314.5</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13236,7 +13272,7 @@
       </c>
       <c r="AR58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS58" s="1">
         <f t="shared" si="43"/>
@@ -13342,7 +13378,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>314.05</v>
+        <v>314.55</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13490,7 +13526,7 @@
       </c>
       <c r="AR59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS59" s="1">
         <f t="shared" si="45"/>
@@ -13596,7 +13632,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>317.14999999999998</v>
+        <v>317.64999999999998</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -13744,7 +13780,7 @@
       </c>
       <c r="AR60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AS60" s="1">
         <f t="shared" si="47"/>
@@ -16420,7 +16456,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>59.25</v>
+        <v>63.25</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -16568,7 +16604,7 @@
       </c>
       <c r="AR75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS75" s="1">
         <f t="shared" si="70"/>
@@ -16676,7 +16712,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>52.6</v>
+        <v>56.6</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -16824,7 +16860,7 @@
       </c>
       <c r="AR76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS76" s="1">
         <f t="shared" si="72"/>
@@ -16932,7 +16968,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>56.75</v>
+        <v>60.75</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17080,7 +17116,7 @@
       </c>
       <c r="AR77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS77" s="1">
         <f t="shared" si="74"/>
@@ -17188,7 +17224,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>55.7</v>
+        <v>59.7</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17336,7 +17372,7 @@
       </c>
       <c r="AR78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS78" s="1">
         <f t="shared" si="76"/>
@@ -17444,7 +17480,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>57.5</v>
+        <v>61.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -17592,7 +17628,7 @@
       </c>
       <c r="AR79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS79" s="1">
         <f t="shared" si="78"/>
@@ -17700,7 +17736,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -17848,7 +17884,7 @@
       </c>
       <c r="AR80" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS80" s="1">
         <f t="shared" si="80"/>
@@ -17956,7 +17992,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18104,7 +18140,7 @@
       </c>
       <c r="AR81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS81" s="1">
         <f t="shared" si="82"/>
@@ -18212,7 +18248,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>55.2</v>
+        <v>57.2</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18360,7 +18396,7 @@
       </c>
       <c r="AR82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS82" s="1">
         <f t="shared" si="84"/>
@@ -18720,7 +18756,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>50.95</v>
+        <v>54.95</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -18868,7 +18904,7 @@
       </c>
       <c r="AR84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS84" s="1">
         <f t="shared" si="88"/>
@@ -19482,7 +19518,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>52.35</v>
+        <v>54.35</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -19630,7 +19666,7 @@
       </c>
       <c r="AR87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS87" s="1">
         <f t="shared" si="94"/>
@@ -19736,7 +19772,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -19884,7 +19920,7 @@
       </c>
       <c r="AR88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS88" s="1">
         <f t="shared" si="96"/>
@@ -19990,7 +20026,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>41.550000000000004</v>
+        <v>43.550000000000004</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20138,7 +20174,7 @@
       </c>
       <c r="AR89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS89" s="1">
         <f t="shared" si="98"/>
@@ -20244,7 +20280,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>47.800000000000004</v>
+        <v>49.800000000000004</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -20392,7 +20428,7 @@
       </c>
       <c r="AR90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS90" s="1">
         <f t="shared" si="100"/>
@@ -20498,7 +20534,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>48.7</v>
+        <v>50.7</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -20646,7 +20682,7 @@
       </c>
       <c r="AR91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS91" s="1">
         <f t="shared" si="102"/>
@@ -20752,7 +20788,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>45.75</v>
+        <v>47.75</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -20900,7 +20936,7 @@
       </c>
       <c r="AR92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS92" s="1">
         <f t="shared" si="104"/>
@@ -21006,7 +21042,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>43.2</v>
+        <v>45.2</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21154,7 +21190,7 @@
       </c>
       <c r="AR93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS93" s="1">
         <f t="shared" si="106"/>
@@ -21260,7 +21296,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>53.35</v>
+        <v>55.35</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -21408,7 +21444,7 @@
       </c>
       <c r="AR94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS94" s="1">
         <f t="shared" si="108"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3044,9 +3044,9 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2955" ySplit="3900" topLeftCell="AI9" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AO2" sqref="AO2:AO4"/>
+      <selection pane="topRight" activeCell="AS6" sqref="AS6"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="AR15" sqref="AR15"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3326,11 +3326,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 129)</v>
+        <v>Note/20 ( sur 137)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/129</v>
+        <v>Note/137</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3721,7 +3721,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="AS6" s="12">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AT6" s="12">
         <v>6</v>
@@ -4100,7 +4100,7 @@
       <c r="AO8" s="59"/>
       <c r="AP8" s="67">
         <f>SUM(AP6:AU6)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AQ8" s="61"/>
       <c r="AR8" s="61"/>
@@ -4156,19 +4156,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>138.26086956521738</v>
+        <v>139.07608695652175</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>9.8062015503875966</v>
+        <v>11.313868613138688</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>63.25</v>
+        <v>77.5</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>318</v>
+        <v>319.875</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4271,11 +4271,15 @@
       <c r="AR9" s="47">
         <v>1</v>
       </c>
-      <c r="AS9" s="47"/>
+      <c r="AS9" s="47">
+        <v>0.875</v>
+      </c>
       <c r="AT9" s="47"/>
       <c r="AU9" s="47"/>
       <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
+      <c r="AW9" s="47">
+        <v>1</v>
+      </c>
       <c r="AX9" s="47">
         <v>99</v>
       </c>
@@ -4317,19 +4321,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>138.26086956521738</v>
+        <v>138.85869565217391</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>8.7751937984496138</v>
+        <v>9.3211678832116789</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>56.6</v>
+        <v>63.85</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>318</v>
+        <v>319.375</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4432,11 +4436,15 @@
       <c r="AR10" s="47">
         <v>1</v>
       </c>
-      <c r="AS10" s="47"/>
+      <c r="AS10" s="47">
+        <v>0.375</v>
+      </c>
       <c r="AT10" s="47"/>
       <c r="AU10" s="47"/>
       <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
+      <c r="AW10" s="47">
+        <v>1</v>
+      </c>
       <c r="AX10" s="47">
         <v>99</v>
       </c>
@@ -4478,19 +4486,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>139.02173913043478</v>
+        <v>139.78260869565216</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>9.4186046511627914</v>
+        <v>10.693430656934307</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>60.75</v>
+        <v>73.25</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>319.75</v>
+        <v>321.5</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4593,11 +4601,15 @@
       <c r="AR11" s="47">
         <v>1</v>
       </c>
-      <c r="AS11" s="47"/>
+      <c r="AS11" s="47">
+        <v>0.75</v>
+      </c>
       <c r="AT11" s="47"/>
       <c r="AU11" s="47"/>
       <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
+      <c r="AW11" s="47">
+        <v>1</v>
+      </c>
       <c r="AX11" s="47">
         <v>99</v>
       </c>
@@ -4639,19 +4651,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>138.76086956521738</v>
+        <v>139.30434782608694</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>9.2558139534883725</v>
+        <v>9.5182481751824817</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>59.7</v>
+        <v>65.2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>319.14999999999998</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4754,11 +4766,15 @@
       <c r="AR12" s="47">
         <v>1</v>
       </c>
-      <c r="AS12" s="47"/>
+      <c r="AS12" s="47">
+        <v>0.25</v>
+      </c>
       <c r="AT12" s="47"/>
       <c r="AU12" s="47"/>
       <c r="AV12" s="47"/>
-      <c r="AW12" s="47"/>
+      <c r="AW12" s="47">
+        <v>1</v>
+      </c>
       <c r="AX12" s="47">
         <v>99</v>
       </c>
@@ -4800,19 +4816,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>139.23913043478262</v>
+        <v>140.10869565217391</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>9.5348837209302335</v>
+        <v>11.313868613138688</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>61.5</v>
+        <v>77.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>320.25</v>
+        <v>322.25</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -4915,11 +4931,15 @@
       <c r="AR13" s="47">
         <v>1</v>
       </c>
-      <c r="AS13" s="47"/>
+      <c r="AS13" s="47">
+        <v>1</v>
+      </c>
       <c r="AT13" s="47"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
+      <c r="AW13" s="47">
+        <v>1</v>
+      </c>
       <c r="AX13" s="47">
         <v>99</v>
       </c>
@@ -4961,19 +4981,19 @@
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>132.22826086956522</v>
+        <v>132.28260869565216</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>2.248062015503876</v>
+        <v>2.3722627737226274</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>16.25</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>304.125</v>
+        <v>304.25</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -5076,11 +5096,15 @@
       <c r="AR14" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS14" s="47"/>
+      <c r="AS14" s="47">
+        <v>0.125</v>
+      </c>
       <c r="AT14" s="47"/>
       <c r="AU14" s="47"/>
       <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
+      <c r="AW14" s="47">
+        <v>0</v>
+      </c>
       <c r="AX14" s="47">
         <v>99</v>
       </c>
@@ -5122,19 +5146,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>138.80434782608694</v>
+        <v>139.23913043478262</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>10.232558139534884</v>
+        <v>9.9270072992700733</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>319.25</v>
+        <v>320.25</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5241,7 +5265,9 @@
       <c r="AT15" s="47"/>
       <c r="AU15" s="47"/>
       <c r="AV15" s="47"/>
-      <c r="AW15" s="47"/>
+      <c r="AW15" s="47">
+        <v>1</v>
+      </c>
       <c r="AX15" s="47">
         <v>99</v>
       </c>
@@ -5287,7 +5313,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>8.8682170542635657</v>
+        <v>8.350364963503651</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
@@ -5559,7 +5585,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>8.5193798449612412</v>
+        <v>8.0218978102189791</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
@@ -5720,7 +5746,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>8.4806201550387605</v>
+        <v>7.9854014598540148</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
@@ -5881,7 +5907,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.6356589147286824</v>
+        <v>2.4817518248175183</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -6060,7 +6086,7 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>8.4263565891472876</v>
+        <v>7.9343065693430663</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
@@ -6221,7 +6247,7 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>9.6124031007751949</v>
+        <v>9.0510948905109494</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -6382,7 +6408,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>6.7519379844961245</v>
+        <v>6.3576642335766431</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
@@ -6543,7 +6569,7 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>7.7209302325581399</v>
+        <v>7.2700729927007304</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
@@ -6704,7 +6730,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>7.8604651162790704</v>
+        <v>7.4014598540145995</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -6865,7 +6891,7 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>7.4031007751937983</v>
+        <v>6.9708029197080288</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
@@ -7026,7 +7052,7 @@
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>7.0077519379844961</v>
+        <v>6.5985401459854023</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -7187,7 +7213,7 @@
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.5813953488372103</v>
+        <v>8.0802919708029197</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
@@ -8331,7 +8357,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -8676,7 +8702,7 @@
       </c>
       <c r="AS39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="AT39" s="1">
         <f t="shared" si="6"/>
@@ -8692,7 +8718,7 @@
       </c>
       <c r="AW39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AX39" s="1">
         <f t="shared" si="6"/>
@@ -8778,7 +8804,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>318</v>
+        <v>319.875</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -8930,7 +8956,7 @@
       </c>
       <c r="AS41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AT41" s="1">
         <f t="shared" si="9"/>
@@ -8946,7 +8972,7 @@
       </c>
       <c r="AW41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="1">
         <f t="shared" si="9"/>
@@ -9032,7 +9058,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>318</v>
+        <v>319.375</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9184,7 +9210,7 @@
       </c>
       <c r="AS42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AT42" s="1">
         <f t="shared" si="11"/>
@@ -9200,7 +9226,7 @@
       </c>
       <c r="AW42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="1">
         <f t="shared" si="11"/>
@@ -9286,7 +9312,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>319.75</v>
+        <v>321.5</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9438,7 +9464,7 @@
       </c>
       <c r="AS43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT43" s="1">
         <f t="shared" si="13"/>
@@ -9454,7 +9480,7 @@
       </c>
       <c r="AW43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="1">
         <f t="shared" si="13"/>
@@ -9540,7 +9566,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>319.14999999999998</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -9692,7 +9718,7 @@
       </c>
       <c r="AS44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT44" s="1">
         <f t="shared" si="15"/>
@@ -9708,7 +9734,7 @@
       </c>
       <c r="AW44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="1">
         <f t="shared" si="15"/>
@@ -9796,7 +9822,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>320.25</v>
+        <v>322.25</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -9948,7 +9974,7 @@
       </c>
       <c r="AS45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="1">
         <f t="shared" si="17"/>
@@ -9964,7 +9990,7 @@
       </c>
       <c r="AW45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="1">
         <f t="shared" si="17"/>
@@ -10052,7 +10078,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>304.125</v>
+        <v>304.25</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
@@ -10204,7 +10230,7 @@
       </c>
       <c r="AS46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT46" s="1">
         <f t="shared" si="19"/>
@@ -10308,7 +10334,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>319.25</v>
+        <v>320.25</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10476,7 +10502,7 @@
       </c>
       <c r="AW47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="1">
         <f t="shared" si="21"/>
@@ -16456,7 +16482,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>63.25</v>
+        <v>77.5</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -16608,7 +16634,7 @@
       </c>
       <c r="AS75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="AT75" s="1">
         <f t="shared" si="70"/>
@@ -16624,7 +16650,7 @@
       </c>
       <c r="AW75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX75" s="1">
         <f t="shared" si="70"/>
@@ -16712,7 +16738,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>56.6</v>
+        <v>63.85</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -16864,7 +16890,7 @@
       </c>
       <c r="AS76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AT76" s="1">
         <f t="shared" si="72"/>
@@ -16880,7 +16906,7 @@
       </c>
       <c r="AW76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX76" s="1">
         <f t="shared" si="72"/>
@@ -16968,7 +16994,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>60.75</v>
+        <v>73.25</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17120,7 +17146,7 @@
       </c>
       <c r="AS77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AT77" s="1">
         <f t="shared" si="74"/>
@@ -17136,7 +17162,7 @@
       </c>
       <c r="AW77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX77" s="1">
         <f t="shared" si="74"/>
@@ -17224,7 +17250,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>59.7</v>
+        <v>65.2</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17376,7 +17402,7 @@
       </c>
       <c r="AS78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AT78" s="1">
         <f t="shared" si="76"/>
@@ -17392,7 +17418,7 @@
       </c>
       <c r="AW78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX78" s="1">
         <f t="shared" si="76"/>
@@ -17480,7 +17506,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>61.5</v>
+        <v>77.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -17632,7 +17658,7 @@
       </c>
       <c r="AS79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT79" s="1">
         <f t="shared" si="78"/>
@@ -17648,7 +17674,7 @@
       </c>
       <c r="AW79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX79" s="1">
         <f t="shared" si="78"/>
@@ -17736,7 +17762,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>14.5</v>
+        <v>16.25</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -17888,7 +17914,7 @@
       </c>
       <c r="AS80" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AT80" s="1">
         <f t="shared" si="80"/>
@@ -17992,7 +18018,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18160,7 +18186,7 @@
       </c>
       <c r="AW81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX81" s="1">
         <f t="shared" si="82"/>
@@ -23836,7 +23862,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -23988,7 +24014,7 @@
       </c>
       <c r="AS104" s="1">
         <f t="shared" si="128"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AT104" s="1">
         <f t="shared" si="128"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3044,9 +3044,9 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2955" ySplit="3900" topLeftCell="AI9" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AS6" sqref="AS6"/>
+      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
+      <selection pane="bottomRight" activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3326,11 +3326,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 137)</v>
+        <v>Note/20 ( sur 133)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/137</v>
+        <v>Note/133</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3721,7 +3721,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="AS6" s="12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AT6" s="12">
         <v>6</v>
@@ -4100,7 +4100,7 @@
       <c r="AO8" s="59"/>
       <c r="AP8" s="67">
         <f>SUM(AP6:AU6)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AQ8" s="61"/>
       <c r="AR8" s="61"/>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>11.313868613138688</v>
+        <v>11.12781954887218</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>77.5</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>9.3211678832116789</v>
+        <v>9.3759398496240607</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>63.85</v>
+        <v>62.35</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
@@ -4486,19 +4486,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>139.78260869565216</v>
+        <v>139.72826086956522</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>10.693430656934307</v>
+        <v>10.375939849624061</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>73.25</v>
+        <v>69</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>321.5</v>
+        <v>321.375</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4602,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="AS11" s="47">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AT11" s="47"/>
       <c r="AU11" s="47"/>
@@ -4651,19 +4651,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>139.30434782608694</v>
+        <v>139.25</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>9.5182481751824817</v>
+        <v>9.4661654135338349</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>65.2</v>
+        <v>62.95</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>320.39999999999998</v>
+        <v>320.27499999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="AS12" s="47">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AT12" s="47"/>
       <c r="AU12" s="47"/>
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>11.313868613138688</v>
+        <v>11.05263157894737</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>77.5</v>
+        <v>73.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
@@ -4985,11 +4985,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>2.3722627737226274</v>
+        <v>2.3684210526315788</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>16.25</v>
+        <v>15.75</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
@@ -5146,19 +5146,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>139.23913043478262</v>
+        <v>139.56521739130434</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>9.9270072992700733</v>
+        <v>11.353383458646618</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>75.5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>320.25</v>
+        <v>321</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5261,7 +5261,9 @@
       <c r="AR15" s="47">
         <v>1</v>
       </c>
-      <c r="AS15" s="47"/>
+      <c r="AS15" s="47">
+        <v>0.75</v>
+      </c>
       <c r="AT15" s="47"/>
       <c r="AU15" s="47"/>
       <c r="AV15" s="47"/>
@@ -5309,19 +5311,19 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>138.65217391304347</v>
+        <v>139.35869565217391</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>8.350364963503651</v>
+        <v>9.8421052631578956</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>57.2</v>
+        <v>65.45</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>318.89999999999998</v>
+        <v>320.52499999999998</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5424,11 +5426,15 @@
       <c r="AR16" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS16" s="47"/>
+      <c r="AS16" s="47">
+        <v>0.625</v>
+      </c>
       <c r="AT16" s="47"/>
       <c r="AU16" s="47"/>
       <c r="AV16" s="47"/>
-      <c r="AW16" s="47"/>
+      <c r="AW16" s="47">
+        <v>1</v>
+      </c>
       <c r="AX16" s="47">
         <v>99</v>
       </c>
@@ -5581,19 +5587,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>138.10869565217391</v>
+        <v>138.32608695652172</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>8.0218978102189791</v>
+        <v>9.0150375939849621</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>54.95</v>
+        <v>59.95</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>317.64999999999998</v>
+        <v>318.14999999999998</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5696,11 +5702,15 @@
       <c r="AR18" s="47">
         <v>1</v>
       </c>
-      <c r="AS18" s="47"/>
+      <c r="AS18" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AT18" s="47"/>
       <c r="AU18" s="47"/>
       <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
+      <c r="AW18" s="47">
+        <v>0</v>
+      </c>
       <c r="AX18" s="47">
         <v>99</v>
       </c>
@@ -5742,19 +5752,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>138.32608695652172</v>
+        <v>138.4891304347826</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>7.9854014598540148</v>
+        <v>8.7894736842105274</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>54.7</v>
+        <v>58.45</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>318.14999999999998</v>
+        <v>318.52499999999998</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -5857,11 +5867,15 @@
       <c r="AR19" s="47">
         <v>0</v>
       </c>
-      <c r="AS19" s="47"/>
+      <c r="AS19" s="47">
+        <v>0.375</v>
+      </c>
       <c r="AT19" s="47"/>
       <c r="AU19" s="47"/>
       <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
+      <c r="AW19" s="47">
+        <v>0</v>
+      </c>
       <c r="AX19" s="47">
         <v>99</v>
       </c>
@@ -5907,7 +5921,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.4817518248175183</v>
+        <v>2.5563909774436091</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -6082,19 +6096,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>137.93478260869566</v>
+        <v>138.09782608695653</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>7.9343065693430663</v>
+        <v>8.7368421052631575</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>54.35</v>
+        <v>58.1</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>317.25</v>
+        <v>317.625</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6197,11 +6211,15 @@
       <c r="AR21" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS21" s="47"/>
+      <c r="AS21" s="47">
+        <v>0.375</v>
+      </c>
       <c r="AT21" s="47"/>
       <c r="AU21" s="47"/>
       <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
+      <c r="AW21" s="47">
+        <v>0</v>
+      </c>
       <c r="AX21" s="47">
         <v>99</v>
       </c>
@@ -6243,19 +6261,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>139.13043478260869</v>
+        <v>140</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>9.0510948905109494</v>
+        <v>11.12781954887218</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6358,11 +6376,15 @@
       <c r="AR22" s="47">
         <v>1</v>
       </c>
-      <c r="AS22" s="47"/>
+      <c r="AS22" s="47">
+        <v>1</v>
+      </c>
       <c r="AT22" s="47"/>
       <c r="AU22" s="47"/>
       <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
+      <c r="AW22" s="47">
+        <v>1</v>
+      </c>
       <c r="AX22" s="47">
         <v>99</v>
       </c>
@@ -6404,19 +6426,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>136.32608695652175</v>
+        <v>136.43478260869566</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>6.3576642335766431</v>
+        <v>6.9248120300751879</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>43.550000000000004</v>
+        <v>46.050000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>313.55</v>
+        <v>313.8</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6519,11 +6541,15 @@
       <c r="AR23" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS23" s="47"/>
+      <c r="AS23" s="47">
+        <v>0.25</v>
+      </c>
       <c r="AT23" s="47"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
+      <c r="AW23" s="47">
+        <v>0</v>
+      </c>
       <c r="AX23" s="47">
         <v>99</v>
       </c>
@@ -6565,19 +6591,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>136.39130434782612</v>
+        <v>137.20652173913044</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>7.2700729927007304</v>
+        <v>9.1052631578947381</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>49.800000000000004</v>
+        <v>60.550000000000004</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>313.70000000000005</v>
+        <v>315.57500000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6680,11 +6706,15 @@
       <c r="AR24" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS24" s="47"/>
+      <c r="AS24" s="47">
+        <v>0.875</v>
+      </c>
       <c r="AT24" s="47"/>
       <c r="AU24" s="47"/>
       <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
+      <c r="AW24" s="47">
+        <v>1</v>
+      </c>
       <c r="AX24" s="47">
         <v>99</v>
       </c>
@@ -6726,19 +6756,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>137.73913043478262</v>
+        <v>138.39130434782609</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>7.4014598540145995</v>
+        <v>8.6766917293233092</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>50.7</v>
+        <v>57.7</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>316.8</v>
+        <v>318.3</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -6841,11 +6871,15 @@
       <c r="AR25" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS25" s="47"/>
+      <c r="AS25" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AT25" s="47"/>
       <c r="AU25" s="47"/>
       <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
+      <c r="AW25" s="47">
+        <v>1</v>
+      </c>
       <c r="AX25" s="47">
         <v>99</v>
       </c>
@@ -6887,19 +6921,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>136.73913043478262</v>
+        <v>136.79347826086956</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>6.9708029197080288</v>
+        <v>7.3684210526315788</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>47.75</v>
+        <v>49</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>314.5</v>
+        <v>314.625</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -7002,11 +7036,15 @@
       <c r="AR26" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS26" s="47"/>
+      <c r="AS26" s="47">
+        <v>0.125</v>
+      </c>
       <c r="AT26" s="47"/>
       <c r="AU26" s="47"/>
       <c r="AV26" s="47"/>
-      <c r="AW26" s="47"/>
+      <c r="AW26" s="47">
+        <v>0</v>
+      </c>
       <c r="AX26" s="47">
         <v>99</v>
       </c>
@@ -7048,19 +7086,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>136.7608695652174</v>
+        <v>137.05434782608697</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>6.5985401459854023</v>
+        <v>7.8120300751879697</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>45.2</v>
+        <v>51.95</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>314.55</v>
+        <v>315.22500000000002</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7163,11 +7201,15 @@
       <c r="AR27" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS27" s="47"/>
+      <c r="AS27" s="47">
+        <v>0.67500000000000004</v>
+      </c>
       <c r="AT27" s="47"/>
       <c r="AU27" s="47"/>
       <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
+      <c r="AW27" s="47">
+        <v>0</v>
+      </c>
       <c r="AX27" s="47">
         <v>99</v>
       </c>
@@ -7209,19 +7251,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>138.10869565217391</v>
+        <v>138.16304347826087</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.0802919708029197</v>
+        <v>8.5112781954887211</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>55.35</v>
+        <v>56.6</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>317.64999999999998</v>
+        <v>317.77499999999998</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7324,11 +7366,15 @@
       <c r="AR28" s="47">
         <v>0.5</v>
       </c>
-      <c r="AS28" s="47"/>
+      <c r="AS28" s="47">
+        <v>0.125</v>
+      </c>
       <c r="AT28" s="47"/>
       <c r="AU28" s="47"/>
       <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
+      <c r="AW28" s="47">
+        <v>0</v>
+      </c>
       <c r="AX28" s="47">
         <v>99</v>
       </c>
@@ -8357,7 +8403,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -8702,7 +8748,7 @@
       </c>
       <c r="AS39" s="1">
         <f t="shared" si="6"/>
-        <v>0.48214285714285715</v>
+        <v>0.48947368421052634</v>
       </c>
       <c r="AT39" s="1">
         <f t="shared" si="6"/>
@@ -8718,7 +8764,7 @@
       </c>
       <c r="AW39" s="1">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="AX39" s="1">
         <f t="shared" si="6"/>
@@ -9312,7 +9358,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>321.5</v>
+        <v>321.375</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9464,7 +9510,7 @@
       </c>
       <c r="AS43" s="1">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AT43" s="1">
         <f t="shared" si="13"/>
@@ -9566,7 +9612,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>320.39999999999998</v>
+        <v>320.27499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -9718,7 +9764,7 @@
       </c>
       <c r="AS44" s="1">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AT44" s="1">
         <f t="shared" si="15"/>
@@ -10334,7 +10380,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>320.25</v>
+        <v>321</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10486,7 +10532,7 @@
       </c>
       <c r="AS47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AT47" s="1">
         <f t="shared" si="21"/>
@@ -10590,7 +10636,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>318.89999999999998</v>
+        <v>320.52499999999998</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -10742,7 +10788,7 @@
       </c>
       <c r="AS48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AT48" s="1">
         <f t="shared" si="23"/>
@@ -10758,7 +10804,7 @@
       </c>
       <c r="AW48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="1">
         <f t="shared" si="23"/>
@@ -11102,7 +11148,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>317.64999999999998</v>
+        <v>318.14999999999998</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11254,7 +11300,7 @@
       </c>
       <c r="AS50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT50" s="1">
         <f t="shared" si="27"/>
@@ -11358,7 +11404,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>318.14999999999998</v>
+        <v>318.52499999999998</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -11510,7 +11556,7 @@
       </c>
       <c r="AS51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AT51" s="1">
         <f t="shared" si="29"/>
@@ -11870,7 +11916,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>317.25</v>
+        <v>317.625</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -12022,7 +12068,7 @@
       </c>
       <c r="AS53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AT53" s="1">
         <f t="shared" si="33"/>
@@ -12126,7 +12172,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12278,7 +12324,7 @@
       </c>
       <c r="AS54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="1">
         <f t="shared" si="35"/>
@@ -12294,7 +12340,7 @@
       </c>
       <c r="AW54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="1">
         <f t="shared" si="35"/>
@@ -12382,7 +12428,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>313.55</v>
+        <v>313.8</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12534,7 +12580,7 @@
       </c>
       <c r="AS55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT55" s="1">
         <f t="shared" si="37"/>
@@ -12638,7 +12684,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>313.70000000000005</v>
+        <v>315.57500000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -12790,7 +12836,7 @@
       </c>
       <c r="AS56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AT56" s="1">
         <f t="shared" si="39"/>
@@ -12806,7 +12852,7 @@
       </c>
       <c r="AW56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="1">
         <f t="shared" si="39"/>
@@ -12894,7 +12940,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>316.8</v>
+        <v>318.3</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -13046,7 +13092,7 @@
       </c>
       <c r="AS57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT57" s="1">
         <f t="shared" si="41"/>
@@ -13062,7 +13108,7 @@
       </c>
       <c r="AW57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX57" s="1">
         <f t="shared" si="41"/>
@@ -13150,7 +13196,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>314.5</v>
+        <v>314.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13302,7 +13348,7 @@
       </c>
       <c r="AS58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT58" s="1">
         <f t="shared" si="43"/>
@@ -13404,7 +13450,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>314.55</v>
+        <v>315.22500000000002</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13556,7 +13602,7 @@
       </c>
       <c r="AS59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AT59" s="1">
         <f t="shared" si="45"/>
@@ -13658,7 +13704,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>317.64999999999998</v>
+        <v>317.77499999999998</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -13810,7 +13856,7 @@
       </c>
       <c r="AS60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT60" s="1">
         <f t="shared" si="47"/>
@@ -16482,7 +16528,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>77.5</v>
+        <v>74</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -16634,7 +16680,7 @@
       </c>
       <c r="AS75" s="1">
         <f t="shared" si="70"/>
-        <v>12.25</v>
+        <v>8.75</v>
       </c>
       <c r="AT75" s="1">
         <f t="shared" si="70"/>
@@ -16738,7 +16784,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>63.85</v>
+        <v>62.35</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -16890,7 +16936,7 @@
       </c>
       <c r="AS76" s="1">
         <f t="shared" si="72"/>
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="AT76" s="1">
         <f t="shared" si="72"/>
@@ -16994,7 +17040,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>73.25</v>
+        <v>69</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17146,7 +17192,7 @@
       </c>
       <c r="AS77" s="1">
         <f t="shared" si="74"/>
-        <v>10.5</v>
+        <v>6.25</v>
       </c>
       <c r="AT77" s="1">
         <f t="shared" si="74"/>
@@ -17250,7 +17296,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>65.2</v>
+        <v>62.95</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17402,7 +17448,7 @@
       </c>
       <c r="AS78" s="1">
         <f t="shared" si="76"/>
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="AT78" s="1">
         <f t="shared" si="76"/>
@@ -17506,7 +17552,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>77.5</v>
+        <v>73.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -17658,7 +17704,7 @@
       </c>
       <c r="AS79" s="1">
         <f t="shared" si="78"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AT79" s="1">
         <f t="shared" si="78"/>
@@ -17762,7 +17808,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>16.25</v>
+        <v>15.75</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -17914,7 +17960,7 @@
       </c>
       <c r="AS80" s="1">
         <f t="shared" si="80"/>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" s="1">
         <f t="shared" si="80"/>
@@ -18018,7 +18064,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>68</v>
+        <v>75.5</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18170,7 +18216,7 @@
       </c>
       <c r="AS81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AT81" s="1">
         <f t="shared" si="82"/>
@@ -18274,7 +18320,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>57.2</v>
+        <v>65.45</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18426,7 +18472,7 @@
       </c>
       <c r="AS82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AT82" s="1">
         <f t="shared" si="84"/>
@@ -18442,7 +18488,7 @@
       </c>
       <c r="AW82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX82" s="1">
         <f t="shared" si="84"/>
@@ -18782,7 +18828,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>54.95</v>
+        <v>59.95</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -18934,7 +18980,7 @@
       </c>
       <c r="AS84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT84" s="1">
         <f t="shared" si="88"/>
@@ -19036,7 +19082,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>54.7</v>
+        <v>58.45</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -19188,7 +19234,7 @@
       </c>
       <c r="AS85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AT85" s="1">
         <f t="shared" si="90"/>
@@ -19544,7 +19590,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>54.35</v>
+        <v>58.1</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -19696,7 +19742,7 @@
       </c>
       <c r="AS87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AT87" s="1">
         <f t="shared" si="94"/>
@@ -19798,7 +19844,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -19950,7 +19996,7 @@
       </c>
       <c r="AS88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT88" s="1">
         <f t="shared" si="96"/>
@@ -19966,7 +20012,7 @@
       </c>
       <c r="AW88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX88" s="1">
         <f t="shared" si="96"/>
@@ -20052,7 +20098,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>43.550000000000004</v>
+        <v>46.050000000000004</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20204,7 +20250,7 @@
       </c>
       <c r="AS89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" s="1">
         <f t="shared" si="98"/>
@@ -20306,7 +20352,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>49.800000000000004</v>
+        <v>60.550000000000004</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -20458,7 +20504,7 @@
       </c>
       <c r="AS90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AT90" s="1">
         <f t="shared" si="100"/>
@@ -20474,7 +20520,7 @@
       </c>
       <c r="AW90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX90" s="1">
         <f t="shared" si="100"/>
@@ -20560,7 +20606,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>50.7</v>
+        <v>57.7</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -20712,7 +20758,7 @@
       </c>
       <c r="AS91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT91" s="1">
         <f t="shared" si="102"/>
@@ -20728,7 +20774,7 @@
       </c>
       <c r="AW91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX91" s="1">
         <f t="shared" si="102"/>
@@ -20814,7 +20860,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>47.75</v>
+        <v>49</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -20966,7 +21012,7 @@
       </c>
       <c r="AS92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" s="1">
         <f t="shared" si="104"/>
@@ -21068,7 +21114,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>45.2</v>
+        <v>51.95</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21220,7 +21266,7 @@
       </c>
       <c r="AS93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AT93" s="1">
         <f t="shared" si="106"/>
@@ -21322,7 +21368,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>55.35</v>
+        <v>56.6</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -21474,7 +21520,7 @@
       </c>
       <c r="AS94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT94" s="1">
         <f t="shared" si="108"/>
@@ -23862,7 +23908,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24014,7 +24060,7 @@
       </c>
       <c r="AS104" s="1">
         <f t="shared" si="128"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AT104" s="1">
         <f t="shared" si="128"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3044,9 +3044,9 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2955" ySplit="3900" topLeftCell="AI9" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-      <selection pane="bottomRight" activeCell="AV28" sqref="AV28"/>
+      <selection pane="topRight" activeCell="BF6" sqref="BF6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3326,11 +3326,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 133)</v>
+        <v>Note/20 ( sur 132)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/133</v>
+        <v>Note/132</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3721,7 +3721,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3877,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="BG6" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH6" s="12">
         <v>4</v>
@@ -4118,7 +4118,7 @@
       <c r="BA8" s="59"/>
       <c r="BB8" s="58">
         <f>SUM(BB6:BG6)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC8" s="60"/>
       <c r="BD8" s="60"/>
@@ -4156,19 +4156,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>139.07608695652175</v>
+        <v>140.81521739130434</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>11.12781954887218</v>
+        <v>12.878787878787879</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>319.875</v>
+        <v>323.875</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4295,11 +4295,19 @@
       <c r="BB9" s="47">
         <v>99</v>
       </c>
-      <c r="BC9" s="47"/>
-      <c r="BD9" s="47"/>
-      <c r="BE9" s="47"/>
+      <c r="BC9" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="47">
+        <v>1</v>
+      </c>
       <c r="BF9" s="47"/>
-      <c r="BG9" s="47"/>
+      <c r="BG9" s="47">
+        <v>1</v>
+      </c>
       <c r="BH9" s="47"/>
       <c r="BI9" s="47"/>
       <c r="BJ9" s="47"/>
@@ -4321,19 +4329,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>138.85869565217391</v>
+        <v>140.16304347826087</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>9.3759398496240607</v>
+        <v>10.810606060606061</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>62.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>319.375</v>
+        <v>322.375</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4460,11 +4468,19 @@
       <c r="BB10" s="47">
         <v>99</v>
       </c>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="47"/>
-      <c r="BE10" s="47"/>
+      <c r="BC10" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="47">
+        <v>1</v>
+      </c>
       <c r="BF10" s="47"/>
-      <c r="BG10" s="47"/>
+      <c r="BG10" s="47">
+        <v>0</v>
+      </c>
       <c r="BH10" s="47"/>
       <c r="BI10" s="47"/>
       <c r="BJ10" s="47"/>
@@ -4486,19 +4502,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>139.72826086956522</v>
+        <v>141.03260869565216</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>10.375939849624061</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>321.375</v>
+        <v>324.375</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4625,11 +4641,19 @@
       <c r="BB11" s="47">
         <v>99</v>
       </c>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
+      <c r="BC11" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="47">
+        <v>1</v>
+      </c>
       <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
+      <c r="BG11" s="47">
+        <v>0</v>
+      </c>
       <c r="BH11" s="47"/>
       <c r="BI11" s="47"/>
       <c r="BJ11" s="47"/>
@@ -4651,19 +4675,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>140.22826086956519</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>9.4661654135338349</v>
+        <v>10.674242424242424</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>62.95</v>
+        <v>70.45</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>320.27499999999998</v>
+        <v>322.52499999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4790,11 +4814,19 @@
       <c r="BB12" s="47">
         <v>99</v>
       </c>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="47"/>
+      <c r="BC12" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="BD12" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="47">
+        <v>1</v>
+      </c>
       <c r="BF12" s="47"/>
-      <c r="BG12" s="47"/>
+      <c r="BG12" s="47">
+        <v>0</v>
+      </c>
       <c r="BH12" s="47"/>
       <c r="BI12" s="47"/>
       <c r="BJ12" s="47"/>
@@ -4820,7 +4852,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>11.05263157894737</v>
+        <v>11.136363636363635</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
@@ -4985,7 +5017,7 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>2.3684210526315788</v>
+        <v>2.3863636363636367</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
@@ -5150,7 +5182,7 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>11.353383458646618</v>
+        <v>11.439393939393941</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
@@ -5315,7 +5347,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>9.8421052631578956</v>
+        <v>9.9166666666666679</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
@@ -5591,7 +5623,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>9.0150375939849621</v>
+        <v>9.0833333333333339</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
@@ -5756,7 +5788,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>8.7894736842105274</v>
+        <v>8.8560606060606055</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
@@ -5921,7 +5953,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.5563909774436091</v>
+        <v>2.5757575757575757</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -6100,7 +6132,7 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>8.7368421052631575</v>
+        <v>8.8030303030303045</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
@@ -6265,7 +6297,7 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>11.12781954887218</v>
+        <v>11.212121212121211</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -6430,7 +6462,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>6.9248120300751879</v>
+        <v>6.9772727272727275</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
@@ -6595,7 +6627,7 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>9.1052631578947381</v>
+        <v>9.1742424242424256</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
@@ -6760,7 +6792,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>8.6766917293233092</v>
+        <v>8.7424242424242422</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -6925,7 +6957,7 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>7.3684210526315788</v>
+        <v>7.4242424242424239</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
@@ -7090,7 +7122,7 @@
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>7.8120300751879697</v>
+        <v>7.8712121212121211</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -7255,7 +7287,7 @@
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.5112781954887211</v>
+        <v>8.5757575757575761</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
@@ -8403,7 +8435,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -8786,17 +8818,17 @@
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="BC39" s="1" t="e">
+      <c r="BC39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.8125</v>
       </c>
       <c r="BD39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BE39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BF39" s="1">
         <f t="shared" si="6"/>
@@ -8804,7 +8836,7 @@
       </c>
       <c r="BG39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BH39" s="1" t="e">
         <f t="shared" si="6"/>
@@ -8850,7 +8882,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>319.875</v>
+        <v>323.875</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9042,15 +9074,15 @@
       </c>
       <c r="BC41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="1">
         <f t="shared" si="9"/>
@@ -9058,7 +9090,7 @@
       </c>
       <c r="BG41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41" s="1">
         <f t="shared" si="9"/>
@@ -9104,7 +9136,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>319.375</v>
+        <v>322.375</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9296,15 +9328,15 @@
       </c>
       <c r="BC42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="1">
         <f t="shared" si="11"/>
@@ -9358,7 +9390,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>321.375</v>
+        <v>324.375</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9550,15 +9582,15 @@
       </c>
       <c r="BC43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF43" s="1">
         <f t="shared" si="13"/>
@@ -9612,7 +9644,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>320.27499999999998</v>
+        <v>322.52499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -9804,15 +9836,15 @@
       </c>
       <c r="BC44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BD44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="1">
         <f t="shared" si="15"/>
@@ -16528,7 +16560,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -16720,15 +16752,15 @@
       </c>
       <c r="BC75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF75" s="1">
         <f t="shared" si="70"/>
@@ -16736,7 +16768,7 @@
       </c>
       <c r="BG75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH75" s="1">
         <f t="shared" si="70"/>
@@ -16784,7 +16816,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>62.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -16976,15 +17008,15 @@
       </c>
       <c r="BC76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF76" s="1">
         <f t="shared" si="72"/>
@@ -17040,7 +17072,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17232,15 +17264,15 @@
       </c>
       <c r="BC77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF77" s="1">
         <f t="shared" si="74"/>
@@ -17296,7 +17328,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>62.95</v>
+        <v>70.45</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17488,15 +17520,15 @@
       </c>
       <c r="BC78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BD78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF78" s="1">
         <f t="shared" si="76"/>
@@ -23908,7 +23940,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24116,7 +24148,7 @@
       </c>
       <c r="BG104" s="1">
         <f t="shared" si="128"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH104" s="1">
         <f t="shared" si="128"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -139,9 +139,6 @@
     <t>Jointure</t>
   </si>
   <si>
-    <t>GererVirement.fxml</t>
-  </si>
-  <si>
     <t>FacadeClient</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>FacadeRealisateurImpl</t>
+  </si>
+  <si>
+    <t>stream</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -969,6 +969,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,7 +1093,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="251">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3042,11 +3150,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="AI9" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="AI6" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="BF6" sqref="BF6"/>
+      <selection pane="topRight" activeCell="BF1" sqref="BF1:BF4"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
-      <selection pane="bottomRight" activeCell="BG12" sqref="BG12"/>
+      <selection pane="bottomRight" activeCell="BF9" sqref="BF9:BF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3088,98 +3196,96 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="78" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="63" t="s">
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63" t="s">
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
       <c r="AV1" s="46"/>
       <c r="AW1" s="42"/>
       <c r="AX1" s="42"/>
       <c r="AY1" s="28"/>
-      <c r="AZ1" s="76" t="s">
+      <c r="AZ1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="78" t="s">
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="BC1" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD1" s="62" t="s">
+      <c r="BE1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="BE1" s="62" t="s">
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="BF1" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG1" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH1" s="62" t="s">
+      <c r="BH1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="BI1" s="62" t="s">
+      <c r="BI1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="76" t="s">
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="77"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="78"/>
     </row>
     <row r="2" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3189,126 +3295,126 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="87" t="s">
+      <c r="N2" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="61" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="62" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="61" t="s">
+      <c r="AH2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="52" t="s">
+      <c r="AJ2" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="52" t="s">
+      <c r="AL2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM2" s="61" t="s">
+      <c r="AM2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="61" t="s">
+      <c r="AO2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="67" t="s">
+      <c r="AP2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="61" t="s">
+      <c r="AQ2" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS2" s="61" t="s">
+      <c r="AT2" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="AT2" s="61" t="s">
+      <c r="AU2" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="AU2" s="61" t="s">
+      <c r="AV2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="AV2" s="61" t="s">
+      <c r="AW2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="AW2" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61" t="s">
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="62"/>
+      <c r="BD2" s="62"/>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="68" t="s">
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="82"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="61"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="83"/>
     </row>
     <row r="3" spans="1:69" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3326,110 +3432,112 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 132)</v>
+        <v>Note/20 ( sur 129)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/132</v>
+        <v>Note/129</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/46</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="79" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="52" t="s">
+      <c r="T3" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="83"/>
+      <c r="BN3" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="84"/>
     </row>
     <row r="4" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3439,18 +3547,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3460,11 +3568,11 @@
       <c r="V4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3474,45 +3582,45 @@
       <c r="AD4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="84"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="85"/>
     </row>
     <row r="5" spans="1:69" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3721,7 +3829,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3874,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="BF6" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="12">
         <v>2</v>
@@ -3918,44 +4026,44 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="69">
+      <c r="H7" s="70">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="60">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="61">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60">
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="87">
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="88">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="60">
+      <c r="AB7" s="61">
         <f>SUM(AB5:AD5)</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="79"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="80"/>
       <c r="AE7" s="21">
         <f t="shared" ref="AE7:AF8" si="0">SUM(AE5)</f>
         <v>1</v>
@@ -3964,66 +4072,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="67">
+      <c r="AG7" s="68">
         <f>SUM(AG5:AH5)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="58">
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="59">
         <f>SUM(AI5:AO5)</f>
         <v>3</v>
       </c>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="67">
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="68">
         <f>SUM(AP5:AU5)</f>
         <v>5</v>
       </c>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
       <c r="AV7" s="44"/>
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
       <c r="AY7" s="27"/>
-      <c r="AZ7" s="58">
+      <c r="AZ7" s="59">
         <f>SUM(AZ5:BA5)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="59"/>
-      <c r="BB7" s="58">
+      <c r="BA7" s="60"/>
+      <c r="BB7" s="59">
         <f>SUM(BB5:BG5)</f>
         <v>5</v>
       </c>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="60"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BH8" si="1">BH5</f>
         <v>1</v>
       </c>
-      <c r="BI7" s="60">
+      <c r="BI7" s="61">
         <f>SUM(BI5:BL5)</f>
         <v>4</v>
       </c>
-      <c r="BJ7" s="60"/>
-      <c r="BK7" s="60"/>
-      <c r="BL7" s="59"/>
-      <c r="BM7" s="58">
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="60"/>
+      <c r="BM7" s="59">
         <f>SUM(BM5:BP5)</f>
         <v>2.5</v>
       </c>
-      <c r="BN7" s="60"/>
-      <c r="BO7" s="60"/>
-      <c r="BP7" s="59"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="60"/>
       <c r="BQ7" s="25">
         <f>BQ5</f>
         <v>0.5</v>
@@ -4037,44 +4145,44 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="64">
+      <c r="H8" s="65">
         <f>SUM(H6:M6)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="60">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="61">
         <f>SUM(N6:S6)</f>
         <v>9</v>
       </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60">
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="87">
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="88">
         <f>SUM(W6:AA6)</f>
         <v>12</v>
       </c>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60">
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61">
         <f>SUM(AB6:AD6)</f>
         <v>14</v>
       </c>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="79"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="80"/>
       <c r="AE8" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4083,66 +4191,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="67">
+      <c r="AG8" s="68">
         <f>SUM(AG6:AH6)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="58">
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="59">
         <f>SUM(AI6:AO6)</f>
         <v>10</v>
       </c>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="67">
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="61"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="68">
         <f>SUM(AP6:AU6)</f>
         <v>32</v>
       </c>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
       <c r="AV8" s="44"/>
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="27"/>
-      <c r="AZ8" s="58">
+      <c r="AZ8" s="59">
         <f>SUM(AZ6:BA6)</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="58">
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="59">
         <f>SUM(BB6:BG6)</f>
-        <v>14</v>
-      </c>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BG8" s="60"/>
+        <v>11</v>
+      </c>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="61"/>
       <c r="BH8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BI8" s="60">
+      <c r="BI8" s="61">
         <f>SUM(BI6:BL6)</f>
         <v>15</v>
       </c>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="59"/>
-      <c r="BM8" s="58">
+      <c r="BJ8" s="61"/>
+      <c r="BK8" s="61"/>
+      <c r="BL8" s="60"/>
+      <c r="BM8" s="59">
         <f>SUM(BM6:BP6)</f>
         <v>2</v>
       </c>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="60"/>
-      <c r="BP8" s="59"/>
+      <c r="BN8" s="61"/>
+      <c r="BO8" s="61"/>
+      <c r="BP8" s="60"/>
       <c r="BQ8" s="25">
         <f>BQ6</f>
         <v>0</v>
@@ -4150,17 +4258,17 @@
     </row>
     <row r="9" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>140.81521739130434</v>
+        <v>183.85869565217391</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>12.878787878787879</v>
+        <v>13.178294573643409</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
@@ -4168,7 +4276,7 @@
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>323.875</v>
+        <v>422.875</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4304,7 +4412,9 @@
       <c r="BE9" s="47">
         <v>1</v>
       </c>
-      <c r="BF9" s="47"/>
+      <c r="BF9" s="52">
+        <v>99</v>
+      </c>
       <c r="BG9" s="47">
         <v>1</v>
       </c>
@@ -4323,17 +4433,17 @@
     </row>
     <row r="10" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>140.16304347826087</v>
+        <v>183.20652173913044</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>10.810606060606061</v>
+        <v>11.062015503875969</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
@@ -4341,7 +4451,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>322.375</v>
+        <v>421.375</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4477,7 +4587,9 @@
       <c r="BE10" s="47">
         <v>1</v>
       </c>
-      <c r="BF10" s="47"/>
+      <c r="BF10" s="52">
+        <v>99</v>
+      </c>
       <c r="BG10" s="47">
         <v>0</v>
       </c>
@@ -4496,17 +4608,17 @@
     </row>
     <row r="11" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>141.03260869565216</v>
+        <v>184.07608695652175</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>11.818181818181818</v>
+        <v>12.093023255813954</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
@@ -4514,7 +4626,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>324.375</v>
+        <v>423.375</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4650,7 +4762,9 @@
       <c r="BE11" s="47">
         <v>1</v>
       </c>
-      <c r="BF11" s="47"/>
+      <c r="BF11" s="52">
+        <v>99</v>
+      </c>
       <c r="BG11" s="47">
         <v>0</v>
       </c>
@@ -4669,17 +4783,17 @@
     </row>
     <row r="12" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>140.22826086956519</v>
+        <v>183.27173913043478</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>10.674242424242424</v>
+        <v>10.922480620155039</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
@@ -4687,7 +4801,7 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>322.52499999999998</v>
+        <v>421.52499999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4823,7 +4937,9 @@
       <c r="BE12" s="47">
         <v>1</v>
       </c>
-      <c r="BF12" s="47"/>
+      <c r="BF12" s="52">
+        <v>99</v>
+      </c>
       <c r="BG12" s="47">
         <v>0</v>
       </c>
@@ -4842,25 +4958,25 @@
     </row>
     <row r="13" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>140.10869565217391</v>
+        <v>184.89130434782609</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>11.136363636363635</v>
+        <v>13.100775193798452</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>73.5</v>
+        <v>84.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>322.25</v>
+        <v>425.25</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -4987,11 +5103,21 @@
       <c r="BB13" s="47">
         <v>99</v>
       </c>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
+      <c r="BC13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="52">
+        <v>99</v>
+      </c>
+      <c r="BG13" s="47">
+        <v>1</v>
+      </c>
       <c r="BH13" s="47"/>
       <c r="BI13" s="47"/>
       <c r="BJ13" s="47"/>
@@ -5007,25 +5133,25 @@
     </row>
     <row r="14" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>132.28260869565216</v>
+        <v>176.41304347826087</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>2.3863636363636367</v>
+        <v>3.6046511627906974</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>15.75</v>
+        <v>23.25</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>304.25</v>
+        <v>405.75</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -5152,11 +5278,21 @@
       <c r="BB14" s="47">
         <v>99</v>
       </c>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="47"/>
-      <c r="BF14" s="47"/>
-      <c r="BG14" s="47"/>
+      <c r="BC14" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="BE14" s="47">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="52">
+        <v>99</v>
+      </c>
+      <c r="BG14" s="47">
+        <v>0</v>
+      </c>
       <c r="BH14" s="47"/>
       <c r="BI14" s="47"/>
       <c r="BJ14" s="47"/>
@@ -5172,25 +5308,25 @@
     </row>
     <row r="15" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>139.56521739130434</v>
+        <v>183.91304347826087</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>11.439393939393941</v>
+        <v>13.100775193798452</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>75.5</v>
+        <v>84.5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5317,11 +5453,21 @@
       <c r="BB15" s="47">
         <v>99</v>
       </c>
-      <c r="BC15" s="47"/>
-      <c r="BD15" s="47"/>
-      <c r="BE15" s="47"/>
-      <c r="BF15" s="47"/>
-      <c r="BG15" s="47"/>
+      <c r="BC15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="52">
+        <v>99</v>
+      </c>
+      <c r="BG15" s="47">
+        <v>0</v>
+      </c>
       <c r="BH15" s="47"/>
       <c r="BI15" s="47"/>
       <c r="BJ15" s="47"/>
@@ -5337,25 +5483,25 @@
     </row>
     <row r="16" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>139.35869565217391</v>
+        <v>183.70652173913044</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>9.9166666666666679</v>
+        <v>11.542635658914728</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>65.45</v>
+        <v>74.45</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>320.52499999999998</v>
+        <v>422.52499999999998</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5482,11 +5628,21 @@
       <c r="BB16" s="47">
         <v>99</v>
       </c>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="47"/>
-      <c r="BF16" s="47"/>
-      <c r="BG16" s="47"/>
+      <c r="BC16" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="47">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="52">
+        <v>99</v>
+      </c>
+      <c r="BG16" s="47">
+        <v>0</v>
+      </c>
       <c r="BH16" s="47"/>
       <c r="BI16" s="47"/>
       <c r="BJ16" s="47"/>
@@ -5502,13 +5658,13 @@
     </row>
     <row r="17" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="3"/>
@@ -5520,7 +5676,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -5598,7 +5754,9 @@
       <c r="BC17" s="47"/>
       <c r="BD17" s="47"/>
       <c r="BE17" s="47"/>
-      <c r="BF17" s="47"/>
+      <c r="BF17" s="52">
+        <v>99</v>
+      </c>
       <c r="BG17" s="47"/>
       <c r="BH17" s="47"/>
       <c r="BI17" s="47"/>
@@ -5613,17 +5771,17 @@
     </row>
     <row r="18" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>138.32608695652172</v>
+        <v>181.36956521739131</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>9.0833333333333339</v>
+        <v>9.2945736434108532</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
@@ -5631,7 +5789,7 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>318.14999999999998</v>
+        <v>417.15</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5761,7 +5919,9 @@
       <c r="BC18" s="47"/>
       <c r="BD18" s="47"/>
       <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
+      <c r="BF18" s="52">
+        <v>99</v>
+      </c>
       <c r="BG18" s="47"/>
       <c r="BH18" s="47"/>
       <c r="BI18" s="47"/>
@@ -5778,17 +5938,17 @@
     </row>
     <row r="19" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>138.4891304347826</v>
+        <v>181.53260869565216</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>8.8560606060606055</v>
+        <v>9.0620155038759691</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
@@ -5796,7 +5956,7 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>318.52499999999998</v>
+        <v>417.52499999999998</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -5926,7 +6086,9 @@
       <c r="BC19" s="47"/>
       <c r="BD19" s="47"/>
       <c r="BE19" s="47"/>
-      <c r="BF19" s="47"/>
+      <c r="BF19" s="52">
+        <v>99</v>
+      </c>
       <c r="BG19" s="47"/>
       <c r="BH19" s="47"/>
       <c r="BI19" s="47"/>
@@ -5943,17 +6105,17 @@
     </row>
     <row r="20" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>132.82608695652175</v>
+        <v>175.86956521739128</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.5757575757575757</v>
+        <v>2.6356589147286824</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -5961,7 +6123,7 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>305.5</v>
+        <v>404.5</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -6101,8 +6263,8 @@
       <c r="BE20" s="47">
         <v>0</v>
       </c>
-      <c r="BF20" s="47">
-        <v>0</v>
+      <c r="BF20" s="52">
+        <v>99</v>
       </c>
       <c r="BG20" s="47">
         <v>0</v>
@@ -6122,17 +6284,17 @@
     </row>
     <row r="21" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>138.09782608695653</v>
+        <v>181.14130434782609</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>8.8030303030303045</v>
+        <v>9.0077519379844961</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
@@ -6140,7 +6302,7 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>317.625</v>
+        <v>416.625</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6270,7 +6432,9 @@
       <c r="BC21" s="47"/>
       <c r="BD21" s="47"/>
       <c r="BE21" s="47"/>
-      <c r="BF21" s="47"/>
+      <c r="BF21" s="52">
+        <v>99</v>
+      </c>
       <c r="BG21" s="47"/>
       <c r="BH21" s="47"/>
       <c r="BI21" s="47"/>
@@ -6287,17 +6451,17 @@
     </row>
     <row r="22" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>183.04347826086956</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>11.212121212121211</v>
+        <v>11.472868217054264</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -6305,7 +6469,7 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6435,7 +6599,9 @@
       <c r="BC22" s="47"/>
       <c r="BD22" s="47"/>
       <c r="BE22" s="47"/>
-      <c r="BF22" s="47"/>
+      <c r="BF22" s="52">
+        <v>99</v>
+      </c>
       <c r="BG22" s="47"/>
       <c r="BH22" s="47"/>
       <c r="BI22" s="47"/>
@@ -6452,17 +6618,17 @@
     </row>
     <row r="23" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>136.43478260869566</v>
+        <v>179.47826086956522</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>6.9772727272727275</v>
+        <v>7.1395348837209305</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
@@ -6470,7 +6636,7 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>313.8</v>
+        <v>412.8</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6600,7 +6766,9 @@
       <c r="BC23" s="47"/>
       <c r="BD23" s="47"/>
       <c r="BE23" s="47"/>
-      <c r="BF23" s="47"/>
+      <c r="BF23" s="52">
+        <v>99</v>
+      </c>
       <c r="BG23" s="47"/>
       <c r="BH23" s="47"/>
       <c r="BI23" s="47"/>
@@ -6617,17 +6785,17 @@
     </row>
     <row r="24" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>137.20652173913044</v>
+        <v>180.25000000000003</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>9.1742424242424256</v>
+        <v>9.3875968992248069</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
@@ -6635,7 +6803,7 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>315.57500000000005</v>
+        <v>414.57500000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6765,7 +6933,9 @@
       <c r="BC24" s="47"/>
       <c r="BD24" s="47"/>
       <c r="BE24" s="47"/>
-      <c r="BF24" s="47"/>
+      <c r="BF24" s="52">
+        <v>99</v>
+      </c>
       <c r="BG24" s="47"/>
       <c r="BH24" s="47"/>
       <c r="BI24" s="47"/>
@@ -6782,17 +6952,17 @@
     </row>
     <row r="25" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>138.39130434782609</v>
+        <v>181.43478260869563</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>8.7424242424242422</v>
+        <v>8.945736434108527</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -6800,7 +6970,7 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>318.3</v>
+        <v>417.3</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -6930,7 +7100,9 @@
       <c r="BC25" s="47"/>
       <c r="BD25" s="47"/>
       <c r="BE25" s="47"/>
-      <c r="BF25" s="47"/>
+      <c r="BF25" s="52">
+        <v>99</v>
+      </c>
       <c r="BG25" s="47"/>
       <c r="BH25" s="47"/>
       <c r="BI25" s="47"/>
@@ -6947,17 +7119,17 @@
     </row>
     <row r="26" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>136.79347826086956</v>
+        <v>179.83695652173913</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>7.4242424242424239</v>
+        <v>7.5968992248062017</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
@@ -6965,7 +7137,7 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>314.625</v>
+        <v>413.625</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -7095,7 +7267,9 @@
       <c r="BC26" s="47"/>
       <c r="BD26" s="47"/>
       <c r="BE26" s="47"/>
-      <c r="BF26" s="47"/>
+      <c r="BF26" s="52">
+        <v>99</v>
+      </c>
       <c r="BG26" s="47"/>
       <c r="BH26" s="47"/>
       <c r="BI26" s="47"/>
@@ -7112,17 +7286,17 @@
     </row>
     <row r="27" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>137.05434782608697</v>
+        <v>180.0978260869565</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>7.8712121212121211</v>
+        <v>8.054263565891473</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -7130,7 +7304,7 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>315.22500000000002</v>
+        <v>414.22500000000002</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7260,7 +7434,9 @@
       <c r="BC27" s="47"/>
       <c r="BD27" s="47"/>
       <c r="BE27" s="47"/>
-      <c r="BF27" s="47"/>
+      <c r="BF27" s="52">
+        <v>99</v>
+      </c>
       <c r="BG27" s="47"/>
       <c r="BH27" s="47"/>
       <c r="BI27" s="47"/>
@@ -7277,17 +7453,17 @@
     </row>
     <row r="28" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>138.16304347826087</v>
+        <v>181.20652173913044</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.5757575757575761</v>
+        <v>8.7751937984496138</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
@@ -7295,7 +7471,7 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>317.77499999999998</v>
+        <v>416.77499999999998</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7425,7 +7601,9 @@
       <c r="BC28" s="47"/>
       <c r="BD28" s="47"/>
       <c r="BE28" s="47"/>
-      <c r="BF28" s="47"/>
+      <c r="BF28" s="52">
+        <v>99</v>
+      </c>
       <c r="BG28" s="47"/>
       <c r="BH28" s="47"/>
       <c r="BI28" s="47"/>
@@ -7446,7 +7624,7 @@
       <c r="C29" s="48"/>
       <c r="D29" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="3"/>
@@ -7458,7 +7636,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
@@ -7536,7 +7714,9 @@
       <c r="BC29" s="47"/>
       <c r="BD29" s="47"/>
       <c r="BE29" s="47"/>
-      <c r="BF29" s="47"/>
+      <c r="BF29" s="52">
+        <v>99</v>
+      </c>
       <c r="BG29" s="47"/>
       <c r="BH29" s="47"/>
       <c r="BI29" s="47"/>
@@ -7555,7 +7735,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="3"/>
@@ -7567,7 +7747,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
@@ -7645,7 +7825,9 @@
       <c r="BC30" s="47"/>
       <c r="BD30" s="47"/>
       <c r="BE30" s="47"/>
-      <c r="BF30" s="47"/>
+      <c r="BF30" s="52">
+        <v>99</v>
+      </c>
       <c r="BG30" s="47"/>
       <c r="BH30" s="47"/>
       <c r="BI30" s="47"/>
@@ -7664,7 +7846,7 @@
       <c r="C31" s="48"/>
       <c r="D31" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="3"/>
@@ -7676,7 +7858,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
@@ -7754,7 +7936,9 @@
       <c r="BC31" s="47"/>
       <c r="BD31" s="47"/>
       <c r="BE31" s="47"/>
-      <c r="BF31" s="47"/>
+      <c r="BF31" s="52">
+        <v>99</v>
+      </c>
       <c r="BG31" s="47"/>
       <c r="BH31" s="47"/>
       <c r="BI31" s="47"/>
@@ -7773,7 +7957,7 @@
       <c r="C32" s="48"/>
       <c r="D32" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="3"/>
@@ -7785,7 +7969,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
@@ -7863,7 +8047,9 @@
       <c r="BC32" s="47"/>
       <c r="BD32" s="47"/>
       <c r="BE32" s="47"/>
-      <c r="BF32" s="47"/>
+      <c r="BF32" s="52">
+        <v>99</v>
+      </c>
       <c r="BG32" s="47"/>
       <c r="BH32" s="47"/>
       <c r="BI32" s="47"/>
@@ -7882,7 +8068,7 @@
       <c r="C33" s="48"/>
       <c r="D33" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="3"/>
@@ -7894,7 +8080,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
@@ -7972,7 +8158,9 @@
       <c r="BC33" s="47"/>
       <c r="BD33" s="47"/>
       <c r="BE33" s="47"/>
-      <c r="BF33" s="47"/>
+      <c r="BF33" s="52">
+        <v>99</v>
+      </c>
       <c r="BG33" s="47"/>
       <c r="BH33" s="47"/>
       <c r="BI33" s="47"/>
@@ -7991,7 +8179,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="3"/>
@@ -8003,7 +8191,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
@@ -8081,7 +8269,9 @@
       <c r="BC34" s="47"/>
       <c r="BD34" s="47"/>
       <c r="BE34" s="47"/>
-      <c r="BF34" s="47"/>
+      <c r="BF34" s="52">
+        <v>99</v>
+      </c>
       <c r="BG34" s="47"/>
       <c r="BH34" s="47"/>
       <c r="BI34" s="47"/>
@@ -8100,7 +8290,7 @@
       <c r="C35" s="24"/>
       <c r="D35" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="3"/>
@@ -8112,7 +8302,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
@@ -8190,7 +8380,9 @@
       <c r="BC35" s="47"/>
       <c r="BD35" s="47"/>
       <c r="BE35" s="47"/>
-      <c r="BF35" s="47"/>
+      <c r="BF35" s="52">
+        <v>99</v>
+      </c>
       <c r="BG35" s="47"/>
       <c r="BH35" s="47"/>
       <c r="BI35" s="47"/>
@@ -8209,7 +8401,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="3"/>
@@ -8221,7 +8413,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
@@ -8299,7 +8491,9 @@
       <c r="BC36" s="47"/>
       <c r="BD36" s="47"/>
       <c r="BE36" s="47"/>
-      <c r="BF36" s="47"/>
+      <c r="BF36" s="52">
+        <v>99</v>
+      </c>
       <c r="BG36" s="47"/>
       <c r="BH36" s="47"/>
       <c r="BI36" s="47"/>
@@ -8318,7 +8512,7 @@
       <c r="C37" s="29"/>
       <c r="D37" s="9">
         <f t="shared" si="2"/>
-        <v>129.13043478260869</v>
+        <v>172.17391304347825</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="3"/>
@@ -8330,7 +8524,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -8408,7 +8602,9 @@
       <c r="BC37" s="47"/>
       <c r="BD37" s="47"/>
       <c r="BE37" s="47"/>
-      <c r="BF37" s="47"/>
+      <c r="BF37" s="52">
+        <v>99</v>
+      </c>
       <c r="BG37" s="47"/>
       <c r="BH37" s="47"/>
       <c r="BI37" s="47"/>
@@ -8435,7 +8631,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -8820,23 +9016,23 @@
       </c>
       <c r="BC39" s="1">
         <f t="shared" si="6"/>
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="BD39" s="1">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BE39" s="1">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BF39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG39" s="1">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="BH39" s="1" t="e">
         <f t="shared" si="6"/>
@@ -8882,7 +9078,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>323.875</v>
+        <v>422.875</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9086,7 +9282,7 @@
       </c>
       <c r="BF41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG41" s="1">
         <f t="shared" si="9"/>
@@ -9136,7 +9332,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>322.375</v>
+        <v>421.375</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9340,7 +9536,7 @@
       </c>
       <c r="BF42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG42" s="1">
         <f t="shared" si="11"/>
@@ -9390,7 +9586,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>324.375</v>
+        <v>423.375</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9594,7 +9790,7 @@
       </c>
       <c r="BF43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG43" s="1">
         <f t="shared" si="13"/>
@@ -9644,7 +9840,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>322.52499999999998</v>
+        <v>421.52499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -9848,7 +10044,7 @@
       </c>
       <c r="BF44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG44" s="1">
         <f t="shared" si="15"/>
@@ -9900,7 +10096,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>322.25</v>
+        <v>425.25</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -10092,23 +10288,23 @@
       </c>
       <c r="BC45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH45" s="1">
         <f t="shared" si="17"/>
@@ -10156,7 +10352,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>304.25</v>
+        <v>405.75</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
@@ -10348,19 +10544,19 @@
       </c>
       <c r="BC46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG46" s="1">
         <f t="shared" si="19"/>
@@ -10412,7 +10608,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10604,19 +10800,19 @@
       </c>
       <c r="BC47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG47" s="1">
         <f t="shared" si="21"/>
@@ -10668,7 +10864,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>320.52499999999998</v>
+        <v>422.52499999999998</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -10860,19 +11056,19 @@
       </c>
       <c r="BC48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG48" s="1">
         <f t="shared" si="23"/>
@@ -10924,7 +11120,7 @@
       <c r="E49" s="1"/>
       <c r="G49" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:BH49" si="25">H17*H$5</f>
@@ -11128,7 +11324,7 @@
       </c>
       <c r="BF49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG49" s="1">
         <f t="shared" si="25"/>
@@ -11180,7 +11376,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>318.14999999999998</v>
+        <v>417.15</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11384,7 +11580,7 @@
       </c>
       <c r="BF50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG50" s="1">
         <f t="shared" si="27"/>
@@ -11436,7 +11632,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>318.52499999999998</v>
+        <v>417.52499999999998</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -11640,7 +11836,7 @@
       </c>
       <c r="BF51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG51" s="1">
         <f t="shared" si="29"/>
@@ -11692,7 +11888,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="8"/>
-        <v>305.5</v>
+        <v>404.5</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BH52" si="31">H20*H$5</f>
@@ -11896,7 +12092,7 @@
       </c>
       <c r="BF52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG52" s="1">
         <f t="shared" si="31"/>
@@ -11948,7 +12144,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>317.625</v>
+        <v>416.625</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -12152,7 +12348,7 @@
       </c>
       <c r="BF53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG53" s="1">
         <f t="shared" si="33"/>
@@ -12204,7 +12400,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12408,7 +12604,7 @@
       </c>
       <c r="BF54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG54" s="1">
         <f t="shared" si="35"/>
@@ -12460,7 +12656,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>313.8</v>
+        <v>412.8</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12664,7 +12860,7 @@
       </c>
       <c r="BF55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG55" s="1">
         <f t="shared" si="37"/>
@@ -12716,7 +12912,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>315.57500000000005</v>
+        <v>414.57500000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -12920,7 +13116,7 @@
       </c>
       <c r="BF56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG56" s="1">
         <f t="shared" si="39"/>
@@ -12972,7 +13168,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>318.3</v>
+        <v>417.3</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -13176,7 +13372,7 @@
       </c>
       <c r="BF57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG57" s="1">
         <f t="shared" si="41"/>
@@ -13228,7 +13424,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>314.625</v>
+        <v>413.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13432,7 +13628,7 @@
       </c>
       <c r="BF58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG58" s="1">
         <f t="shared" si="43"/>
@@ -13482,7 +13678,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>315.22500000000002</v>
+        <v>414.22500000000002</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13686,7 +13882,7 @@
       </c>
       <c r="BF59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG59" s="1">
         <f t="shared" si="45"/>
@@ -13736,7 +13932,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>317.77499999999998</v>
+        <v>416.77499999999998</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -13940,7 +14136,7 @@
       </c>
       <c r="BF60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG60" s="1">
         <f t="shared" si="47"/>
@@ -13990,7 +14186,7 @@
     <row r="61" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G61" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" ref="H61:BH61" si="49">H29*H$5</f>
@@ -14194,7 +14390,7 @@
       </c>
       <c r="BF61" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG61" s="1">
         <f t="shared" si="49"/>
@@ -14244,7 +14440,7 @@
     <row r="62" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G62" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" ref="H62:BH62" si="51">H30*H$5</f>
@@ -14448,7 +14644,7 @@
       </c>
       <c r="BF62" s="1">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG62" s="1">
         <f t="shared" si="51"/>
@@ -14498,7 +14694,7 @@
     <row r="63" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" ref="H63:BH63" si="53">H31*H$5</f>
@@ -14702,7 +14898,7 @@
       </c>
       <c r="BF63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG63" s="1">
         <f t="shared" si="53"/>
@@ -14752,7 +14948,7 @@
     <row r="64" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G64" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" ref="H64:BH64" si="55">H32*H$5</f>
@@ -14956,7 +15152,7 @@
       </c>
       <c r="BF64" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG64" s="1">
         <f t="shared" si="55"/>
@@ -15008,7 +15204,7 @@
       <c r="E65" s="1"/>
       <c r="G65" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ref="H65:BH65" si="57">H33*H$5</f>
@@ -15212,7 +15408,7 @@
       </c>
       <c r="BF65" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG65" s="1">
         <f t="shared" si="57"/>
@@ -15264,7 +15460,7 @@
       <c r="E66" s="1"/>
       <c r="G66" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ref="H66:BH66" si="59">H34*H$5</f>
@@ -15468,7 +15664,7 @@
       </c>
       <c r="BF66" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG66" s="1">
         <f t="shared" si="59"/>
@@ -15520,7 +15716,7 @@
       <c r="E67" s="1"/>
       <c r="G67" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:BH67" si="61">H35*H$5</f>
@@ -15724,7 +15920,7 @@
       </c>
       <c r="BF67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG67" s="1">
         <f t="shared" si="61"/>
@@ -15776,7 +15972,7 @@
       <c r="E68" s="1"/>
       <c r="G68" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" ref="H68:BH68" si="63">H36*H$5</f>
@@ -15980,7 +16176,7 @@
       </c>
       <c r="BF68" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG68" s="1">
         <f t="shared" si="63"/>
@@ -16032,7 +16228,7 @@
       <c r="E69" s="1"/>
       <c r="G69" s="1">
         <f t="shared" si="8"/>
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" ref="H69:BH69" si="65">H37*H$5</f>
@@ -16236,7 +16432,7 @@
       </c>
       <c r="BF69" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG69" s="1">
         <f t="shared" si="65"/>
@@ -17584,7 +17780,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>73.5</v>
+        <v>84.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -17776,15 +17972,15 @@
       </c>
       <c r="BC79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF79" s="1">
         <f t="shared" si="78"/>
@@ -17792,7 +17988,7 @@
       </c>
       <c r="BG79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH79" s="1">
         <f t="shared" si="78"/>
@@ -17840,7 +18036,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>15.75</v>
+        <v>23.25</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -18032,15 +18228,15 @@
       </c>
       <c r="BC80" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD80" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BE80" s="1">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF80" s="1">
         <f t="shared" si="80"/>
@@ -18096,7 +18292,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>75.5</v>
+        <v>84.5</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18288,15 +18484,15 @@
       </c>
       <c r="BC81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF81" s="1">
         <f t="shared" si="82"/>
@@ -18352,7 +18548,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>65.45</v>
+        <v>74.45</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18544,15 +18740,15 @@
       </c>
       <c r="BC82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF82" s="1">
         <f t="shared" si="84"/>
@@ -23940,7 +24136,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24144,7 +24340,7 @@
       </c>
       <c r="BF104" s="1">
         <f t="shared" si="128"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG104" s="1">
         <f t="shared" si="128"/>
@@ -24290,67 +24486,132 @@
     <mergeCell ref="BC1:BC4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
-    <cfRule type="cellIs" dxfId="235" priority="279" operator="between">
+    <cfRule type="cellIs" dxfId="250" priority="294" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="280" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="295" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:P9 BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37">
-    <cfRule type="cellIs" dxfId="233" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="277" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="292" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="278" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="293" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="230" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="265" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="280" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="266" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="281" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="227" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="259" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="274" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="260" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="275" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="cellIs" dxfId="224" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="247" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="262" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="263" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:P12 H23:P38 BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37">
+    <cfRule type="cellIs" dxfId="236" priority="249" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="250" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="251" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="233" priority="246" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="247" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="248" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="230" priority="243" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="244" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="245" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+    <cfRule type="cellIs" dxfId="227" priority="240" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="241" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="242" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
+    <cfRule type="cellIs" dxfId="224" priority="237" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="238" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="239" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX38">
     <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24363,7 +24624,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
+  <conditionalFormatting sqref="V10:V12 V23:V37">
     <cfRule type="cellIs" dxfId="218" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24376,7 +24637,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
+  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
     <cfRule type="cellIs" dxfId="215" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24389,7 +24650,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
     <cfRule type="cellIs" dxfId="212" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24402,72 +24663,72 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
-    <cfRule type="cellIs" dxfId="209" priority="222" operator="equal">
+  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+    <cfRule type="cellIs" dxfId="209" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="223" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="217" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="224" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="218" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX38">
-    <cfRule type="cellIs" dxfId="206" priority="219" operator="equal">
+  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+    <cfRule type="cellIs" dxfId="206" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="220" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="214" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="221" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="215" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12 V23:V37">
-    <cfRule type="cellIs" dxfId="203" priority="216" operator="equal">
+  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+    <cfRule type="cellIs" dxfId="203" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="217" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="211" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="218" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="212" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
-    <cfRule type="cellIs" dxfId="200" priority="213" operator="equal">
+  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
+    <cfRule type="cellIs" dxfId="200" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="208" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="215" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="209" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
-    <cfRule type="cellIs" dxfId="197" priority="210" operator="equal">
+  <conditionalFormatting sqref="AZ33:BA37">
+    <cfRule type="cellIs" dxfId="197" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="211" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="205" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="212" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="206" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+  <conditionalFormatting sqref="AV9">
     <cfRule type="cellIs" dxfId="194" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24480,7 +24741,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
     <cfRule type="cellIs" dxfId="191" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24493,7 +24754,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+  <conditionalFormatting sqref="BC9">
     <cfRule type="cellIs" dxfId="188" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24506,7 +24767,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
+  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
     <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24519,7 +24780,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ33:BA37">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="182" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24532,7 +24793,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV9">
+  <conditionalFormatting sqref="K10:K12 K23:K32">
     <cfRule type="cellIs" dxfId="179" priority="186" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24545,7 +24806,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
+  <conditionalFormatting sqref="J10:J12 J23:J37">
     <cfRule type="cellIs" dxfId="176" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24558,150 +24819,150 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9">
-    <cfRule type="cellIs" dxfId="173" priority="180" operator="equal">
+  <conditionalFormatting sqref="H13:P17 BM13:BQ22 AZ13:BC22 H19:P22 H18:M18">
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="181" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="182" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
-    <cfRule type="cellIs" dxfId="170" priority="177" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="178" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="179" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="175" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="176" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12 K23:K32">
-    <cfRule type="cellIs" dxfId="164" priority="171" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="172" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="173" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12 J23:J37">
-    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="169" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="170" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:P17 BM13:BQ22 AZ13:BC22 H19:P22 H18:M18">
-    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="164" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN13:AN22">
-    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW13:AW22">
-    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="173" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="174" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17 V19:V22">
-    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="167" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG22">
-    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ13:BA22">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="161" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI22">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AL22">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13:AQ22">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB13:BB22">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV13:AV22">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC13:BC17">
     <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24714,7 +24975,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AL22">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24727,7 +24988,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13:AQ22">
+  <conditionalFormatting sqref="J13:J22">
     <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24740,7 +25001,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB13:BB22">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24753,7 +25014,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV13:AV22">
+  <conditionalFormatting sqref="I10:I12 I23:I38">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24766,7 +25027,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13:BC17">
+  <conditionalFormatting sqref="I13:I22">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24779,7 +25040,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24792,7 +25053,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24805,7 +25066,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24818,7 +25079,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I23:I38">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24831,7 +25092,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
+  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24844,7 +25105,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24857,7 +25118,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="Q9">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24870,7 +25131,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24883,7 +25144,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24896,7 +25157,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
+  <conditionalFormatting sqref="R9">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24909,7 +25170,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
+  <conditionalFormatting sqref="R23:R38 R10:R12">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24922,7 +25183,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="R13:R17 R19:R22">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24935,7 +25196,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
+  <conditionalFormatting sqref="BF38">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24948,85 +25209,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R38 R10:R12">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R17 R19:R22">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF24:BF38">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF9">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF23 BF10:BF12">
+  <conditionalFormatting sqref="BK9">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25039,7 +25222,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25052,7 +25235,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF23 BF10:BF12">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25065,7 +25248,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF22">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25078,7 +25261,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF17">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25091,7 +25274,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9">
+  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25104,7 +25287,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25117,7 +25300,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25130,7 +25313,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25143,7 +25326,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25156,7 +25339,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
+  <conditionalFormatting sqref="N18:P18 S18:V18">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25169,7 +25352,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25182,7 +25365,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25195,7 +25378,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25208,7 +25391,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="AH9:AH37">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25221,7 +25404,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:P18 S18:V18">
+  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25234,7 +25417,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="AH13:AH22">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25247,7 +25430,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="BF9">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25260,7 +25443,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25273,7 +25456,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH37">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25286,7 +25469,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25299,7 +25482,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AH22">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3150,11 +3150,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="AI6" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="AJ9" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="BF1" sqref="BF1:BF4"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC1:AC1048576"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
-      <selection pane="bottomRight" activeCell="BF9" sqref="BF9:BF37"/>
+      <selection pane="bottomRight" activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3432,11 +3432,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 129)</v>
+        <v>Note/20 ( sur 124)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/129</v>
+        <v>Note/124</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3829,7 +3829,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3973,19 +3973,19 @@
         <v>0</v>
       </c>
       <c r="BC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="12">
         <v>2</v>
       </c>
-      <c r="BD6" s="12">
-        <v>3</v>
-      </c>
       <c r="BE6" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="12">
         <v>0</v>
       </c>
       <c r="BG6" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="12">
         <v>4</v>
@@ -4226,7 +4226,7 @@
       <c r="BA8" s="60"/>
       <c r="BB8" s="59">
         <f>SUM(BB6:BG6)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BC8" s="61"/>
       <c r="BD8" s="61"/>
@@ -4264,19 +4264,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>183.85869565217391</v>
+        <v>184.29347826086956</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>13.178294573643409</v>
+        <v>13.548387096774192</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>422.875</v>
+        <v>423.875</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4418,7 +4418,9 @@
       <c r="BG9" s="47">
         <v>1</v>
       </c>
-      <c r="BH9" s="47"/>
+      <c r="BH9" s="47">
+        <v>1</v>
+      </c>
       <c r="BI9" s="47"/>
       <c r="BJ9" s="47"/>
       <c r="BK9" s="47"/>
@@ -4439,11 +4441,11 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>183.20652173913044</v>
+        <v>183.64130434782609</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>11.062015503875969</v>
+        <v>11.50806451612903</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
@@ -4451,7 +4453,7 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>421.375</v>
+        <v>422.375</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4593,7 +4595,9 @@
       <c r="BG10" s="47">
         <v>0</v>
       </c>
-      <c r="BH10" s="47"/>
+      <c r="BH10" s="47">
+        <v>1</v>
+      </c>
       <c r="BI10" s="47"/>
       <c r="BJ10" s="47"/>
       <c r="BK10" s="47"/>
@@ -4614,11 +4618,11 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>184.07608695652175</v>
+        <v>184.51086956521738</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>12.093023255813954</v>
+        <v>12.580645161290322</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
@@ -4626,7 +4630,7 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>423.375</v>
+        <v>424.375</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4768,7 +4772,9 @@
       <c r="BG11" s="47">
         <v>0</v>
       </c>
-      <c r="BH11" s="47"/>
+      <c r="BH11" s="47">
+        <v>1</v>
+      </c>
       <c r="BI11" s="47"/>
       <c r="BJ11" s="47"/>
       <c r="BK11" s="47"/>
@@ -4789,19 +4795,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>183.27173913043478</v>
+        <v>183.76086956521738</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>10.922480620155039</v>
+        <v>11.504032258064516</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>70.45</v>
+        <v>71.325000000000003</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>421.52499999999998</v>
+        <v>422.65</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4929,7 +4935,7 @@
         <v>99</v>
       </c>
       <c r="BC12" s="47">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="BD12" s="47">
         <v>1</v>
@@ -4943,7 +4949,9 @@
       <c r="BG12" s="47">
         <v>0</v>
       </c>
-      <c r="BH12" s="47"/>
+      <c r="BH12" s="47">
+        <v>1</v>
+      </c>
       <c r="BI12" s="47"/>
       <c r="BJ12" s="47"/>
       <c r="BK12" s="47"/>
@@ -4964,19 +4972,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>184.89130434782609</v>
+        <v>185.32608695652175</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>13.100775193798452</v>
+        <v>13.46774193548387</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>425.25</v>
+        <v>426.25</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -5118,7 +5126,9 @@
       <c r="BG13" s="47">
         <v>1</v>
       </c>
-      <c r="BH13" s="47"/>
+      <c r="BH13" s="47">
+        <v>1</v>
+      </c>
       <c r="BI13" s="47"/>
       <c r="BJ13" s="47"/>
       <c r="BK13" s="47"/>
@@ -5143,11 +5153,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>3.6046511627906974</v>
+        <v>3.185483870967742</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>23.25</v>
+        <v>19.75</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
@@ -5293,7 +5303,9 @@
       <c r="BG14" s="47">
         <v>0</v>
       </c>
-      <c r="BH14" s="47"/>
+      <c r="BH14" s="47">
+        <v>0</v>
+      </c>
       <c r="BI14" s="47"/>
       <c r="BJ14" s="47"/>
       <c r="BK14" s="47"/>
@@ -5314,11 +5326,11 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>183.91304347826087</v>
+        <v>184.34782608695653</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>13.100775193798452</v>
+        <v>13.629032258064516</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
@@ -5326,7 +5338,7 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5468,7 +5480,9 @@
       <c r="BG15" s="47">
         <v>0</v>
       </c>
-      <c r="BH15" s="47"/>
+      <c r="BH15" s="47">
+        <v>1</v>
+      </c>
       <c r="BI15" s="47"/>
       <c r="BJ15" s="47"/>
       <c r="BK15" s="47"/>
@@ -5489,11 +5503,11 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>183.70652173913044</v>
+        <v>184.14130434782606</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>11.542635658914728</v>
+        <v>12.008064516129034</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
@@ -5501,7 +5515,7 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>422.52499999999998</v>
+        <v>423.52499999999998</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5643,7 +5657,9 @@
       <c r="BG16" s="47">
         <v>0</v>
       </c>
-      <c r="BH16" s="47"/>
+      <c r="BH16" s="47">
+        <v>1</v>
+      </c>
       <c r="BI16" s="47"/>
       <c r="BJ16" s="47"/>
       <c r="BK16" s="47"/>
@@ -5777,19 +5793,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>181.36956521739131</v>
+        <v>183.27173913043478</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>9.2945736434108532</v>
+        <v>11.181451612903226</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>59.95</v>
+        <v>69.325000000000003</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>417.15</v>
+        <v>421.52499999999998</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5916,14 +5932,24 @@
       <c r="BB18" s="47">
         <v>99</v>
       </c>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
+      <c r="BC18" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="BD18" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="47">
+        <v>1</v>
+      </c>
       <c r="BF18" s="52">
         <v>99</v>
       </c>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
+      <c r="BG18" s="47">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="47">
+        <v>1</v>
+      </c>
       <c r="BI18" s="47"/>
       <c r="BJ18" s="47"/>
       <c r="BK18" s="47"/>
@@ -5944,19 +5970,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>181.53260869565216</v>
+        <v>183.10869565217391</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>9.0620155038759691</v>
+        <v>10.758064516129034</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>58.45</v>
+        <v>66.7</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>417.52499999999998</v>
+        <v>421.15</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -6083,14 +6109,24 @@
       <c r="BB19" s="47">
         <v>99</v>
       </c>
-      <c r="BC19" s="47"/>
-      <c r="BD19" s="47"/>
-      <c r="BE19" s="47"/>
+      <c r="BC19" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="BE19" s="47">
+        <v>1</v>
+      </c>
       <c r="BF19" s="52">
         <v>99</v>
       </c>
-      <c r="BG19" s="47"/>
-      <c r="BH19" s="47"/>
+      <c r="BG19" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="47">
+        <v>1</v>
+      </c>
       <c r="BI19" s="47"/>
       <c r="BJ19" s="47"/>
       <c r="BK19" s="47"/>
@@ -6111,19 +6147,19 @@
       <c r="C20" s="48"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>175.86956521739128</v>
+        <v>176.30434782608694</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.6356589147286824</v>
+        <v>2.903225806451613</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>404.5</v>
+        <v>405.5</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -6256,7 +6292,9 @@
       <c r="BB20" s="47">
         <v>99</v>
       </c>
-      <c r="BC20" s="47"/>
+      <c r="BC20" s="47">
+        <v>1</v>
+      </c>
       <c r="BD20" s="47">
         <v>0</v>
       </c>
@@ -6269,7 +6307,9 @@
       <c r="BG20" s="47">
         <v>0</v>
       </c>
-      <c r="BH20" s="47"/>
+      <c r="BH20" s="47">
+        <v>0</v>
+      </c>
       <c r="BI20" s="47"/>
       <c r="BJ20" s="47"/>
       <c r="BK20" s="47"/>
@@ -6290,19 +6330,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>181.14130434782609</v>
+        <v>182.88043478260872</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>9.0077519379844961</v>
+        <v>10.82258064516129</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>58.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>416.625</v>
+        <v>420.625</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6429,14 +6469,24 @@
       <c r="BB21" s="47">
         <v>99</v>
       </c>
-      <c r="BC21" s="47"/>
-      <c r="BD21" s="47"/>
-      <c r="BE21" s="47"/>
+      <c r="BC21" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="47">
+        <v>1</v>
+      </c>
       <c r="BF21" s="52">
         <v>99</v>
       </c>
-      <c r="BG21" s="47"/>
-      <c r="BH21" s="47"/>
+      <c r="BG21" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="47">
+        <v>1</v>
+      </c>
       <c r="BI21" s="47"/>
       <c r="BJ21" s="47"/>
       <c r="BK21" s="47"/>
@@ -6457,19 +6507,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>183.04347826086956</v>
+        <v>185.21739130434781</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>11.472868217054264</v>
+        <v>13.548387096774192</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6596,14 +6646,24 @@
       <c r="BB22" s="47">
         <v>99</v>
       </c>
-      <c r="BC22" s="47"/>
-      <c r="BD22" s="47"/>
-      <c r="BE22" s="47"/>
+      <c r="BC22" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="47">
+        <v>1</v>
+      </c>
       <c r="BF22" s="52">
         <v>99</v>
       </c>
-      <c r="BG22" s="47"/>
-      <c r="BH22" s="47"/>
+      <c r="BG22" s="47">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="47">
+        <v>1</v>
+      </c>
       <c r="BI22" s="47"/>
       <c r="BJ22" s="47"/>
       <c r="BK22" s="47"/>
@@ -6624,19 +6684,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>179.47826086956522</v>
+        <v>181.21739130434781</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>7.1395348837209305</v>
+        <v>8.879032258064516</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>46.050000000000004</v>
+        <v>55.050000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>412.8</v>
+        <v>416.8</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6763,14 +6823,24 @@
       <c r="BB23" s="47">
         <v>99</v>
       </c>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
+      <c r="BC23" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="47">
+        <v>1</v>
+      </c>
       <c r="BF23" s="52">
         <v>99</v>
       </c>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
+      <c r="BG23" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="47">
+        <v>1</v>
+      </c>
       <c r="BI23" s="47"/>
       <c r="BJ23" s="47"/>
       <c r="BK23" s="47"/>
@@ -6791,19 +6861,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>180.25000000000003</v>
+        <v>181.98913043478262</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>9.3875968992248069</v>
+        <v>11.217741935483874</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>60.550000000000004</v>
+        <v>69.550000000000011</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>414.57500000000005</v>
+        <v>418.57500000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6930,14 +7000,24 @@
       <c r="BB24" s="47">
         <v>99</v>
       </c>
-      <c r="BC24" s="47"/>
-      <c r="BD24" s="47"/>
-      <c r="BE24" s="47"/>
+      <c r="BC24" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="47">
+        <v>1</v>
+      </c>
       <c r="BF24" s="52">
         <v>99</v>
       </c>
-      <c r="BG24" s="47"/>
-      <c r="BH24" s="47"/>
+      <c r="BG24" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="47">
+        <v>1</v>
+      </c>
       <c r="BI24" s="47"/>
       <c r="BJ24" s="47"/>
       <c r="BK24" s="47"/>
@@ -6958,19 +7038,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>181.43478260869563</v>
+        <v>183.17391304347825</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>8.945736434108527</v>
+        <v>10.758064516129034</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>57.7</v>
+        <v>66.7</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>417.3</v>
+        <v>421.3</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -7097,14 +7177,24 @@
       <c r="BB25" s="47">
         <v>99</v>
       </c>
-      <c r="BC25" s="47"/>
-      <c r="BD25" s="47"/>
-      <c r="BE25" s="47"/>
+      <c r="BC25" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="47">
+        <v>1</v>
+      </c>
       <c r="BF25" s="52">
         <v>99</v>
       </c>
-      <c r="BG25" s="47"/>
-      <c r="BH25" s="47"/>
+      <c r="BG25" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="47">
+        <v>1</v>
+      </c>
       <c r="BI25" s="47"/>
       <c r="BJ25" s="47"/>
       <c r="BK25" s="47"/>
@@ -7125,19 +7215,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>179.83695652173913</v>
+        <v>181.57608695652175</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>7.5968992248062017</v>
+        <v>9.3548387096774182</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>413.625</v>
+        <v>417.625</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -7264,14 +7354,24 @@
       <c r="BB26" s="47">
         <v>99</v>
       </c>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="47"/>
-      <c r="BE26" s="47"/>
+      <c r="BC26" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="47">
+        <v>1</v>
+      </c>
       <c r="BF26" s="52">
         <v>99</v>
       </c>
-      <c r="BG26" s="47"/>
-      <c r="BH26" s="47"/>
+      <c r="BG26" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="47">
+        <v>1</v>
+      </c>
       <c r="BI26" s="47"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="47"/>
@@ -7292,19 +7392,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>180.0978260869565</v>
+        <v>181.72826086956522</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>8.054263565891473</v>
+        <v>9.75</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>51.95</v>
+        <v>60.45</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>414.22500000000002</v>
+        <v>417.97500000000002</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7431,14 +7531,24 @@
       <c r="BB27" s="47">
         <v>99</v>
       </c>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
+      <c r="BC27" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="47">
+        <v>0.75</v>
+      </c>
       <c r="BF27" s="52">
         <v>99</v>
       </c>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="47"/>
+      <c r="BG27" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="47">
+        <v>1</v>
+      </c>
       <c r="BI27" s="47"/>
       <c r="BJ27" s="47"/>
       <c r="BK27" s="47"/>
@@ -7459,19 +7569,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>181.20652173913044</v>
+        <v>182.78260869565216</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>8.7751937984496138</v>
+        <v>10.52016129032258</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>56.6</v>
+        <v>65.224999999999994</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>416.77499999999998</v>
+        <v>420.4</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7598,14 +7708,24 @@
       <c r="BB28" s="47">
         <v>99</v>
       </c>
-      <c r="BC28" s="47"/>
-      <c r="BD28" s="47"/>
-      <c r="BE28" s="47"/>
+      <c r="BC28" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="BD28" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="47">
+        <v>1</v>
+      </c>
       <c r="BF28" s="52">
         <v>99</v>
       </c>
-      <c r="BG28" s="47"/>
-      <c r="BH28" s="47"/>
+      <c r="BG28" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="47">
+        <v>1</v>
+      </c>
       <c r="BI28" s="47"/>
       <c r="BJ28" s="47"/>
       <c r="BK28" s="47"/>
@@ -8631,7 +8751,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -9016,15 +9136,15 @@
       </c>
       <c r="BC39" s="1">
         <f t="shared" si="6"/>
-        <v>0.90625</v>
+        <v>0.91447368421052633</v>
       </c>
       <c r="BD39" s="1">
         <f t="shared" si="6"/>
-        <v>0.83333333333333337</v>
+        <v>0.90131578947368418</v>
       </c>
       <c r="BE39" s="1">
         <f t="shared" si="6"/>
-        <v>0.88888888888888884</v>
+        <v>0.93421052631578949</v>
       </c>
       <c r="BF39" s="1">
         <f t="shared" si="6"/>
@@ -9032,11 +9152,11 @@
       </c>
       <c r="BG39" s="1">
         <f t="shared" si="6"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BH39" s="1" t="e">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="BH39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="BI39" s="1" t="e">
         <f t="shared" si="6"/>
@@ -9078,7 +9198,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>422.875</v>
+        <v>423.875</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9290,7 +9410,7 @@
       </c>
       <c r="BH41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41" s="1">
         <f t="shared" si="9"/>
@@ -9332,7 +9452,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>421.375</v>
+        <v>422.375</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9544,7 +9664,7 @@
       </c>
       <c r="BH42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI42" s="1">
         <f t="shared" ref="BI42:BQ42" si="12">BI10*BI$5</f>
@@ -9586,7 +9706,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>423.375</v>
+        <v>424.375</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9798,7 +9918,7 @@
       </c>
       <c r="BH43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43" s="1">
         <f t="shared" ref="BI43:BQ43" si="14">BI11*BI$5</f>
@@ -9840,7 +9960,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>421.52499999999998</v>
+        <v>422.65</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -10032,7 +10152,7 @@
       </c>
       <c r="BC44" s="1">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="BD44" s="1">
         <f t="shared" si="15"/>
@@ -10052,7 +10172,7 @@
       </c>
       <c r="BH44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI44" s="1">
         <f t="shared" ref="BI44:BQ44" si="16">BI12*BI$5</f>
@@ -10096,7 +10216,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>425.25</v>
+        <v>426.25</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -10308,7 +10428,7 @@
       </c>
       <c r="BH45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI45" s="1">
         <f t="shared" ref="BI45:BQ45" si="18">BI13*BI$5</f>
@@ -10608,7 +10728,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10820,7 +10940,7 @@
       </c>
       <c r="BH47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI47" s="1">
         <f t="shared" ref="BI47:BQ47" si="22">BI15*BI$5</f>
@@ -10864,7 +10984,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>422.52499999999998</v>
+        <v>423.52499999999998</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -11076,7 +11196,7 @@
       </c>
       <c r="BH48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI48" s="1">
         <f t="shared" ref="BI48:BQ48" si="24">BI16*BI$5</f>
@@ -11376,7 +11496,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>417.15</v>
+        <v>421.52499999999998</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11568,15 +11688,15 @@
       </c>
       <c r="BC50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BD50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF50" s="1">
         <f t="shared" si="27"/>
@@ -11584,11 +11704,11 @@
       </c>
       <c r="BG50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI50" s="1">
         <f t="shared" ref="BI50:BQ50" si="28">BI18*BI$5</f>
@@ -11632,7 +11752,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>417.52499999999998</v>
+        <v>421.15</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -11824,15 +11944,15 @@
       </c>
       <c r="BC51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BE51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF51" s="1">
         <f t="shared" si="29"/>
@@ -11844,7 +11964,7 @@
       </c>
       <c r="BH51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI51" s="1">
         <f t="shared" ref="BI51:BQ51" si="30">BI19*BI$5</f>
@@ -11888,7 +12008,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="8"/>
-        <v>404.5</v>
+        <v>405.5</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BH52" si="31">H20*H$5</f>
@@ -12080,7 +12200,7 @@
       </c>
       <c r="BC52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD52" s="1">
         <f t="shared" si="31"/>
@@ -12144,7 +12264,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>416.625</v>
+        <v>420.625</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -12336,15 +12456,15 @@
       </c>
       <c r="BC53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF53" s="1">
         <f t="shared" si="33"/>
@@ -12356,7 +12476,7 @@
       </c>
       <c r="BH53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI53" s="1">
         <f t="shared" ref="BI53:BQ53" si="34">BI21*BI$5</f>
@@ -12400,7 +12520,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12592,15 +12712,15 @@
       </c>
       <c r="BC54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF54" s="1">
         <f t="shared" si="35"/>
@@ -12608,11 +12728,11 @@
       </c>
       <c r="BG54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI54" s="1">
         <f t="shared" ref="BI54:BQ54" si="36">BI22*BI$5</f>
@@ -12656,7 +12776,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>412.8</v>
+        <v>416.8</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12848,15 +12968,15 @@
       </c>
       <c r="BC55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF55" s="1">
         <f t="shared" si="37"/>
@@ -12868,7 +12988,7 @@
       </c>
       <c r="BH55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI55" s="1">
         <f t="shared" ref="BI55:BQ55" si="38">BI23*BI$5</f>
@@ -12912,7 +13032,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>414.57500000000005</v>
+        <v>418.57500000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -13104,15 +13224,15 @@
       </c>
       <c r="BC56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF56" s="1">
         <f t="shared" si="39"/>
@@ -13124,7 +13244,7 @@
       </c>
       <c r="BH56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI56" s="1">
         <f t="shared" ref="BI56:BQ56" si="40">BI24*BI$5</f>
@@ -13168,7 +13288,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>417.3</v>
+        <v>421.3</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -13360,15 +13480,15 @@
       </c>
       <c r="BC57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF57" s="1">
         <f t="shared" si="41"/>
@@ -13380,7 +13500,7 @@
       </c>
       <c r="BH57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI57" s="1">
         <f t="shared" ref="BI57:BQ57" si="42">BI25*BI$5</f>
@@ -13424,7 +13544,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>413.625</v>
+        <v>417.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13616,15 +13736,15 @@
       </c>
       <c r="BC58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF58" s="1">
         <f t="shared" si="43"/>
@@ -13636,7 +13756,7 @@
       </c>
       <c r="BH58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI58" s="1">
         <f t="shared" ref="BI58:BQ58" si="44">BI26*BI$5</f>
@@ -13678,7 +13798,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>414.22500000000002</v>
+        <v>417.97500000000002</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13870,15 +13990,15 @@
       </c>
       <c r="BC59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BF59" s="1">
         <f t="shared" si="45"/>
@@ -13890,7 +14010,7 @@
       </c>
       <c r="BH59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI59" s="1">
         <f t="shared" ref="BI59:BQ59" si="46">BI27*BI$5</f>
@@ -13932,7 +14052,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>416.77499999999998</v>
+        <v>420.4</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -14124,15 +14244,15 @@
       </c>
       <c r="BC60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BD60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60" s="1">
         <f t="shared" si="47"/>
@@ -14144,7 +14264,7 @@
       </c>
       <c r="BH60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI60" s="1">
         <f t="shared" ref="BI60:BQ60" si="48">BI28*BI$5</f>
@@ -16756,7 +16876,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -16948,15 +17068,15 @@
       </c>
       <c r="BC75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD75" s="1">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE75" s="1">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF75" s="1">
         <f t="shared" si="70"/>
@@ -16964,11 +17084,11 @@
       </c>
       <c r="BG75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI75" s="1">
         <f t="shared" si="70"/>
@@ -17204,15 +17324,15 @@
       </c>
       <c r="BC76" s="1">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD76" s="1">
         <f t="shared" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE76" s="1">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF76" s="1">
         <f t="shared" si="72"/>
@@ -17224,7 +17344,7 @@
       </c>
       <c r="BH76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI76" s="1">
         <f t="shared" ref="BI76:BQ76" si="73">BI10*BI$6</f>
@@ -17460,15 +17580,15 @@
       </c>
       <c r="BC77" s="1">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD77" s="1">
         <f t="shared" si="74"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE77" s="1">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF77" s="1">
         <f t="shared" si="74"/>
@@ -17480,7 +17600,7 @@
       </c>
       <c r="BH77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI77" s="1">
         <f t="shared" ref="BI77:BQ77" si="75">BI11*BI$6</f>
@@ -17524,7 +17644,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>70.45</v>
+        <v>71.325000000000003</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17716,15 +17836,15 @@
       </c>
       <c r="BC78" s="1">
         <f t="shared" si="76"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="BD78" s="1">
         <f t="shared" si="76"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE78" s="1">
         <f t="shared" si="76"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF78" s="1">
         <f t="shared" si="76"/>
@@ -17736,7 +17856,7 @@
       </c>
       <c r="BH78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI78" s="1">
         <f t="shared" ref="BI78:BQ78" si="77">BI12*BI$6</f>
@@ -17780,7 +17900,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>84.5</v>
+        <v>83.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -17972,15 +18092,15 @@
       </c>
       <c r="BC79" s="1">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD79" s="1">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE79" s="1">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF79" s="1">
         <f t="shared" si="78"/>
@@ -17988,11 +18108,11 @@
       </c>
       <c r="BG79" s="1">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI79" s="1">
         <f t="shared" ref="BI79:BQ79" si="79">BI13*BI$6</f>
@@ -18036,7 +18156,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>23.25</v>
+        <v>19.75</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -18228,15 +18348,15 @@
       </c>
       <c r="BC80" s="1">
         <f t="shared" si="80"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD80" s="1">
         <f t="shared" si="80"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BE80" s="1">
         <f t="shared" si="80"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF80" s="1">
         <f t="shared" si="80"/>
@@ -18484,15 +18604,15 @@
       </c>
       <c r="BC81" s="1">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD81" s="1">
         <f t="shared" si="82"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE81" s="1">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF81" s="1">
         <f t="shared" si="82"/>
@@ -18504,7 +18624,7 @@
       </c>
       <c r="BH81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI81" s="1">
         <f t="shared" ref="BI81:BQ81" si="83">BI15*BI$6</f>
@@ -18740,15 +18860,15 @@
       </c>
       <c r="BC82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD82" s="1">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE82" s="1">
         <f t="shared" si="84"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF82" s="1">
         <f t="shared" si="84"/>
@@ -18760,7 +18880,7 @@
       </c>
       <c r="BH82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI82" s="1">
         <f t="shared" ref="BI82:BQ82" si="85">BI16*BI$6</f>
@@ -19056,7 +19176,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>59.95</v>
+        <v>69.325000000000003</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -19248,15 +19368,15 @@
       </c>
       <c r="BC84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BD84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF84" s="1">
         <f t="shared" si="88"/>
@@ -19264,11 +19384,11 @@
       </c>
       <c r="BG84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI84" s="1">
         <f t="shared" ref="BI84:BQ84" si="89">BI18*BI$6</f>
@@ -19310,7 +19430,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>58.45</v>
+        <v>66.7</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -19502,15 +19622,15 @@
       </c>
       <c r="BC85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BE85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF85" s="1">
         <f t="shared" si="90"/>
@@ -19522,7 +19642,7 @@
       </c>
       <c r="BH85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI85" s="1">
         <f t="shared" ref="BI85:BQ85" si="91">BI19*BI$6</f>
@@ -19564,7 +19684,7 @@
     <row r="86" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
         <f t="shared" si="69"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" ref="H86:BH86" si="92">H20*H$6</f>
@@ -19756,7 +19876,7 @@
       </c>
       <c r="BC86" s="1">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD86" s="1">
         <f t="shared" si="92"/>
@@ -19818,7 +19938,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>58.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -20010,15 +20130,15 @@
       </c>
       <c r="BC87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF87" s="1">
         <f t="shared" si="94"/>
@@ -20030,7 +20150,7 @@
       </c>
       <c r="BH87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI87" s="1">
         <f t="shared" ref="BI87:BQ87" si="95">BI21*BI$6</f>
@@ -20072,7 +20192,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -20264,15 +20384,15 @@
       </c>
       <c r="BC88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF88" s="1">
         <f t="shared" si="96"/>
@@ -20280,11 +20400,11 @@
       </c>
       <c r="BG88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI88" s="1">
         <f t="shared" ref="BI88:BQ88" si="97">BI22*BI$6</f>
@@ -20326,7 +20446,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>46.050000000000004</v>
+        <v>55.050000000000004</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20518,15 +20638,15 @@
       </c>
       <c r="BC89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF89" s="1">
         <f t="shared" si="98"/>
@@ -20538,7 +20658,7 @@
       </c>
       <c r="BH89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI89" s="1">
         <f t="shared" ref="BI89:BQ89" si="99">BI23*BI$6</f>
@@ -20580,7 +20700,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>60.550000000000004</v>
+        <v>69.550000000000011</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -20772,15 +20892,15 @@
       </c>
       <c r="BC90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF90" s="1">
         <f t="shared" si="100"/>
@@ -20792,7 +20912,7 @@
       </c>
       <c r="BH90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI90" s="1">
         <f t="shared" ref="BI90:BQ90" si="101">BI24*BI$6</f>
@@ -20834,7 +20954,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>57.7</v>
+        <v>66.7</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -21026,15 +21146,15 @@
       </c>
       <c r="BC91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF91" s="1">
         <f t="shared" si="102"/>
@@ -21046,7 +21166,7 @@
       </c>
       <c r="BH91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI91" s="1">
         <f t="shared" ref="BI91:BQ91" si="103">BI25*BI$6</f>
@@ -21088,7 +21208,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -21280,15 +21400,15 @@
       </c>
       <c r="BC92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF92" s="1">
         <f t="shared" si="104"/>
@@ -21300,7 +21420,7 @@
       </c>
       <c r="BH92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI92" s="1">
         <f t="shared" ref="BI92:BQ92" si="105">BI26*BI$6</f>
@@ -21342,7 +21462,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>51.95</v>
+        <v>60.45</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21534,15 +21654,15 @@
       </c>
       <c r="BC93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BF93" s="1">
         <f t="shared" si="106"/>
@@ -21554,7 +21674,7 @@
       </c>
       <c r="BH93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI93" s="1">
         <f t="shared" ref="BI93:BQ93" si="107">BI27*BI$6</f>
@@ -21596,7 +21716,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>56.6</v>
+        <v>65.224999999999994</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -21788,15 +21908,15 @@
       </c>
       <c r="BC94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BD94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF94" s="1">
         <f t="shared" si="108"/>
@@ -21808,7 +21928,7 @@
       </c>
       <c r="BH94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI94" s="1">
         <f t="shared" ref="BI94:BQ94" si="109">BI28*BI$6</f>
@@ -24136,7 +24256,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24328,15 +24448,15 @@
       </c>
       <c r="BC104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD104" s="1">
         <f t="shared" si="128"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE104" s="1">
         <f t="shared" si="128"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF104" s="1">
         <f t="shared" si="128"/>
@@ -24344,7 +24464,7 @@
       </c>
       <c r="BG104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH104" s="1">
         <f t="shared" si="128"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3150,11 +3150,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="AJ9" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="S6" activePane="topRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AC4" sqref="AC1:AC1048576"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
-      <selection pane="bottomRight" activeCell="BI22" sqref="BI22"/>
+      <selection pane="topRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3432,11 +3432,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 124)</v>
+        <v>Note/20 ( sur 122)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/124</v>
+        <v>Note/122</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3829,7 +3829,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="AP6" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="12">
         <v>0</v>
@@ -4208,7 +4208,7 @@
       <c r="AO8" s="60"/>
       <c r="AP8" s="68">
         <f>SUM(AP6:AU6)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ8" s="62"/>
       <c r="AR8" s="62"/>
@@ -4264,19 +4264,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>184.29347826086956</v>
+        <v>185.59782608695653</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>13.548387096774192</v>
+        <v>16.065573770491802</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>423.875</v>
+        <v>426.875</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4382,9 +4382,15 @@
       <c r="AS9" s="47">
         <v>0.875</v>
       </c>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
+      <c r="AT9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="47">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="47">
+        <v>1</v>
+      </c>
       <c r="AW9" s="47">
         <v>1</v>
       </c>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>11.50806451612903</v>
+        <v>11.368852459016392</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>71.349999999999994</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
@@ -4622,11 +4628,11 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>12.580645161290322</v>
+        <v>12.459016393442624</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>11.504032258064516</v>
+        <v>11.364754098360656</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>71.325000000000003</v>
+        <v>69.325000000000003</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>13.46774193548387</v>
+        <v>13.360655737704919</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>83.5</v>
+        <v>81.5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>3.185483870967742</v>
+        <v>3.1967213114754101</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
@@ -5330,11 +5336,11 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>13.629032258064516</v>
+        <v>13.524590163934427</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>84.5</v>
+        <v>82.5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
@@ -5507,11 +5513,11 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>12.008064516129034</v>
+        <v>12.040983606557379</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>74.45</v>
+        <v>73.45</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
@@ -5797,11 +5803,11 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>11.181451612903226</v>
+        <v>11.03688524590164</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>69.325000000000003</v>
+        <v>67.325000000000003</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
@@ -5974,11 +5980,11 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>10.758064516129034</v>
+        <v>10.606557377049182</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>66.7</v>
+        <v>64.7</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
@@ -6151,7 +6157,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.903225806451613</v>
+        <v>2.9508196721311473</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -6330,19 +6336,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>182.88043478260872</v>
+        <v>182.98913043478262</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>10.82258064516129</v>
+        <v>10.918032786885245</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>67.099999999999994</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>420.625</v>
+        <v>420.875</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6448,7 +6454,9 @@
       <c r="AS21" s="47">
         <v>0.375</v>
       </c>
-      <c r="AT21" s="47"/>
+      <c r="AT21" s="47">
+        <v>0.25</v>
+      </c>
       <c r="AU21" s="47"/>
       <c r="AV21" s="47"/>
       <c r="AW21" s="47">
@@ -6511,11 +6519,11 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>13.548387096774192</v>
+        <v>13.442622950819672</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
@@ -6684,19 +6692,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>181.21739130434781</v>
+        <v>181.43478260869563</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>8.879032258064516</v>
+        <v>9.3524590163934427</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>55.050000000000004</v>
+        <v>57.050000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>416.8</v>
+        <v>417.3</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6802,7 +6810,9 @@
       <c r="AS23" s="47">
         <v>0.25</v>
       </c>
-      <c r="AT23" s="47"/>
+      <c r="AT23" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AU23" s="47"/>
       <c r="AV23" s="47"/>
       <c r="AW23" s="47">
@@ -6861,19 +6871,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>181.98913043478262</v>
+        <v>182.31521739130437</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>11.217741935483874</v>
+        <v>11.811475409836067</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>69.550000000000011</v>
+        <v>72.050000000000011</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>418.57500000000005</v>
+        <v>419.32500000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6979,7 +6989,9 @@
       <c r="AS24" s="47">
         <v>0.875</v>
       </c>
-      <c r="AT24" s="47"/>
+      <c r="AT24" s="47">
+        <v>0.75</v>
+      </c>
       <c r="AU24" s="47"/>
       <c r="AV24" s="47"/>
       <c r="AW24" s="47">
@@ -7042,11 +7054,11 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>10.758064516129034</v>
+        <v>10.606557377049182</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>66.7</v>
+        <v>64.7</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
@@ -7219,11 +7231,11 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>9.3548387096774182</v>
+        <v>9.1803278688524586</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
@@ -7396,11 +7408,11 @@
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>9.75</v>
+        <v>9.5819672131147549</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>60.45</v>
+        <v>58.45</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
@@ -7569,19 +7581,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>182.78260869565216</v>
+        <v>183.10869565217391</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>10.52016129032258</v>
+        <v>11.266393442622951</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>65.224999999999994</v>
+        <v>68.724999999999994</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>420.4</v>
+        <v>421.15</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7687,7 +7699,9 @@
       <c r="AS28" s="47">
         <v>0.125</v>
       </c>
-      <c r="AT28" s="47"/>
+      <c r="AT28" s="47">
+        <v>0.75</v>
+      </c>
       <c r="AU28" s="47"/>
       <c r="AV28" s="47"/>
       <c r="AW28" s="47">
@@ -8751,7 +8765,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -9100,15 +9114,15 @@
       </c>
       <c r="AT39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AU39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW39" s="1">
         <f t="shared" si="6"/>
@@ -9198,7 +9212,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>423.875</v>
+        <v>426.875</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9354,15 +9368,15 @@
       </c>
       <c r="AT41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="1">
         <f t="shared" si="9"/>
@@ -12264,7 +12278,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>420.625</v>
+        <v>420.875</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -12420,7 +12434,7 @@
       </c>
       <c r="AT53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU53" s="1">
         <f t="shared" si="33"/>
@@ -12776,7 +12790,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>416.8</v>
+        <v>417.3</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12932,7 +12946,7 @@
       </c>
       <c r="AT55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" s="1">
         <f t="shared" si="37"/>
@@ -13032,7 +13046,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>418.57500000000005</v>
+        <v>419.32500000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -13188,7 +13202,7 @@
       </c>
       <c r="AT56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" s="1">
         <f t="shared" si="39"/>
@@ -14052,7 +14066,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>420.4</v>
+        <v>421.15</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -14208,7 +14222,7 @@
       </c>
       <c r="AT60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" s="1">
         <f t="shared" si="47"/>
@@ -16876,7 +16890,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -17016,7 +17030,7 @@
       </c>
       <c r="AP75" s="1">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ75" s="1">
         <f t="shared" si="70"/>
@@ -17032,15 +17046,15 @@
       </c>
       <c r="AT75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW75" s="1">
         <f t="shared" si="70"/>
@@ -17132,7 +17146,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>71.349999999999994</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -17272,7 +17286,7 @@
       </c>
       <c r="AP76" s="1">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ76" s="1">
         <f t="shared" si="72"/>
@@ -17388,7 +17402,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17528,7 +17542,7 @@
       </c>
       <c r="AP77" s="1">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ77" s="1">
         <f t="shared" si="74"/>
@@ -17644,7 +17658,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>71.325000000000003</v>
+        <v>69.325000000000003</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17784,7 +17798,7 @@
       </c>
       <c r="AP78" s="1">
         <f t="shared" si="76"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ78" s="1">
         <f t="shared" si="76"/>
@@ -17900,7 +17914,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>83.5</v>
+        <v>81.5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -18040,7 +18054,7 @@
       </c>
       <c r="AP79" s="1">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ79" s="1">
         <f t="shared" si="78"/>
@@ -18156,7 +18170,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>19.75</v>
+        <v>19.5</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -18296,7 +18310,7 @@
       </c>
       <c r="AP80" s="1">
         <f t="shared" si="80"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ80" s="1">
         <f t="shared" si="80"/>
@@ -18412,7 +18426,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>84.5</v>
+        <v>82.5</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18552,7 +18566,7 @@
       </c>
       <c r="AP81" s="1">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ81" s="1">
         <f t="shared" si="82"/>
@@ -18668,7 +18682,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>74.45</v>
+        <v>73.45</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18808,7 +18822,7 @@
       </c>
       <c r="AP82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ82" s="1">
         <f t="shared" si="84"/>
@@ -19176,7 +19190,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>69.325000000000003</v>
+        <v>67.325000000000003</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -19316,7 +19330,7 @@
       </c>
       <c r="AP84" s="1">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ84" s="1">
         <f t="shared" si="88"/>
@@ -19430,7 +19444,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>66.7</v>
+        <v>64.7</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -19570,7 +19584,7 @@
       </c>
       <c r="AP85" s="1">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ85" s="1">
         <f t="shared" si="90"/>
@@ -19938,7 +19952,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>67.099999999999994</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -20078,7 +20092,7 @@
       </c>
       <c r="AP87" s="1">
         <f t="shared" si="94"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ87" s="1">
         <f t="shared" si="94"/>
@@ -20094,7 +20108,7 @@
       </c>
       <c r="AT87" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" s="1">
         <f t="shared" si="94"/>
@@ -20192,7 +20206,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -20332,7 +20346,7 @@
       </c>
       <c r="AP88" s="1">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ88" s="1">
         <f t="shared" si="96"/>
@@ -20446,7 +20460,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>55.050000000000004</v>
+        <v>57.050000000000004</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20586,7 +20600,7 @@
       </c>
       <c r="AP89" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ89" s="1">
         <f t="shared" si="98"/>
@@ -20602,7 +20616,7 @@
       </c>
       <c r="AT89" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU89" s="1">
         <f t="shared" si="98"/>
@@ -20700,7 +20714,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>69.550000000000011</v>
+        <v>72.050000000000011</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -20840,7 +20854,7 @@
       </c>
       <c r="AP90" s="1">
         <f t="shared" si="100"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ90" s="1">
         <f t="shared" si="100"/>
@@ -20856,7 +20870,7 @@
       </c>
       <c r="AT90" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AU90" s="1">
         <f t="shared" si="100"/>
@@ -20954,7 +20968,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>66.7</v>
+        <v>64.7</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -21094,7 +21108,7 @@
       </c>
       <c r="AP91" s="1">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ91" s="1">
         <f t="shared" si="102"/>
@@ -21208,7 +21222,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -21348,7 +21362,7 @@
       </c>
       <c r="AP92" s="1">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ92" s="1">
         <f t="shared" si="104"/>
@@ -21462,7 +21476,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>60.45</v>
+        <v>58.45</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21602,7 +21616,7 @@
       </c>
       <c r="AP93" s="1">
         <f t="shared" si="106"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ93" s="1">
         <f t="shared" si="106"/>
@@ -21716,7 +21730,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>65.224999999999994</v>
+        <v>68.724999999999994</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -21856,7 +21870,7 @@
       </c>
       <c r="AP94" s="1">
         <f t="shared" si="108"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ94" s="1">
         <f t="shared" si="108"/>
@@ -21872,7 +21886,7 @@
       </c>
       <c r="AT94" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AU94" s="1">
         <f t="shared" si="108"/>
@@ -24256,7 +24270,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24396,7 +24410,7 @@
       </c>
       <c r="AP104" s="1">
         <f t="shared" si="128"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ104" s="1">
         <f t="shared" si="128"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -972,13 +972,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -990,22 +1068,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,209 +1086,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="251">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="233">
     <dxf>
       <fill>
         <patternFill>
@@ -3150,11 +3024,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="S6" activePane="topRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="S6" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AO6" sqref="AO6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="AT20" sqref="AT20"/>
+      <selection pane="bottomRight" activeCell="AU28" sqref="AU28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3196,96 +3070,96 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="79" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="64" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64" t="s">
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="64" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
       <c r="AV1" s="46"/>
       <c r="AW1" s="42"/>
       <c r="AX1" s="42"/>
       <c r="AY1" s="28"/>
-      <c r="AZ1" s="77" t="s">
+      <c r="AZ1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="79" t="s">
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="63" t="s">
+      <c r="BC1" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="63" t="s">
+      <c r="BD1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" s="63" t="s">
+      <c r="BE1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63" t="s">
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="BH1" s="63" t="s">
+      <c r="BH1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BI1" s="63" t="s">
+      <c r="BI1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="73"/>
-      <c r="BM1" s="77" t="s">
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="78"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="74"/>
     </row>
     <row r="2" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3295,126 +3169,126 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="88" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="62" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AI2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="53" t="s">
+      <c r="AK2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="53" t="s">
+      <c r="AL2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="62" t="s">
+      <c r="AM2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="62" t="s">
+      <c r="AN2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="62" t="s">
+      <c r="AO2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="68" t="s">
+      <c r="AP2" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="62" t="s">
+      <c r="AQ2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AR2" s="62" t="s">
+      <c r="AR2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="62" t="s">
+      <c r="AS2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="62" t="s">
+      <c r="AT2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="62" t="s">
+      <c r="AU2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="62" t="s">
+      <c r="AV2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="62" t="s">
+      <c r="AW2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="69" t="s">
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="83"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="75"/>
     </row>
     <row r="3" spans="1:69" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3442,102 +3316,102 @@
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/46</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="80" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="62" t="s">
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="62" t="s">
+      <c r="X3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="62" t="s">
+      <c r="Y3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="53" t="s">
+      <c r="Z3" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="53" t="s">
+      <c r="AA3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="89" t="s">
+      <c r="AB3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62" t="s">
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="53" t="s">
+      <c r="BJ3" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="68" t="s">
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="62" t="s">
+      <c r="BN3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="84"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="76"/>
     </row>
     <row r="4" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3547,18 +3421,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
       <c r="T4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3568,11 +3442,11 @@
       <c r="V4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
       <c r="AB4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3582,45 +3456,45 @@
       <c r="AD4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="62"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="62"/>
-      <c r="BO4" s="62"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="85"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="77"/>
     </row>
     <row r="5" spans="1:69" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -4026,44 +3900,44 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="70">
+      <c r="H7" s="78">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="61">
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="53">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="88">
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="58">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="61">
+      <c r="AB7" s="53">
         <f>SUM(AB5:AD5)</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="80"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
       <c r="AE7" s="21">
         <f t="shared" ref="AE7:AF8" si="0">SUM(AE5)</f>
         <v>1</v>
@@ -4072,66 +3946,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="68">
+      <c r="AG7" s="81">
         <f>SUM(AG5:AH5)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="59">
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="70">
         <f>SUM(AI5:AO5)</f>
         <v>3</v>
       </c>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="68">
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="81">
         <f>SUM(AP5:AU5)</f>
         <v>5</v>
       </c>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
       <c r="AV7" s="44"/>
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
       <c r="AY7" s="27"/>
-      <c r="AZ7" s="59">
+      <c r="AZ7" s="70">
         <f>SUM(AZ5:BA5)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="59">
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="70">
         <f>SUM(BB5:BG5)</f>
         <v>5</v>
       </c>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BH8" si="1">BH5</f>
         <v>1</v>
       </c>
-      <c r="BI7" s="61">
+      <c r="BI7" s="53">
         <f>SUM(BI5:BL5)</f>
         <v>4</v>
       </c>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="59">
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="70">
         <f>SUM(BM5:BP5)</f>
         <v>2.5</v>
       </c>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
-      <c r="BP7" s="60"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="53"/>
+      <c r="BP7" s="71"/>
       <c r="BQ7" s="25">
         <f>BQ5</f>
         <v>0.5</v>
@@ -4145,44 +4019,44 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="65">
+      <c r="H8" s="88">
         <f>SUM(H6:M6)</f>
         <v>5</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="61">
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="53">
         <f>SUM(N6:S6)</f>
         <v>9</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61">
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="88">
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="58">
         <f>SUM(W6:AA6)</f>
         <v>12</v>
       </c>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61">
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53">
         <f>SUM(AB6:AD6)</f>
         <v>14</v>
       </c>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="80"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="54"/>
       <c r="AE8" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4191,66 +4065,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="68">
+      <c r="AG8" s="81">
         <f>SUM(AG6:AH6)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="59">
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="70">
         <f>SUM(AI6:AO6)</f>
         <v>10</v>
       </c>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="68">
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="81">
         <f>SUM(AP6:AU6)</f>
         <v>30</v>
       </c>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
       <c r="AV8" s="44"/>
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="27"/>
-      <c r="AZ8" s="59">
+      <c r="AZ8" s="70">
         <f>SUM(AZ6:BA6)</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="59">
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="70">
         <f>SUM(BB6:BG6)</f>
         <v>6</v>
       </c>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="61"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
       <c r="BH8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BI8" s="61">
+      <c r="BI8" s="53">
         <f>SUM(BI6:BL6)</f>
         <v>15</v>
       </c>
-      <c r="BJ8" s="61"/>
-      <c r="BK8" s="61"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="59">
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="53"/>
+      <c r="BL8" s="71"/>
+      <c r="BM8" s="70">
         <f>SUM(BM6:BP6)</f>
         <v>2</v>
       </c>
-      <c r="BN8" s="61"/>
-      <c r="BO8" s="61"/>
-      <c r="BP8" s="60"/>
+      <c r="BN8" s="53"/>
+      <c r="BO8" s="53"/>
+      <c r="BP8" s="71"/>
       <c r="BQ8" s="25">
         <f>BQ6</f>
         <v>0</v>
@@ -4447,19 +4321,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>183.64130434782609</v>
+        <v>184.02173913043475</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>11.368852459016392</v>
+        <v>12.22950819672131</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>69.349999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>422.375</v>
+        <v>423.25</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4565,9 +4439,15 @@
       <c r="AS10" s="47">
         <v>0.375</v>
       </c>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="47"/>
-      <c r="AV10" s="47"/>
+      <c r="AT10" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="47">
+        <v>0</v>
+      </c>
       <c r="AW10" s="47">
         <v>1</v>
       </c>
@@ -4624,19 +4504,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>184.51086956521738</v>
+        <v>184.89130434782609</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>12.459016393442624</v>
+        <v>13.319672131147541</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>81.25</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>424.375</v>
+        <v>425.25</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4742,9 +4622,15 @@
       <c r="AS11" s="47">
         <v>0.625</v>
       </c>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
+      <c r="AT11" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU11" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="47">
+        <v>0</v>
+      </c>
       <c r="AW11" s="47">
         <v>1</v>
       </c>
@@ -4801,19 +4687,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>183.76086956521738</v>
+        <v>184.14130434782606</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>11.364754098360656</v>
+        <v>12.225409836065575</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>69.325000000000003</v>
+        <v>74.575000000000003</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>422.65</v>
+        <v>423.52499999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4919,9 +4805,15 @@
       <c r="AS12" s="47">
         <v>0.125</v>
       </c>
-      <c r="AT12" s="47"/>
-      <c r="AU12" s="47"/>
-      <c r="AV12" s="47"/>
+      <c r="AT12" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU12" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="47">
+        <v>0</v>
+      </c>
       <c r="AW12" s="47">
         <v>1</v>
       </c>
@@ -4978,19 +4870,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>185.32608695652175</v>
+        <v>186.30434782608694</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>13.360655737704919</v>
+        <v>15.532786885245901</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>81.5</v>
+        <v>94.75</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>426.25</v>
+        <v>428.5</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -5096,9 +4988,15 @@
       <c r="AS13" s="47">
         <v>1</v>
       </c>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
+      <c r="AT13" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU13" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AV13" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AW13" s="47">
         <v>1</v>
       </c>
@@ -5273,9 +5171,15 @@
       <c r="AS14" s="47">
         <v>0.125</v>
       </c>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
+      <c r="AT14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="47">
+        <v>0</v>
+      </c>
       <c r="AW14" s="47">
         <v>0</v>
       </c>
@@ -5332,19 +5236,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>184.34782608695653</v>
+        <v>184.72826086956525</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>13.524590163934427</v>
+        <v>14.385245901639346</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>82.5</v>
+        <v>87.75</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>424</v>
+        <v>424.875</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5450,9 +5354,15 @@
       <c r="AS15" s="47">
         <v>0.75</v>
       </c>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="47"/>
-      <c r="AV15" s="47"/>
+      <c r="AT15" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU15" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="47">
+        <v>0</v>
+      </c>
       <c r="AW15" s="47">
         <v>1</v>
       </c>
@@ -5509,19 +5419,19 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>184.14130434782606</v>
+        <v>184.41304347826087</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>12.040983606557379</v>
+        <v>12.655737704918034</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>73.45</v>
+        <v>77.2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>423.52499999999998</v>
+        <v>424.15</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5627,9 +5537,15 @@
       <c r="AS16" s="47">
         <v>0.625</v>
       </c>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="47"/>
-      <c r="AV16" s="47"/>
+      <c r="AT16" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="AU16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="47">
+        <v>0</v>
+      </c>
       <c r="AW16" s="47">
         <v>1</v>
       </c>
@@ -5799,19 +5715,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>183.27173913043478</v>
+        <v>184.195652173913</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>11.03688524590164</v>
+        <v>13.127049180327869</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>67.325000000000003</v>
+        <v>80.075000000000003</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>421.52499999999998</v>
+        <v>423.65</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5917,9 +5833,15 @@
       <c r="AS18" s="47">
         <v>0.5</v>
       </c>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
+      <c r="AT18" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="AU18" s="47">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="47">
+        <v>0.5</v>
+      </c>
       <c r="AW18" s="47">
         <v>0</v>
       </c>
@@ -5976,19 +5898,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>183.10869565217391</v>
+        <v>183.32608695652172</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>10.606557377049182</v>
+        <v>11.098360655737704</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>64.7</v>
+        <v>67.7</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>421.15</v>
+        <v>421.65</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -6094,9 +6016,15 @@
       <c r="AS19" s="47">
         <v>0.375</v>
       </c>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
+      <c r="AT19" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="AU19" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="47">
+        <v>0</v>
+      </c>
       <c r="AW19" s="47">
         <v>0</v>
       </c>
@@ -6457,8 +6385,12 @@
       <c r="AT21" s="47">
         <v>0.25</v>
       </c>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
+      <c r="AU21" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="47">
+        <v>0</v>
+      </c>
       <c r="AW21" s="47">
         <v>0</v>
       </c>
@@ -6515,19 +6447,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>185.21739130434781</v>
+        <v>186.08695652173913</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>13.442622950819672</v>
+        <v>15.737704918032787</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6633,9 +6565,15 @@
       <c r="AS22" s="47">
         <v>1</v>
       </c>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
+      <c r="AT22" s="47">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="47">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="47">
+        <v>0</v>
+      </c>
       <c r="AW22" s="47">
         <v>1</v>
       </c>
@@ -6692,19 +6630,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>181.43478260869563</v>
+        <v>181.48913043478262</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>9.3524590163934427</v>
+        <v>9.475409836065575</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>57.050000000000004</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>417.3</v>
+        <v>417.42500000000001</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6811,10 +6749,14 @@
         <v>0.25</v>
       </c>
       <c r="AT23" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
+        <v>0.625</v>
+      </c>
+      <c r="AU23" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="47">
+        <v>0</v>
+      </c>
       <c r="AW23" s="47">
         <v>0</v>
       </c>
@@ -6992,8 +6934,12 @@
       <c r="AT24" s="47">
         <v>0.75</v>
       </c>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
+      <c r="AU24" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="47">
+        <v>0</v>
+      </c>
       <c r="AW24" s="47">
         <v>1</v>
       </c>
@@ -7050,19 +6996,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>183.17391304347825</v>
+        <v>183.55434782608697</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>10.606557377049182</v>
+        <v>11.467213114754099</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>64.7</v>
+        <v>69.95</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>421.3</v>
+        <v>422.17500000000001</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -7168,9 +7114,15 @@
       <c r="AS25" s="47">
         <v>0.5</v>
       </c>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
+      <c r="AT25" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="AU25" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="47">
+        <v>0</v>
+      </c>
       <c r="AW25" s="47">
         <v>1</v>
       </c>
@@ -7227,19 +7179,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>181.57608695652175</v>
+        <v>181.79347826086956</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>9.1803278688524586</v>
+        <v>9.6721311475409841</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>417.625</v>
+        <v>418.125</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -7345,9 +7297,15 @@
       <c r="AS26" s="47">
         <v>0.125</v>
       </c>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
-      <c r="AV26" s="47"/>
+      <c r="AT26" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="AU26" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="47">
+        <v>0</v>
+      </c>
       <c r="AW26" s="47">
         <v>0</v>
       </c>
@@ -7404,19 +7362,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>181.72826086956522</v>
+        <v>182</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>9.5819672131147549</v>
+        <v>10.196721311475409</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>58.45</v>
+        <v>62.2</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>417.97500000000002</v>
+        <v>418.6</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7522,9 +7480,15 @@
       <c r="AS27" s="47">
         <v>0.67500000000000004</v>
       </c>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="47"/>
-      <c r="AV27" s="47"/>
+      <c r="AT27" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="AU27" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="47">
+        <v>0</v>
+      </c>
       <c r="AW27" s="47">
         <v>0</v>
       </c>
@@ -7702,8 +7666,12 @@
       <c r="AT28" s="47">
         <v>0.75</v>
       </c>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
+      <c r="AU28" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="47">
+        <v>0</v>
+      </c>
       <c r="AW28" s="47">
         <v>0</v>
       </c>
@@ -9114,15 +9082,15 @@
       </c>
       <c r="AT39" s="1">
         <f t="shared" si="6"/>
-        <v>0.54166666666666663</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="AU39" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.20394736842105263</v>
       </c>
       <c r="AV39" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="AW39" s="1">
         <f t="shared" si="6"/>
@@ -9466,7 +9434,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>422.375</v>
+        <v>423.25</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9622,7 +9590,7 @@
       </c>
       <c r="AT42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU42" s="1">
         <f t="shared" si="11"/>
@@ -9720,7 +9688,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>424.375</v>
+        <v>425.25</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9876,7 +9844,7 @@
       </c>
       <c r="AT43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU43" s="1">
         <f t="shared" si="13"/>
@@ -9974,7 +9942,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>422.65</v>
+        <v>423.52499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -10130,7 +10098,7 @@
       </c>
       <c r="AT44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU44" s="1">
         <f t="shared" si="15"/>
@@ -10230,7 +10198,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>426.25</v>
+        <v>428.5</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -10386,15 +10354,15 @@
       </c>
       <c r="AT45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AV45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW45" s="1">
         <f t="shared" si="17"/>
@@ -10742,7 +10710,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>424</v>
+        <v>424.875</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10898,7 +10866,7 @@
       </c>
       <c r="AT47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU47" s="1">
         <f t="shared" si="21"/>
@@ -10998,7 +10966,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>423.52499999999998</v>
+        <v>424.15</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -11154,7 +11122,7 @@
       </c>
       <c r="AT48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AU48" s="1">
         <f t="shared" si="23"/>
@@ -11510,7 +11478,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>421.52499999999998</v>
+        <v>423.65</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11666,15 +11634,15 @@
       </c>
       <c r="AT50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AU50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW50" s="1">
         <f t="shared" si="27"/>
@@ -11766,7 +11734,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>421.15</v>
+        <v>421.65</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -11922,7 +11890,7 @@
       </c>
       <c r="AT51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" s="1">
         <f t="shared" si="29"/>
@@ -12534,7 +12502,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12690,11 +12658,11 @@
       </c>
       <c r="AT54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54" s="1">
         <f t="shared" si="35"/>
@@ -12790,7 +12758,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>417.3</v>
+        <v>417.42500000000001</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12946,7 +12914,7 @@
       </c>
       <c r="AT55" s="1">
         <f t="shared" si="37"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AU55" s="1">
         <f t="shared" si="37"/>
@@ -13302,7 +13270,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>421.3</v>
+        <v>422.17500000000001</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -13458,7 +13426,7 @@
       </c>
       <c r="AT57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AU57" s="1">
         <f t="shared" si="41"/>
@@ -13558,7 +13526,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>417.625</v>
+        <v>418.125</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13714,7 +13682,7 @@
       </c>
       <c r="AT58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" s="1">
         <f t="shared" si="43"/>
@@ -13812,7 +13780,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>417.97500000000002</v>
+        <v>418.6</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13968,7 +13936,7 @@
       </c>
       <c r="AT59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AU59" s="1">
         <f t="shared" si="45"/>
@@ -17146,7 +17114,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>69.349999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -17302,7 +17270,7 @@
       </c>
       <c r="AT76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU76" s="1">
         <f t="shared" si="72"/>
@@ -17402,7 +17370,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>76</v>
+        <v>81.25</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17558,7 +17526,7 @@
       </c>
       <c r="AT77" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU77" s="1">
         <f t="shared" si="74"/>
@@ -17658,7 +17626,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>69.325000000000003</v>
+        <v>74.575000000000003</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17814,7 +17782,7 @@
       </c>
       <c r="AT78" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU78" s="1">
         <f t="shared" si="76"/>
@@ -17914,7 +17882,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>81.5</v>
+        <v>94.75</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -18070,15 +18038,15 @@
       </c>
       <c r="AT79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW79" s="1">
         <f t="shared" si="78"/>
@@ -18426,7 +18394,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>82.5</v>
+        <v>87.75</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18582,7 +18550,7 @@
       </c>
       <c r="AT81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU81" s="1">
         <f t="shared" si="82"/>
@@ -18682,7 +18650,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>73.45</v>
+        <v>77.2</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18838,7 +18806,7 @@
       </c>
       <c r="AT82" s="1">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU82" s="1">
         <f t="shared" si="84"/>
@@ -19190,7 +19158,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>67.325000000000003</v>
+        <v>80.075000000000003</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -19346,15 +19314,15 @@
       </c>
       <c r="AT84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV84" s="1">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW84" s="1">
         <f t="shared" si="88"/>
@@ -19444,7 +19412,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>64.7</v>
+        <v>67.7</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -19600,7 +19568,7 @@
       </c>
       <c r="AT85" s="1">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU85" s="1">
         <f t="shared" si="90"/>
@@ -20206,7 +20174,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -20362,11 +20330,11 @@
       </c>
       <c r="AT88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV88" s="1">
         <f t="shared" si="96"/>
@@ -20460,7 +20428,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>57.050000000000004</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20616,7 +20584,7 @@
       </c>
       <c r="AT89" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU89" s="1">
         <f t="shared" si="98"/>
@@ -20968,7 +20936,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>64.7</v>
+        <v>69.95</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -21124,7 +21092,7 @@
       </c>
       <c r="AT91" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU91" s="1">
         <f t="shared" si="102"/>
@@ -21222,7 +21190,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -21378,7 +21346,7 @@
       </c>
       <c r="AT92" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU92" s="1">
         <f t="shared" si="104"/>
@@ -21476,7 +21444,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>58.45</v>
+        <v>62.2</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21632,7 +21600,7 @@
       </c>
       <c r="AT93" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AU93" s="1">
         <f t="shared" si="106"/>
@@ -24524,21 +24492,69 @@
   </sheetData>
   <autoFilter ref="AK2:AM4"/>
   <mergeCells count="94">
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BB8:BG8"/>
+    <mergeCell ref="BC1:BC4"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="BB7:BG7"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BD1:BD4"/>
+    <mergeCell ref="BE1:BE4"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="BF1:BF4"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BB4"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AO8"/>
+    <mergeCell ref="BM3:BM4"/>
+    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="AP8:AU8"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="BG1:BG4"/>
+    <mergeCell ref="BH1:BH4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AP7:AU7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BM2:BP2"/>
+    <mergeCell ref="BM1:BQ1"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BP4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:AF1"/>
@@ -24555,790 +24571,742 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="BM2:BP2"/>
-    <mergeCell ref="BM1:BQ1"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BP4"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AP7:AU7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="BG1:BG4"/>
-    <mergeCell ref="BH1:BH4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="BM3:BM4"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="AP8:AU8"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="BB7:BG7"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BD1:BD4"/>
-    <mergeCell ref="BE1:BE4"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="BF1:BF4"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BB4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BB8:BG8"/>
-    <mergeCell ref="BC1:BC4"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="W8:AA8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
-    <cfRule type="cellIs" dxfId="250" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="232" priority="294" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="295" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="295" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:P9 BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37">
-    <cfRule type="cellIs" dxfId="248" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="292" operator="between">
+    <cfRule type="cellIs" dxfId="229" priority="292" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="293" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="293" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="245" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="280" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="280" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="281" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="281" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="242" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="274" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="274" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="275" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="275" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="cellIs" dxfId="239" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="262" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="263" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="263" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:P12 H23:P38 BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37">
-    <cfRule type="cellIs" dxfId="236" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="250" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="250" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="251" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="233" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="247" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="247" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="248" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK38">
-    <cfRule type="cellIs" dxfId="230" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="244" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="244" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="245" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="245" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
-    <cfRule type="cellIs" dxfId="227" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="241" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="241" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="242" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="242" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
-    <cfRule type="cellIs" dxfId="224" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="238" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="238" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="239" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="239" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38">
-    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="235" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="235" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="236" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V12 V23:V37">
-    <cfRule type="cellIs" dxfId="218" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="232" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="232" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="233" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="233" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
-    <cfRule type="cellIs" dxfId="215" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="229" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="229" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="230" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
-    <cfRule type="cellIs" dxfId="212" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="226" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="226" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="227" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
-    <cfRule type="cellIs" dxfId="209" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="217" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="217" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="218" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="218" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
-    <cfRule type="cellIs" dxfId="206" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="214" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="215" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="215" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
-    <cfRule type="cellIs" dxfId="203" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="211" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="211" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="212" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="212" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
-    <cfRule type="cellIs" dxfId="200" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="208" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="208" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="209" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="209" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ33:BA37">
-    <cfRule type="cellIs" dxfId="197" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="205" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="205" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="206" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV9">
-    <cfRule type="cellIs" dxfId="194" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="202" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="202" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="203" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="203" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
-    <cfRule type="cellIs" dxfId="191" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="199" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="199" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="200" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="200" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC9">
-    <cfRule type="cellIs" dxfId="188" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="196" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="196" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="197" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="197" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
-    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="193" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="193" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="194" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="182" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="190" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="190" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="191" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="191" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K12 K23:K32">
-    <cfRule type="cellIs" dxfId="179" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="186" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="187" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="187" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="188" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J12 J23:J37">
-    <cfRule type="cellIs" dxfId="176" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="184" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="184" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="185" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:P17 BM13:BQ22 AZ13:BC22 H19:P22 H18:M18">
-    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="180" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN13:AN22">
-    <cfRule type="cellIs" dxfId="170" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW13:AW22">
-    <cfRule type="cellIs" dxfId="167" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="173" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="173" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="174" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17 V19:V22">
-    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="167" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG22">
-    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ13:BA22">
-    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="161" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="162" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI22">
-    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="155" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="156" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ13:AL22">
-    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="152" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="153" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ13:AQ22">
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="149" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="150" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13:BB22">
-    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="146" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="147" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13:AV22">
-    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="143" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="144" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC13:BC17">
-    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="140" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="141" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K22">
-    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="137" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="138" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J22">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="131" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="132" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I12 I23:I38">
-    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="128" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="129" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I22">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="126" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
-    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="122" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="123" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
-    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="119" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="120" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
-    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
-    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="110" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="111" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="108" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="104" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="101" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="102" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="98" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="99" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="95" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:R38 R10:R12">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="92" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="93" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17 R19:R22">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF38">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3024,11 +3024,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="S6" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="AI6" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AO6" sqref="AO6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="AU28" sqref="AU28"/>
+      <selection pane="bottomRight" activeCell="BI28" sqref="BI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4138,19 +4138,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>185.59782608695653</v>
+        <v>186.25</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>16.065573770491802</v>
+        <v>17.622950819672131</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>98</v>
+        <v>107.5</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>426.875</v>
+        <v>428.375</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
@@ -4301,8 +4301,12 @@
       <c r="BH9" s="47">
         <v>1</v>
       </c>
-      <c r="BI9" s="47"/>
-      <c r="BJ9" s="47"/>
+      <c r="BI9" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK9" s="47"/>
       <c r="BL9" s="47">
         <v>0</v>
@@ -4321,19 +4325,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>184.02173913043475</v>
+        <v>184.78260869565219</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>12.22950819672131</v>
+        <v>13.807377049180328</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>74.599999999999994</v>
+        <v>84.224999999999994</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>423.25</v>
+        <v>425</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
@@ -4484,8 +4488,12 @@
       <c r="BH10" s="47">
         <v>1</v>
       </c>
-      <c r="BI10" s="47"/>
-      <c r="BJ10" s="47"/>
+      <c r="BI10" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="BJ10" s="47">
+        <v>0.875</v>
+      </c>
       <c r="BK10" s="47"/>
       <c r="BL10" s="47">
         <v>1</v>
@@ -4504,19 +4512,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>184.89130434782609</v>
+        <v>185.54347826086956</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>13.319672131147541</v>
+        <v>14.877049180327868</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>81.25</v>
+        <v>90.75</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>425.25</v>
+        <v>426.75</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
@@ -4667,8 +4675,12 @@
       <c r="BH11" s="47">
         <v>1</v>
       </c>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
+      <c r="BI11" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK11" s="47"/>
       <c r="BL11" s="47">
         <v>1</v>
@@ -4687,19 +4699,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>184.14130434782606</v>
+        <v>184.79347826086953</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>12.225409836065575</v>
+        <v>13.782786885245901</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>74.575000000000003</v>
+        <v>84.075000000000003</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>423.52499999999998</v>
+        <v>425.02499999999998</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -4850,8 +4862,12 @@
       <c r="BH12" s="47">
         <v>1</v>
       </c>
-      <c r="BI12" s="47"/>
-      <c r="BJ12" s="47"/>
+      <c r="BI12" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK12" s="47"/>
       <c r="BL12" s="47">
         <v>1</v>
@@ -4870,19 +4886,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>186.30434782608694</v>
+        <v>186.95652173913044</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>15.532786885245901</v>
+        <v>17.090163934426229</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>94.75</v>
+        <v>104.25</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>428.5</v>
+        <v>430</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -5033,8 +5049,12 @@
       <c r="BH13" s="47">
         <v>1</v>
       </c>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47"/>
+      <c r="BI13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK13" s="47"/>
       <c r="BL13" s="47">
         <v>1</v>
@@ -5053,19 +5073,19 @@
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>176.41304347826087</v>
+        <v>177.06521739130434</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>3.1967213114754101</v>
+        <v>4.7540983606557372</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>405.75</v>
+        <v>407.25</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -5216,8 +5236,12 @@
       <c r="BH14" s="47">
         <v>0</v>
       </c>
-      <c r="BI14" s="47"/>
-      <c r="BJ14" s="47"/>
+      <c r="BI14" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK14" s="47"/>
       <c r="BL14" s="47">
         <v>0</v>
@@ -5236,19 +5260,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>184.72826086956525</v>
+        <v>185.38043478260872</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>14.385245901639346</v>
+        <v>15.942622950819672</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>87.75</v>
+        <v>97.25</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>424.875</v>
+        <v>426.375</v>
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
@@ -5399,8 +5423,12 @@
       <c r="BH15" s="47">
         <v>1</v>
       </c>
-      <c r="BI15" s="47"/>
-      <c r="BJ15" s="47"/>
+      <c r="BI15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK15" s="47"/>
       <c r="BL15" s="47">
         <v>1</v>
@@ -5419,19 +5447,19 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>184.41304347826087</v>
+        <v>185.06521739130434</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>12.655737704918034</v>
+        <v>14.213114754098362</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>77.2</v>
+        <v>86.7</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>424.15</v>
+        <v>425.65</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
@@ -5582,8 +5610,12 @@
       <c r="BH16" s="47">
         <v>1</v>
       </c>
-      <c r="BI16" s="47"/>
-      <c r="BJ16" s="47"/>
+      <c r="BI16" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK16" s="47"/>
       <c r="BL16" s="47">
         <v>1</v>
@@ -5715,19 +5747,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>184.195652173913</v>
+        <v>184.8478260869565</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>13.127049180327869</v>
+        <v>14.684426229508196</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>80.075000000000003</v>
+        <v>89.575000000000003</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>423.65</v>
+        <v>425.15</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
@@ -5878,8 +5910,12 @@
       <c r="BH18" s="47">
         <v>1</v>
       </c>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
+      <c r="BI18" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK18" s="47"/>
       <c r="BL18" s="47">
         <v>0</v>
@@ -5898,19 +5934,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>183.32608695652172</v>
+        <v>183.97826086956519</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>11.098360655737704</v>
+        <v>12.655737704918034</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>67.7</v>
+        <v>77.2</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>421.65</v>
+        <v>423.15</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -6061,8 +6097,12 @@
       <c r="BH19" s="47">
         <v>1</v>
       </c>
-      <c r="BI19" s="47"/>
-      <c r="BJ19" s="47"/>
+      <c r="BI19" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK19" s="47"/>
       <c r="BL19" s="47">
         <v>1</v>
@@ -6081,19 +6121,19 @@
       <c r="C20" s="48"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>176.30434782608694</v>
+        <v>176.63043478260872</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>2.9508196721311473</v>
+        <v>3.9344262295081966</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>405.5</v>
+        <v>406.25</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
@@ -6244,8 +6284,12 @@
       <c r="BH20" s="47">
         <v>0</v>
       </c>
-      <c r="BI20" s="47"/>
-      <c r="BJ20" s="47"/>
+      <c r="BI20" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="BJ20" s="47">
+        <v>0</v>
+      </c>
       <c r="BK20" s="47"/>
       <c r="BL20" s="47">
         <v>1</v>
@@ -6264,19 +6308,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>182.98913043478262</v>
+        <v>183.64130434782609</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>10.918032786885245</v>
+        <v>12.475409836065571</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>66.599999999999994</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>420.875</v>
+        <v>422.375</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -6427,8 +6471,12 @@
       <c r="BH21" s="47">
         <v>1</v>
       </c>
-      <c r="BI21" s="47"/>
-      <c r="BJ21" s="47"/>
+      <c r="BI21" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK21" s="47"/>
       <c r="BL21" s="47">
         <v>1</v>
@@ -6447,19 +6495,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>186.08695652173913</v>
+        <v>186.73913043478262</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>15.737704918032787</v>
+        <v>17.295081967213115</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>105.5</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>428</v>
+        <v>429.5</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
@@ -6610,8 +6658,12 @@
       <c r="BH22" s="47">
         <v>1</v>
       </c>
-      <c r="BI22" s="47"/>
-      <c r="BJ22" s="47"/>
+      <c r="BI22" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK22" s="47"/>
       <c r="BL22" s="47">
         <v>1</v>
@@ -6630,19 +6682,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>181.48913043478262</v>
+        <v>182.14130434782612</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>9.475409836065575</v>
+        <v>11.032786885245905</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>57.800000000000004</v>
+        <v>67.300000000000011</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>417.42500000000001</v>
+        <v>418.92500000000001</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
@@ -6793,8 +6845,12 @@
       <c r="BH23" s="47">
         <v>1</v>
       </c>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
+      <c r="BI23" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK23" s="47"/>
       <c r="BL23" s="47">
         <v>1</v>
@@ -6813,19 +6869,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>182.31521739130437</v>
+        <v>182.96739130434784</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>11.811475409836067</v>
+        <v>13.368852459016395</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>72.050000000000011</v>
+        <v>81.550000000000011</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>419.32500000000005</v>
+        <v>420.82500000000005</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
@@ -6976,8 +7032,12 @@
       <c r="BH24" s="47">
         <v>1</v>
       </c>
-      <c r="BI24" s="47"/>
-      <c r="BJ24" s="47"/>
+      <c r="BI24" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK24" s="47"/>
       <c r="BL24" s="47">
         <v>1</v>
@@ -6996,19 +7056,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>183.55434782608697</v>
+        <v>184.20652173913044</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>11.467213114754099</v>
+        <v>13.024590163934427</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>69.95</v>
+        <v>79.45</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>422.17500000000001</v>
+        <v>423.67500000000001</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -7159,8 +7219,12 @@
       <c r="BH25" s="47">
         <v>1</v>
       </c>
-      <c r="BI25" s="47"/>
-      <c r="BJ25" s="47"/>
+      <c r="BI25" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK25" s="47"/>
       <c r="BL25" s="47">
         <v>1</v>
@@ -7179,19 +7243,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>181.79347826086956</v>
+        <v>182.44565217391306</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>9.6721311475409841</v>
+        <v>11.229508196721312</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>68.5</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>418.125</v>
+        <v>419.625</v>
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -7342,8 +7406,12 @@
       <c r="BH26" s="47">
         <v>1</v>
       </c>
-      <c r="BI26" s="47"/>
-      <c r="BJ26" s="47"/>
+      <c r="BI26" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK26" s="47"/>
       <c r="BL26" s="47">
         <v>0</v>
@@ -7362,19 +7430,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>182.6521739130435</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>10.196721311475409</v>
+        <v>11.754098360655739</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>62.2</v>
+        <v>71.7</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>418.6</v>
+        <v>420.1</v>
       </c>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
@@ -7525,8 +7593,12 @@
       <c r="BH27" s="47">
         <v>1</v>
       </c>
-      <c r="BI27" s="47"/>
-      <c r="BJ27" s="47"/>
+      <c r="BI27" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK27" s="47"/>
       <c r="BL27" s="47">
         <v>1</v>
@@ -7545,19 +7617,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>183.10869565217391</v>
+        <v>183.76086956521738</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>11.266393442622951</v>
+        <v>12.823770491803277</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>68.724999999999994</v>
+        <v>78.224999999999994</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>421.15</v>
+        <v>422.65</v>
       </c>
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
@@ -7708,8 +7780,12 @@
       <c r="BH28" s="47">
         <v>1</v>
       </c>
-      <c r="BI28" s="47"/>
-      <c r="BJ28" s="47"/>
+      <c r="BI28" s="47">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK28" s="47"/>
       <c r="BL28" s="47">
         <v>1</v>
@@ -9140,13 +9216,13 @@
         <f t="shared" si="6"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="BI39" s="1" t="e">
+      <c r="BI39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ39" s="1" t="e">
+        <v>0.98026315789473684</v>
+      </c>
+      <c r="BJ39" s="1">
         <f t="shared" ref="BJ39:BQ39" si="7">AVERAGE(BJ9:BJ35)</f>
-        <v>#DIV/0!</v>
+        <v>0.49342105263157893</v>
       </c>
       <c r="BK39" s="1" t="e">
         <f t="shared" si="7"/>
@@ -9180,7 +9256,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>426.875</v>
+        <v>428.375</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9396,11 +9472,11 @@
       </c>
       <c r="BI41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ41" s="1">
         <f t="shared" ref="BJ41:BQ41" si="10">BJ9*BJ$5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK41" s="1">
         <f t="shared" si="10"/>
@@ -9434,7 +9510,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>423.25</v>
+        <v>425</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -9650,11 +9726,11 @@
       </c>
       <c r="BI42" s="1">
         <f t="shared" ref="BI42:BQ42" si="12">BI10*BI$5</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BJ42" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="BK42" s="1">
         <f t="shared" si="12"/>
@@ -9688,7 +9764,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>425.25</v>
+        <v>426.75</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -9904,11 +9980,11 @@
       </c>
       <c r="BI43" s="1">
         <f t="shared" ref="BI43:BQ43" si="14">BI11*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ43" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK43" s="1">
         <f t="shared" si="14"/>
@@ -9942,7 +10018,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>423.52499999999998</v>
+        <v>425.02499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -10158,11 +10234,11 @@
       </c>
       <c r="BI44" s="1">
         <f t="shared" ref="BI44:BQ44" si="16">BI12*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ44" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK44" s="1">
         <f t="shared" si="16"/>
@@ -10198,7 +10274,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>428.5</v>
+        <v>430</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -10414,11 +10490,11 @@
       </c>
       <c r="BI45" s="1">
         <f t="shared" ref="BI45:BQ45" si="18">BI13*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ45" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK45" s="1">
         <f t="shared" si="18"/>
@@ -10454,7 +10530,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>405.75</v>
+        <v>407.25</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
@@ -10670,11 +10746,11 @@
       </c>
       <c r="BI46" s="1">
         <f t="shared" ref="BI46:BQ46" si="20">BI14*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK46" s="1">
         <f t="shared" si="20"/>
@@ -10710,7 +10786,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>424.875</v>
+        <v>426.375</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -10926,11 +11002,11 @@
       </c>
       <c r="BI47" s="1">
         <f t="shared" ref="BI47:BQ47" si="22">BI15*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ47" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK47" s="1">
         <f t="shared" si="22"/>
@@ -10966,7 +11042,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>424.15</v>
+        <v>425.65</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -11182,11 +11258,11 @@
       </c>
       <c r="BI48" s="1">
         <f t="shared" ref="BI48:BQ48" si="24">BI16*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ48" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK48" s="1">
         <f t="shared" si="24"/>
@@ -11478,7 +11554,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>423.65</v>
+        <v>425.15</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -11694,11 +11770,11 @@
       </c>
       <c r="BI50" s="1">
         <f t="shared" ref="BI50:BQ50" si="28">BI18*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ50" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK50" s="1">
         <f t="shared" si="28"/>
@@ -11734,7 +11810,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>421.65</v>
+        <v>423.15</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -11950,11 +12026,11 @@
       </c>
       <c r="BI51" s="1">
         <f t="shared" ref="BI51:BQ51" si="30">BI19*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ51" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK51" s="1">
         <f t="shared" si="30"/>
@@ -11990,7 +12066,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="8"/>
-        <v>405.5</v>
+        <v>406.25</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BH52" si="31">H20*H$5</f>
@@ -12206,7 +12282,7 @@
       </c>
       <c r="BI52" s="1">
         <f t="shared" ref="BI52:BQ52" si="32">BI20*BI$5</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BJ52" s="1">
         <f t="shared" si="32"/>
@@ -12246,7 +12322,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>420.875</v>
+        <v>422.375</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -12462,11 +12538,11 @@
       </c>
       <c r="BI53" s="1">
         <f t="shared" ref="BI53:BQ53" si="34">BI21*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ53" s="1">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK53" s="1">
         <f t="shared" si="34"/>
@@ -12502,7 +12578,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>428</v>
+        <v>429.5</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -12718,11 +12794,11 @@
       </c>
       <c r="BI54" s="1">
         <f t="shared" ref="BI54:BQ54" si="36">BI22*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ54" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK54" s="1">
         <f t="shared" si="36"/>
@@ -12758,7 +12834,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>417.42500000000001</v>
+        <v>418.92500000000001</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -12974,11 +13050,11 @@
       </c>
       <c r="BI55" s="1">
         <f t="shared" ref="BI55:BQ55" si="38">BI23*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ55" s="1">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK55" s="1">
         <f t="shared" si="38"/>
@@ -13014,7 +13090,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>419.32500000000005</v>
+        <v>420.82500000000005</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -13230,11 +13306,11 @@
       </c>
       <c r="BI56" s="1">
         <f t="shared" ref="BI56:BQ56" si="40">BI24*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ56" s="1">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK56" s="1">
         <f t="shared" si="40"/>
@@ -13270,7 +13346,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>422.17500000000001</v>
+        <v>423.67500000000001</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -13486,11 +13562,11 @@
       </c>
       <c r="BI57" s="1">
         <f t="shared" ref="BI57:BQ57" si="42">BI25*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ57" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK57" s="1">
         <f t="shared" si="42"/>
@@ -13526,7 +13602,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>418.125</v>
+        <v>419.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -13742,11 +13818,11 @@
       </c>
       <c r="BI58" s="1">
         <f t="shared" ref="BI58:BQ58" si="44">BI26*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ58" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK58" s="1">
         <f t="shared" si="44"/>
@@ -13780,7 +13856,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>418.6</v>
+        <v>420.1</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -13996,11 +14072,11 @@
       </c>
       <c r="BI59" s="1">
         <f t="shared" ref="BI59:BQ59" si="46">BI27*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ59" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK59" s="1">
         <f t="shared" si="46"/>
@@ -14034,7 +14110,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>421.15</v>
+        <v>422.65</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -14250,11 +14326,11 @@
       </c>
       <c r="BI60" s="1">
         <f t="shared" ref="BI60:BQ60" si="48">BI28*BI$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ60" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK60" s="1">
         <f t="shared" si="48"/>
@@ -16858,7 +16934,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>98</v>
+        <v>107.5</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -17074,11 +17150,11 @@
       </c>
       <c r="BI75" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ75" s="1">
         <f t="shared" ref="BJ75:BQ75" si="71">BJ9*BJ$6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK75" s="1">
         <f t="shared" si="71"/>
@@ -17114,7 +17190,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>74.599999999999994</v>
+        <v>84.224999999999994</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -17330,11 +17406,11 @@
       </c>
       <c r="BI76" s="1">
         <f t="shared" ref="BI76:BQ76" si="73">BI10*BI$6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BJ76" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2.625</v>
       </c>
       <c r="BK76" s="1">
         <f t="shared" si="73"/>
@@ -17370,7 +17446,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>81.25</v>
+        <v>90.75</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -17586,11 +17662,11 @@
       </c>
       <c r="BI77" s="1">
         <f t="shared" ref="BI77:BQ77" si="75">BI11*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ77" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK77" s="1">
         <f t="shared" si="75"/>
@@ -17626,7 +17702,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>74.575000000000003</v>
+        <v>84.075000000000003</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -17842,11 +17918,11 @@
       </c>
       <c r="BI78" s="1">
         <f t="shared" ref="BI78:BQ78" si="77">BI12*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ78" s="1">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK78" s="1">
         <f t="shared" si="77"/>
@@ -17882,7 +17958,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>94.75</v>
+        <v>104.25</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -18098,11 +18174,11 @@
       </c>
       <c r="BI79" s="1">
         <f t="shared" ref="BI79:BQ79" si="79">BI13*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ79" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK79" s="1">
         <f t="shared" si="79"/>
@@ -18138,7 +18214,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -18354,11 +18430,11 @@
       </c>
       <c r="BI80" s="1">
         <f t="shared" ref="BI80:BQ80" si="81">BI14*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ80" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK80" s="1">
         <f t="shared" si="81"/>
@@ -18394,7 +18470,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>87.75</v>
+        <v>97.25</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -18610,11 +18686,11 @@
       </c>
       <c r="BI81" s="1">
         <f t="shared" ref="BI81:BQ81" si="83">BI15*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ81" s="1">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK81" s="1">
         <f t="shared" si="83"/>
@@ -18650,7 +18726,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>77.2</v>
+        <v>86.7</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -18866,11 +18942,11 @@
       </c>
       <c r="BI82" s="1">
         <f t="shared" ref="BI82:BQ82" si="85">BI16*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ82" s="1">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK82" s="1">
         <f t="shared" si="85"/>
@@ -19158,7 +19234,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>80.075000000000003</v>
+        <v>89.575000000000003</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -19374,11 +19450,11 @@
       </c>
       <c r="BI84" s="1">
         <f t="shared" ref="BI84:BQ84" si="89">BI18*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ84" s="1">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK84" s="1">
         <f t="shared" si="89"/>
@@ -19412,7 +19488,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>67.7</v>
+        <v>77.2</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -19628,11 +19704,11 @@
       </c>
       <c r="BI85" s="1">
         <f t="shared" ref="BI85:BQ85" si="91">BI19*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ85" s="1">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK85" s="1">
         <f t="shared" si="91"/>
@@ -19666,7 +19742,7 @@
     <row r="86" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
         <f t="shared" si="69"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" ref="H86:BH86" si="92">H20*H$6</f>
@@ -19882,7 +19958,7 @@
       </c>
       <c r="BI86" s="1">
         <f t="shared" ref="BI86:BQ86" si="93">BI20*BI$6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ86" s="1">
         <f t="shared" si="93"/>
@@ -19920,7 +19996,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>66.599999999999994</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -20136,11 +20212,11 @@
       </c>
       <c r="BI87" s="1">
         <f t="shared" ref="BI87:BQ87" si="95">BI21*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ87" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK87" s="1">
         <f t="shared" si="95"/>
@@ -20174,7 +20250,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>96</v>
+        <v>105.5</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -20390,11 +20466,11 @@
       </c>
       <c r="BI88" s="1">
         <f t="shared" ref="BI88:BQ88" si="97">BI22*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ88" s="1">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK88" s="1">
         <f t="shared" si="97"/>
@@ -20428,7 +20504,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>57.800000000000004</v>
+        <v>67.300000000000011</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -20644,11 +20720,11 @@
       </c>
       <c r="BI89" s="1">
         <f t="shared" ref="BI89:BQ89" si="99">BI23*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ89" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK89" s="1">
         <f t="shared" si="99"/>
@@ -20682,7 +20758,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>72.050000000000011</v>
+        <v>81.550000000000011</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -20898,11 +20974,11 @@
       </c>
       <c r="BI90" s="1">
         <f t="shared" ref="BI90:BQ90" si="101">BI24*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ90" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK90" s="1">
         <f t="shared" si="101"/>
@@ -20936,7 +21012,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>69.95</v>
+        <v>79.45</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -21152,11 +21228,11 @@
       </c>
       <c r="BI91" s="1">
         <f t="shared" ref="BI91:BQ91" si="103">BI25*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ91" s="1">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK91" s="1">
         <f t="shared" si="103"/>
@@ -21190,7 +21266,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>59</v>
+        <v>68.5</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -21406,11 +21482,11 @@
       </c>
       <c r="BI92" s="1">
         <f t="shared" ref="BI92:BQ92" si="105">BI26*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ92" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK92" s="1">
         <f t="shared" si="105"/>
@@ -21444,7 +21520,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>62.2</v>
+        <v>71.7</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -21660,11 +21736,11 @@
       </c>
       <c r="BI93" s="1">
         <f t="shared" ref="BI93:BQ93" si="107">BI27*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ93" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK93" s="1">
         <f t="shared" si="107"/>
@@ -21698,7 +21774,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>68.724999999999994</v>
+        <v>78.224999999999994</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -21914,11 +21990,11 @@
       </c>
       <c r="BI94" s="1">
         <f t="shared" ref="BI94:BQ94" si="109">BI28*BI$6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ94" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK94" s="1">
         <f t="shared" si="109"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3028,7 +3028,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AO6" sqref="AO6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="BI28" sqref="BI28"/>
+      <selection pane="bottomRight" activeCell="BN27" sqref="BN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4311,8 +4311,12 @@
       <c r="BL9" s="47">
         <v>0</v>
       </c>
-      <c r="BM9" s="47"/>
-      <c r="BN9" s="47"/>
+      <c r="BM9" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="47">
+        <v>0</v>
+      </c>
       <c r="BO9" s="47"/>
       <c r="BP9" s="47"/>
       <c r="BQ9" s="47"/>
@@ -4325,11 +4329,11 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>184.78260869565219</v>
+        <v>184.90760869565219</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>13.807377049180328</v>
+        <v>13.932377049180328</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
@@ -4498,8 +4502,12 @@
       <c r="BL10" s="47">
         <v>1</v>
       </c>
-      <c r="BM10" s="47"/>
-      <c r="BN10" s="47"/>
+      <c r="BM10" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="BN10" s="47">
+        <v>0</v>
+      </c>
       <c r="BO10" s="47"/>
       <c r="BP10" s="47"/>
       <c r="BQ10" s="47"/>
@@ -4685,8 +4693,12 @@
       <c r="BL11" s="47">
         <v>1</v>
       </c>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
+      <c r="BM11" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="47">
+        <v>0</v>
+      </c>
       <c r="BO11" s="47"/>
       <c r="BP11" s="47"/>
       <c r="BQ11" s="47"/>
@@ -4872,8 +4884,12 @@
       <c r="BL12" s="47">
         <v>1</v>
       </c>
-      <c r="BM12" s="47"/>
-      <c r="BN12" s="47"/>
+      <c r="BM12" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="47">
+        <v>0</v>
+      </c>
       <c r="BO12" s="47"/>
       <c r="BP12" s="47"/>
       <c r="BQ12" s="47"/>
@@ -4886,11 +4902,11 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>186.95652173913044</v>
+        <v>187.51902173913044</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>17.090163934426229</v>
+        <v>17.652663934426229</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
@@ -5059,8 +5075,12 @@
       <c r="BL13" s="47">
         <v>1</v>
       </c>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
+      <c r="BM13" s="47">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="47">
+        <v>0.125</v>
+      </c>
       <c r="BO13" s="47"/>
       <c r="BP13" s="47"/>
       <c r="BQ13" s="47"/>
@@ -5246,8 +5266,12 @@
       <c r="BL14" s="47">
         <v>0</v>
       </c>
-      <c r="BM14" s="47"/>
-      <c r="BN14" s="47"/>
+      <c r="BM14" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="47">
+        <v>0</v>
+      </c>
       <c r="BO14" s="47"/>
       <c r="BP14" s="47"/>
       <c r="BQ14" s="47"/>
@@ -5260,11 +5284,11 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>185.38043478260872</v>
+        <v>186.00543478260872</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>15.942622950819672</v>
+        <v>16.567622950819672</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
@@ -5433,8 +5457,12 @@
       <c r="BL15" s="47">
         <v>1</v>
       </c>
-      <c r="BM15" s="47"/>
-      <c r="BN15" s="47"/>
+      <c r="BM15" s="47">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="47">
+        <v>0.25</v>
+      </c>
       <c r="BO15" s="47"/>
       <c r="BP15" s="47"/>
       <c r="BQ15" s="47"/>
@@ -5620,8 +5648,12 @@
       <c r="BL16" s="47">
         <v>1</v>
       </c>
-      <c r="BM16" s="47"/>
-      <c r="BN16" s="47"/>
+      <c r="BM16" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="47">
+        <v>0</v>
+      </c>
       <c r="BO16" s="47"/>
       <c r="BP16" s="47"/>
       <c r="BQ16" s="47"/>
@@ -5920,8 +5952,12 @@
       <c r="BL18" s="47">
         <v>0</v>
       </c>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
+      <c r="BM18" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="47">
+        <v>0</v>
+      </c>
       <c r="BO18" s="47"/>
       <c r="BP18" s="47"/>
       <c r="BQ18" s="47"/>
@@ -6107,8 +6143,12 @@
       <c r="BL19" s="47">
         <v>1</v>
       </c>
-      <c r="BM19" s="47"/>
-      <c r="BN19" s="47"/>
+      <c r="BM19" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="47">
+        <v>0</v>
+      </c>
       <c r="BO19" s="47"/>
       <c r="BP19" s="47"/>
       <c r="BQ19" s="47"/>
@@ -6294,8 +6334,12 @@
       <c r="BL20" s="47">
         <v>1</v>
       </c>
-      <c r="BM20" s="47"/>
-      <c r="BN20" s="47"/>
+      <c r="BM20" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="47">
+        <v>0</v>
+      </c>
       <c r="BO20" s="47"/>
       <c r="BP20" s="47"/>
       <c r="BQ20" s="47"/>
@@ -6481,8 +6525,12 @@
       <c r="BL21" s="47">
         <v>1</v>
       </c>
-      <c r="BM21" s="47"/>
-      <c r="BN21" s="47"/>
+      <c r="BM21" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="47">
+        <v>0</v>
+      </c>
       <c r="BO21" s="47"/>
       <c r="BP21" s="47"/>
       <c r="BQ21" s="47"/>
@@ -6495,11 +6543,11 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>186.73913043478262</v>
+        <v>187.48913043478262</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>17.295081967213115</v>
+        <v>18.045081967213115</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -6668,8 +6716,12 @@
       <c r="BL22" s="47">
         <v>1</v>
       </c>
-      <c r="BM22" s="47"/>
-      <c r="BN22" s="47"/>
+      <c r="BM22" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="BN22" s="47">
+        <v>0.75</v>
+      </c>
       <c r="BO22" s="47"/>
       <c r="BP22" s="47"/>
       <c r="BQ22" s="47"/>
@@ -6855,8 +6907,12 @@
       <c r="BL23" s="47">
         <v>1</v>
       </c>
-      <c r="BM23" s="47"/>
-      <c r="BN23" s="47"/>
+      <c r="BM23" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="47">
+        <v>0</v>
+      </c>
       <c r="BO23" s="47"/>
       <c r="BP23" s="47"/>
       <c r="BQ23" s="47"/>
@@ -7042,8 +7098,12 @@
       <c r="BL24" s="47">
         <v>1</v>
       </c>
-      <c r="BM24" s="47"/>
-      <c r="BN24" s="47"/>
+      <c r="BM24" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="47">
+        <v>0</v>
+      </c>
       <c r="BO24" s="47"/>
       <c r="BP24" s="47"/>
       <c r="BQ24" s="47"/>
@@ -7056,11 +7116,11 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>184.20652173913044</v>
+        <v>184.26902173913044</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>13.024590163934427</v>
+        <v>13.087090163934427</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -7229,8 +7289,12 @@
       <c r="BL25" s="47">
         <v>1</v>
       </c>
-      <c r="BM25" s="47"/>
-      <c r="BN25" s="47"/>
+      <c r="BM25" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="47">
+        <v>0.125</v>
+      </c>
       <c r="BO25" s="47"/>
       <c r="BP25" s="47"/>
       <c r="BQ25" s="47"/>
@@ -7416,8 +7480,12 @@
       <c r="BL26" s="47">
         <v>0</v>
       </c>
-      <c r="BM26" s="47"/>
-      <c r="BN26" s="47"/>
+      <c r="BM26" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="47">
+        <v>0</v>
+      </c>
       <c r="BO26" s="47"/>
       <c r="BP26" s="47"/>
       <c r="BQ26" s="47"/>
@@ -7603,8 +7671,12 @@
       <c r="BL27" s="47">
         <v>1</v>
       </c>
-      <c r="BM27" s="47"/>
-      <c r="BN27" s="47"/>
+      <c r="BM27" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="47">
+        <v>0</v>
+      </c>
       <c r="BO27" s="47"/>
       <c r="BP27" s="47"/>
       <c r="BQ27" s="47"/>
@@ -7790,8 +7862,12 @@
       <c r="BL28" s="47">
         <v>1</v>
       </c>
-      <c r="BM28" s="47"/>
-      <c r="BN28" s="47"/>
+      <c r="BM28" s="47">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="47">
+        <v>0</v>
+      </c>
       <c r="BO28" s="47"/>
       <c r="BP28" s="47"/>
       <c r="BQ28" s="47"/>
@@ -9232,13 +9308,13 @@
         <f t="shared" si="7"/>
         <v>0.78947368421052633</v>
       </c>
-      <c r="BM39" s="1" t="e">
+      <c r="BM39" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN39" s="1" t="e">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="BN39" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="BO39" s="1" t="e">
         <f t="shared" si="7"/>
@@ -9742,7 +9818,7 @@
       </c>
       <c r="BM42" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BN42" s="1">
         <f t="shared" si="12"/>
@@ -10506,11 +10582,11 @@
       </c>
       <c r="BM45" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN45" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BO45" s="1">
         <f t="shared" si="18"/>
@@ -11018,11 +11094,11 @@
       </c>
       <c r="BM47" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN47" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BO47" s="1">
         <f t="shared" si="22"/>
@@ -12810,11 +12886,11 @@
       </c>
       <c r="BM54" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BN54" s="1">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BO54" s="1">
         <f t="shared" si="36"/>
@@ -13582,7 +13658,7 @@
       </c>
       <c r="BN57" s="1">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BO57" s="1">
         <f t="shared" si="42"/>
@@ -17422,7 +17498,7 @@
       </c>
       <c r="BM76" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BN76" s="1">
         <f t="shared" si="73"/>
@@ -18190,11 +18266,11 @@
       </c>
       <c r="BM79" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN79" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BO79" s="1">
         <f t="shared" si="79"/>
@@ -18702,11 +18778,11 @@
       </c>
       <c r="BM81" s="1">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN81" s="1">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BO81" s="1">
         <f t="shared" si="83"/>
@@ -20482,11 +20558,11 @@
       </c>
       <c r="BM88" s="1">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BN88" s="1">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="BO88" s="1">
         <f t="shared" si="97"/>
@@ -21248,7 +21324,7 @@
       </c>
       <c r="BN91" s="1">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BO91" s="1">
         <f t="shared" si="103"/>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Nom</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>stream</t>
+  </si>
+  <si>
+    <t>compilationMalus</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,6 +975,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,7 +1099,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="233">
+  <dxfs count="248">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3024,11 +3135,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="AI6" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="E4" activePane="bottomRight"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="topRight" activeCell="L6" sqref="L6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="BN27" sqref="BN27"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3070,96 +3181,96 @@
       <c r="E1" s="10"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="59" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="59" t="s">
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="59" t="s">
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
       <c r="AV1" s="46"/>
       <c r="AW1" s="42"/>
       <c r="AX1" s="42"/>
       <c r="AY1" s="28"/>
-      <c r="AZ1" s="72" t="s">
+      <c r="AZ1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="62" t="s">
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="60" t="s">
+      <c r="BC1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="60" t="s">
+      <c r="BD1" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BE1" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60" t="s">
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="BH1" s="60" t="s">
+      <c r="BH1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="BI1" s="60" t="s">
+      <c r="BI1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="72" t="s">
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BN1" s="73"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="73"/>
-      <c r="BQ1" s="74"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="74"/>
+      <c r="BP1" s="74"/>
+      <c r="BQ1" s="75"/>
     </row>
     <row r="2" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -3169,126 +3280,126 @@
       <c r="E2" s="10"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="58" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="55" t="s">
+      <c r="AF2" s="56" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="82" t="s">
+      <c r="AI2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AK2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AL2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="AM2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="55" t="s">
+      <c r="AN2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="55" t="s">
+      <c r="AO2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="81" t="s">
+      <c r="AP2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="55" t="s">
+      <c r="AQ2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AR2" s="55" t="s">
+      <c r="AR2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="55" t="s">
+      <c r="AU2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="55" t="s">
+      <c r="AV2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55" t="s">
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="63" t="s">
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="75"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="76"/>
     </row>
     <row r="3" spans="1:69" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3306,112 +3417,114 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 122)</v>
+        <v>Note/20 ( sur 117)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/122</v>
+        <v>Note/117</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
         <v>Note/46</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="54" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="55" t="s">
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="X3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="55" t="s">
+      <c r="Y3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="64" t="s">
+      <c r="AB3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55" t="s">
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="56" t="s">
+      <c r="BJ3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="81" t="s">
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="55" t="s">
+      <c r="BN3" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="76"/>
+      <c r="BO3" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="77"/>
     </row>
     <row r="4" spans="1:69" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3421,18 +3534,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
       <c r="T4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3442,11 +3555,11 @@
       <c r="V4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
       <c r="AB4" s="36" t="s">
         <v>34</v>
       </c>
@@ -3456,45 +3569,45 @@
       <c r="AD4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="77"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="78"/>
     </row>
     <row r="5" spans="1:69" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3703,25 +3816,25 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="18">
         <v>1</v>
@@ -3883,7 +3996,7 @@
         <v>0.5</v>
       </c>
       <c r="BO6" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="14">
         <v>0.5</v>
@@ -3900,44 +4013,44 @@
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="78">
+      <c r="H7" s="79">
         <f>SUM(H5:M5)</f>
         <v>5</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="53">
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="54">
         <f>SUM(N5:S5)</f>
         <v>6</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53">
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54">
         <f>SUM(T5:V5)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="58">
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="59">
         <f>SUM(W5:Z5)</f>
         <v>4</v>
       </c>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
       <c r="AA7" s="30"/>
-      <c r="AB7" s="53">
+      <c r="AB7" s="54">
         <f>SUM(AB5:AD5)</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="55"/>
       <c r="AE7" s="21">
         <f t="shared" ref="AE7:AF8" si="0">SUM(AE5)</f>
         <v>1</v>
@@ -3946,66 +4059,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG7" s="81">
+      <c r="AG7" s="82">
         <f>SUM(AG5:AH5)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="70">
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="71">
         <f>SUM(AI5:AO5)</f>
         <v>3</v>
       </c>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="81">
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="82">
         <f>SUM(AP5:AU5)</f>
         <v>5</v>
       </c>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
       <c r="AV7" s="44"/>
       <c r="AW7" s="40"/>
       <c r="AX7" s="40"/>
       <c r="AY7" s="27"/>
-      <c r="AZ7" s="70">
+      <c r="AZ7" s="71">
         <f>SUM(AZ5:BA5)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="70">
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="71">
         <f>SUM(BB5:BG5)</f>
         <v>5</v>
       </c>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BH8" si="1">BH5</f>
         <v>1</v>
       </c>
-      <c r="BI7" s="53">
+      <c r="BI7" s="54">
         <f>SUM(BI5:BL5)</f>
         <v>4</v>
       </c>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="70">
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="71">
         <f>SUM(BM5:BP5)</f>
         <v>2.5</v>
       </c>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
-      <c r="BP7" s="71"/>
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="72"/>
       <c r="BQ7" s="25">
         <f>BQ5</f>
         <v>0.5</v>
@@ -4019,44 +4132,44 @@
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="88">
+      <c r="H8" s="89">
         <f>SUM(H6:M6)</f>
-        <v>5</v>
-      </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="54">
         <f>SUM(N6:S6)</f>
         <v>9</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53">
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54">
         <f>SUM(T6:V6)</f>
         <v>10</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="58">
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="59">
         <f>SUM(W6:AA6)</f>
         <v>12</v>
       </c>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53">
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54">
         <f>SUM(AB6:AD6)</f>
         <v>14</v>
       </c>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="55"/>
       <c r="AE8" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4065,66 +4178,66 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="81">
+      <c r="AG8" s="82">
         <f>SUM(AG6:AH6)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="70">
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="71">
         <f>SUM(AI6:AO6)</f>
         <v>10</v>
       </c>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="81">
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="82">
         <f>SUM(AP6:AU6)</f>
         <v>30</v>
       </c>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="55"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
       <c r="AV8" s="44"/>
       <c r="AW8" s="40"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="27"/>
-      <c r="AZ8" s="70">
+      <c r="AZ8" s="71">
         <f>SUM(AZ6:BA6)</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="71"/>
-      <c r="BB8" s="70">
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="71">
         <f>SUM(BB6:BG6)</f>
         <v>6</v>
       </c>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
       <c r="BH8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BI8" s="53">
+      <c r="BI8" s="54">
         <f>SUM(BI6:BL6)</f>
         <v>15</v>
       </c>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="53"/>
-      <c r="BL8" s="71"/>
-      <c r="BM8" s="70">
+      <c r="BJ8" s="54"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="71">
         <f>SUM(BM6:BP6)</f>
-        <v>2</v>
-      </c>
-      <c r="BN8" s="53"/>
-      <c r="BO8" s="53"/>
-      <c r="BP8" s="71"/>
+        <v>2.5</v>
+      </c>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="72"/>
       <c r="BQ8" s="25">
         <f>BQ6</f>
         <v>0</v>
@@ -4138,11 +4251,11 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>186.25</v>
+        <v>401.46739130434781</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>17.622950819672131</v>
+        <v>18.376068376068375</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
@@ -4150,16 +4263,26 @@
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>428.375</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+        <v>923.375</v>
+      </c>
+      <c r="H9" s="53">
+        <v>99</v>
+      </c>
+      <c r="I9" s="53">
+        <v>99</v>
+      </c>
       <c r="J9" s="47">
         <v>99</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="K9" s="53">
+        <v>99</v>
+      </c>
+      <c r="L9" s="53">
+        <v>99</v>
+      </c>
+      <c r="M9" s="53">
+        <v>99</v>
+      </c>
       <c r="N9" s="47">
         <v>1</v>
       </c>
@@ -4317,7 +4440,9 @@
       <c r="BN9" s="47">
         <v>0</v>
       </c>
-      <c r="BO9" s="47"/>
+      <c r="BO9" s="47">
+        <v>0</v>
+      </c>
       <c r="BP9" s="47"/>
       <c r="BQ9" s="47"/>
     </row>
@@ -4329,11 +4454,11 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>184.90760869565219</v>
+        <v>399.125</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>13.932377049180328</v>
+        <v>13.522435897435898</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
@@ -4341,16 +4466,26 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>425</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+        <v>920</v>
+      </c>
+      <c r="H10" s="53">
+        <v>99</v>
+      </c>
+      <c r="I10" s="53">
+        <v>99</v>
+      </c>
       <c r="J10" s="47">
         <v>99</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="K10" s="53">
+        <v>99</v>
+      </c>
+      <c r="L10" s="53">
+        <v>99</v>
+      </c>
+      <c r="M10" s="53">
+        <v>99</v>
+      </c>
       <c r="N10" s="47">
         <v>1</v>
       </c>
@@ -4508,7 +4643,9 @@
       <c r="BN10" s="47">
         <v>0</v>
       </c>
-      <c r="BO10" s="47"/>
+      <c r="BO10" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP10" s="47"/>
       <c r="BQ10" s="47"/>
     </row>
@@ -4520,11 +4657,11 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>185.54347826086956</v>
+        <v>400.76086956521743</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>14.877049180327868</v>
+        <v>15.512820512820513</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
@@ -4532,16 +4669,26 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>426.75</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+        <v>921.75</v>
+      </c>
+      <c r="H11" s="53">
+        <v>99</v>
+      </c>
+      <c r="I11" s="53">
+        <v>99</v>
+      </c>
       <c r="J11" s="47">
         <v>99</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="K11" s="53">
+        <v>99</v>
+      </c>
+      <c r="L11" s="53">
+        <v>99</v>
+      </c>
+      <c r="M11" s="53">
+        <v>99</v>
+      </c>
       <c r="N11" s="47">
         <v>1</v>
       </c>
@@ -4699,7 +4846,9 @@
       <c r="BN11" s="47">
         <v>0</v>
       </c>
-      <c r="BO11" s="47"/>
+      <c r="BO11" s="47">
+        <v>0</v>
+      </c>
       <c r="BP11" s="47"/>
       <c r="BQ11" s="47"/>
     </row>
@@ -4711,11 +4860,11 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>184.79347826086953</v>
+        <v>399.01086956521738</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>13.782786885245901</v>
+        <v>13.371794871794872</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
@@ -4723,16 +4872,26 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>425.02499999999998</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+        <v>920.02499999999998</v>
+      </c>
+      <c r="H12" s="53">
+        <v>99</v>
+      </c>
+      <c r="I12" s="53">
+        <v>99</v>
+      </c>
       <c r="J12" s="47">
         <v>99</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="K12" s="53">
+        <v>99</v>
+      </c>
+      <c r="L12" s="53">
+        <v>99</v>
+      </c>
+      <c r="M12" s="53">
+        <v>99</v>
+      </c>
       <c r="N12" s="47">
         <v>1</v>
       </c>
@@ -4890,7 +5049,9 @@
       <c r="BN12" s="47">
         <v>0</v>
       </c>
-      <c r="BO12" s="47"/>
+      <c r="BO12" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP12" s="47"/>
       <c r="BQ12" s="47"/>
     </row>
@@ -4902,11 +5063,11 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>187.51902173913044</v>
+        <v>401.73641304347825</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>17.652663934426229</v>
+        <v>17.383012820512821</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
@@ -4914,16 +5075,26 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>430</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+        <v>925</v>
+      </c>
+      <c r="H13" s="53">
+        <v>99</v>
+      </c>
+      <c r="I13" s="53">
+        <v>99</v>
+      </c>
       <c r="J13" s="47">
         <v>99</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="K13" s="53">
+        <v>99</v>
+      </c>
+      <c r="L13" s="53">
+        <v>99</v>
+      </c>
+      <c r="M13" s="53">
+        <v>99</v>
+      </c>
       <c r="N13" s="47">
         <v>1</v>
       </c>
@@ -5081,7 +5252,9 @@
       <c r="BN13" s="47">
         <v>0.125</v>
       </c>
-      <c r="BO13" s="47"/>
+      <c r="BO13" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP13" s="47"/>
       <c r="BQ13" s="47"/>
     </row>
@@ -5093,11 +5266,11 @@
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>177.06521739130434</v>
+        <v>392.28260869565219</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>4.7540983606557372</v>
+        <v>4.9572649572649574</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
@@ -5105,16 +5278,26 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>407.25</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+        <v>902.25</v>
+      </c>
+      <c r="H14" s="53">
+        <v>99</v>
+      </c>
+      <c r="I14" s="53">
+        <v>99</v>
+      </c>
       <c r="J14" s="47">
         <v>99</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="K14" s="53">
+        <v>99</v>
+      </c>
+      <c r="L14" s="53">
+        <v>99</v>
+      </c>
+      <c r="M14" s="53">
+        <v>99</v>
+      </c>
       <c r="N14" s="47">
         <v>0</v>
       </c>
@@ -5272,7 +5455,9 @@
       <c r="BN14" s="47">
         <v>0</v>
       </c>
-      <c r="BO14" s="47"/>
+      <c r="BO14" s="47">
+        <v>0</v>
+      </c>
       <c r="BP14" s="47"/>
       <c r="BQ14" s="47"/>
     </row>
@@ -5284,11 +5469,11 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>186.00543478260872</v>
+        <v>401.2228260869565</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>16.567622950819672</v>
+        <v>17.248931623931625</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
@@ -5296,16 +5481,26 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>426.375</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+        <v>921.375</v>
+      </c>
+      <c r="H15" s="53">
+        <v>99</v>
+      </c>
+      <c r="I15" s="53">
+        <v>99</v>
+      </c>
       <c r="J15" s="47">
         <v>99</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="K15" s="53">
+        <v>99</v>
+      </c>
+      <c r="L15" s="53">
+        <v>99</v>
+      </c>
+      <c r="M15" s="53">
+        <v>99</v>
+      </c>
       <c r="N15" s="47">
         <v>1</v>
       </c>
@@ -5463,7 +5658,9 @@
       <c r="BN15" s="47">
         <v>0.25</v>
       </c>
-      <c r="BO15" s="47"/>
+      <c r="BO15" s="47">
+        <v>0</v>
+      </c>
       <c r="BP15" s="47"/>
       <c r="BQ15" s="47"/>
     </row>
@@ -5475,11 +5672,11 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>185.06521739130434</v>
+        <v>400.28260869565213</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>14.213114754098362</v>
+        <v>14.820512820512821</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
@@ -5487,16 +5684,26 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>425.65</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+        <v>920.65</v>
+      </c>
+      <c r="H16" s="53">
+        <v>99</v>
+      </c>
+      <c r="I16" s="53">
+        <v>99</v>
+      </c>
       <c r="J16" s="47">
         <v>99</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
+      <c r="K16" s="53">
+        <v>99</v>
+      </c>
+      <c r="L16" s="53">
+        <v>99</v>
+      </c>
+      <c r="M16" s="53">
+        <v>99</v>
+      </c>
       <c r="N16" s="47">
         <v>1</v>
       </c>
@@ -5654,7 +5861,9 @@
       <c r="BN16" s="47">
         <v>0</v>
       </c>
-      <c r="BO16" s="47"/>
+      <c r="BO16" s="47">
+        <v>0</v>
+      </c>
       <c r="BP16" s="47"/>
       <c r="BQ16" s="47"/>
     </row>
@@ -5666,7 +5875,7 @@
       <c r="C17" s="48"/>
       <c r="D17" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="3"/>
@@ -5678,16 +5887,26 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H17" s="53">
+        <v>99</v>
+      </c>
+      <c r="I17" s="53">
+        <v>99</v>
+      </c>
       <c r="J17" s="47">
         <v>99</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
+      <c r="K17" s="53">
+        <v>99</v>
+      </c>
+      <c r="L17" s="53">
+        <v>99</v>
+      </c>
+      <c r="M17" s="53">
+        <v>99</v>
+      </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
       <c r="P17" s="47"/>
@@ -5767,7 +5986,9 @@
       <c r="BL17" s="47"/>
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
-      <c r="BO17" s="47"/>
+      <c r="BO17" s="47">
+        <v>0</v>
+      </c>
       <c r="BP17" s="47"/>
       <c r="BQ17" s="47"/>
     </row>
@@ -5779,11 +6000,11 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>184.8478260869565</v>
+        <v>399.06521739130437</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>14.684426229508196</v>
+        <v>14.311965811965813</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
@@ -5791,16 +6012,26 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>425.15</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+        <v>920.15</v>
+      </c>
+      <c r="H18" s="53">
+        <v>99</v>
+      </c>
+      <c r="I18" s="53">
+        <v>99</v>
+      </c>
       <c r="J18" s="47">
         <v>99</v>
       </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
+      <c r="K18" s="53">
+        <v>99</v>
+      </c>
+      <c r="L18" s="53">
+        <v>99</v>
+      </c>
+      <c r="M18" s="53">
+        <v>99</v>
+      </c>
       <c r="N18" s="50">
         <v>1</v>
       </c>
@@ -5958,7 +6189,9 @@
       <c r="BN18" s="47">
         <v>0</v>
       </c>
-      <c r="BO18" s="47"/>
+      <c r="BO18" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP18" s="47"/>
       <c r="BQ18" s="47"/>
     </row>
@@ -5970,11 +6203,11 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>183.97826086956519</v>
+        <v>398.195652173913</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>12.655737704918034</v>
+        <v>12.196581196581196</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
@@ -5982,16 +6215,26 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>423.15</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+        <v>918.15</v>
+      </c>
+      <c r="H19" s="53">
+        <v>99</v>
+      </c>
+      <c r="I19" s="53">
+        <v>99</v>
+      </c>
       <c r="J19" s="47">
         <v>99</v>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="K19" s="53">
+        <v>99</v>
+      </c>
+      <c r="L19" s="53">
+        <v>99</v>
+      </c>
+      <c r="M19" s="53">
+        <v>99</v>
+      </c>
       <c r="N19" s="47">
         <v>1</v>
       </c>
@@ -6149,7 +6392,9 @@
       <c r="BN19" s="47">
         <v>0</v>
       </c>
-      <c r="BO19" s="47"/>
+      <c r="BO19" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP19" s="47"/>
       <c r="BQ19" s="47"/>
     </row>
@@ -6161,11 +6406,11 @@
       <c r="C20" s="48"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>176.63043478260872</v>
+        <v>391.8478260869565</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>3.9344262295081966</v>
+        <v>4.1025641025641022</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
@@ -6173,16 +6418,26 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>406.25</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+        <v>901.25</v>
+      </c>
+      <c r="H20" s="53">
+        <v>99</v>
+      </c>
+      <c r="I20" s="53">
+        <v>99</v>
+      </c>
       <c r="J20" s="47">
         <v>99</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
+      <c r="K20" s="53">
+        <v>99</v>
+      </c>
+      <c r="L20" s="53">
+        <v>99</v>
+      </c>
+      <c r="M20" s="53">
+        <v>99</v>
+      </c>
       <c r="N20" s="47">
         <v>0.25</v>
       </c>
@@ -6340,7 +6595,9 @@
       <c r="BN20" s="47">
         <v>0</v>
       </c>
-      <c r="BO20" s="47"/>
+      <c r="BO20" s="47">
+        <v>0</v>
+      </c>
       <c r="BP20" s="47"/>
       <c r="BQ20" s="47"/>
     </row>
@@ -6352,11 +6609,11 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>183.64130434782609</v>
+        <v>398.85869565217388</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>12.475409836065571</v>
+        <v>13.008547008547007</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
@@ -6364,16 +6621,26 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>422.375</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+        <v>917.375</v>
+      </c>
+      <c r="H21" s="53">
+        <v>99</v>
+      </c>
+      <c r="I21" s="53">
+        <v>99</v>
+      </c>
       <c r="J21" s="47">
         <v>99</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="K21" s="53">
+        <v>99</v>
+      </c>
+      <c r="L21" s="53">
+        <v>99</v>
+      </c>
+      <c r="M21" s="53">
+        <v>99</v>
+      </c>
       <c r="N21" s="47">
         <v>1</v>
       </c>
@@ -6531,7 +6798,9 @@
       <c r="BN21" s="47">
         <v>0</v>
       </c>
-      <c r="BO21" s="47"/>
+      <c r="BO21" s="47">
+        <v>0</v>
+      </c>
       <c r="BP21" s="47"/>
       <c r="BQ21" s="47"/>
     </row>
@@ -6543,11 +6812,11 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>187.48913043478262</v>
+        <v>402.70652173913049</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>18.045081967213115</v>
+        <v>18.784188034188034</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
@@ -6555,16 +6824,26 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>429.5</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+        <v>924.5</v>
+      </c>
+      <c r="H22" s="53">
+        <v>99</v>
+      </c>
+      <c r="I22" s="53">
+        <v>99</v>
+      </c>
       <c r="J22" s="47">
         <v>99</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="K22" s="53">
+        <v>99</v>
+      </c>
+      <c r="L22" s="53">
+        <v>99</v>
+      </c>
+      <c r="M22" s="53">
+        <v>99</v>
+      </c>
       <c r="N22" s="47">
         <v>1</v>
       </c>
@@ -6722,7 +7001,9 @@
       <c r="BN22" s="47">
         <v>0.75</v>
       </c>
-      <c r="BO22" s="47"/>
+      <c r="BO22" s="47">
+        <v>0</v>
+      </c>
       <c r="BP22" s="47"/>
       <c r="BQ22" s="47"/>
     </row>
@@ -6734,11 +7015,11 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>182.14130434782612</v>
+        <v>397.35869565217394</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>11.032786885245905</v>
+        <v>11.504273504273506</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
@@ -6746,16 +7027,26 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>418.92500000000001</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+        <v>913.92499999999995</v>
+      </c>
+      <c r="H23" s="53">
+        <v>99</v>
+      </c>
+      <c r="I23" s="53">
+        <v>99</v>
+      </c>
       <c r="J23" s="47">
         <v>99</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="K23" s="53">
+        <v>99</v>
+      </c>
+      <c r="L23" s="53">
+        <v>99</v>
+      </c>
+      <c r="M23" s="53">
+        <v>99</v>
+      </c>
       <c r="N23" s="47">
         <v>1</v>
       </c>
@@ -6913,7 +7204,9 @@
       <c r="BN23" s="47">
         <v>0</v>
       </c>
-      <c r="BO23" s="47"/>
+      <c r="BO23" s="47">
+        <v>0</v>
+      </c>
       <c r="BP23" s="47"/>
       <c r="BQ23" s="47"/>
     </row>
@@ -6925,11 +7218,11 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>182.96739130434784</v>
+        <v>398.18478260869563</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>13.368852459016395</v>
+        <v>13.940170940170942</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
@@ -6937,16 +7230,26 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>420.82500000000005</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+        <v>915.82499999999993</v>
+      </c>
+      <c r="H24" s="53">
+        <v>99</v>
+      </c>
+      <c r="I24" s="53">
+        <v>99</v>
+      </c>
       <c r="J24" s="47">
         <v>99</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
+      <c r="K24" s="53">
+        <v>99</v>
+      </c>
+      <c r="L24" s="53">
+        <v>99</v>
+      </c>
+      <c r="M24" s="53">
+        <v>99</v>
+      </c>
       <c r="N24" s="47">
         <v>0</v>
       </c>
@@ -7104,7 +7407,9 @@
       <c r="BN24" s="47">
         <v>0</v>
       </c>
-      <c r="BO24" s="47"/>
+      <c r="BO24" s="47">
+        <v>0</v>
+      </c>
       <c r="BP24" s="47"/>
       <c r="BQ24" s="47"/>
     </row>
@@ -7116,11 +7421,11 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>184.26902173913044</v>
+        <v>399.48641304347825</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>13.087090163934427</v>
+        <v>13.643696581196583</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
@@ -7128,16 +7433,26 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>423.67500000000001</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+        <v>918.67499999999995</v>
+      </c>
+      <c r="H25" s="53">
+        <v>99</v>
+      </c>
+      <c r="I25" s="53">
+        <v>99</v>
+      </c>
       <c r="J25" s="47">
         <v>99</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="K25" s="53">
+        <v>99</v>
+      </c>
+      <c r="L25" s="53">
+        <v>99</v>
+      </c>
+      <c r="M25" s="53">
+        <v>99</v>
+      </c>
       <c r="N25" s="47">
         <v>1</v>
       </c>
@@ -7295,7 +7610,9 @@
       <c r="BN25" s="47">
         <v>0.125</v>
       </c>
-      <c r="BO25" s="47"/>
+      <c r="BO25" s="47">
+        <v>0</v>
+      </c>
       <c r="BP25" s="47"/>
       <c r="BQ25" s="47"/>
     </row>
@@ -7307,11 +7624,11 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>182.44565217391306</v>
+        <v>397.66304347826087</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>11.229508196721312</v>
+        <v>11.70940170940171</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
@@ -7319,16 +7636,26 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>419.625</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+        <v>914.625</v>
+      </c>
+      <c r="H26" s="53">
+        <v>99</v>
+      </c>
+      <c r="I26" s="53">
+        <v>99</v>
+      </c>
       <c r="J26" s="47">
         <v>99</v>
       </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
+      <c r="K26" s="53">
+        <v>99</v>
+      </c>
+      <c r="L26" s="53">
+        <v>99</v>
+      </c>
+      <c r="M26" s="53">
+        <v>99</v>
+      </c>
       <c r="N26" s="47">
         <v>1</v>
       </c>
@@ -7486,7 +7813,9 @@
       <c r="BN26" s="47">
         <v>0</v>
       </c>
-      <c r="BO26" s="47"/>
+      <c r="BO26" s="47">
+        <v>0</v>
+      </c>
       <c r="BP26" s="47"/>
       <c r="BQ26" s="47"/>
     </row>
@@ -7498,11 +7827,11 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>182.6521739130435</v>
+        <v>396.86956521739125</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>11.754098360655739</v>
+        <v>11.256410256410257</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -7510,16 +7839,26 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>420.1</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+        <v>915.09999999999991</v>
+      </c>
+      <c r="H27" s="53">
+        <v>99</v>
+      </c>
+      <c r="I27" s="53">
+        <v>99</v>
+      </c>
       <c r="J27" s="47">
         <v>99</v>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="K27" s="53">
+        <v>99</v>
+      </c>
+      <c r="L27" s="53">
+        <v>99</v>
+      </c>
+      <c r="M27" s="53">
+        <v>99</v>
+      </c>
       <c r="N27" s="47">
         <v>1</v>
       </c>
@@ -7677,7 +8016,9 @@
       <c r="BN27" s="47">
         <v>0</v>
       </c>
-      <c r="BO27" s="47"/>
+      <c r="BO27" s="47">
+        <v>-1</v>
+      </c>
       <c r="BP27" s="47"/>
       <c r="BQ27" s="47"/>
     </row>
@@ -7689,11 +8030,11 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>183.76086956521738</v>
+        <v>398.97826086956519</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>12.823770491803277</v>
+        <v>13.37179487179487</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
@@ -7701,16 +8042,26 @@
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>422.65</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+        <v>917.65</v>
+      </c>
+      <c r="H28" s="53">
+        <v>99</v>
+      </c>
+      <c r="I28" s="53">
+        <v>99</v>
+      </c>
       <c r="J28" s="47">
         <v>99</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="K28" s="53">
+        <v>99</v>
+      </c>
+      <c r="L28" s="53">
+        <v>99</v>
+      </c>
+      <c r="M28" s="53">
+        <v>99</v>
+      </c>
       <c r="N28" s="47">
         <v>1</v>
       </c>
@@ -7868,7 +8219,9 @@
       <c r="BN28" s="47">
         <v>0</v>
       </c>
-      <c r="BO28" s="47"/>
+      <c r="BO28" s="47">
+        <v>0</v>
+      </c>
       <c r="BP28" s="47"/>
       <c r="BQ28" s="47"/>
     </row>
@@ -7878,7 +8231,7 @@
       <c r="C29" s="48"/>
       <c r="D29" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="3"/>
@@ -7890,16 +8243,26 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H29" s="53">
+        <v>99</v>
+      </c>
+      <c r="I29" s="53">
+        <v>99</v>
+      </c>
       <c r="J29" s="47">
         <v>99</v>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="K29" s="53">
+        <v>99</v>
+      </c>
+      <c r="L29" s="53">
+        <v>99</v>
+      </c>
+      <c r="M29" s="53">
+        <v>99</v>
+      </c>
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
       <c r="P29" s="43"/>
@@ -7989,7 +8352,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="3"/>
@@ -8001,16 +8364,26 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H30" s="53">
+        <v>99</v>
+      </c>
+      <c r="I30" s="53">
+        <v>99</v>
+      </c>
       <c r="J30" s="47">
         <v>99</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
+      <c r="K30" s="53">
+        <v>99</v>
+      </c>
+      <c r="L30" s="53">
+        <v>99</v>
+      </c>
+      <c r="M30" s="53">
+        <v>99</v>
+      </c>
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
       <c r="P30" s="43"/>
@@ -8100,7 +8473,7 @@
       <c r="C31" s="48"/>
       <c r="D31" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="3"/>
@@ -8112,16 +8485,26 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H31" s="53">
+        <v>99</v>
+      </c>
+      <c r="I31" s="53">
+        <v>99</v>
+      </c>
       <c r="J31" s="47">
         <v>99</v>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
+      <c r="K31" s="53">
+        <v>99</v>
+      </c>
+      <c r="L31" s="53">
+        <v>99</v>
+      </c>
+      <c r="M31" s="53">
+        <v>99</v>
+      </c>
       <c r="N31" s="47"/>
       <c r="O31" s="47"/>
       <c r="P31" s="43"/>
@@ -8211,7 +8594,7 @@
       <c r="C32" s="48"/>
       <c r="D32" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="3"/>
@@ -8223,16 +8606,26 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H32" s="53">
+        <v>99</v>
+      </c>
+      <c r="I32" s="53">
+        <v>99</v>
+      </c>
       <c r="J32" s="47">
         <v>99</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
+      <c r="K32" s="53">
+        <v>99</v>
+      </c>
+      <c r="L32" s="53">
+        <v>99</v>
+      </c>
+      <c r="M32" s="53">
+        <v>99</v>
+      </c>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="43"/>
@@ -8322,7 +8715,7 @@
       <c r="C33" s="48"/>
       <c r="D33" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="3"/>
@@ -8334,16 +8727,26 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H33" s="53">
+        <v>99</v>
+      </c>
+      <c r="I33" s="53">
+        <v>99</v>
+      </c>
       <c r="J33" s="47">
         <v>99</v>
       </c>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
+      <c r="K33" s="53">
+        <v>99</v>
+      </c>
+      <c r="L33" s="53">
+        <v>99</v>
+      </c>
+      <c r="M33" s="53">
+        <v>99</v>
+      </c>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
       <c r="P33" s="43"/>
@@ -8433,7 +8836,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="3"/>
@@ -8445,16 +8848,26 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H34" s="53">
+        <v>99</v>
+      </c>
+      <c r="I34" s="53">
+        <v>99</v>
+      </c>
       <c r="J34" s="47">
         <v>99</v>
       </c>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+      <c r="K34" s="53">
+        <v>99</v>
+      </c>
+      <c r="L34" s="53">
+        <v>99</v>
+      </c>
+      <c r="M34" s="53">
+        <v>99</v>
+      </c>
       <c r="N34" s="47"/>
       <c r="O34" s="47"/>
       <c r="P34" s="43"/>
@@ -8544,7 +8957,7 @@
       <c r="C35" s="24"/>
       <c r="D35" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="3"/>
@@ -8556,16 +8969,26 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H35" s="53">
+        <v>99</v>
+      </c>
+      <c r="I35" s="53">
+        <v>99</v>
+      </c>
       <c r="J35" s="47">
         <v>99</v>
       </c>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
+      <c r="K35" s="53">
+        <v>99</v>
+      </c>
+      <c r="L35" s="53">
+        <v>99</v>
+      </c>
+      <c r="M35" s="53">
+        <v>99</v>
+      </c>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
       <c r="P35" s="43"/>
@@ -8655,7 +9078,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="3"/>
@@ -8667,16 +9090,26 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H36" s="53">
+        <v>99</v>
+      </c>
+      <c r="I36" s="53">
+        <v>99</v>
+      </c>
       <c r="J36" s="47">
         <v>99</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
+      <c r="K36" s="53">
+        <v>99</v>
+      </c>
+      <c r="L36" s="53">
+        <v>99</v>
+      </c>
+      <c r="M36" s="53">
+        <v>99</v>
+      </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
       <c r="P36" s="43"/>
@@ -8766,7 +9199,7 @@
       <c r="C37" s="29"/>
       <c r="D37" s="9">
         <f t="shared" si="2"/>
-        <v>172.17391304347825</v>
+        <v>387.39130434782612</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="3"/>
@@ -8778,16 +9211,26 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
+        <v>891</v>
+      </c>
+      <c r="H37" s="53">
+        <v>99</v>
+      </c>
+      <c r="I37" s="53">
+        <v>99</v>
+      </c>
       <c r="J37" s="47">
         <v>99</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="K37" s="53">
+        <v>99</v>
+      </c>
+      <c r="L37" s="53">
+        <v>99</v>
+      </c>
+      <c r="M37" s="53">
+        <v>99</v>
+      </c>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
       <c r="P37" s="43"/>
@@ -8881,11 +9324,11 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -9080,29 +9523,29 @@
     </row>
     <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
-      <c r="H39" s="1" t="e">
+      <c r="H39" s="1">
         <f>AVERAGE(H9:H35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="1" t="e">
+        <v>99</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" ref="I39:BI39" si="6">AVERAGE(I9:I35)</f>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="K39" s="1" t="e">
+      <c r="K39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="1" t="e">
+        <v>99</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="1" t="e">
+        <v>99</v>
+      </c>
+      <c r="M39" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
@@ -9316,9 +9759,9 @@
         <f t="shared" si="7"/>
         <v>6.5789473684210523E-2</v>
       </c>
-      <c r="BO39" s="1" t="e">
+      <c r="BO39" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.3</v>
       </c>
       <c r="BP39" s="1" t="e">
         <f t="shared" si="7"/>
@@ -9332,15 +9775,15 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>428.375</v>
+        <v>923.375</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" ref="I41:BI41" si="9">I9*I$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="9"/>
@@ -9348,15 +9791,15 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="9"/>
@@ -9586,15 +10029,15 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>425</v>
+        <v>920</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="11"/>
@@ -9602,15 +10045,15 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="11"/>
@@ -9826,7 +10269,7 @@
       </c>
       <c r="BO42" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP42" s="1">
         <f t="shared" si="12"/>
@@ -9840,15 +10283,15 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>426.75</v>
+        <v>921.75</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="13"/>
@@ -9856,15 +10299,15 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="13"/>
@@ -10094,15 +10537,15 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>425.02499999999998</v>
+        <v>920.02499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="15"/>
@@ -10110,15 +10553,15 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="15"/>
@@ -10334,7 +10777,7 @@
       </c>
       <c r="BO44" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP44" s="1">
         <f t="shared" si="16"/>
@@ -10350,15 +10793,15 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>430</v>
+        <v>925</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="17"/>
@@ -10366,15 +10809,15 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="17"/>
@@ -10590,7 +11033,7 @@
       </c>
       <c r="BO45" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP45" s="1">
         <f t="shared" si="18"/>
@@ -10606,15 +11049,15 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>407.25</v>
+        <v>902.25</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="19"/>
@@ -10622,15 +11065,15 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="19"/>
@@ -10862,15 +11305,15 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>426.375</v>
+        <v>921.375</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="21"/>
@@ -10878,15 +11321,15 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="21"/>
@@ -11118,15 +11561,15 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>425.65</v>
+        <v>920.65</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="23"/>
@@ -11134,15 +11577,15 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="23"/>
@@ -11374,15 +11817,15 @@
       <c r="E49" s="1"/>
       <c r="G49" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:BH49" si="25">H17*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="25"/>
@@ -11390,15 +11833,15 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="25"/>
@@ -11630,15 +12073,15 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>425.15</v>
+        <v>920.15</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="27"/>
@@ -11646,15 +12089,15 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="27"/>
@@ -11870,7 +12313,7 @@
       </c>
       <c r="BO50" s="1">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP50" s="1">
         <f t="shared" si="28"/>
@@ -11886,15 +12329,15 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>423.15</v>
+        <v>918.15</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="29"/>
@@ -11902,15 +12345,15 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="29"/>
@@ -12126,7 +12569,7 @@
       </c>
       <c r="BO51" s="1">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP51" s="1">
         <f t="shared" si="30"/>
@@ -12142,15 +12585,15 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="8"/>
-        <v>406.25</v>
+        <v>901.25</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BH52" si="31">H20*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="31"/>
@@ -12158,15 +12601,15 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="31"/>
@@ -12398,15 +12841,15 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>422.375</v>
+        <v>917.375</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="33"/>
@@ -12414,15 +12857,15 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="33"/>
@@ -12654,15 +13097,15 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>429.5</v>
+        <v>924.5</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="35"/>
@@ -12670,15 +13113,15 @@
       </c>
       <c r="K54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="35"/>
@@ -12910,15 +13353,15 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>418.92500000000001</v>
+        <v>913.92499999999995</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="37"/>
@@ -12926,15 +13369,15 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="37"/>
@@ -13166,15 +13609,15 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>420.82500000000005</v>
+        <v>915.82499999999993</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="39"/>
@@ -13182,15 +13625,15 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="39"/>
@@ -13422,15 +13865,15 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>423.67500000000001</v>
+        <v>918.67499999999995</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="41"/>
@@ -13438,15 +13881,15 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="41"/>
@@ -13678,15 +14121,15 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>419.625</v>
+        <v>914.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="43"/>
@@ -13694,15 +14137,15 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="43"/>
@@ -13932,15 +14375,15 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>420.1</v>
+        <v>915.09999999999991</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="45"/>
@@ -13948,15 +14391,15 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" si="45"/>
@@ -14172,7 +14615,7 @@
       </c>
       <c r="BO59" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP59" s="1">
         <f t="shared" si="46"/>
@@ -14186,15 +14629,15 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>422.65</v>
+        <v>917.65</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="47"/>
@@ -14202,15 +14645,15 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="47"/>
@@ -14440,15 +14883,15 @@
     <row r="61" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G61" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" ref="H61:BH61" si="49">H29*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="49"/>
@@ -14456,15 +14899,15 @@
       </c>
       <c r="K61" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="49"/>
@@ -14694,15 +15137,15 @@
     <row r="62" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G62" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" ref="H62:BH62" si="51">H30*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="51"/>
@@ -14710,15 +15153,15 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="51"/>
@@ -14948,15 +15391,15 @@
     <row r="63" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" ref="H63:BH63" si="53">H31*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="53"/>
@@ -14964,15 +15407,15 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" si="53"/>
@@ -15202,15 +15645,15 @@
     <row r="64" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G64" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" ref="H64:BH64" si="55">H32*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" si="55"/>
@@ -15218,15 +15661,15 @@
       </c>
       <c r="K64" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="55"/>
@@ -15458,15 +15901,15 @@
       <c r="E65" s="1"/>
       <c r="G65" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ref="H65:BH65" si="57">H33*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" si="57"/>
@@ -15474,15 +15917,15 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" si="57"/>
@@ -15714,15 +16157,15 @@
       <c r="E66" s="1"/>
       <c r="G66" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ref="H66:BH66" si="59">H34*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" si="59"/>
@@ -15730,15 +16173,15 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="59"/>
@@ -15970,15 +16413,15 @@
       <c r="E67" s="1"/>
       <c r="G67" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:BH67" si="61">H35*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" si="61"/>
@@ -15986,15 +16429,15 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="61"/>
@@ -16226,15 +16669,15 @@
       <c r="E68" s="1"/>
       <c r="G68" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" ref="H68:BH68" si="63">H36*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="63"/>
@@ -16242,15 +16685,15 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" si="63"/>
@@ -16482,15 +16925,15 @@
       <c r="E69" s="1"/>
       <c r="G69" s="1">
         <f t="shared" si="8"/>
-        <v>396</v>
+        <v>891</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" ref="H69:BH69" si="65">H37*H$5</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="65"/>
@@ -16498,15 +16941,15 @@
       </c>
       <c r="K69" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" si="65"/>
@@ -17506,7 +17949,7 @@
       </c>
       <c r="BO76" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP76" s="1">
         <f t="shared" si="73"/>
@@ -18018,7 +18461,7 @@
       </c>
       <c r="BO78" s="1">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP78" s="1">
         <f t="shared" si="77"/>
@@ -18274,7 +18717,7 @@
       </c>
       <c r="BO79" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP79" s="1">
         <f t="shared" si="79"/>
@@ -19550,7 +19993,7 @@
       </c>
       <c r="BO84" s="1">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP84" s="1">
         <f t="shared" si="89"/>
@@ -19804,7 +20247,7 @@
       </c>
       <c r="BO85" s="1">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP85" s="1">
         <f t="shared" si="91"/>
@@ -21836,7 +22279,7 @@
       </c>
       <c r="BO93" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BP93" s="1">
         <f t="shared" si="107"/>
@@ -24390,15 +24833,15 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1">
         <f t="shared" si="128"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="1">
         <f t="shared" si="128"/>
@@ -24406,15 +24849,15 @@
       </c>
       <c r="K104" s="1">
         <f t="shared" si="128"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" si="128"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="1">
         <f t="shared" si="128"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" s="1">
         <f t="shared" si="128"/>
@@ -24630,7 +25073,7 @@
       </c>
       <c r="BO104" s="1">
         <f t="shared" si="129"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BP104" s="1">
         <f t="shared" si="129"/>
@@ -24740,67 +25183,132 @@
     <mergeCell ref="W8:AA8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
-    <cfRule type="cellIs" dxfId="232" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="309" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="295" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="310" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9 BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37">
-    <cfRule type="cellIs" dxfId="230" priority="291" operator="equal">
+  <conditionalFormatting sqref="BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37 H9:P9">
+    <cfRule type="cellIs" dxfId="245" priority="306" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="292" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="307" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="293" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="308" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="227" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="294" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="280" operator="between">
+    <cfRule type="cellIs" dxfId="241" priority="295" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="281" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="296" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="224" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="288" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="274" operator="between">
+    <cfRule type="cellIs" dxfId="238" priority="289" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="275" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="290" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="cellIs" dxfId="221" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="235" priority="277" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="263" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="278" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:P12 H23:P38 BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37">
+  <conditionalFormatting sqref="BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37 H10:P12 H23:P38">
+    <cfRule type="cellIs" dxfId="233" priority="264" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="265" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="266" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="230" priority="261" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="262" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="263" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="227" priority="258" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="259" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="260" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+    <cfRule type="cellIs" dxfId="224" priority="255" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="256" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="257" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
+    <cfRule type="cellIs" dxfId="221" priority="252" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="253" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="254" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX38">
     <cfRule type="cellIs" dxfId="218" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24813,7 +25321,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
+  <conditionalFormatting sqref="V10:V12 V23:V37">
     <cfRule type="cellIs" dxfId="215" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24826,7 +25334,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
+  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
     <cfRule type="cellIs" dxfId="212" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24839,7 +25347,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
     <cfRule type="cellIs" dxfId="209" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24852,72 +25360,72 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
-    <cfRule type="cellIs" dxfId="206" priority="237" operator="equal">
+  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+    <cfRule type="cellIs" dxfId="206" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="238" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="232" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="239" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="233" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX38">
-    <cfRule type="cellIs" dxfId="203" priority="234" operator="equal">
+  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+    <cfRule type="cellIs" dxfId="203" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="235" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="229" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="230" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12 V23:V37">
-    <cfRule type="cellIs" dxfId="200" priority="231" operator="equal">
+  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+    <cfRule type="cellIs" dxfId="200" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="232" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="226" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="233" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="227" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
-    <cfRule type="cellIs" dxfId="197" priority="228" operator="equal">
+  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
+    <cfRule type="cellIs" dxfId="197" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="229" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="223" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="224" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
-    <cfRule type="cellIs" dxfId="194" priority="225" operator="equal">
+  <conditionalFormatting sqref="AZ33:BA37">
+    <cfRule type="cellIs" dxfId="194" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="226" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="220" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="221" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+  <conditionalFormatting sqref="AV9">
     <cfRule type="cellIs" dxfId="191" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24930,7 +25438,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
     <cfRule type="cellIs" dxfId="188" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24943,7 +25451,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+  <conditionalFormatting sqref="BC9">
     <cfRule type="cellIs" dxfId="185" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24956,7 +25464,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
+  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
     <cfRule type="cellIs" dxfId="182" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24969,33 +25477,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ33:BA37">
-    <cfRule type="cellIs" dxfId="179" priority="204" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="205" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="206" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV9">
-    <cfRule type="cellIs" dxfId="176" priority="201" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="202" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="203" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
+  <conditionalFormatting sqref="H10:M12 H23:M37">
     <cfRule type="cellIs" dxfId="173" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25008,150 +25490,150 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9">
-    <cfRule type="cellIs" dxfId="170" priority="195" operator="equal">
+  <conditionalFormatting sqref="BM13:BQ22 AZ13:BC22 L19:P22 L13:P17 H13:M22">
+    <cfRule type="cellIs" dxfId="170" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="196" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="197" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
-    <cfRule type="cellIs" dxfId="167" priority="192" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="193" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="194" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="164" priority="189" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="190" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="191" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12 K23:K32">
-    <cfRule type="cellIs" dxfId="161" priority="186" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="187" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="188" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12 J23:J37">
-    <cfRule type="cellIs" dxfId="158" priority="183" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="184" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="185" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:P17 BM13:BQ22 AZ13:BC22 H19:P22 H18:M18">
-    <cfRule type="cellIs" dxfId="155" priority="178" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="179" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="180" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN13:AN22">
-    <cfRule type="cellIs" dxfId="152" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="191" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="192" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW13:AW22">
-    <cfRule type="cellIs" dxfId="149" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="173" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17 V19:V22">
-    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="167" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="182" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="183" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG22">
-    <cfRule type="cellIs" dxfId="143" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ13:BA22">
-    <cfRule type="cellIs" dxfId="140" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI22">
+    <cfRule type="cellIs" dxfId="152" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="170" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="171" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AL22">
+    <cfRule type="cellIs" dxfId="149" priority="166" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="167" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="168" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13:AQ22">
+    <cfRule type="cellIs" dxfId="146" priority="163" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="164" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="165" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB13:BB22">
+    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="161" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="162" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV13:AV22">
+    <cfRule type="cellIs" dxfId="140" priority="157" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="158" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="159" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC13:BC17">
     <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25164,20 +25646,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AL22">
-    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="152" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="153" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13:AQ22">
+  <conditionalFormatting sqref="H13:M22">
     <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25190,7 +25659,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB13:BB22">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="128" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25203,7 +25672,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV13:AV22">
+  <conditionalFormatting sqref="I10:I12 I23:I38">
     <cfRule type="cellIs" dxfId="125" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25216,7 +25685,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13:BC17">
+  <conditionalFormatting sqref="I13:I22">
     <cfRule type="cellIs" dxfId="122" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25229,7 +25698,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25242,7 +25711,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J22">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25255,7 +25724,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25268,7 +25737,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I23:I38">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25281,7 +25750,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
+  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
     <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25294,7 +25763,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
     <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25307,7 +25776,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="Q9">
     <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25320,7 +25789,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
     <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25333,7 +25802,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
     <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25346,7 +25815,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
+  <conditionalFormatting sqref="R9">
     <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25359,7 +25828,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
+  <conditionalFormatting sqref="R23:R38 R10:R12">
     <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25372,7 +25841,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="R13:R17 R19:R22">
     <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25385,7 +25854,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
+  <conditionalFormatting sqref="BF38">
     <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25398,72 +25867,72 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
-    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
+  <conditionalFormatting sqref="BK9">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R38 R10:R12">
-    <cfRule type="cellIs" dxfId="74" priority="91" operator="equal">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R17 R19:R22">
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="equal">
+  <conditionalFormatting sqref="BK13:BK22">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF38">
-    <cfRule type="cellIs" dxfId="68" priority="85" operator="equal">
+  <conditionalFormatting sqref="BK13:BK22">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9">
+  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25476,7 +25945,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25489,7 +25958,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25502,7 +25971,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25515,7 +25984,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25528,7 +25997,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
+  <conditionalFormatting sqref="N18:P18 S18:V18">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25541,7 +26010,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25554,7 +26023,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25567,7 +26036,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25580,7 +26049,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="AH9:AH37">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25593,7 +26062,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:P18 S18:V18">
+  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25606,7 +26075,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="AH13:AH22">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25619,7 +26088,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="BF9">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25632,7 +26101,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25645,7 +26114,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH37">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25658,7 +26127,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25671,7 +26140,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AH22">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25684,7 +26153,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25697,7 +26166,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
+  <conditionalFormatting sqref="K10:K12 K23:K37">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25710,7 +26179,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
+  <conditionalFormatting sqref="K10:K12 K23:K37">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25723,7 +26192,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF22">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25736,7 +26205,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF22">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Nom</t>
   </si>
@@ -1099,7 +1099,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="257">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3135,11 +3198,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="E4" activePane="bottomRight"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="P8" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9:M37"/>
+      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="1" sqref="A21:XFD21 A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8:AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3440,9 @@
         <v>70</v>
       </c>
       <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
+      <c r="AY2" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="AZ2" s="83"/>
       <c r="BA2" s="86"/>
       <c r="BB2" s="55"/>
@@ -3417,11 +3482,11 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 117)</v>
+        <v>Note/20 ( sur 203)</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/117</v>
+        <v>Note/203</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>CONCATENATE("Note/",G5)</f>
@@ -3816,7 +3881,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="4">
         <f>SUM(H6:BL6)</f>
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="H6" s="15">
         <v>0</v>
@@ -3849,10 +3914,10 @@
         <v>2</v>
       </c>
       <c r="R6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" s="12">
         <v>2</v>
@@ -3861,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W6" s="12">
         <v>1</v>
@@ -3885,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="AD6" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="12">
         <v>2</v>
@@ -3918,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="AO6" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="13">
         <v>2</v>
@@ -3927,28 +3992,28 @@
         <v>0</v>
       </c>
       <c r="AR6" s="12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS6" s="12">
+        <v>30</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>25</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="12">
         <v>10</v>
-      </c>
-      <c r="AT6" s="12">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="12">
-        <v>8</v>
-      </c>
-      <c r="AV6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="12">
-        <v>0</v>
       </c>
       <c r="AZ6" s="13">
         <v>0</v>
@@ -3978,16 +4043,16 @@
         <v>4</v>
       </c>
       <c r="BI6" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ6" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK6" s="12">
         <v>0</v>
       </c>
       <c r="BL6" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM6" s="13">
         <v>0.5</v>
@@ -3996,7 +4061,7 @@
         <v>0.5</v>
       </c>
       <c r="BO6" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BP6" s="14">
         <v>0.5</v>
@@ -4143,7 +4208,7 @@
       <c r="M8" s="91"/>
       <c r="N8" s="54">
         <f>SUM(N6:S6)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" s="54"/>
       <c r="P8" s="54"/>
@@ -4152,7 +4217,7 @@
       <c r="S8" s="54"/>
       <c r="T8" s="54">
         <f>SUM(T6:V6)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U8" s="54"/>
       <c r="V8" s="54"/>
@@ -4166,7 +4231,7 @@
       <c r="AA8" s="54"/>
       <c r="AB8" s="54">
         <f>SUM(AB6:AD6)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="54"/>
       <c r="AD8" s="55"/>
@@ -4185,7 +4250,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="71">
         <f>SUM(AI6:AO6)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ8" s="54"/>
       <c r="AK8" s="54"/>
@@ -4195,7 +4260,7 @@
       <c r="AO8" s="72"/>
       <c r="AP8" s="82">
         <f>SUM(AP6:AU6)</f>
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="AQ8" s="56"/>
       <c r="AR8" s="56"/>
@@ -4226,14 +4291,14 @@
       </c>
       <c r="BI8" s="54">
         <f>SUM(BI6:BL6)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BJ8" s="54"/>
       <c r="BK8" s="54"/>
       <c r="BL8" s="72"/>
       <c r="BM8" s="71">
         <f>SUM(BM6:BP6)</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BN8" s="54"/>
       <c r="BO8" s="54"/>
@@ -4251,19 +4316,19 @@
       <c r="C9" s="48"/>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D38" si="2">G9/$G$5*20+SUM(BM41:BQ41)</f>
-        <v>401.46739130434781</v>
+        <v>358.42391304347825</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E38" si="3">F9/$G$6*20+SUM(BM75:BQ75)</f>
-        <v>18.376068376068375</v>
+        <v>18.054187192118228</v>
       </c>
       <c r="F9" s="5">
         <f>G75</f>
-        <v>107.5</v>
+        <v>183.25</v>
       </c>
       <c r="G9" s="5">
         <f>G41</f>
-        <v>923.375</v>
+        <v>824.375</v>
       </c>
       <c r="H9" s="53">
         <v>99</v>
@@ -4394,8 +4459,8 @@
       <c r="AX9" s="47">
         <v>99</v>
       </c>
-      <c r="AY9" s="47">
-        <v>99</v>
+      <c r="AY9" s="53">
+        <v>0</v>
       </c>
       <c r="AZ9" s="47">
         <v>99</v>
@@ -4434,9 +4499,7 @@
       <c r="BL9" s="47">
         <v>0</v>
       </c>
-      <c r="BM9" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM9" s="47"/>
       <c r="BN9" s="47">
         <v>0</v>
       </c>
@@ -4454,19 +4517,19 @@
       <c r="C10" s="48"/>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
-        <v>399.125</v>
+        <v>356.06521739130437</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="3"/>
-        <v>13.522435897435898</v>
+        <v>12.733990147783249</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F38" si="4">G76</f>
-        <v>84.224999999999994</v>
+        <v>134.32499999999999</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" ref="G10:G38" si="5">G42</f>
-        <v>920</v>
+        <v>821.25</v>
       </c>
       <c r="H10" s="53">
         <v>99</v>
@@ -4597,8 +4660,8 @@
       <c r="AX10" s="47">
         <v>99</v>
       </c>
-      <c r="AY10" s="47">
-        <v>99</v>
+      <c r="AY10" s="53">
+        <v>0.25</v>
       </c>
       <c r="AZ10" s="47">
         <v>99</v>
@@ -4637,9 +4700,7 @@
       <c r="BL10" s="47">
         <v>1</v>
       </c>
-      <c r="BM10" s="47">
-        <v>0.25</v>
-      </c>
+      <c r="BM10" s="47"/>
       <c r="BN10" s="47">
         <v>0</v>
       </c>
@@ -4657,19 +4718,19 @@
       <c r="C11" s="48"/>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>400.76086956521743</v>
+        <v>357.71739130434781</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="3"/>
-        <v>15.512820512820513</v>
+        <v>14.322660098522169</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>90.75</v>
+        <v>145.375</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>921.75</v>
+        <v>822.75</v>
       </c>
       <c r="H11" s="53">
         <v>99</v>
@@ -4800,8 +4861,8 @@
       <c r="AX11" s="47">
         <v>99</v>
       </c>
-      <c r="AY11" s="47">
-        <v>99</v>
+      <c r="AY11" s="53">
+        <v>0</v>
       </c>
       <c r="AZ11" s="47">
         <v>99</v>
@@ -4840,9 +4901,7 @@
       <c r="BL11" s="47">
         <v>1</v>
       </c>
-      <c r="BM11" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM11" s="47"/>
       <c r="BN11" s="47">
         <v>0</v>
       </c>
@@ -4860,19 +4919,19 @@
       <c r="C12" s="48"/>
       <c r="D12" s="9">
         <f t="shared" si="2"/>
-        <v>399.01086956521738</v>
+        <v>355.96739130434776</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="3"/>
-        <v>13.371794871794872</v>
+        <v>12.273399014778326</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>84.075000000000003</v>
+        <v>129.65</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>920.02499999999998</v>
+        <v>821.02499999999998</v>
       </c>
       <c r="H12" s="53">
         <v>99</v>
@@ -5003,8 +5062,8 @@
       <c r="AX12" s="47">
         <v>99</v>
       </c>
-      <c r="AY12" s="47">
-        <v>99</v>
+      <c r="AY12" s="53">
+        <v>0</v>
       </c>
       <c r="AZ12" s="47">
         <v>99</v>
@@ -5043,9 +5102,7 @@
       <c r="BL12" s="47">
         <v>1</v>
       </c>
-      <c r="BM12" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM12" s="47"/>
       <c r="BN12" s="47">
         <v>0</v>
       </c>
@@ -5063,19 +5120,19 @@
       <c r="C13" s="48"/>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>401.73641304347825</v>
+        <v>358.62771739130437</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>17.383012820512821</v>
+        <v>17.764470443349754</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>104.25</v>
+        <v>184.75</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>925</v>
+        <v>827</v>
       </c>
       <c r="H13" s="53">
         <v>99</v>
@@ -5206,8 +5263,8 @@
       <c r="AX13" s="47">
         <v>99</v>
       </c>
-      <c r="AY13" s="47">
-        <v>99</v>
+      <c r="AY13" s="53">
+        <v>1</v>
       </c>
       <c r="AZ13" s="47">
         <v>99</v>
@@ -5246,9 +5303,7 @@
       <c r="BL13" s="47">
         <v>1</v>
       </c>
-      <c r="BM13" s="47">
-        <v>1</v>
-      </c>
+      <c r="BM13" s="47"/>
       <c r="BN13" s="47">
         <v>0.125</v>
       </c>
@@ -5266,19 +5321,19 @@
       <c r="C14" s="48"/>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>392.28260869565219</v>
+        <v>349.23913043478257</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="3"/>
-        <v>4.9572649572649574</v>
+        <v>3.8423645320197042</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>902.25</v>
+        <v>803.25</v>
       </c>
       <c r="H14" s="53">
         <v>99</v>
@@ -5409,8 +5464,8 @@
       <c r="AX14" s="47">
         <v>99</v>
       </c>
-      <c r="AY14" s="47">
-        <v>99</v>
+      <c r="AY14" s="53">
+        <v>0</v>
       </c>
       <c r="AZ14" s="47">
         <v>99</v>
@@ -5449,9 +5504,7 @@
       <c r="BL14" s="47">
         <v>0</v>
       </c>
-      <c r="BM14" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM14" s="47"/>
       <c r="BN14" s="47">
         <v>0</v>
       </c>
@@ -5469,19 +5522,19 @@
       <c r="C15" s="48"/>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>401.2228260869565</v>
+        <v>358.11413043478257</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="3"/>
-        <v>17.248931623931625</v>
+        <v>16.270320197044335</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>97.25</v>
+        <v>163.875</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>921.375</v>
+        <v>823.375</v>
       </c>
       <c r="H15" s="53">
         <v>99</v>
@@ -5612,8 +5665,8 @@
       <c r="AX15" s="47">
         <v>99</v>
       </c>
-      <c r="AY15" s="47">
-        <v>99</v>
+      <c r="AY15" s="53">
+        <v>1</v>
       </c>
       <c r="AZ15" s="47">
         <v>99</v>
@@ -5652,9 +5705,7 @@
       <c r="BL15" s="47">
         <v>1</v>
       </c>
-      <c r="BM15" s="47">
-        <v>1</v>
-      </c>
+      <c r="BM15" s="47"/>
       <c r="BN15" s="47">
         <v>0.25</v>
       </c>
@@ -5672,19 +5723,19 @@
       <c r="C16" s="48"/>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>400.28260869565213</v>
+        <v>357.23913043478262</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="3"/>
-        <v>14.820512820512821</v>
+        <v>12.687192118226601</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>86.7</v>
+        <v>128.77500000000001</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>920.65</v>
+        <v>821.65</v>
       </c>
       <c r="H16" s="53">
         <v>99</v>
@@ -5815,8 +5866,8 @@
       <c r="AX16" s="47">
         <v>99</v>
       </c>
-      <c r="AY16" s="47">
-        <v>99</v>
+      <c r="AY16" s="53">
+        <v>0</v>
       </c>
       <c r="AZ16" s="47">
         <v>99</v>
@@ -5855,9 +5906,7 @@
       <c r="BL16" s="47">
         <v>1</v>
       </c>
-      <c r="BM16" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM16" s="47"/>
       <c r="BN16" s="47">
         <v>0</v>
       </c>
@@ -5875,7 +5924,7 @@
       <c r="C17" s="48"/>
       <c r="D17" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="3"/>
@@ -5887,7 +5936,7 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H17" s="53">
         <v>99</v>
@@ -5960,9 +6009,7 @@
       <c r="AX17" s="47">
         <v>99</v>
       </c>
-      <c r="AY17" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY17" s="53"/>
       <c r="AZ17" s="47">
         <v>99</v>
       </c>
@@ -6000,19 +6047,19 @@
       <c r="C18" s="48"/>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>399.06521739130437</v>
+        <v>356.02173913043475</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>14.311965811965813</v>
+        <v>13.652709359605913</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>89.575000000000003</v>
+        <v>143.65</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>920.15</v>
+        <v>821.15</v>
       </c>
       <c r="H18" s="53">
         <v>99</v>
@@ -6143,8 +6190,8 @@
       <c r="AX18" s="47">
         <v>99</v>
       </c>
-      <c r="AY18" s="47">
-        <v>99</v>
+      <c r="AY18" s="53">
+        <v>0</v>
       </c>
       <c r="AZ18" s="47">
         <v>99</v>
@@ -6183,9 +6230,7 @@
       <c r="BL18" s="47">
         <v>0</v>
       </c>
-      <c r="BM18" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM18" s="47"/>
       <c r="BN18" s="47">
         <v>0</v>
       </c>
@@ -6203,19 +6248,19 @@
       <c r="C19" s="48"/>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>398.195652173913</v>
+        <v>355.1521739130435</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
-        <v>12.196581196581196</v>
+        <v>9.209359605911331</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>77.2</v>
+        <v>98.550000000000011</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="5"/>
-        <v>918.15</v>
+        <v>819.15</v>
       </c>
       <c r="H19" s="53">
         <v>99</v>
@@ -6346,8 +6391,8 @@
       <c r="AX19" s="47">
         <v>99</v>
       </c>
-      <c r="AY19" s="47">
-        <v>99</v>
+      <c r="AY19" s="53">
+        <v>0</v>
       </c>
       <c r="AZ19" s="47">
         <v>99</v>
@@ -6386,9 +6431,7 @@
       <c r="BL19" s="47">
         <v>1</v>
       </c>
-      <c r="BM19" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM19" s="47"/>
       <c r="BN19" s="47">
         <v>0</v>
       </c>
@@ -6406,19 +6449,19 @@
       <c r="C20" s="48"/>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>391.8478260869565</v>
+        <v>348.80434782608694</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
-        <v>4.1025641025641022</v>
+        <v>1.8719211822660098</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>901.25</v>
+        <v>802.25</v>
       </c>
       <c r="H20" s="53">
         <v>99</v>
@@ -6549,8 +6592,8 @@
       <c r="AX20" s="47">
         <v>99</v>
       </c>
-      <c r="AY20" s="47">
-        <v>99</v>
+      <c r="AY20" s="53">
+        <v>0</v>
       </c>
       <c r="AZ20" s="47">
         <v>99</v>
@@ -6589,9 +6632,7 @@
       <c r="BL20" s="47">
         <v>1</v>
       </c>
-      <c r="BM20" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM20" s="47"/>
       <c r="BN20" s="47">
         <v>0</v>
       </c>
@@ -6609,19 +6650,19 @@
       <c r="C21" s="48"/>
       <c r="D21" s="9">
         <f t="shared" si="2"/>
-        <v>398.85869565217388</v>
+        <v>355.81521739130437</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
-        <v>13.008547008547007</v>
+        <v>9.7487684729064039</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>76.099999999999994</v>
+        <v>98.95</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="5"/>
-        <v>917.375</v>
+        <v>818.375</v>
       </c>
       <c r="H21" s="53">
         <v>99</v>
@@ -6752,8 +6793,8 @@
       <c r="AX21" s="47">
         <v>99</v>
       </c>
-      <c r="AY21" s="47">
-        <v>99</v>
+      <c r="AY21" s="53">
+        <v>0</v>
       </c>
       <c r="AZ21" s="47">
         <v>99</v>
@@ -6792,9 +6833,7 @@
       <c r="BL21" s="47">
         <v>1</v>
       </c>
-      <c r="BM21" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM21" s="47"/>
       <c r="BN21" s="47">
         <v>0</v>
       </c>
@@ -6812,19 +6851,19 @@
       <c r="C22" s="48"/>
       <c r="D22" s="9">
         <f t="shared" si="2"/>
-        <v>402.70652173913049</v>
+        <v>359.61413043478257</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
-        <v>18.784188034188034</v>
+        <v>18.65086206896552</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>105.5</v>
+        <v>185.5</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>924.5</v>
+        <v>826.25</v>
       </c>
       <c r="H22" s="53">
         <v>99</v>
@@ -6955,8 +6994,8 @@
       <c r="AX22" s="47">
         <v>99</v>
       </c>
-      <c r="AY22" s="47">
-        <v>99</v>
+      <c r="AY22" s="53">
+        <v>0.75</v>
       </c>
       <c r="AZ22" s="47">
         <v>99</v>
@@ -6995,9 +7034,7 @@
       <c r="BL22" s="47">
         <v>1</v>
       </c>
-      <c r="BM22" s="47">
-        <v>0.75</v>
-      </c>
+      <c r="BM22" s="47"/>
       <c r="BN22" s="47">
         <v>0.75</v>
       </c>
@@ -7015,19 +7052,19 @@
       <c r="C23" s="48"/>
       <c r="D23" s="9">
         <f t="shared" si="2"/>
-        <v>397.35869565217394</v>
+        <v>354.31521739130432</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
-        <v>11.504273504273506</v>
+        <v>9.3866995073891637</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>67.300000000000011</v>
+        <v>95.275000000000006</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>913.92499999999995</v>
+        <v>814.92499999999995</v>
       </c>
       <c r="H23" s="53">
         <v>99</v>
@@ -7158,8 +7195,8 @@
       <c r="AX23" s="47">
         <v>99</v>
       </c>
-      <c r="AY23" s="47">
-        <v>99</v>
+      <c r="AY23" s="53">
+        <v>0</v>
       </c>
       <c r="AZ23" s="47">
         <v>99</v>
@@ -7198,9 +7235,7 @@
       <c r="BL23" s="47">
         <v>1</v>
       </c>
-      <c r="BM23" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM23" s="47"/>
       <c r="BN23" s="47">
         <v>0</v>
       </c>
@@ -7218,19 +7253,19 @@
       <c r="C24" s="48"/>
       <c r="D24" s="9">
         <f t="shared" si="2"/>
-        <v>398.18478260869563</v>
+        <v>355.14130434782606</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>13.940170940170942</v>
+        <v>12.699507389162562</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="4"/>
-        <v>81.550000000000011</v>
+        <v>128.9</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="5"/>
-        <v>915.82499999999993</v>
+        <v>816.82499999999993</v>
       </c>
       <c r="H24" s="53">
         <v>99</v>
@@ -7361,8 +7396,8 @@
       <c r="AX24" s="47">
         <v>99</v>
       </c>
-      <c r="AY24" s="47">
-        <v>99</v>
+      <c r="AY24" s="53">
+        <v>0</v>
       </c>
       <c r="AZ24" s="47">
         <v>99</v>
@@ -7401,9 +7436,7 @@
       <c r="BL24" s="47">
         <v>1</v>
       </c>
-      <c r="BM24" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM24" s="47"/>
       <c r="BN24" s="47">
         <v>0</v>
       </c>
@@ -7421,19 +7454,19 @@
       <c r="C25" s="48"/>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>399.48641304347825</v>
+        <v>356.44293478260869</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>13.643696581196583</v>
+        <v>11.744766009852217</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>79.45</v>
+        <v>118.575</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="5"/>
-        <v>918.67499999999995</v>
+        <v>819.67499999999995</v>
       </c>
       <c r="H25" s="53">
         <v>99</v>
@@ -7564,8 +7597,8 @@
       <c r="AX25" s="47">
         <v>99</v>
       </c>
-      <c r="AY25" s="47">
-        <v>99</v>
+      <c r="AY25" s="53">
+        <v>0</v>
       </c>
       <c r="AZ25" s="47">
         <v>99</v>
@@ -7604,9 +7637,7 @@
       <c r="BL25" s="47">
         <v>1</v>
       </c>
-      <c r="BM25" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM25" s="47"/>
       <c r="BN25" s="47">
         <v>0.125</v>
       </c>
@@ -7624,19 +7655,19 @@
       <c r="C26" s="48"/>
       <c r="D26" s="9">
         <f t="shared" si="2"/>
-        <v>397.66304347826087</v>
+        <v>354.61956521739131</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
-        <v>11.70940170940171</v>
+        <v>9.2610837438423648</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="4"/>
-        <v>68.5</v>
+        <v>94</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="5"/>
-        <v>914.625</v>
+        <v>815.625</v>
       </c>
       <c r="H26" s="53">
         <v>99</v>
@@ -7767,8 +7798,8 @@
       <c r="AX26" s="47">
         <v>99</v>
       </c>
-      <c r="AY26" s="47">
-        <v>99</v>
+      <c r="AY26" s="53">
+        <v>0</v>
       </c>
       <c r="AZ26" s="47">
         <v>99</v>
@@ -7807,9 +7838,7 @@
       <c r="BL26" s="47">
         <v>0</v>
       </c>
-      <c r="BM26" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM26" s="47"/>
       <c r="BN26" s="47">
         <v>0</v>
       </c>
@@ -7827,19 +7856,19 @@
       <c r="C27" s="48"/>
       <c r="D27" s="9">
         <f t="shared" si="2"/>
-        <v>396.86956521739125</v>
+        <v>353.82608695652169</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
-        <v>11.256410256410257</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
-        <v>71.7</v>
+        <v>106.575</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="5"/>
-        <v>915.09999999999991</v>
+        <v>816.09999999999991</v>
       </c>
       <c r="H27" s="53">
         <v>99</v>
@@ -7970,8 +7999,8 @@
       <c r="AX27" s="47">
         <v>99</v>
       </c>
-      <c r="AY27" s="47">
-        <v>99</v>
+      <c r="AY27" s="53">
+        <v>0</v>
       </c>
       <c r="AZ27" s="47">
         <v>99</v>
@@ -8010,9 +8039,7 @@
       <c r="BL27" s="47">
         <v>1</v>
       </c>
-      <c r="BM27" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM27" s="47"/>
       <c r="BN27" s="47">
         <v>0</v>
       </c>
@@ -8030,19 +8057,19 @@
       <c r="C28" s="48"/>
       <c r="D28" s="9">
         <f t="shared" si="2"/>
-        <v>398.97826086956519</v>
+        <v>355.93478260869568</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
-        <v>13.37179487179487</v>
+        <v>10.746305418719214</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="4"/>
-        <v>78.224999999999994</v>
+        <v>109.075</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="5"/>
-        <v>917.65</v>
+        <v>818.65</v>
       </c>
       <c r="H28" s="53">
         <v>99</v>
@@ -8173,8 +8200,8 @@
       <c r="AX28" s="47">
         <v>99</v>
       </c>
-      <c r="AY28" s="47">
-        <v>99</v>
+      <c r="AY28" s="53">
+        <v>0</v>
       </c>
       <c r="AZ28" s="47">
         <v>99</v>
@@ -8213,9 +8240,7 @@
       <c r="BL28" s="47">
         <v>1</v>
       </c>
-      <c r="BM28" s="47">
-        <v>0</v>
-      </c>
+      <c r="BM28" s="47"/>
       <c r="BN28" s="47">
         <v>0</v>
       </c>
@@ -8231,7 +8256,7 @@
       <c r="C29" s="48"/>
       <c r="D29" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="3"/>
@@ -8243,7 +8268,7 @@
       </c>
       <c r="G29" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H29" s="53">
         <v>99</v>
@@ -8316,9 +8341,7 @@
       <c r="AX29" s="47">
         <v>99</v>
       </c>
-      <c r="AY29" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY29" s="47"/>
       <c r="AZ29" s="47">
         <v>99</v>
       </c>
@@ -8352,7 +8375,7 @@
       <c r="C30" s="48"/>
       <c r="D30" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="3"/>
@@ -8364,7 +8387,7 @@
       </c>
       <c r="G30" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H30" s="53">
         <v>99</v>
@@ -8437,9 +8460,7 @@
       <c r="AX30" s="47">
         <v>99</v>
       </c>
-      <c r="AY30" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY30" s="47"/>
       <c r="AZ30" s="47">
         <v>99</v>
       </c>
@@ -8473,7 +8494,7 @@
       <c r="C31" s="48"/>
       <c r="D31" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="3"/>
@@ -8485,7 +8506,7 @@
       </c>
       <c r="G31" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H31" s="53">
         <v>99</v>
@@ -8558,9 +8579,7 @@
       <c r="AX31" s="47">
         <v>99</v>
       </c>
-      <c r="AY31" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY31" s="47"/>
       <c r="AZ31" s="47">
         <v>99</v>
       </c>
@@ -8594,7 +8613,7 @@
       <c r="C32" s="48"/>
       <c r="D32" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="3"/>
@@ -8606,7 +8625,7 @@
       </c>
       <c r="G32" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H32" s="53">
         <v>99</v>
@@ -8679,9 +8698,7 @@
       <c r="AX32" s="47">
         <v>99</v>
       </c>
-      <c r="AY32" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY32" s="47"/>
       <c r="AZ32" s="47">
         <v>99</v>
       </c>
@@ -8715,7 +8732,7 @@
       <c r="C33" s="48"/>
       <c r="D33" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="3"/>
@@ -8727,7 +8744,7 @@
       </c>
       <c r="G33" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H33" s="53">
         <v>99</v>
@@ -8800,9 +8817,7 @@
       <c r="AX33" s="47">
         <v>99</v>
       </c>
-      <c r="AY33" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY33" s="47"/>
       <c r="AZ33" s="47">
         <v>99</v>
       </c>
@@ -8836,7 +8851,7 @@
       <c r="C34" s="48"/>
       <c r="D34" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="3"/>
@@ -8848,7 +8863,7 @@
       </c>
       <c r="G34" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H34" s="53">
         <v>99</v>
@@ -8921,9 +8936,7 @@
       <c r="AX34" s="47">
         <v>99</v>
       </c>
-      <c r="AY34" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY34" s="47"/>
       <c r="AZ34" s="47">
         <v>99</v>
       </c>
@@ -8957,7 +8970,7 @@
       <c r="C35" s="24"/>
       <c r="D35" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="3"/>
@@ -8969,7 +8982,7 @@
       </c>
       <c r="G35" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H35" s="53">
         <v>99</v>
@@ -9042,9 +9055,7 @@
       <c r="AX35" s="47">
         <v>99</v>
       </c>
-      <c r="AY35" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY35" s="47"/>
       <c r="AZ35" s="47">
         <v>99</v>
       </c>
@@ -9078,7 +9089,7 @@
       <c r="C36" s="29"/>
       <c r="D36" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" si="3"/>
@@ -9090,7 +9101,7 @@
       </c>
       <c r="G36" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H36" s="53">
         <v>99</v>
@@ -9163,9 +9174,7 @@
       <c r="AX36" s="47">
         <v>99</v>
       </c>
-      <c r="AY36" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY36" s="47"/>
       <c r="AZ36" s="47">
         <v>99</v>
       </c>
@@ -9199,7 +9208,7 @@
       <c r="C37" s="29"/>
       <c r="D37" s="9">
         <f t="shared" si="2"/>
-        <v>387.39130434782612</v>
+        <v>344.3478260869565</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="3"/>
@@ -9211,7 +9220,7 @@
       </c>
       <c r="G37" s="5">
         <f t="shared" si="5"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H37" s="53">
         <v>99</v>
@@ -9284,9 +9293,7 @@
       <c r="AX37" s="47">
         <v>99</v>
       </c>
-      <c r="AY37" s="47">
-        <v>99</v>
-      </c>
+      <c r="AY37" s="47"/>
       <c r="AZ37" s="47">
         <v>99</v>
       </c>
@@ -9324,11 +9331,11 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="4"/>
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="5"/>
@@ -9697,7 +9704,7 @@
       </c>
       <c r="AY39" s="1">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="AZ39" s="1">
         <f t="shared" si="6"/>
@@ -9751,9 +9758,9 @@
         <f t="shared" si="7"/>
         <v>0.78947368421052633</v>
       </c>
-      <c r="BM39" s="1">
+      <c r="BM39" s="1" t="e">
         <f t="shared" si="7"/>
-        <v>0.15789473684210525</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="BN39" s="1">
         <f t="shared" si="7"/>
@@ -9775,7 +9782,7 @@
     <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <f t="shared" ref="G41:G70" si="8">SUM(H41:BL41)</f>
-        <v>923.375</v>
+        <v>824.375</v>
       </c>
       <c r="H41" s="1">
         <f>H9*H$5</f>
@@ -9951,7 +9958,7 @@
       </c>
       <c r="AY41" s="1">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="1">
         <f t="shared" si="9"/>
@@ -10029,7 +10036,7 @@
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <f t="shared" si="8"/>
-        <v>920</v>
+        <v>821.25</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:BH42" si="11">H10*H$5</f>
@@ -10205,7 +10212,7 @@
       </c>
       <c r="AY42" s="1">
         <f t="shared" si="11"/>
-        <v>99</v>
+        <v>0.25</v>
       </c>
       <c r="AZ42" s="1">
         <f t="shared" si="11"/>
@@ -10261,7 +10268,7 @@
       </c>
       <c r="BM42" s="1">
         <f t="shared" si="12"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BN42" s="1">
         <f t="shared" si="12"/>
@@ -10283,7 +10290,7 @@
     <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <f t="shared" si="8"/>
-        <v>921.75</v>
+        <v>822.75</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" ref="H43:BH43" si="13">H11*H$5</f>
@@ -10459,7 +10466,7 @@
       </c>
       <c r="AY43" s="1">
         <f t="shared" si="13"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="1">
         <f t="shared" si="13"/>
@@ -10537,7 +10544,7 @@
     <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <f t="shared" si="8"/>
-        <v>920.02499999999998</v>
+        <v>821.02499999999998</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" ref="H44:BH44" si="15">H12*H$5</f>
@@ -10713,7 +10720,7 @@
       </c>
       <c r="AY44" s="1">
         <f t="shared" si="15"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="1">
         <f t="shared" si="15"/>
@@ -10793,7 +10800,7 @@
       <c r="E45" s="1"/>
       <c r="G45" s="1">
         <f t="shared" si="8"/>
-        <v>925</v>
+        <v>827</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:BH45" si="17">H13*H$5</f>
@@ -10969,7 +10976,7 @@
       </c>
       <c r="AY45" s="1">
         <f t="shared" si="17"/>
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="1">
         <f t="shared" si="17"/>
@@ -11025,7 +11032,7 @@
       </c>
       <c r="BM45" s="1">
         <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="1">
         <f t="shared" si="18"/>
@@ -11049,7 +11056,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1">
         <f t="shared" si="8"/>
-        <v>902.25</v>
+        <v>803.25</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" ref="H46:BH46" si="19">H14*H$5</f>
@@ -11225,7 +11232,7 @@
       </c>
       <c r="AY46" s="1">
         <f t="shared" si="19"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="1">
         <f t="shared" si="19"/>
@@ -11305,7 +11312,7 @@
       <c r="E47" s="1"/>
       <c r="G47" s="1">
         <f t="shared" si="8"/>
-        <v>921.375</v>
+        <v>823.375</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" ref="H47:BH47" si="21">H15*H$5</f>
@@ -11481,7 +11488,7 @@
       </c>
       <c r="AY47" s="1">
         <f t="shared" si="21"/>
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="1">
         <f t="shared" si="21"/>
@@ -11537,7 +11544,7 @@
       </c>
       <c r="BM47" s="1">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="1">
         <f t="shared" si="22"/>
@@ -11561,7 +11568,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1">
         <f t="shared" si="8"/>
-        <v>920.65</v>
+        <v>821.65</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:BH48" si="23">H16*H$5</f>
@@ -11737,7 +11744,7 @@
       </c>
       <c r="AY48" s="1">
         <f t="shared" si="23"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="1">
         <f t="shared" si="23"/>
@@ -11817,7 +11824,7 @@
       <c r="E49" s="1"/>
       <c r="G49" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:BH49" si="25">H17*H$5</f>
@@ -11993,7 +12000,7 @@
       </c>
       <c r="AY49" s="1">
         <f t="shared" si="25"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="1">
         <f t="shared" si="25"/>
@@ -12073,7 +12080,7 @@
       <c r="E50" s="1"/>
       <c r="G50" s="1">
         <f t="shared" si="8"/>
-        <v>920.15</v>
+        <v>821.15</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" ref="H50:BH50" si="27">H18*H$5</f>
@@ -12249,7 +12256,7 @@
       </c>
       <c r="AY50" s="1">
         <f t="shared" si="27"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="1">
         <f t="shared" si="27"/>
@@ -12329,7 +12336,7 @@
       <c r="E51" s="1"/>
       <c r="G51" s="1">
         <f t="shared" si="8"/>
-        <v>918.15</v>
+        <v>819.15</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:BH51" si="29">H19*H$5</f>
@@ -12505,7 +12512,7 @@
       </c>
       <c r="AY51" s="1">
         <f t="shared" si="29"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ51" s="1">
         <f t="shared" si="29"/>
@@ -12585,7 +12592,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1">
         <f t="shared" si="8"/>
-        <v>901.25</v>
+        <v>802.25</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" ref="H52:BH52" si="31">H20*H$5</f>
@@ -12761,7 +12768,7 @@
       </c>
       <c r="AY52" s="1">
         <f t="shared" si="31"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="1">
         <f t="shared" si="31"/>
@@ -12841,7 +12848,7 @@
       <c r="E53" s="1"/>
       <c r="G53" s="1">
         <f t="shared" si="8"/>
-        <v>917.375</v>
+        <v>818.375</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" ref="H53:BH53" si="33">H21*H$5</f>
@@ -13017,7 +13024,7 @@
       </c>
       <c r="AY53" s="1">
         <f t="shared" si="33"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="1">
         <f t="shared" si="33"/>
@@ -13097,7 +13104,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1">
         <f t="shared" si="8"/>
-        <v>924.5</v>
+        <v>826.25</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" ref="H54:BH54" si="35">H22*H$5</f>
@@ -13273,7 +13280,7 @@
       </c>
       <c r="AY54" s="1">
         <f t="shared" si="35"/>
-        <v>99</v>
+        <v>0.75</v>
       </c>
       <c r="AZ54" s="1">
         <f t="shared" si="35"/>
@@ -13329,7 +13336,7 @@
       </c>
       <c r="BM54" s="1">
         <f t="shared" si="36"/>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="BN54" s="1">
         <f t="shared" si="36"/>
@@ -13353,7 +13360,7 @@
       <c r="E55" s="1"/>
       <c r="G55" s="1">
         <f t="shared" si="8"/>
-        <v>913.92499999999995</v>
+        <v>814.92499999999995</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" ref="H55:BH55" si="37">H23*H$5</f>
@@ -13529,7 +13536,7 @@
       </c>
       <c r="AY55" s="1">
         <f t="shared" si="37"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="1">
         <f t="shared" si="37"/>
@@ -13609,7 +13616,7 @@
       <c r="E56" s="1"/>
       <c r="G56" s="1">
         <f t="shared" si="8"/>
-        <v>915.82499999999993</v>
+        <v>816.82499999999993</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" ref="H56:BH56" si="39">H24*H$5</f>
@@ -13785,7 +13792,7 @@
       </c>
       <c r="AY56" s="1">
         <f t="shared" si="39"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="1">
         <f t="shared" si="39"/>
@@ -13865,7 +13872,7 @@
       <c r="E57" s="1"/>
       <c r="G57" s="1">
         <f t="shared" si="8"/>
-        <v>918.67499999999995</v>
+        <v>819.67499999999995</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:BH57" si="41">H25*H$5</f>
@@ -14041,7 +14048,7 @@
       </c>
       <c r="AY57" s="1">
         <f t="shared" si="41"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="1">
         <f t="shared" si="41"/>
@@ -14121,7 +14128,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1">
         <f t="shared" si="8"/>
-        <v>914.625</v>
+        <v>815.625</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" ref="H58:BH58" si="43">H26*H$5</f>
@@ -14297,7 +14304,7 @@
       </c>
       <c r="AY58" s="1">
         <f t="shared" si="43"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="1">
         <f t="shared" si="43"/>
@@ -14375,7 +14382,7 @@
     <row r="59" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <f t="shared" si="8"/>
-        <v>915.09999999999991</v>
+        <v>816.09999999999991</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" ref="H59:BH59" si="45">H27*H$5</f>
@@ -14551,7 +14558,7 @@
       </c>
       <c r="AY59" s="1">
         <f t="shared" si="45"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="1">
         <f t="shared" si="45"/>
@@ -14629,7 +14636,7 @@
     <row r="60" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <f t="shared" si="8"/>
-        <v>917.65</v>
+        <v>818.65</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" ref="H60:BH60" si="47">H28*H$5</f>
@@ -14805,7 +14812,7 @@
       </c>
       <c r="AY60" s="1">
         <f t="shared" si="47"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="1">
         <f t="shared" si="47"/>
@@ -14883,7 +14890,7 @@
     <row r="61" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G61" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" ref="H61:BH61" si="49">H29*H$5</f>
@@ -15059,7 +15066,7 @@
       </c>
       <c r="AY61" s="1">
         <f t="shared" si="49"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="1">
         <f t="shared" si="49"/>
@@ -15137,7 +15144,7 @@
     <row r="62" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G62" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" ref="H62:BH62" si="51">H30*H$5</f>
@@ -15313,7 +15320,7 @@
       </c>
       <c r="AY62" s="1">
         <f t="shared" si="51"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="1">
         <f t="shared" si="51"/>
@@ -15391,7 +15398,7 @@
     <row r="63" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" ref="H63:BH63" si="53">H31*H$5</f>
@@ -15567,7 +15574,7 @@
       </c>
       <c r="AY63" s="1">
         <f t="shared" si="53"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="1">
         <f t="shared" si="53"/>
@@ -15645,7 +15652,7 @@
     <row r="64" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G64" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" ref="H64:BH64" si="55">H32*H$5</f>
@@ -15821,7 +15828,7 @@
       </c>
       <c r="AY64" s="1">
         <f t="shared" si="55"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="1">
         <f t="shared" si="55"/>
@@ -15901,7 +15908,7 @@
       <c r="E65" s="1"/>
       <c r="G65" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ref="H65:BH65" si="57">H33*H$5</f>
@@ -16077,7 +16084,7 @@
       </c>
       <c r="AY65" s="1">
         <f t="shared" si="57"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="1">
         <f t="shared" si="57"/>
@@ -16157,7 +16164,7 @@
       <c r="E66" s="1"/>
       <c r="G66" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ref="H66:BH66" si="59">H34*H$5</f>
@@ -16333,7 +16340,7 @@
       </c>
       <c r="AY66" s="1">
         <f t="shared" si="59"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="1">
         <f t="shared" si="59"/>
@@ -16413,7 +16420,7 @@
       <c r="E67" s="1"/>
       <c r="G67" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:BH67" si="61">H35*H$5</f>
@@ -16589,7 +16596,7 @@
       </c>
       <c r="AY67" s="1">
         <f t="shared" si="61"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="1">
         <f t="shared" si="61"/>
@@ -16669,7 +16676,7 @@
       <c r="E68" s="1"/>
       <c r="G68" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" ref="H68:BH68" si="63">H36*H$5</f>
@@ -16845,7 +16852,7 @@
       </c>
       <c r="AY68" s="1">
         <f t="shared" si="63"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="1">
         <f t="shared" si="63"/>
@@ -16925,7 +16932,7 @@
       <c r="E69" s="1"/>
       <c r="G69" s="1">
         <f t="shared" si="8"/>
-        <v>891</v>
+        <v>792</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" ref="H69:BH69" si="65">H37*H$5</f>
@@ -17101,7 +17108,7 @@
       </c>
       <c r="AY69" s="1">
         <f t="shared" si="65"/>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="1">
         <f t="shared" si="65"/>
@@ -17453,7 +17460,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="1">
         <f t="shared" ref="G75:G104" si="69">SUM(H75:BL75)</f>
-        <v>107.5</v>
+        <v>183.25</v>
       </c>
       <c r="H75" s="1">
         <f>H9*H$6</f>
@@ -17497,11 +17504,11 @@
       </c>
       <c r="R75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T75" s="1">
         <f t="shared" si="70"/>
@@ -17513,7 +17520,7 @@
       </c>
       <c r="V75" s="1">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" si="70"/>
@@ -17545,7 +17552,7 @@
       </c>
       <c r="AD75" s="1">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" si="70"/>
@@ -17589,7 +17596,7 @@
       </c>
       <c r="AO75" s="1">
         <f t="shared" si="70"/>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="AP75" s="1">
         <f t="shared" si="70"/>
@@ -17601,27 +17608,27 @@
       </c>
       <c r="AR75" s="1">
         <f t="shared" si="70"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS75" s="1">
         <f t="shared" si="70"/>
-        <v>8.75</v>
+        <v>26.25</v>
       </c>
       <c r="AT75" s="1">
         <f t="shared" si="70"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AU75" s="1">
         <f t="shared" si="70"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW75" s="1">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX75" s="1">
         <f t="shared" si="70"/>
@@ -17669,11 +17676,11 @@
       </c>
       <c r="BI75" s="1">
         <f t="shared" si="70"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ75" s="1">
         <f t="shared" ref="BJ75:BQ75" si="71">BJ9*BJ$6</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK75" s="1">
         <f t="shared" si="71"/>
@@ -17709,7 +17716,7 @@
       <c r="E76" s="1"/>
       <c r="G76" s="1">
         <f t="shared" si="69"/>
-        <v>84.224999999999994</v>
+        <v>134.32499999999999</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ref="H76:BH76" si="72">H10*H$6</f>
@@ -17753,11 +17760,11 @@
       </c>
       <c r="R76" s="1">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S76" s="1">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" si="72"/>
@@ -17769,7 +17776,7 @@
       </c>
       <c r="V76" s="1">
         <f t="shared" si="72"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" si="72"/>
@@ -17801,7 +17808,7 @@
       </c>
       <c r="AD76" s="1">
         <f t="shared" si="72"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" si="72"/>
@@ -17857,15 +17864,15 @@
       </c>
       <c r="AR76" s="1">
         <f t="shared" si="72"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS76" s="1">
         <f t="shared" si="72"/>
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="AT76" s="1">
         <f t="shared" si="72"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU76" s="1">
         <f t="shared" si="72"/>
@@ -17877,7 +17884,7 @@
       </c>
       <c r="AW76" s="1">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX76" s="1">
         <f t="shared" si="72"/>
@@ -17885,7 +17892,7 @@
       </c>
       <c r="AY76" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AZ76" s="1">
         <f t="shared" si="72"/>
@@ -17925,11 +17932,11 @@
       </c>
       <c r="BI76" s="1">
         <f t="shared" ref="BI76:BQ76" si="73">BI10*BI$6</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="BJ76" s="1">
         <f t="shared" si="73"/>
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="BK76" s="1">
         <f t="shared" si="73"/>
@@ -17937,11 +17944,11 @@
       </c>
       <c r="BL76" s="1">
         <f t="shared" si="73"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM76" s="1">
         <f t="shared" si="73"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="BN76" s="1">
         <f t="shared" si="73"/>
@@ -17949,7 +17956,7 @@
       </c>
       <c r="BO76" s="1">
         <f t="shared" si="73"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP76" s="1">
         <f t="shared" si="73"/>
@@ -17965,7 +17972,7 @@
       <c r="E77" s="1"/>
       <c r="G77" s="1">
         <f t="shared" si="69"/>
-        <v>90.75</v>
+        <v>145.375</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ref="H77:BH77" si="74">H11*H$6</f>
@@ -18009,11 +18016,11 @@
       </c>
       <c r="R77" s="1">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S77" s="1">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T77" s="1">
         <f t="shared" si="74"/>
@@ -18025,7 +18032,7 @@
       </c>
       <c r="V77" s="1">
         <f t="shared" si="74"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="74"/>
@@ -18057,7 +18064,7 @@
       </c>
       <c r="AD77" s="1">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" si="74"/>
@@ -18101,7 +18108,7 @@
       </c>
       <c r="AO77" s="1">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP77" s="1">
         <f t="shared" si="74"/>
@@ -18113,15 +18120,15 @@
       </c>
       <c r="AR77" s="1">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS77" s="1">
         <f t="shared" si="74"/>
-        <v>6.25</v>
+        <v>18.75</v>
       </c>
       <c r="AT77" s="1">
         <f t="shared" si="74"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU77" s="1">
         <f t="shared" si="74"/>
@@ -18133,7 +18140,7 @@
       </c>
       <c r="AW77" s="1">
         <f t="shared" si="74"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX77" s="1">
         <f t="shared" si="74"/>
@@ -18181,11 +18188,11 @@
       </c>
       <c r="BI77" s="1">
         <f t="shared" ref="BI77:BQ77" si="75">BI11*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ77" s="1">
         <f t="shared" si="75"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK77" s="1">
         <f t="shared" si="75"/>
@@ -18193,7 +18200,7 @@
       </c>
       <c r="BL77" s="1">
         <f t="shared" si="75"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM77" s="1">
         <f t="shared" si="75"/>
@@ -18221,7 +18228,7 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1">
         <f t="shared" si="69"/>
-        <v>84.075000000000003</v>
+        <v>129.65</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ref="H78:BH78" si="76">H12*H$6</f>
@@ -18265,11 +18272,11 @@
       </c>
       <c r="R78" s="1">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S78" s="1">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" si="76"/>
@@ -18281,7 +18288,7 @@
       </c>
       <c r="V78" s="1">
         <f t="shared" si="76"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="76"/>
@@ -18313,7 +18320,7 @@
       </c>
       <c r="AD78" s="1">
         <f t="shared" si="76"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE78" s="1">
         <f t="shared" si="76"/>
@@ -18357,7 +18364,7 @@
       </c>
       <c r="AO78" s="1">
         <f t="shared" si="76"/>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="AP78" s="1">
         <f t="shared" si="76"/>
@@ -18369,15 +18376,15 @@
       </c>
       <c r="AR78" s="1">
         <f t="shared" si="76"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS78" s="1">
         <f t="shared" si="76"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="AT78" s="1">
         <f t="shared" si="76"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU78" s="1">
         <f t="shared" si="76"/>
@@ -18389,7 +18396,7 @@
       </c>
       <c r="AW78" s="1">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX78" s="1">
         <f t="shared" si="76"/>
@@ -18437,11 +18444,11 @@
       </c>
       <c r="BI78" s="1">
         <f t="shared" ref="BI78:BQ78" si="77">BI12*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ78" s="1">
         <f t="shared" si="77"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK78" s="1">
         <f t="shared" si="77"/>
@@ -18449,7 +18456,7 @@
       </c>
       <c r="BL78" s="1">
         <f t="shared" si="77"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM78" s="1">
         <f t="shared" si="77"/>
@@ -18461,7 +18468,7 @@
       </c>
       <c r="BO78" s="1">
         <f t="shared" si="77"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP78" s="1">
         <f t="shared" si="77"/>
@@ -18477,7 +18484,7 @@
       <c r="E79" s="1"/>
       <c r="G79" s="1">
         <f t="shared" si="69"/>
-        <v>104.25</v>
+        <v>184.75</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ref="H79:BH79" si="78">H13*H$6</f>
@@ -18521,11 +18528,11 @@
       </c>
       <c r="R79" s="1">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S79" s="1">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T79" s="1">
         <f t="shared" si="78"/>
@@ -18537,7 +18544,7 @@
       </c>
       <c r="V79" s="1">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="78"/>
@@ -18569,7 +18576,7 @@
       </c>
       <c r="AD79" s="1">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE79" s="1">
         <f t="shared" si="78"/>
@@ -18613,7 +18620,7 @@
       </c>
       <c r="AO79" s="1">
         <f t="shared" si="78"/>
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="AP79" s="1">
         <f t="shared" si="78"/>
@@ -18625,27 +18632,27 @@
       </c>
       <c r="AR79" s="1">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS79" s="1">
         <f t="shared" si="78"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AT79" s="1">
         <f t="shared" si="78"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU79" s="1">
         <f t="shared" si="78"/>
-        <v>7</v>
+        <v>13.125</v>
       </c>
       <c r="AV79" s="1">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AW79" s="1">
         <f t="shared" si="78"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX79" s="1">
         <f t="shared" si="78"/>
@@ -18653,7 +18660,7 @@
       </c>
       <c r="AY79" s="1">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ79" s="1">
         <f t="shared" si="78"/>
@@ -18693,11 +18700,11 @@
       </c>
       <c r="BI79" s="1">
         <f t="shared" ref="BI79:BQ79" si="79">BI13*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ79" s="1">
         <f t="shared" si="79"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK79" s="1">
         <f t="shared" si="79"/>
@@ -18705,11 +18712,11 @@
       </c>
       <c r="BL79" s="1">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM79" s="1">
         <f t="shared" si="79"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BN79" s="1">
         <f t="shared" si="79"/>
@@ -18717,7 +18724,7 @@
       </c>
       <c r="BO79" s="1">
         <f t="shared" si="79"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP79" s="1">
         <f t="shared" si="79"/>
@@ -18733,7 +18740,7 @@
       <c r="E80" s="1"/>
       <c r="G80" s="1">
         <f t="shared" si="69"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80:BH80" si="80">H14*H$6</f>
@@ -18869,7 +18876,7 @@
       </c>
       <c r="AO80" s="1">
         <f t="shared" si="80"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP80" s="1">
         <f t="shared" si="80"/>
@@ -18881,11 +18888,11 @@
       </c>
       <c r="AR80" s="1">
         <f t="shared" si="80"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS80" s="1">
         <f t="shared" si="80"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="AT80" s="1">
         <f t="shared" si="80"/>
@@ -18949,11 +18956,11 @@
       </c>
       <c r="BI80" s="1">
         <f t="shared" ref="BI80:BQ80" si="81">BI14*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ80" s="1">
         <f t="shared" si="81"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK80" s="1">
         <f t="shared" si="81"/>
@@ -18989,7 +18996,7 @@
       <c r="E81" s="1"/>
       <c r="G81" s="1">
         <f t="shared" si="69"/>
-        <v>97.25</v>
+        <v>163.875</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:BH81" si="82">H15*H$6</f>
@@ -19033,7 +19040,7 @@
       </c>
       <c r="R81" s="1">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S81" s="1">
         <f t="shared" si="82"/>
@@ -19049,7 +19056,7 @@
       </c>
       <c r="V81" s="1">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" si="82"/>
@@ -19081,7 +19088,7 @@
       </c>
       <c r="AD81" s="1">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE81" s="1">
         <f t="shared" si="82"/>
@@ -19125,7 +19132,7 @@
       </c>
       <c r="AO81" s="1">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP81" s="1">
         <f t="shared" si="82"/>
@@ -19137,15 +19144,15 @@
       </c>
       <c r="AR81" s="1">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS81" s="1">
         <f t="shared" si="82"/>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="AT81" s="1">
         <f t="shared" si="82"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU81" s="1">
         <f t="shared" si="82"/>
@@ -19157,7 +19164,7 @@
       </c>
       <c r="AW81" s="1">
         <f t="shared" si="82"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX81" s="1">
         <f t="shared" si="82"/>
@@ -19165,7 +19172,7 @@
       </c>
       <c r="AY81" s="1">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ81" s="1">
         <f t="shared" si="82"/>
@@ -19205,11 +19212,11 @@
       </c>
       <c r="BI81" s="1">
         <f t="shared" ref="BI81:BQ81" si="83">BI15*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ81" s="1">
         <f t="shared" si="83"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK81" s="1">
         <f t="shared" si="83"/>
@@ -19217,11 +19224,11 @@
       </c>
       <c r="BL81" s="1">
         <f t="shared" si="83"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM81" s="1">
         <f t="shared" si="83"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BN81" s="1">
         <f t="shared" si="83"/>
@@ -19245,7 +19252,7 @@
       <c r="E82" s="1"/>
       <c r="G82" s="1">
         <f t="shared" si="69"/>
-        <v>86.7</v>
+        <v>128.77500000000001</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ref="H82:BH82" si="84">H16*H$6</f>
@@ -19289,11 +19296,11 @@
       </c>
       <c r="R82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T82" s="1">
         <f t="shared" si="84"/>
@@ -19305,7 +19312,7 @@
       </c>
       <c r="V82" s="1">
         <f t="shared" si="84"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" si="84"/>
@@ -19337,7 +19344,7 @@
       </c>
       <c r="AD82" s="1">
         <f t="shared" si="84"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE82" s="1">
         <f t="shared" si="84"/>
@@ -19381,7 +19388,7 @@
       </c>
       <c r="AO82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP82" s="1">
         <f t="shared" si="84"/>
@@ -19393,15 +19400,15 @@
       </c>
       <c r="AR82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS82" s="1">
         <f t="shared" si="84"/>
-        <v>6.25</v>
+        <v>18.75</v>
       </c>
       <c r="AT82" s="1">
         <f t="shared" si="84"/>
-        <v>3.75</v>
+        <v>15.625</v>
       </c>
       <c r="AU82" s="1">
         <f t="shared" si="84"/>
@@ -19413,7 +19420,7 @@
       </c>
       <c r="AW82" s="1">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX82" s="1">
         <f t="shared" si="84"/>
@@ -19461,11 +19468,11 @@
       </c>
       <c r="BI82" s="1">
         <f t="shared" ref="BI82:BQ82" si="85">BI16*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ82" s="1">
         <f t="shared" si="85"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK82" s="1">
         <f t="shared" si="85"/>
@@ -19473,7 +19480,7 @@
       </c>
       <c r="BL82" s="1">
         <f t="shared" si="85"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM82" s="1">
         <f t="shared" si="85"/>
@@ -19753,7 +19760,7 @@
     <row r="84" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <f t="shared" si="69"/>
-        <v>89.575000000000003</v>
+        <v>143.65</v>
       </c>
       <c r="H84" s="1">
         <f t="shared" ref="H84:BH84" si="88">H18*H$6</f>
@@ -19797,7 +19804,7 @@
       </c>
       <c r="R84" s="1">
         <f t="shared" si="88"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S84" s="1">
         <f t="shared" si="88"/>
@@ -19813,7 +19820,7 @@
       </c>
       <c r="V84" s="1">
         <f t="shared" si="88"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="88"/>
@@ -19845,7 +19852,7 @@
       </c>
       <c r="AD84" s="1">
         <f t="shared" si="88"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE84" s="1">
         <f t="shared" si="88"/>
@@ -19889,7 +19896,7 @@
       </c>
       <c r="AO84" s="1">
         <f t="shared" si="88"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP84" s="1">
         <f t="shared" si="88"/>
@@ -19901,23 +19908,23 @@
       </c>
       <c r="AR84" s="1">
         <f t="shared" si="88"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS84" s="1">
         <f t="shared" si="88"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AT84" s="1">
         <f t="shared" si="88"/>
-        <v>3.75</v>
+        <v>15.625</v>
       </c>
       <c r="AU84" s="1">
         <f t="shared" si="88"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV84" s="1">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AW84" s="1">
         <f t="shared" si="88"/>
@@ -19969,11 +19976,11 @@
       </c>
       <c r="BI84" s="1">
         <f t="shared" ref="BI84:BQ84" si="89">BI18*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ84" s="1">
         <f t="shared" si="89"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK84" s="1">
         <f t="shared" si="89"/>
@@ -19993,7 +20000,7 @@
       </c>
       <c r="BO84" s="1">
         <f t="shared" si="89"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP84" s="1">
         <f t="shared" si="89"/>
@@ -20007,7 +20014,7 @@
     <row r="85" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <f t="shared" si="69"/>
-        <v>77.2</v>
+        <v>98.550000000000011</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" ref="H85:BH85" si="90">H19*H$6</f>
@@ -20051,11 +20058,11 @@
       </c>
       <c r="R85" s="1">
         <f t="shared" si="90"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S85" s="1">
         <f t="shared" si="90"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T85" s="1">
         <f t="shared" si="90"/>
@@ -20067,7 +20074,7 @@
       </c>
       <c r="V85" s="1">
         <f t="shared" si="90"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="90"/>
@@ -20099,7 +20106,7 @@
       </c>
       <c r="AD85" s="1">
         <f t="shared" si="90"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE85" s="1">
         <f t="shared" si="90"/>
@@ -20143,7 +20150,7 @@
       </c>
       <c r="AO85" s="1">
         <f t="shared" si="90"/>
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="AP85" s="1">
         <f t="shared" si="90"/>
@@ -20159,11 +20166,11 @@
       </c>
       <c r="AS85" s="1">
         <f t="shared" si="90"/>
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="AT85" s="1">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="AU85" s="1">
         <f t="shared" si="90"/>
@@ -20223,11 +20230,11 @@
       </c>
       <c r="BI85" s="1">
         <f t="shared" ref="BI85:BQ85" si="91">BI19*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ85" s="1">
         <f t="shared" si="91"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK85" s="1">
         <f t="shared" si="91"/>
@@ -20235,7 +20242,7 @@
       </c>
       <c r="BL85" s="1">
         <f t="shared" si="91"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM85" s="1">
         <f t="shared" si="91"/>
@@ -20247,7 +20254,7 @@
       </c>
       <c r="BO85" s="1">
         <f t="shared" si="91"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP85" s="1">
         <f t="shared" si="91"/>
@@ -20261,7 +20268,7 @@
     <row r="86" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
         <f t="shared" si="69"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H86" s="1">
         <f t="shared" ref="H86:BH86" si="92">H20*H$6</f>
@@ -20477,7 +20484,7 @@
       </c>
       <c r="BI86" s="1">
         <f t="shared" ref="BI86:BQ86" si="93">BI20*BI$6</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ86" s="1">
         <f t="shared" si="93"/>
@@ -20489,7 +20496,7 @@
       </c>
       <c r="BL86" s="1">
         <f t="shared" si="93"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM86" s="1">
         <f t="shared" si="93"/>
@@ -20515,7 +20522,7 @@
     <row r="87" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <f t="shared" si="69"/>
-        <v>76.099999999999994</v>
+        <v>98.95</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:BH87" si="94">H21*H$6</f>
@@ -20559,7 +20566,7 @@
       </c>
       <c r="R87" s="1">
         <f t="shared" si="94"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S87" s="1">
         <f t="shared" si="94"/>
@@ -20575,7 +20582,7 @@
       </c>
       <c r="V87" s="1">
         <f t="shared" si="94"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="94"/>
@@ -20607,7 +20614,7 @@
       </c>
       <c r="AD87" s="1">
         <f t="shared" si="94"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE87" s="1">
         <f t="shared" si="94"/>
@@ -20651,7 +20658,7 @@
       </c>
       <c r="AO87" s="1">
         <f t="shared" si="94"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AP87" s="1">
         <f t="shared" si="94"/>
@@ -20663,15 +20670,15 @@
       </c>
       <c r="AR87" s="1">
         <f t="shared" si="94"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS87" s="1">
         <f t="shared" si="94"/>
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="AT87" s="1">
         <f t="shared" si="94"/>
-        <v>1.5</v>
+        <v>6.25</v>
       </c>
       <c r="AU87" s="1">
         <f t="shared" si="94"/>
@@ -20731,11 +20738,11 @@
       </c>
       <c r="BI87" s="1">
         <f t="shared" ref="BI87:BQ87" si="95">BI21*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ87" s="1">
         <f t="shared" si="95"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK87" s="1">
         <f t="shared" si="95"/>
@@ -20743,7 +20750,7 @@
       </c>
       <c r="BL87" s="1">
         <f t="shared" si="95"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM87" s="1">
         <f t="shared" si="95"/>
@@ -20769,7 +20776,7 @@
     <row r="88" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <f t="shared" si="69"/>
-        <v>105.5</v>
+        <v>185.5</v>
       </c>
       <c r="H88" s="1">
         <f t="shared" ref="H88:BH88" si="96">H22*H$6</f>
@@ -20813,11 +20820,11 @@
       </c>
       <c r="R88" s="1">
         <f t="shared" si="96"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" si="96"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" si="96"/>
@@ -20829,7 +20836,7 @@
       </c>
       <c r="V88" s="1">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="96"/>
@@ -20861,7 +20868,7 @@
       </c>
       <c r="AD88" s="1">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE88" s="1">
         <f t="shared" si="96"/>
@@ -20905,7 +20912,7 @@
       </c>
       <c r="AO88" s="1">
         <f t="shared" si="96"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP88" s="1">
         <f t="shared" si="96"/>
@@ -20917,19 +20924,19 @@
       </c>
       <c r="AR88" s="1">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS88" s="1">
         <f t="shared" si="96"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AT88" s="1">
         <f t="shared" si="96"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AU88" s="1">
         <f t="shared" si="96"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV88" s="1">
         <f t="shared" si="96"/>
@@ -20937,7 +20944,7 @@
       </c>
       <c r="AW88" s="1">
         <f t="shared" si="96"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX88" s="1">
         <f t="shared" si="96"/>
@@ -20945,7 +20952,7 @@
       </c>
       <c r="AY88" s="1">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AZ88" s="1">
         <f t="shared" si="96"/>
@@ -20985,11 +20992,11 @@
       </c>
       <c r="BI88" s="1">
         <f t="shared" ref="BI88:BQ88" si="97">BI22*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ88" s="1">
         <f t="shared" si="97"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK88" s="1">
         <f t="shared" si="97"/>
@@ -20997,11 +21004,11 @@
       </c>
       <c r="BL88" s="1">
         <f t="shared" si="97"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM88" s="1">
         <f t="shared" si="97"/>
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="BN88" s="1">
         <f t="shared" si="97"/>
@@ -21023,7 +21030,7 @@
     <row r="89" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <f t="shared" si="69"/>
-        <v>67.300000000000011</v>
+        <v>95.275000000000006</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ref="H89:BH89" si="98">H23*H$6</f>
@@ -21083,7 +21090,7 @@
       </c>
       <c r="V89" s="1">
         <f t="shared" si="98"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" si="98"/>
@@ -21115,7 +21122,7 @@
       </c>
       <c r="AD89" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE89" s="1">
         <f t="shared" si="98"/>
@@ -21159,7 +21166,7 @@
       </c>
       <c r="AO89" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP89" s="1">
         <f t="shared" si="98"/>
@@ -21171,15 +21178,15 @@
       </c>
       <c r="AR89" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS89" s="1">
         <f t="shared" si="98"/>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="AT89" s="1">
         <f t="shared" si="98"/>
-        <v>3.75</v>
+        <v>15.625</v>
       </c>
       <c r="AU89" s="1">
         <f t="shared" si="98"/>
@@ -21239,11 +21246,11 @@
       </c>
       <c r="BI89" s="1">
         <f t="shared" ref="BI89:BQ89" si="99">BI23*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ89" s="1">
         <f t="shared" si="99"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK89" s="1">
         <f t="shared" si="99"/>
@@ -21251,7 +21258,7 @@
       </c>
       <c r="BL89" s="1">
         <f t="shared" si="99"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM89" s="1">
         <f t="shared" si="99"/>
@@ -21277,7 +21284,7 @@
     <row r="90" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <f t="shared" si="69"/>
-        <v>81.550000000000011</v>
+        <v>128.9</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ref="H90:BH90" si="100">H24*H$6</f>
@@ -21321,11 +21328,11 @@
       </c>
       <c r="R90" s="1">
         <f t="shared" si="100"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S90" s="1">
         <f t="shared" si="100"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" si="100"/>
@@ -21337,7 +21344,7 @@
       </c>
       <c r="V90" s="1">
         <f t="shared" si="100"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="100"/>
@@ -21369,7 +21376,7 @@
       </c>
       <c r="AD90" s="1">
         <f t="shared" si="100"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE90" s="1">
         <f t="shared" si="100"/>
@@ -21413,7 +21420,7 @@
       </c>
       <c r="AO90" s="1">
         <f t="shared" si="100"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP90" s="1">
         <f t="shared" si="100"/>
@@ -21425,15 +21432,15 @@
       </c>
       <c r="AR90" s="1">
         <f t="shared" si="100"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS90" s="1">
         <f t="shared" si="100"/>
-        <v>8.75</v>
+        <v>26.25</v>
       </c>
       <c r="AT90" s="1">
         <f t="shared" si="100"/>
-        <v>4.5</v>
+        <v>18.75</v>
       </c>
       <c r="AU90" s="1">
         <f t="shared" si="100"/>
@@ -21445,7 +21452,7 @@
       </c>
       <c r="AW90" s="1">
         <f t="shared" si="100"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX90" s="1">
         <f t="shared" si="100"/>
@@ -21493,11 +21500,11 @@
       </c>
       <c r="BI90" s="1">
         <f t="shared" ref="BI90:BQ90" si="101">BI24*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ90" s="1">
         <f t="shared" si="101"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK90" s="1">
         <f t="shared" si="101"/>
@@ -21505,7 +21512,7 @@
       </c>
       <c r="BL90" s="1">
         <f t="shared" si="101"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM90" s="1">
         <f t="shared" si="101"/>
@@ -21531,7 +21538,7 @@
     <row r="91" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <f t="shared" si="69"/>
-        <v>79.45</v>
+        <v>118.575</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ref="H91:BH91" si="102">H25*H$6</f>
@@ -21623,7 +21630,7 @@
       </c>
       <c r="AD91" s="1">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE91" s="1">
         <f t="shared" si="102"/>
@@ -21667,7 +21674,7 @@
       </c>
       <c r="AO91" s="1">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP91" s="1">
         <f t="shared" si="102"/>
@@ -21679,15 +21686,15 @@
       </c>
       <c r="AR91" s="1">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS91" s="1">
         <f t="shared" si="102"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AT91" s="1">
         <f t="shared" si="102"/>
-        <v>5.25</v>
+        <v>21.875</v>
       </c>
       <c r="AU91" s="1">
         <f t="shared" si="102"/>
@@ -21699,7 +21706,7 @@
       </c>
       <c r="AW91" s="1">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX91" s="1">
         <f t="shared" si="102"/>
@@ -21747,11 +21754,11 @@
       </c>
       <c r="BI91" s="1">
         <f t="shared" ref="BI91:BQ91" si="103">BI25*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ91" s="1">
         <f t="shared" si="103"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK91" s="1">
         <f t="shared" si="103"/>
@@ -21759,7 +21766,7 @@
       </c>
       <c r="BL91" s="1">
         <f t="shared" si="103"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM91" s="1">
         <f t="shared" si="103"/>
@@ -21785,7 +21792,7 @@
     <row r="92" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <f t="shared" si="69"/>
-        <v>68.5</v>
+        <v>94</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ref="H92:BH92" si="104">H26*H$6</f>
@@ -21829,7 +21836,7 @@
       </c>
       <c r="R92" s="1">
         <f t="shared" si="104"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S92" s="1">
         <f t="shared" si="104"/>
@@ -21845,7 +21852,7 @@
       </c>
       <c r="V92" s="1">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="104"/>
@@ -21877,7 +21884,7 @@
       </c>
       <c r="AD92" s="1">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE92" s="1">
         <f t="shared" si="104"/>
@@ -21933,15 +21940,15 @@
       </c>
       <c r="AR92" s="1">
         <f t="shared" si="104"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS92" s="1">
         <f t="shared" si="104"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="AT92" s="1">
         <f t="shared" si="104"/>
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="AU92" s="1">
         <f t="shared" si="104"/>
@@ -22001,11 +22008,11 @@
       </c>
       <c r="BI92" s="1">
         <f t="shared" ref="BI92:BQ92" si="105">BI26*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ92" s="1">
         <f t="shared" si="105"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK92" s="1">
         <f t="shared" si="105"/>
@@ -22039,7 +22046,7 @@
     <row r="93" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <f t="shared" si="69"/>
-        <v>71.7</v>
+        <v>106.575</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ref="H93:BH93" si="106">H27*H$6</f>
@@ -22131,7 +22138,7 @@
       </c>
       <c r="AD93" s="1">
         <f t="shared" si="106"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE93" s="1">
         <f t="shared" si="106"/>
@@ -22175,7 +22182,7 @@
       </c>
       <c r="AO93" s="1">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP93" s="1">
         <f t="shared" si="106"/>
@@ -22187,15 +22194,15 @@
       </c>
       <c r="AR93" s="1">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS93" s="1">
         <f t="shared" si="106"/>
-        <v>6.75</v>
+        <v>20.25</v>
       </c>
       <c r="AT93" s="1">
         <f t="shared" si="106"/>
-        <v>3.75</v>
+        <v>15.625</v>
       </c>
       <c r="AU93" s="1">
         <f t="shared" si="106"/>
@@ -22255,11 +22262,11 @@
       </c>
       <c r="BI93" s="1">
         <f t="shared" ref="BI93:BQ93" si="107">BI27*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ93" s="1">
         <f t="shared" si="107"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK93" s="1">
         <f t="shared" si="107"/>
@@ -22267,7 +22274,7 @@
       </c>
       <c r="BL93" s="1">
         <f t="shared" si="107"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM93" s="1">
         <f t="shared" si="107"/>
@@ -22279,7 +22286,7 @@
       </c>
       <c r="BO93" s="1">
         <f t="shared" si="107"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="BP93" s="1">
         <f t="shared" si="107"/>
@@ -22293,7 +22300,7 @@
     <row r="94" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <f t="shared" si="69"/>
-        <v>78.224999999999994</v>
+        <v>109.075</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ref="H94:BH94" si="108">H28*H$6</f>
@@ -22337,7 +22344,7 @@
       </c>
       <c r="R94" s="1">
         <f t="shared" si="108"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S94" s="1">
         <f t="shared" si="108"/>
@@ -22353,7 +22360,7 @@
       </c>
       <c r="V94" s="1">
         <f t="shared" si="108"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="108"/>
@@ -22385,7 +22392,7 @@
       </c>
       <c r="AD94" s="1">
         <f t="shared" si="108"/>
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE94" s="1">
         <f t="shared" si="108"/>
@@ -22429,7 +22436,7 @@
       </c>
       <c r="AO94" s="1">
         <f t="shared" si="108"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP94" s="1">
         <f t="shared" si="108"/>
@@ -22441,15 +22448,15 @@
       </c>
       <c r="AR94" s="1">
         <f t="shared" si="108"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AS94" s="1">
         <f t="shared" si="108"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="AT94" s="1">
         <f t="shared" si="108"/>
-        <v>4.5</v>
+        <v>18.75</v>
       </c>
       <c r="AU94" s="1">
         <f t="shared" si="108"/>
@@ -22509,11 +22516,11 @@
       </c>
       <c r="BI94" s="1">
         <f t="shared" ref="BI94:BQ94" si="109">BI28*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ94" s="1">
         <f t="shared" si="109"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BK94" s="1">
         <f t="shared" si="109"/>
@@ -22521,7 +22528,7 @@
       </c>
       <c r="BL94" s="1">
         <f t="shared" si="109"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM94" s="1">
         <f t="shared" si="109"/>
@@ -24833,7 +24840,7 @@
     <row r="104" spans="7:69" x14ac:dyDescent="0.25">
       <c r="G104" s="1">
         <f t="shared" si="69"/>
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="H104" s="1">
         <f t="shared" ref="H104:BH104" si="128">H38*H$6</f>
@@ -24877,11 +24884,11 @@
       </c>
       <c r="R104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T104" s="1">
         <f t="shared" si="128"/>
@@ -24893,7 +24900,7 @@
       </c>
       <c r="V104" s="1">
         <f t="shared" si="128"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" si="128"/>
@@ -24925,7 +24932,7 @@
       </c>
       <c r="AD104" s="1">
         <f t="shared" si="128"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE104" s="1">
         <f t="shared" si="128"/>
@@ -24969,7 +24976,7 @@
       </c>
       <c r="AO104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP104" s="1">
         <f t="shared" si="128"/>
@@ -24981,27 +24988,27 @@
       </c>
       <c r="AR104" s="1">
         <f t="shared" si="128"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AS104" s="1">
         <f t="shared" si="128"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AT104" s="1">
         <f t="shared" si="128"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AU104" s="1">
         <f t="shared" si="128"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AV104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW104" s="1">
         <f t="shared" si="128"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX104" s="1">
         <f t="shared" si="128"/>
@@ -25009,7 +25016,7 @@
       </c>
       <c r="AY104" s="1">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ104" s="1">
         <f t="shared" si="128"/>
@@ -25049,11 +25056,11 @@
       </c>
       <c r="BI104" s="1">
         <f t="shared" ref="BI104:BQ104" si="129">BI38*BI$6</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ104" s="1">
         <f t="shared" si="129"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK104" s="1">
         <f t="shared" si="129"/>
@@ -25061,7 +25068,7 @@
       </c>
       <c r="BL104" s="1">
         <f t="shared" si="129"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BM104" s="1">
         <f t="shared" si="129"/>
@@ -25073,7 +25080,7 @@
       </c>
       <c r="BO104" s="1">
         <f t="shared" si="129"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BP104" s="1">
         <f t="shared" si="129"/>
@@ -25183,67 +25190,106 @@
     <mergeCell ref="W8:AA8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E38">
-    <cfRule type="cellIs" dxfId="247" priority="309" operator="between">
+    <cfRule type="cellIs" dxfId="256" priority="318" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="310" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="319" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM9:BQ9 AZ9:BC9 S9:AG17 S19:AG37 W18:AG18 S38:BE38 AI9:AW37 H9:P9">
-    <cfRule type="cellIs" dxfId="245" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="307" operator="between">
+    <cfRule type="cellIs" dxfId="253" priority="316" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="308" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="317" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="242" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="303" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="295" operator="between">
+    <cfRule type="cellIs" dxfId="250" priority="304" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="296" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="305" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="239" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="289" operator="between">
+    <cfRule type="cellIs" dxfId="247" priority="298" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="299" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW9">
-    <cfRule type="cellIs" dxfId="236" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="277" operator="between">
+    <cfRule type="cellIs" dxfId="244" priority="286" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="278" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="287" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM23:BQ23 BM10:BQ12 BG38:BQ38 AZ10:BC12 AZ23:BC23 AZ24:BE37 BG24:BJ37 BL24:BQ37 H10:P12 H23:P38">
+    <cfRule type="cellIs" dxfId="242" priority="273" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="274" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="275" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="239" priority="270" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="271" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="272" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="236" priority="267" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="268" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="269" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
     <cfRule type="cellIs" dxfId="233" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25256,7 +25302,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
+  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
     <cfRule type="cellIs" dxfId="230" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25269,7 +25315,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK38">
+  <conditionalFormatting sqref="AX38">
     <cfRule type="cellIs" dxfId="227" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25282,7 +25328,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN10:AN12 AN23:AN38">
+  <conditionalFormatting sqref="V10:V12 V23:V37">
     <cfRule type="cellIs" dxfId="224" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25295,7 +25341,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW10:AW12 AW23:AW38">
+  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
     <cfRule type="cellIs" dxfId="221" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25308,7 +25354,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX38">
+  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
     <cfRule type="cellIs" dxfId="218" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25321,46 +25367,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12 V23:V37">
-    <cfRule type="cellIs" dxfId="215" priority="246" operator="equal">
+  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+    <cfRule type="cellIs" dxfId="215" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="247" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="241" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="242" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10:AG12 AG23:AG37">
-    <cfRule type="cellIs" dxfId="212" priority="243" operator="equal">
+  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+    <cfRule type="cellIs" dxfId="212" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="244" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="238" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="245" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="239" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:BA12 AZ23:BA32">
-    <cfRule type="cellIs" dxfId="209" priority="240" operator="equal">
+  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+    <cfRule type="cellIs" dxfId="209" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="241" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="235" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="242" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="236" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI10:AI12 AI23:AI37">
+  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
     <cfRule type="cellIs" dxfId="206" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25373,7 +25419,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9:AL12 AJ23:AL37">
+  <conditionalFormatting sqref="AZ33:BA37">
     <cfRule type="cellIs" dxfId="203" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25386,7 +25432,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ10:AQ12 AQ23:AQ37">
+  <conditionalFormatting sqref="AV9">
     <cfRule type="cellIs" dxfId="200" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25399,7 +25445,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB10:BB12 BB23:BB37">
+  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
     <cfRule type="cellIs" dxfId="197" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25412,7 +25458,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ33:BA37">
+  <conditionalFormatting sqref="BC9">
     <cfRule type="cellIs" dxfId="194" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25425,7 +25471,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV9">
+  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
     <cfRule type="cellIs" dxfId="191" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25438,33 +25484,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV10:AV12 AV23:AV38">
-    <cfRule type="cellIs" dxfId="188" priority="213" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="214" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="215" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC9">
-    <cfRule type="cellIs" dxfId="185" priority="210" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="211" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="212" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC10:BC12 BC23:BC27">
+  <conditionalFormatting sqref="H10:M12 H23:M37">
     <cfRule type="cellIs" dxfId="182" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25477,98 +25497,124 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:M12 H23:M37">
-    <cfRule type="cellIs" dxfId="173" priority="198" operator="equal">
+  <conditionalFormatting sqref="BM13:BQ22 AZ13:BC22 L19:P22 L13:P17 H13:M22">
+    <cfRule type="cellIs" dxfId="179" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="199" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="203" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="200" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM13:BQ22 AZ13:BC22 L19:P22 L13:P17 H13:M22">
-    <cfRule type="cellIs" dxfId="170" priority="193" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="194" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="195" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="204" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN13:AN22">
-    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="191" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="200" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="201" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW13:AW22">
-    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="197" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="198" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17 V19:V22">
-    <cfRule type="cellIs" dxfId="161" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="191" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="183" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="192" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AG22">
-    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ13:BA22">
-    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="185" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="186" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AI22">
+    <cfRule type="cellIs" dxfId="161" priority="178" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="179" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="180" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AL22">
+    <cfRule type="cellIs" dxfId="158" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="176" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="177" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13:AQ22">
+    <cfRule type="cellIs" dxfId="155" priority="172" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="173" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="174" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB13:BB22">
     <cfRule type="cellIs" dxfId="152" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25581,7 +25627,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13:AL22">
+  <conditionalFormatting sqref="AV13:AV22">
     <cfRule type="cellIs" dxfId="149" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25594,7 +25640,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13:AQ22">
+  <conditionalFormatting sqref="BC13:BC17">
     <cfRule type="cellIs" dxfId="146" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25607,20 +25653,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB13:BB22">
-    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="161" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="162" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV13:AV22">
+  <conditionalFormatting sqref="H13:M22">
     <cfRule type="cellIs" dxfId="140" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25633,7 +25666,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC13:BC17">
+  <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25646,7 +25679,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:M22">
+  <conditionalFormatting sqref="I10:I12 I23:I38">
+    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="152" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="153" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I22">
     <cfRule type="cellIs" dxfId="131" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25659,7 +25705,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="128" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25672,7 +25718,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I23:I38">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="125" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25685,7 +25731,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I22">
+  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
     <cfRule type="cellIs" dxfId="122" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25698,7 +25744,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
     <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25711,7 +25757,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
     <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25724,7 +25770,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BE9 BG9:BJ9 BL9">
+  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
     <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25737,7 +25783,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD10:BE12 BD23:BE23 BG23:BJ23 BG10:BJ12 BL10:BL12 BL23">
+  <conditionalFormatting sqref="Q9">
     <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25750,7 +25796,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE22 BG13:BJ22 BL13:BL22">
+  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
     <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25763,7 +25809,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD13:BE17 BG13:BJ17 BL13:BL17">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
     <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25776,7 +25822,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="R9">
     <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25789,7 +25835,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q38 Q10:Q12">
+  <conditionalFormatting sqref="R23:R38 R10:R12">
     <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25802,7 +25848,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q22">
+  <conditionalFormatting sqref="R13:R17 R19:R22">
     <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25815,7 +25861,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
+  <conditionalFormatting sqref="BF38">
     <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25828,46 +25874,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:R38 R10:R12">
-    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
+  <conditionalFormatting sqref="BK9">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R17 R19:R22">
-    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF38">
-    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
+  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25880,7 +25926,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="BK13:BK22">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25893,7 +25939,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK10:BK12 BK23:BK37">
+  <conditionalFormatting sqref="AX9 AX30:AY30">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25906,7 +25952,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX10:AX12 AX29:AY29 AX31:AY33 AX23:AX28">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25919,7 +25965,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK22">
+  <conditionalFormatting sqref="AX10:AX12 AX29:AY29 AX31:AY33 AX23:AX28">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25932,7 +25978,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AY9 AX30:AY30">
+  <conditionalFormatting sqref="AX13:AX22 AX34:AY37">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25945,7 +25991,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="AX13:AX22 AX34:AY37">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25958,7 +26004,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX10:AY12 AX23:AY29 AX31:AY33">
+  <conditionalFormatting sqref="N18:P18 S18:V18">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25971,7 +26017,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25984,7 +26030,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX13:AY22 AX34:AY37">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25997,7 +26043,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:P18 S18:V18">
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26010,7 +26056,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="AH9:AH37">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26023,7 +26069,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
+  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26036,7 +26082,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+  <conditionalFormatting sqref="AH13:AH22">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26049,7 +26095,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH37">
+  <conditionalFormatting sqref="BF9">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26062,7 +26108,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH10:AH12 AH23:AH37">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26075,7 +26121,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AH22">
+  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26088,7 +26134,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26101,7 +26147,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
+  <conditionalFormatting sqref="BF13:BF22">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26114,7 +26160,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF10:BF12 BF23:BF37">
+  <conditionalFormatting sqref="K9">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26127,7 +26173,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF22">
+  <conditionalFormatting sqref="K10:K12 K23:K37">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26140,7 +26186,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF13:BF22">
+  <conditionalFormatting sqref="K10:K12 K23:K37">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26153,7 +26199,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26166,7 +26212,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12 K23:K37">
+  <conditionalFormatting sqref="K13:K22">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26179,7 +26225,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12 K23:K37">
+  <conditionalFormatting sqref="AY9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26192,7 +26238,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
+  <conditionalFormatting sqref="AY10:AY12 AY23:AY28">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -26205,7 +26251,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K22">
+  <conditionalFormatting sqref="AY13:AY22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaAvanceTest2_KL16.xlsx
+++ b/BaremeJavaAvanceTest2_KL16.xlsx
@@ -3198,11 +3198,11 @@
   <dimension ref="A1:BQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2955" ySplit="3900" topLeftCell="P8" activePane="bottomLeft"/>
+      <pane xSplit="2955" ySplit="3900" topLeftCell="X8" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7:XFD7"/>
       <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="1" sqref="A21:XFD21 A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8:AF8"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="BM17" sqref="BM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5924,19 +5924,19 @@
       <c r="C17" s="48"/>
       <c r="D17" s="9">
         <f t="shared" si="2"/>
-        <v>344.3478260869565</v>
+        <v>353.91304347826087</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.4261083743842358</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75.375</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="5"/>
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="H17" s="53">
         <v>99</v>
@@ -5956,25 +5956,63 @@
       <c r="M17" s="53">
         <v>99</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
+      <c r="N17" s="47">
+        <v>1</v>
+      </c>
+      <c r="O17" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>1</v>
+      </c>
+      <c r="R17" s="47">
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <v>1</v>
+      </c>
+      <c r="U17" s="47">
+        <v>1</v>
+      </c>
+      <c r="V17" s="47">
+        <v>1</v>
+      </c>
+      <c r="W17" s="47">
+        <v>1</v>
+      </c>
+      <c r="X17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>0</v>
+      </c>
       <c r="AG17" s="47">
         <v>99</v>
       </c>
@@ -5993,23 +6031,45 @@
       <c r="AL17" s="47">
         <v>99</v>
       </c>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AP17" s="47"/>
+      <c r="AM17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="47">
+        <v>1</v>
+      </c>
       <c r="AQ17" s="47">
         <v>99</v>
       </c>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="47"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
+      <c r="AR17" s="47">
+        <v>0.125</v>
+      </c>
+      <c r="AS17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="47">
+        <v>0.125</v>
+      </c>
+      <c r="AU17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="47">
+        <v>0</v>
+      </c>
       <c r="AX17" s="47">
         <v>99</v>
       </c>
-      <c r="AY17" s="53"/>
+      <c r="AY17" s="53">
+        <v>0</v>
+      </c>
       <c r="AZ17" s="47">
         <v>99</v>
       </c>
@@ -6019,20 +6079,38 @@
       <c r="BB17" s="47">
         <v>99</v>
       </c>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="47"/>
-      <c r="BE17" s="47"/>
+      <c r="BC17" s="47">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="47">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="47">
+        <v>1</v>
+      </c>
       <c r="BF17" s="52">
         <v>99</v>
       </c>
-      <c r="BG17" s="47"/>
-      <c r="BH17" s="47"/>
-      <c r="BI17" s="47"/>
-      <c r="BJ17" s="47"/>
+      <c r="BG17" s="47">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="47">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="BJ17" s="47">
+        <v>0.5</v>
+      </c>
       <c r="BK17" s="47"/>
-      <c r="BL17" s="47"/>
+      <c r="BL17" s="47">
+        <v>0</v>
+      </c>
       <c r="BM17" s="47"/>
-      <c r="BN17" s="47"/>
+      <c r="BN17" s="47">
+        <v>0</v>
+      </c>
       <c r="BO17" s="47">
         <v>0</v>
       </c>
@@ -9556,47 +9634,47 @@
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>0.85526315789473684</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="O39" s="1">
         <f t="shared" si="6"/>
-        <v>0.96842105263157885</v>
+        <v>0.95749999999999991</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="6"/>
-        <v>0.84210526315789469</v>
+        <v>0.85</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="6"/>
-        <v>0.73157894736842111</v>
+        <v>0.745</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="6"/>
-        <v>0.67105263157894735</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="S39" s="1">
         <f t="shared" si="6"/>
-        <v>0.43421052631578949</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" si="6"/>
-        <v>0.86184210526315785</v>
+        <v>0.86875000000000002</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="6"/>
-        <v>0.90789473684210531</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="6"/>
-        <v>0.7131578947368421</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="W39" s="1">
         <f t="shared" si="6"/>
-        <v>0.85526315789473684</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" si="6"/>
-        <v>0.98684210526315785</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" si="6"/>
@@ -9604,23 +9682,23 @@
       </c>
       <c r="Z39" s="1">
         <f t="shared" si="6"/>
-        <v>0.68421052631578949</v>
+        <v>0.65</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="6"/>
-        <v>0.10526315789473684</v>
+        <v>0.1</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" si="6"/>
-        <v>0.91447368421052633</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="AC39" s="1">
         <f t="shared" si="6"/>
-        <v>0.90789473684210531</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="AD39" s="1">
         <f t="shared" si="6"/>
-        <v>0.78289473684210531</v>
+        <v>0.79375000000000007</v>
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="6"/>
@@ -9628,7 +9706,7 @@
       </c>
       <c r="AF39" s="1">
         <f t="shared" si="6"/>
-        <v>0.89473684210526316</v>
+        <v>0.85</v>
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="6"/>
@@ -9656,19 +9734,19 @@
       </c>
       <c r="AM39" s="1">
         <f t="shared" si="6"/>
-        <v>0.81447368421052635</v>
+        <v>0.82375000000000009</v>
       </c>
       <c r="AN39" s="1">
         <f t="shared" si="6"/>
-        <v>0.81315789473684219</v>
+        <v>0.82250000000000012</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="6"/>
-        <v>0.84210526315789469</v>
+        <v>0.85</v>
       </c>
       <c r="AP39" s="1">
         <f t="shared" si="6"/>
-        <v>0.82236842105263153</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="AQ39" s="1">
         <f t="shared" si="6"/>
@@ -9676,27 +9754,27 @@
       </c>
       <c r="AR39" s="1">
         <f t="shared" si="6"/>
-        <v>0.65789473684210531</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="AS39" s="1">
         <f t="shared" si="6"/>
-        <v>0.48947368421052634</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="AT39" s="1">
         <f t="shared" si="6"/>
-        <v>0.65789473684210531</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="AU39" s="1">
         <f t="shared" si="6"/>
-        <v>0.20394736842105263</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="AV39" s="1">
         <f t="shared" si="6"/>
-        <v>0.10526315789473684</v>
+        <v>0.1</v>
       </c>
       <c r="AW39" s="1">
         <f t="shared" si="6"/>
-        <v>0.52631578947368418</v>
+        <v>0.5</v>
       </c>
       <c r="AX39" s="1">
         <f t="shared" si="6"/>
@@ -9704,7 +9782,7 @@
       </c>
       <c r="AY39" s="1">
         <f t="shared" si="6"/>
-        <v>0.15789473684210525</v>
+        <v>0.15</v>
       </c>
       <c r="AZ39" s="1">
         <f t="shared" si="6"/>
@@ -9720,15 +9798,15 @@
       </c>
       <c r="BC39" s="1">
         <f t="shared" si="6"/>
-        <v>0.91447368421052633</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="BD39" s="1">
         <f t="shared" si="6"/>
-        <v>0.90131578947368418</v>
+        <v>0.90625</v>
       </c>
       <c r="BE39" s="1">
         <f t="shared" si="6"/>
-        <v>0.93421052631578949</v>
+        <v>0.9375</v>
       </c>
       <c r="BF39" s="1">
         <f t="shared" si="6"/>
@@ -9736,19 +9814,19 @@
       </c>
       <c r="BG39" s="1">
         <f t="shared" si="6"/>
-        <v>0.21052631578947367</v>
+        <v>0.2</v>
       </c>
       <c r="BH39" s="1">
         <f t="shared" si="6"/>
-        <v>0.89473684210526316</v>
+        <v>0.9</v>
       </c>
       <c r="BI39" s="1">
         <f t="shared" si="6"/>
-        <v>0.98026315789473684</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="BJ39" s="1">
         <f t="shared" ref="BJ39:BQ39" si="7">AVERAGE(BJ9:BJ35)</f>
-        <v>0.49342105263157893</v>
+        <v>0.49375000000000002</v>
       </c>
       <c r="BK39" s="1" t="e">
         <f t="shared" si="7"/>
@@ -9756,7 +9834,7 @@
       </c>
       <c r="BL39" s="1">
         <f t="shared" si="7"/>
-        <v>0.78947368421052633</v>
+        <v>0.75</v>
       </c>
       <c r="BM39" s="1" t="e">
         <f t="shared" si="7"/>
@@ -9764,7 +9842,7 @@
       </c>
       <c r="BN39" s="1">
         <f t="shared" si="7"/>
-        <v>6.5789473684210523E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="BO39" s="1">
         <f t="shared" si="7"/>
@@ -11824,7 +11902,7 @@
       <c r="E49" s="1"/>
       <c r="G49" s="1">
         <f t="shared" si="8"/>
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:BH49" si="25">H17*H$5</f>
@@ -11852,19 +11930,19 @@
       </c>
       <c r="N49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="25"/>
@@ -11876,11 +11954,11 @@
       </c>
       <c r="T49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="25"/>
@@ -11888,15 +11966,15 @@
       </c>
       <c r="W49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="25"/>
@@ -11908,19 +11986,19 @@
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="1">
         <f t="shared" si="25"/>
@@ -11952,19 +12030,19 @@
       </c>
       <c r="AM49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
         <f t="shared" si="25"/>
@@ -11972,7 +12050,7 @@
       </c>
       <c r="AR49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AS49" s="1">
         <f t="shared" si="25"/>
@@ -11980,7 +12058,7 @@
       </c>
       <c r="AT49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AU49" s="1">
         <f t="shared" si="25"/>
@@ -12016,15 +12094,15 @@
       </c>
       <c r="BC49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF49" s="1">
         <f t="shared" si="25"/>
@@ -12036,15 +12114,15 @@
       </c>
       <c r="BH49" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI49" s="1">
         <f t="shared" ref="BI49:BQ49" si="26">BI17*BI$5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ49" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK49" s="1">
         <f t="shared" si="26"/>
@@ -19506,7 +19584,7 @@
     <row r="83" spans="4:69" x14ac:dyDescent="0.25">
       <c r="G83" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>75.375</v>
       </c>
       <c r="H83" s="1">
         <f t="shared" ref="H83:BH83" si="86">H17*H$6</f>
@@ -19534,19 +19612,19 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R83" s="1">
         <f t="shared" si="86"/>
@@ -19558,27 +19636,27 @@
       </c>
       <c r="T83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" si="86"/>
@@ -19590,19 +19668,19 @@
       </c>
       <c r="AB83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF83" s="1">
         <f t="shared" si="86"/>
@@ -19634,19 +19712,19 @@
       </c>
       <c r="AM83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ83" s="1">
         <f t="shared" si="86"/>
@@ -19654,7 +19732,7 @@
       </c>
       <c r="AR83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AS83" s="1">
         <f t="shared" si="86"/>
@@ -19662,7 +19740,7 @@
       </c>
       <c r="AT83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="AU83" s="1">
         <f t="shared" si="86"/>
@@ -19698,15 +19776,15 @@
       </c>
       <c r="BC83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF83" s="1">
         <f t="shared" si="86"/>
@@ -19718,15 +19796,15 @@
       </c>
       <c r="BH83" s="1">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI83" s="1">
         <f t="shared" ref="BI83:BQ83" si="87">BI17*BI$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ83" s="1">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK83" s="1">
         <f t="shared" si="87"/>
